--- a/ExcelConfig/怪物表.xlsx
+++ b/ExcelConfig/怪物表.xlsx
@@ -20,7 +20,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="L3" authorId="0" shapeId="0">
+    <comment ref="M3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="41">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -203,6 +203,14 @@
   </si>
   <si>
     <t>DropID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Star</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兵星</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -658,13 +666,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="F8" sqref="F8"/>
+      <selection pane="bottomRight" activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -673,12 +681,12 @@
     <col min="2" max="2" width="12.88671875" style="2" customWidth="1"/>
     <col min="3" max="3" width="9" style="2"/>
     <col min="4" max="4" width="11.77734375" style="2" customWidth="1"/>
-    <col min="5" max="11" width="9" style="2"/>
-    <col min="12" max="12" width="16.33203125" style="2" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="2"/>
+    <col min="5" max="12" width="9" style="2"/>
+    <col min="13" max="13" width="16.33203125" style="2" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -698,34 +706,37 @@
         <v>29</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:16" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -751,28 +762,31 @@
         <v>8</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>14</v>
       </c>
       <c r="K2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" s="5" t="s">
         <v>8</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>14</v>
       </c>
       <c r="M2" s="5" t="s">
         <v>14</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="O2" s="5" t="s">
         <v>8</v>
       </c>
+      <c r="P2" s="5" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="3" spans="1:15" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -792,34 +806,37 @@
         <v>17</v>
       </c>
       <c r="G3" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="I3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="J3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="K3" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="L3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="M3" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="M3" s="6" t="s">
+      <c r="N3" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="N3" s="6" t="s">
+      <c r="O3" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="O3" s="6" t="s">
+      <c r="P3" s="6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B4" s="2">
         <v>1</v>
       </c>
@@ -827,7 +844,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B5" s="2">
         <v>2</v>
       </c>
@@ -838,7 +855,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:Q2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:R2">
       <formula1>"String,Int,DateTime,Float"</formula1>
     </dataValidation>
   </dataValidations>

--- a/ExcelConfig/怪物表.xlsx
+++ b/ExcelConfig/怪物表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="__Base" sheetId="2" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="43">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -77,14 +77,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>hero1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hero2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Int</t>
   </si>
   <si>
@@ -211,6 +203,22 @@
   </si>
   <si>
     <t>兵星</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猪无能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小猪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猴子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个石头里出来的东东</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -635,27 +643,27 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.77734375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="24.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24.5" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>11</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -672,21 +680,27 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="F12" sqref="F12"/>
+      <selection pane="bottomRight" activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.88671875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.875" style="2" customWidth="1"/>
     <col min="3" max="3" width="9" style="2"/>
-    <col min="4" max="4" width="11.77734375" style="2" customWidth="1"/>
-    <col min="5" max="12" width="9" style="2"/>
-    <col min="13" max="13" width="16.33203125" style="2" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="2"/>
+    <col min="4" max="4" width="11.75" style="2" customWidth="1"/>
+    <col min="5" max="5" width="23.25" style="2" customWidth="1"/>
+    <col min="6" max="9" width="9" style="2"/>
+    <col min="10" max="10" width="12.25" style="2" customWidth="1"/>
+    <col min="11" max="11" width="12.375" style="2" customWidth="1"/>
+    <col min="12" max="12" width="10.25" style="2" customWidth="1"/>
+    <col min="13" max="13" width="16.375" style="2" customWidth="1"/>
+    <col min="14" max="14" width="9" style="2"/>
+    <col min="15" max="15" width="10.75" style="2" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -697,96 +711,96 @@
         <v>4</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="O1" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>38</v>
-      </c>
     </row>
-    <row r="2" spans="1:16" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:16" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -797,59 +811,131 @@
         <v>5</v>
       </c>
       <c r="D3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="G3" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="I3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="H3" s="6" t="s">
+      <c r="J3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="K3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="L3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="M3" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="N3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="M3" s="6" t="s">
+      <c r="O3" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="N3" s="6" t="s">
+      <c r="P3" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="O3" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="P3" s="6" t="s">
-        <v>26</v>
-      </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
         <v>1</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>6</v>
+      <c r="C4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1</v>
+      </c>
+      <c r="G4" s="2">
+        <v>5</v>
+      </c>
+      <c r="H4" s="2">
+        <v>1000</v>
+      </c>
+      <c r="I4" s="2">
+        <v>200</v>
+      </c>
+      <c r="J4" s="2">
+        <v>100</v>
+      </c>
+      <c r="K4" s="2">
+        <v>100</v>
+      </c>
+      <c r="L4" s="2">
+        <v>4</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1012</v>
+      </c>
+      <c r="N4" s="2">
+        <v>2</v>
+      </c>
+      <c r="O4" s="2">
+        <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B5" s="2">
         <v>2</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>7</v>
+      <c r="C5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1</v>
+      </c>
+      <c r="G5" s="2">
+        <v>5</v>
+      </c>
+      <c r="H5" s="2">
+        <v>1000</v>
+      </c>
+      <c r="I5" s="2">
+        <v>200</v>
+      </c>
+      <c r="J5" s="2">
+        <v>100</v>
+      </c>
+      <c r="K5" s="2">
+        <v>100</v>
+      </c>
+      <c r="L5" s="2">
+        <v>4</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1112</v>
+      </c>
+      <c r="N5" s="2">
+        <v>2</v>
+      </c>
+      <c r="O5" s="2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelConfig/怪物表.xlsx
+++ b/ExcelConfig/怪物表.xlsx
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="45">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -219,6 +219,13 @@
   </si>
   <si>
     <t>一个石头里出来的东东</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>touxiang1</t>
+  </si>
+  <si>
+    <t>touxiang2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -680,7 +687,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="L15" sqref="L15"/>
+      <selection pane="bottomRight" activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -857,8 +864,8 @@
       <c r="C4" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="2">
-        <v>1</v>
+      <c r="D4" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>40</v>
@@ -867,7 +874,7 @@
         <v>1</v>
       </c>
       <c r="G4" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H4" s="2">
         <v>1000</v>
@@ -901,8 +908,8 @@
       <c r="C5" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="2">
-        <v>1</v>
+      <c r="D5" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>42</v>
@@ -911,7 +918,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H5" s="2">
         <v>1000</v>

--- a/ExcelConfig/怪物表.xlsx
+++ b/ExcelConfig/怪物表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="__Base" sheetId="2" r:id="rId1"/>
@@ -650,16 +650,16 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="24.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.77734375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24.44140625" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -687,27 +687,27 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="J13" sqref="J13"/>
+      <selection pane="bottomRight" activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.88671875" style="2" customWidth="1"/>
     <col min="3" max="3" width="9" style="2"/>
-    <col min="4" max="4" width="11.75" style="2" customWidth="1"/>
-    <col min="5" max="5" width="23.25" style="2" customWidth="1"/>
+    <col min="4" max="4" width="11.77734375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="23.21875" style="2" customWidth="1"/>
     <col min="6" max="9" width="9" style="2"/>
-    <col min="10" max="10" width="12.25" style="2" customWidth="1"/>
-    <col min="11" max="11" width="12.375" style="2" customWidth="1"/>
-    <col min="12" max="12" width="10.25" style="2" customWidth="1"/>
-    <col min="13" max="13" width="16.375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="12.21875" style="2" customWidth="1"/>
+    <col min="11" max="11" width="12.33203125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="10.21875" style="2" customWidth="1"/>
+    <col min="13" max="13" width="16.33203125" style="2" customWidth="1"/>
     <col min="14" max="14" width="9" style="2"/>
-    <col min="15" max="15" width="10.75" style="2" customWidth="1"/>
+    <col min="15" max="15" width="10.77734375" style="2" customWidth="1"/>
     <col min="16" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -757,7 +757,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -807,7 +807,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -857,7 +857,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" ht="16.2" x14ac:dyDescent="0.3">
       <c r="B4" s="2">
         <v>1</v>
       </c>
@@ -901,7 +901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" ht="16.2" x14ac:dyDescent="0.3">
       <c r="B5" s="2">
         <v>2</v>
       </c>
@@ -921,7 +921,7 @@
         <v>3</v>
       </c>
       <c r="H5" s="2">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="I5" s="2">
         <v>200</v>

--- a/ExcelConfig/怪物表.xlsx
+++ b/ExcelConfig/怪物表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
+    <workbookView xWindow="5565" yWindow="195" windowWidth="20190" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="__Base" sheetId="2" r:id="rId1"/>
     <sheet name="MonsterConfig" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -20,7 +20,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="M3" authorId="0" shapeId="0">
+    <comment ref="M3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="55">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -206,26 +206,67 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>猪无能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小猪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>猴子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一个石头里出来的东东</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>touxiang1</t>
-  </si>
-  <si>
-    <t>touxiang2</t>
+    <t>灵吉菩萨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如意真仙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>青狮道人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白骨精</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文殊菩萨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄袍怪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄风怪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金角</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>银角</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菩提老祖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>九尾狐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二郎神</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哪吒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谛听</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>混世小妖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红孩儿</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -358,7 +399,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -400,7 +441,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -435,7 +476,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -650,16 +691,16 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.77734375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="24.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24.5" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -681,33 +722,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P5"/>
+  <dimension ref="A1:P51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="J14" sqref="J14"/>
+      <selection pane="bottomRight" activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.88671875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.875" style="2" customWidth="1"/>
     <col min="3" max="3" width="9" style="2"/>
-    <col min="4" max="4" width="11.77734375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="23.21875" style="2" customWidth="1"/>
-    <col min="6" max="9" width="9" style="2"/>
-    <col min="10" max="10" width="12.21875" style="2" customWidth="1"/>
-    <col min="11" max="11" width="12.33203125" style="2" customWidth="1"/>
-    <col min="12" max="12" width="10.21875" style="2" customWidth="1"/>
-    <col min="13" max="13" width="16.33203125" style="2" customWidth="1"/>
-    <col min="14" max="14" width="9" style="2"/>
-    <col min="15" max="15" width="10.77734375" style="2" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="2"/>
+    <col min="4" max="4" width="11.75" style="2" customWidth="1"/>
+    <col min="5" max="12" width="9" style="2" customWidth="1"/>
+    <col min="13" max="13" width="16.375" style="2" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -757,7 +792,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:16" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -789,16 +824,16 @@
         <v>6</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="M2" s="5" t="s">
         <v>6</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="O2" s="5" t="s">
         <v>6</v>
@@ -807,7 +842,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -857,92 +892,1684 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
         <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="F4" s="2">
+        <v>4</v>
+      </c>
+      <c r="G4" s="2">
+        <v>1</v>
+      </c>
+      <c r="H4" s="2">
+        <v>6</v>
+      </c>
+      <c r="I4" s="2">
+        <v>10</v>
+      </c>
+      <c r="J4" s="2">
+        <v>8500</v>
+      </c>
+      <c r="L4" s="2">
+        <v>3</v>
+      </c>
+      <c r="M4" s="2">
+        <v>2000</v>
+      </c>
+      <c r="N4" s="2">
+        <v>15000</v>
+      </c>
+      <c r="O4" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B5" s="2">
+        <v>2</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="2">
+        <v>4</v>
+      </c>
+      <c r="G5" s="2">
+        <v>2</v>
+      </c>
+      <c r="H5" s="2">
+        <v>32</v>
+      </c>
+      <c r="I5" s="2">
+        <v>49</v>
+      </c>
+      <c r="J5" s="2">
+        <v>8500</v>
+      </c>
+      <c r="L5" s="2">
+        <v>3.2</v>
+      </c>
+      <c r="M5" s="2">
+        <v>2000</v>
+      </c>
+      <c r="N5" s="2">
+        <v>15000</v>
+      </c>
+      <c r="O5" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B6" s="2">
+        <v>3</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="2">
+        <v>4</v>
+      </c>
+      <c r="G6" s="2">
+        <v>3</v>
+      </c>
+      <c r="H6" s="2">
+        <v>160</v>
+      </c>
+      <c r="I6" s="2">
+        <v>237</v>
+      </c>
+      <c r="J6" s="2">
+        <v>8500</v>
+      </c>
+      <c r="L6" s="2">
+        <v>3.3000000000000003</v>
+      </c>
+      <c r="M6" s="2">
+        <v>2000</v>
+      </c>
+      <c r="N6" s="2">
+        <v>15000</v>
+      </c>
+      <c r="O6" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B7" s="2">
+        <v>4</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1</v>
+      </c>
+      <c r="G7" s="2">
+        <v>1</v>
+      </c>
+      <c r="H7" s="2">
+        <v>10</v>
+      </c>
+      <c r="I7" s="2">
+        <v>5</v>
+      </c>
+      <c r="J7" s="2">
+        <v>8500</v>
+      </c>
+      <c r="L7" s="2">
+        <v>4</v>
+      </c>
+      <c r="M7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="N7" s="2">
+        <v>15000</v>
+      </c>
+      <c r="O7" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B8" s="2">
+        <v>5</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="2">
+        <v>1</v>
+      </c>
+      <c r="G8" s="2">
+        <v>2</v>
+      </c>
+      <c r="H8" s="2">
+        <v>48</v>
+      </c>
+      <c r="I8" s="2">
+        <v>26</v>
+      </c>
+      <c r="J8" s="2">
+        <v>8500</v>
+      </c>
+      <c r="L8" s="2">
+        <v>4</v>
+      </c>
+      <c r="M8" s="2">
+        <v>2000</v>
+      </c>
+      <c r="N8" s="2">
+        <v>15000</v>
+      </c>
+      <c r="O8" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B9" s="2">
+        <v>6</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="2">
+        <v>1</v>
+      </c>
+      <c r="G9" s="2">
+        <v>3</v>
+      </c>
+      <c r="H9" s="2">
+        <v>240</v>
+      </c>
+      <c r="I9" s="2">
+        <v>118</v>
+      </c>
+      <c r="J9" s="2">
+        <v>8500</v>
+      </c>
+      <c r="L9" s="2">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="M9" s="2">
+        <v>2000</v>
+      </c>
+      <c r="N9" s="2">
+        <v>15000</v>
+      </c>
+      <c r="O9" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B10" s="2">
+        <v>7</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="2">
+        <v>2</v>
+      </c>
+      <c r="G10" s="2">
+        <v>1</v>
+      </c>
+      <c r="H10" s="2">
+        <v>7</v>
+      </c>
+      <c r="I10" s="2">
+        <v>9</v>
+      </c>
+      <c r="J10" s="2">
+        <v>8500</v>
+      </c>
+      <c r="L10" s="2">
+        <v>3.1</v>
+      </c>
+      <c r="M10" s="2">
+        <v>2000</v>
+      </c>
+      <c r="N10" s="2">
+        <v>15000</v>
+      </c>
+      <c r="O10" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B11" s="2">
+        <v>8</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="2">
+        <v>2</v>
+      </c>
+      <c r="G11" s="2">
+        <v>2</v>
+      </c>
+      <c r="H11" s="2">
+        <v>34</v>
+      </c>
+      <c r="I11" s="2">
+        <v>47</v>
+      </c>
+      <c r="J11" s="2">
+        <v>8500</v>
+      </c>
+      <c r="L11" s="2">
+        <v>3.1</v>
+      </c>
+      <c r="M11" s="2">
+        <v>2000</v>
+      </c>
+      <c r="N11" s="2">
+        <v>15000</v>
+      </c>
+      <c r="O11" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B12" s="2">
+        <v>9</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="2">
+        <v>2</v>
+      </c>
+      <c r="G12" s="2">
+        <v>3</v>
+      </c>
+      <c r="H12" s="2">
+        <v>172</v>
+      </c>
+      <c r="I12" s="2">
+        <v>227</v>
+      </c>
+      <c r="J12" s="2">
+        <v>8500</v>
+      </c>
+      <c r="L12" s="2">
+        <v>3.2</v>
+      </c>
+      <c r="M12" s="2">
+        <v>2000</v>
+      </c>
+      <c r="N12" s="2">
+        <v>15000</v>
+      </c>
+      <c r="O12" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B13" s="2">
+        <v>10</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13" s="2">
+        <v>3</v>
+      </c>
+      <c r="G13" s="2">
+        <v>1</v>
+      </c>
+      <c r="H13" s="2">
+        <v>5</v>
+      </c>
+      <c r="I13" s="2">
+        <v>15</v>
+      </c>
+      <c r="J13" s="2">
+        <v>8500</v>
+      </c>
+      <c r="L13" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="M13" s="2">
+        <v>2000</v>
+      </c>
+      <c r="N13" s="2">
+        <v>15000</v>
+      </c>
+      <c r="O13" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B14" s="2">
+        <v>11</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F14" s="2">
+        <v>3</v>
+      </c>
+      <c r="G14" s="2">
+        <v>2</v>
+      </c>
+      <c r="H14" s="2">
+        <v>26</v>
+      </c>
+      <c r="I14" s="2">
+        <v>76</v>
+      </c>
+      <c r="J14" s="2">
+        <v>8500</v>
+      </c>
+      <c r="L14" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="M14" s="2">
+        <v>2000</v>
+      </c>
+      <c r="N14" s="2">
+        <v>15000</v>
+      </c>
+      <c r="O14" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B15" s="2">
+        <v>12</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F15" s="2">
+        <v>3</v>
+      </c>
+      <c r="G15" s="2">
+        <v>3</v>
+      </c>
+      <c r="H15" s="2">
+        <v>132</v>
+      </c>
+      <c r="I15" s="2">
+        <v>338</v>
+      </c>
+      <c r="J15" s="2">
+        <v>8500</v>
+      </c>
+      <c r="L15" s="2">
+        <v>2.8000000000000003</v>
+      </c>
+      <c r="M15" s="2">
+        <v>2000</v>
+      </c>
+      <c r="N15" s="2">
+        <v>15000</v>
+      </c>
+      <c r="O15" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B16" s="2">
+        <v>13</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F16" s="2">
+        <v>4</v>
+      </c>
+      <c r="G16" s="2">
+        <v>1</v>
+      </c>
+      <c r="H16" s="2">
+        <v>6</v>
+      </c>
+      <c r="I16" s="2">
+        <v>17</v>
+      </c>
+      <c r="J16" s="2">
+        <v>8500</v>
+      </c>
+      <c r="L16" s="2">
+        <v>2</v>
+      </c>
+      <c r="M16" s="2">
+        <v>2000</v>
+      </c>
+      <c r="N16" s="2">
+        <v>15000</v>
+      </c>
+      <c r="O16" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B17" s="2">
+        <v>14</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" s="2">
+        <v>4</v>
+      </c>
+      <c r="G17" s="2">
+        <v>2</v>
+      </c>
+      <c r="H17" s="2">
+        <v>30</v>
+      </c>
+      <c r="I17" s="2">
+        <v>77</v>
+      </c>
+      <c r="J17" s="2">
+        <v>8500</v>
+      </c>
+      <c r="L17" s="2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="M17" s="2">
+        <v>2000</v>
+      </c>
+      <c r="N17" s="2">
+        <v>15000</v>
+      </c>
+      <c r="O17" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B18" s="2">
+        <v>15</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" s="2">
+        <v>4</v>
+      </c>
+      <c r="G18" s="2">
+        <v>3</v>
+      </c>
+      <c r="H18" s="2">
+        <v>148</v>
+      </c>
+      <c r="I18" s="2">
+        <v>352</v>
+      </c>
+      <c r="J18" s="2">
+        <v>8500</v>
+      </c>
+      <c r="L18" s="2">
+        <v>2.4</v>
+      </c>
+      <c r="M18" s="2">
+        <v>2000</v>
+      </c>
+      <c r="N18" s="2">
+        <v>15000</v>
+      </c>
+      <c r="O18" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B19" s="2">
+        <v>16</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" s="2">
+        <v>2</v>
+      </c>
+      <c r="G19" s="2">
+        <v>1</v>
+      </c>
+      <c r="H19" s="2">
+        <v>8</v>
+      </c>
+      <c r="I19" s="2">
+        <v>9</v>
+      </c>
+      <c r="J19" s="2">
+        <v>8500</v>
+      </c>
+      <c r="L19" s="2">
+        <v>3</v>
+      </c>
+      <c r="M19" s="2">
+        <v>2000</v>
+      </c>
+      <c r="N19" s="2">
+        <v>15000</v>
+      </c>
+      <c r="O19" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B20" s="2">
+        <v>17</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" s="2">
+        <v>2</v>
+      </c>
+      <c r="G20" s="2">
+        <v>2</v>
+      </c>
+      <c r="H20" s="2">
+        <v>38</v>
+      </c>
+      <c r="I20" s="2">
+        <v>44</v>
+      </c>
+      <c r="J20" s="2">
+        <v>8500</v>
+      </c>
+      <c r="L20" s="2">
+        <v>3</v>
+      </c>
+      <c r="M20" s="2">
+        <v>2000</v>
+      </c>
+      <c r="N20" s="2">
+        <v>15000</v>
+      </c>
+      <c r="O20" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B21" s="2">
+        <v>18</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" s="2">
+        <v>2</v>
+      </c>
+      <c r="G21" s="2">
+        <v>3</v>
+      </c>
+      <c r="H21" s="2">
+        <v>188</v>
+      </c>
+      <c r="I21" s="2">
+        <v>208</v>
+      </c>
+      <c r="J21" s="2">
+        <v>8500</v>
+      </c>
+      <c r="L21" s="2">
+        <v>3.2</v>
+      </c>
+      <c r="M21" s="2">
+        <v>2000</v>
+      </c>
+      <c r="N21" s="2">
+        <v>15000</v>
+      </c>
+      <c r="O21" s="2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B22" s="2">
+        <v>19</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F22" s="2">
+        <v>2</v>
+      </c>
+      <c r="G22" s="2">
+        <v>1</v>
+      </c>
+      <c r="H22" s="2">
+        <v>9</v>
+      </c>
+      <c r="I22" s="2">
+        <v>2</v>
+      </c>
+      <c r="J22" s="2">
+        <v>8500</v>
+      </c>
+      <c r="L22" s="2">
+        <v>11</v>
+      </c>
+      <c r="M22" s="2">
+        <v>2000</v>
+      </c>
+      <c r="N22" s="2">
+        <v>15000</v>
+      </c>
+      <c r="O22" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B23" s="2">
+        <v>20</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F23" s="2">
+        <v>2</v>
+      </c>
+      <c r="G23" s="2">
+        <v>2</v>
+      </c>
+      <c r="H23" s="2">
+        <v>44</v>
+      </c>
+      <c r="I23" s="2">
+        <v>10</v>
+      </c>
+      <c r="J23" s="2">
+        <v>8500</v>
+      </c>
+      <c r="L23" s="2">
+        <v>11</v>
+      </c>
+      <c r="M23" s="2">
+        <v>2000</v>
+      </c>
+      <c r="N23" s="2">
+        <v>15000</v>
+      </c>
+      <c r="O23" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B24" s="2">
+        <v>21</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F24" s="2">
+        <v>2</v>
+      </c>
+      <c r="G24" s="2">
+        <v>3</v>
+      </c>
+      <c r="H24" s="2">
+        <v>220</v>
+      </c>
+      <c r="I24" s="2">
+        <v>52</v>
+      </c>
+      <c r="J24" s="2">
+        <v>8500</v>
+      </c>
+      <c r="L24" s="2">
+        <v>11</v>
+      </c>
+      <c r="M24" s="2">
+        <v>2000</v>
+      </c>
+      <c r="N24" s="2">
+        <v>15000</v>
+      </c>
+      <c r="O24" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B25" s="2">
+        <v>22</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F25" s="2">
+        <v>2</v>
+      </c>
+      <c r="G25" s="2">
+        <v>1</v>
+      </c>
+      <c r="H25" s="2">
+        <v>8</v>
+      </c>
+      <c r="I25" s="2">
+        <v>6</v>
+      </c>
+      <c r="J25" s="2">
+        <v>8500</v>
+      </c>
+      <c r="L25" s="2">
+        <v>4</v>
+      </c>
+      <c r="M25" s="2">
+        <v>2000</v>
+      </c>
+      <c r="N25" s="2">
+        <v>15000</v>
+      </c>
+      <c r="O25" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B26" s="2">
+        <v>23</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F26" s="2">
+        <v>2</v>
+      </c>
+      <c r="G26" s="2">
+        <v>2</v>
+      </c>
+      <c r="H26" s="2">
+        <v>41</v>
+      </c>
+      <c r="I26" s="2">
+        <v>29</v>
+      </c>
+      <c r="J26" s="2">
+        <v>8500</v>
+      </c>
+      <c r="L26" s="2">
+        <v>4.2</v>
+      </c>
+      <c r="M26" s="2">
+        <v>2000</v>
+      </c>
+      <c r="N26" s="2">
+        <v>15000</v>
+      </c>
+      <c r="O26" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B27" s="2">
+        <v>24</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F27" s="2">
+        <v>2</v>
+      </c>
+      <c r="G27" s="2">
+        <v>3</v>
+      </c>
+      <c r="H27" s="2">
+        <v>204</v>
+      </c>
+      <c r="I27" s="2">
+        <v>139</v>
+      </c>
+      <c r="J27" s="2">
+        <v>8500</v>
+      </c>
+      <c r="L27" s="2">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="M27" s="2">
+        <v>2000</v>
+      </c>
+      <c r="N27" s="2">
+        <v>15000</v>
+      </c>
+      <c r="O27" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B28" s="2">
+        <v>25</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F28" s="2">
+        <v>2</v>
+      </c>
+      <c r="G28" s="2">
+        <v>1</v>
+      </c>
+      <c r="H28" s="2">
+        <v>8</v>
+      </c>
+      <c r="I28" s="2">
+        <v>11</v>
+      </c>
+      <c r="J28" s="2">
+        <v>8500</v>
+      </c>
+      <c r="L28" s="2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="M28" s="2">
+        <v>2000</v>
+      </c>
+      <c r="N28" s="2">
+        <v>15000</v>
+      </c>
+      <c r="O28" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B29" s="2">
+        <v>26</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F29" s="2">
+        <v>2</v>
+      </c>
+      <c r="G29" s="2">
+        <v>2</v>
+      </c>
+      <c r="H29" s="2">
+        <v>41</v>
+      </c>
+      <c r="I29" s="2">
+        <v>51</v>
+      </c>
+      <c r="J29" s="2">
+        <v>8500</v>
+      </c>
+      <c r="L29" s="2">
+        <v>2.4</v>
+      </c>
+      <c r="M29" s="2">
+        <v>2000</v>
+      </c>
+      <c r="N29" s="2">
+        <v>15000</v>
+      </c>
+      <c r="O29" s="2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B30" s="2">
+        <v>27</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F30" s="2">
+        <v>2</v>
+      </c>
+      <c r="G30" s="2">
+        <v>3</v>
+      </c>
+      <c r="H30" s="2">
+        <v>204</v>
+      </c>
+      <c r="I30" s="2">
+        <v>255</v>
+      </c>
+      <c r="J30" s="2">
+        <v>8500</v>
+      </c>
+      <c r="L30" s="2">
+        <v>2.4</v>
+      </c>
+      <c r="M30" s="2">
+        <v>2000</v>
+      </c>
+      <c r="N30" s="2">
+        <v>15000</v>
+      </c>
+      <c r="O30" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B31" s="2">
+        <v>28</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F31" s="2">
+        <v>4</v>
+      </c>
+      <c r="G31" s="2">
+        <v>1</v>
+      </c>
+      <c r="H31" s="2">
+        <v>7</v>
+      </c>
+      <c r="I31" s="2">
+        <v>10</v>
+      </c>
+      <c r="J31" s="2">
+        <v>8500</v>
+      </c>
+      <c r="L31" s="2">
+        <v>2.6</v>
+      </c>
+      <c r="M31" s="2">
+        <v>2000</v>
+      </c>
+      <c r="N31" s="2">
+        <v>15000</v>
+      </c>
+      <c r="O31" s="2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B32" s="2">
+        <v>29</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F32" s="2">
+        <v>4</v>
+      </c>
+      <c r="G32" s="2">
+        <v>2</v>
+      </c>
+      <c r="H32" s="2">
+        <v>37</v>
+      </c>
+      <c r="I32" s="2">
+        <v>49</v>
+      </c>
+      <c r="J32" s="2">
+        <v>8500</v>
+      </c>
+      <c r="L32" s="2">
+        <v>2.8000000000000003</v>
+      </c>
+      <c r="M32" s="2">
+        <v>2000</v>
+      </c>
+      <c r="N32" s="2">
+        <v>15000</v>
+      </c>
+      <c r="O32" s="2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B33" s="2">
+        <v>30</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F33" s="2">
+        <v>4</v>
+      </c>
+      <c r="G33" s="2">
+        <v>3</v>
+      </c>
+      <c r="H33" s="2">
+        <v>184</v>
+      </c>
+      <c r="I33" s="2">
+        <v>243</v>
+      </c>
+      <c r="J33" s="2">
+        <v>8500</v>
+      </c>
+      <c r="L33" s="2">
+        <v>2.8000000000000003</v>
+      </c>
+      <c r="M33" s="2">
+        <v>2000</v>
+      </c>
+      <c r="N33" s="2">
+        <v>15000</v>
+      </c>
+      <c r="O33" s="2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B34" s="2">
+        <v>31</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F34" s="2">
+        <v>2</v>
+      </c>
+      <c r="G34" s="2">
+        <v>1</v>
+      </c>
+      <c r="H34" s="2">
+        <v>11</v>
+      </c>
+      <c r="I34" s="2">
+        <v>5</v>
+      </c>
+      <c r="J34" s="2">
+        <v>8500</v>
+      </c>
+      <c r="L34" s="2">
+        <v>3.5999999999999996</v>
+      </c>
+      <c r="M34" s="2">
+        <v>2000</v>
+      </c>
+      <c r="N34" s="2">
+        <v>15000</v>
+      </c>
+      <c r="O34" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B35" s="2">
+        <v>32</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F35" s="2">
+        <v>2</v>
+      </c>
+      <c r="G35" s="2">
+        <v>2</v>
+      </c>
+      <c r="H35" s="2">
+        <v>56</v>
+      </c>
+      <c r="I35" s="2">
+        <v>22</v>
+      </c>
+      <c r="J35" s="2">
+        <v>8500</v>
+      </c>
+      <c r="L35" s="2">
+        <v>4</v>
+      </c>
+      <c r="M35" s="2">
+        <v>2000</v>
+      </c>
+      <c r="N35" s="2">
+        <v>15000</v>
+      </c>
+      <c r="O35" s="2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="36" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B36" s="2">
+        <v>33</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F36" s="2">
+        <v>2</v>
+      </c>
+      <c r="G36" s="2">
+        <v>3</v>
+      </c>
+      <c r="H36" s="2">
+        <v>280</v>
+      </c>
+      <c r="I36" s="2">
+        <v>101</v>
+      </c>
+      <c r="J36" s="2">
+        <v>8500</v>
+      </c>
+      <c r="L36" s="2">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="M36" s="2">
+        <v>2000</v>
+      </c>
+      <c r="N36" s="2">
+        <v>15000</v>
+      </c>
+      <c r="O36" s="2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B37" s="2">
+        <v>34</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F37" s="2">
+        <v>1</v>
+      </c>
+      <c r="G37" s="2">
+        <v>1</v>
+      </c>
+      <c r="H37" s="2">
+        <v>9</v>
+      </c>
+      <c r="I37" s="2">
+        <v>5</v>
+      </c>
+      <c r="J37" s="2">
+        <v>8500</v>
+      </c>
+      <c r="L37" s="2">
+        <v>4.2</v>
+      </c>
+      <c r="M37" s="2">
+        <v>2000</v>
+      </c>
+      <c r="N37" s="2">
+        <v>15000</v>
+      </c>
+      <c r="O37" s="2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="38" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B38" s="2">
+        <v>35</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F38" s="2">
+        <v>1</v>
+      </c>
+      <c r="G38" s="2">
+        <v>2</v>
+      </c>
+      <c r="H38" s="2">
+        <v>46</v>
+      </c>
+      <c r="I38" s="2">
+        <v>26</v>
+      </c>
+      <c r="J38" s="2">
+        <v>8500</v>
+      </c>
+      <c r="L38" s="2">
+        <v>4.2</v>
+      </c>
+      <c r="M38" s="2">
+        <v>2000</v>
+      </c>
+      <c r="N38" s="2">
+        <v>15000</v>
+      </c>
+      <c r="O38" s="2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B39" s="2">
+        <v>36</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F39" s="2">
+        <v>1</v>
+      </c>
+      <c r="G39" s="2">
+        <v>3</v>
+      </c>
+      <c r="H39" s="2">
+        <v>232</v>
+      </c>
+      <c r="I39" s="2">
+        <v>122</v>
+      </c>
+      <c r="J39" s="2">
+        <v>8500</v>
+      </c>
+      <c r="L39" s="2">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="M39" s="2">
+        <v>2000</v>
+      </c>
+      <c r="N39" s="2">
+        <v>15000</v>
+      </c>
+      <c r="O39" s="2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B40" s="2">
+        <v>37</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F40" s="2">
+        <v>1</v>
+      </c>
+      <c r="G40" s="2">
+        <v>1</v>
+      </c>
+      <c r="H40" s="2">
+        <v>8</v>
+      </c>
+      <c r="I40" s="2">
+        <v>6</v>
+      </c>
+      <c r="J40" s="2">
+        <v>8500</v>
+      </c>
+      <c r="L40" s="2">
+        <v>4</v>
+      </c>
+      <c r="M40" s="2">
+        <v>2000</v>
+      </c>
+      <c r="N40" s="2">
+        <v>15000</v>
+      </c>
+      <c r="O40" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B41" s="2">
+        <v>38</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F41" s="2">
+        <v>1</v>
+      </c>
+      <c r="G41" s="2">
+        <v>2</v>
+      </c>
+      <c r="H41" s="2">
+        <v>42</v>
+      </c>
+      <c r="I41" s="2">
+        <v>30</v>
+      </c>
+      <c r="J41" s="2">
+        <v>8500</v>
+      </c>
+      <c r="L41" s="2">
+        <v>4</v>
+      </c>
+      <c r="M41" s="2">
+        <v>2000</v>
+      </c>
+      <c r="N41" s="2">
+        <v>15000</v>
+      </c>
+      <c r="O41" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B42" s="2">
+        <v>39</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F42" s="2">
+        <v>1</v>
+      </c>
+      <c r="G42" s="2">
+        <v>3</v>
+      </c>
+      <c r="H42" s="2">
+        <v>208</v>
+      </c>
+      <c r="I42" s="2">
+        <v>150</v>
+      </c>
+      <c r="J42" s="2">
+        <v>8500</v>
+      </c>
+      <c r="L42" s="2">
+        <v>4</v>
+      </c>
+      <c r="M42" s="2">
+        <v>2000</v>
+      </c>
+      <c r="N42" s="2">
+        <v>15000</v>
+      </c>
+      <c r="O42" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B43" s="2">
         <v>40</v>
       </c>
-      <c r="F4" s="2">
-        <v>1</v>
-      </c>
-      <c r="G4" s="2">
-        <v>2</v>
-      </c>
-      <c r="H4" s="2">
-        <v>1000</v>
-      </c>
-      <c r="I4" s="2">
-        <v>200</v>
-      </c>
-      <c r="J4" s="2">
-        <v>100</v>
-      </c>
-      <c r="K4" s="2">
-        <v>100</v>
-      </c>
-      <c r="L4" s="2">
+      <c r="C43" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F43" s="2">
+        <v>3</v>
+      </c>
+      <c r="G43" s="2">
+        <v>1</v>
+      </c>
+      <c r="H43" s="2">
+        <v>7</v>
+      </c>
+      <c r="I43" s="2">
+        <v>14</v>
+      </c>
+      <c r="J43" s="2">
+        <v>8500</v>
+      </c>
+      <c r="L43" s="2">
+        <v>2</v>
+      </c>
+      <c r="M43" s="2">
+        <v>2000</v>
+      </c>
+      <c r="N43" s="2">
+        <v>15000</v>
+      </c>
+      <c r="O43" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B44" s="2">
+        <v>41</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F44" s="2">
+        <v>3</v>
+      </c>
+      <c r="G44" s="2">
+        <v>2</v>
+      </c>
+      <c r="H44" s="2">
+        <v>35</v>
+      </c>
+      <c r="I44" s="2">
+        <v>71</v>
+      </c>
+      <c r="J44" s="2">
+        <v>8500</v>
+      </c>
+      <c r="L44" s="2">
+        <v>2</v>
+      </c>
+      <c r="M44" s="2">
+        <v>2000</v>
+      </c>
+      <c r="N44" s="2">
+        <v>15000</v>
+      </c>
+      <c r="O44" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B45" s="2">
+        <v>42</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F45" s="2">
+        <v>3</v>
+      </c>
+      <c r="G45" s="2">
+        <v>3</v>
+      </c>
+      <c r="H45" s="2">
+        <v>176</v>
+      </c>
+      <c r="I45" s="2">
+        <v>323</v>
+      </c>
+      <c r="J45" s="2">
+        <v>8500</v>
+      </c>
+      <c r="L45" s="2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="M45" s="2">
+        <v>2000</v>
+      </c>
+      <c r="N45" s="2">
+        <v>15000</v>
+      </c>
+      <c r="O45" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B46" s="2">
+        <v>43</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F46" s="2">
+        <v>2</v>
+      </c>
+      <c r="G46" s="2">
+        <v>1</v>
+      </c>
+      <c r="H46" s="2">
+        <v>7</v>
+      </c>
+      <c r="I46" s="2">
         <v>4</v>
       </c>
-      <c r="M4" s="2">
-        <v>1012</v>
-      </c>
-      <c r="N4" s="2">
-        <v>2</v>
-      </c>
-      <c r="O4" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="B5" s="2">
-        <v>2</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" s="2" t="s">
+      <c r="J46" s="2">
+        <v>8500</v>
+      </c>
+      <c r="L46" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="M46" s="2">
+        <v>2000</v>
+      </c>
+      <c r="N46" s="2">
+        <v>15000</v>
+      </c>
+      <c r="O46" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B47" s="2">
         <v>44</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F5" s="2">
-        <v>1</v>
-      </c>
-      <c r="G5" s="2">
-        <v>3</v>
-      </c>
-      <c r="H5" s="2">
-        <v>2000</v>
-      </c>
-      <c r="I5" s="2">
-        <v>200</v>
-      </c>
-      <c r="J5" s="2">
-        <v>100</v>
-      </c>
-      <c r="K5" s="2">
-        <v>100</v>
-      </c>
-      <c r="L5" s="2">
-        <v>4</v>
-      </c>
-      <c r="M5" s="2">
-        <v>1112</v>
-      </c>
-      <c r="N5" s="2">
-        <v>2</v>
-      </c>
-      <c r="O5" s="2">
-        <v>1</v>
+      <c r="C47" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F47" s="2">
+        <v>2</v>
+      </c>
+      <c r="G47" s="2">
+        <v>2</v>
+      </c>
+      <c r="H47" s="2">
+        <v>36</v>
+      </c>
+      <c r="I47" s="2">
+        <v>21</v>
+      </c>
+      <c r="J47" s="2">
+        <v>8500</v>
+      </c>
+      <c r="L47" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="M47" s="2">
+        <v>2000</v>
+      </c>
+      <c r="N47" s="2">
+        <v>15000</v>
+      </c>
+      <c r="O47" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B48" s="2">
+        <v>45</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F48" s="2">
+        <v>2</v>
+      </c>
+      <c r="G48" s="2">
+        <v>3</v>
+      </c>
+      <c r="H48" s="2">
+        <v>180</v>
+      </c>
+      <c r="I48" s="2">
+        <v>107</v>
+      </c>
+      <c r="J48" s="2">
+        <v>8500</v>
+      </c>
+      <c r="L48" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="M48" s="2">
+        <v>2000</v>
+      </c>
+      <c r="N48" s="2">
+        <v>15000</v>
+      </c>
+      <c r="O48" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B49" s="2">
+        <v>46</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F49" s="2">
+        <v>1</v>
+      </c>
+      <c r="G49" s="2">
+        <v>1</v>
+      </c>
+      <c r="H49" s="2">
+        <v>6</v>
+      </c>
+      <c r="I49" s="2">
+        <v>12</v>
+      </c>
+      <c r="J49" s="2">
+        <v>8500</v>
+      </c>
+      <c r="L49" s="2">
+        <v>2.6</v>
+      </c>
+      <c r="M49" s="2">
+        <v>2000</v>
+      </c>
+      <c r="N49" s="2">
+        <v>15000</v>
+      </c>
+      <c r="O49" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="50" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B50" s="2">
+        <v>47</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F50" s="2">
+        <v>1</v>
+      </c>
+      <c r="G50" s="2">
+        <v>2</v>
+      </c>
+      <c r="H50" s="2">
+        <v>31</v>
+      </c>
+      <c r="I50" s="2">
+        <v>62</v>
+      </c>
+      <c r="J50" s="2">
+        <v>8500</v>
+      </c>
+      <c r="L50" s="2">
+        <v>2.6</v>
+      </c>
+      <c r="M50" s="2">
+        <v>2000</v>
+      </c>
+      <c r="N50" s="2">
+        <v>15000</v>
+      </c>
+      <c r="O50" s="2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="51" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B51" s="2">
+        <v>48</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F51" s="2">
+        <v>1</v>
+      </c>
+      <c r="G51" s="2">
+        <v>3</v>
+      </c>
+      <c r="H51" s="2">
+        <v>156</v>
+      </c>
+      <c r="I51" s="2">
+        <v>267</v>
+      </c>
+      <c r="J51" s="2">
+        <v>8500</v>
+      </c>
+      <c r="L51" s="2">
+        <v>3</v>
+      </c>
+      <c r="M51" s="2">
+        <v>2000</v>
+      </c>
+      <c r="N51" s="2">
+        <v>15000</v>
+      </c>
+      <c r="O51" s="2">
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelConfig/怪物表.xlsx
+++ b/ExcelConfig/怪物表.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="5565" yWindow="195" windowWidth="20190" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="5568" yWindow="192" windowWidth="20196" windowHeight="8016" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="__Base" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="M3" authorId="0">
+    <comment ref="M3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="56">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -268,6 +268,9 @@
   <si>
     <t>红孩儿</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>js_jiuweihu</t>
   </si>
 </sst>
 </file>
@@ -399,7 +402,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -441,7 +444,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -476,7 +479,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -691,16 +694,16 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="24.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.77734375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24.44140625" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -725,24 +728,25 @@
   <dimension ref="A1:P51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="R10" sqref="R10"/>
+      <selection pane="bottomRight" activeCell="R43" sqref="R43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="9" style="2"/>
-    <col min="4" max="4" width="11.75" style="2" customWidth="1"/>
-    <col min="5" max="12" width="9" style="2" customWidth="1"/>
-    <col min="13" max="13" width="16.375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.88671875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="23.5546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="46.33203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="20.5546875" style="2" customWidth="1"/>
+    <col min="6" max="12" width="9" style="2" customWidth="1"/>
+    <col min="13" max="13" width="16.33203125" style="2" customWidth="1"/>
     <col min="14" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -792,7 +796,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -842,7 +846,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -892,13 +896,16 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" ht="16.2" x14ac:dyDescent="0.3">
       <c r="B4" s="2">
         <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>39</v>
       </c>
+      <c r="D4" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="F4" s="2">
         <v>4</v>
       </c>
@@ -906,7 +913,7 @@
         <v>1</v>
       </c>
       <c r="H4" s="2">
-        <v>6</v>
+        <v>100000</v>
       </c>
       <c r="I4" s="2">
         <v>10</v>
@@ -927,13 +934,16 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" ht="16.2" x14ac:dyDescent="0.3">
       <c r="B5" s="2">
         <v>2</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>39</v>
       </c>
+      <c r="D5" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="F5" s="2">
         <v>4</v>
       </c>
@@ -941,7 +951,7 @@
         <v>2</v>
       </c>
       <c r="H5" s="2">
-        <v>32</v>
+        <v>100000</v>
       </c>
       <c r="I5" s="2">
         <v>49</v>
@@ -962,13 +972,16 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" ht="16.2" x14ac:dyDescent="0.3">
       <c r="B6" s="2">
         <v>3</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>39</v>
       </c>
+      <c r="D6" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="F6" s="2">
         <v>4</v>
       </c>
@@ -976,7 +989,7 @@
         <v>3</v>
       </c>
       <c r="H6" s="2">
-        <v>160</v>
+        <v>100000</v>
       </c>
       <c r="I6" s="2">
         <v>237</v>
@@ -997,13 +1010,16 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" ht="16.2" x14ac:dyDescent="0.3">
       <c r="B7" s="2">
         <v>4</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>40</v>
       </c>
+      <c r="D7" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="F7" s="2">
         <v>1</v>
       </c>
@@ -1011,7 +1027,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="2">
-        <v>10</v>
+        <v>100000</v>
       </c>
       <c r="I7" s="2">
         <v>5</v>
@@ -1032,13 +1048,16 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" ht="16.2" x14ac:dyDescent="0.3">
       <c r="B8" s="2">
         <v>5</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>40</v>
       </c>
+      <c r="D8" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="F8" s="2">
         <v>1</v>
       </c>
@@ -1046,7 +1065,7 @@
         <v>2</v>
       </c>
       <c r="H8" s="2">
-        <v>48</v>
+        <v>100000</v>
       </c>
       <c r="I8" s="2">
         <v>26</v>
@@ -1067,13 +1086,16 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" ht="16.2" x14ac:dyDescent="0.3">
       <c r="B9" s="2">
         <v>6</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>40</v>
       </c>
+      <c r="D9" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="F9" s="2">
         <v>1</v>
       </c>
@@ -1081,7 +1103,7 @@
         <v>3</v>
       </c>
       <c r="H9" s="2">
-        <v>240</v>
+        <v>100000</v>
       </c>
       <c r="I9" s="2">
         <v>118</v>
@@ -1102,13 +1124,16 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" ht="16.2" x14ac:dyDescent="0.3">
       <c r="B10" s="2">
         <v>7</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>41</v>
       </c>
+      <c r="D10" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="F10" s="2">
         <v>2</v>
       </c>
@@ -1116,7 +1141,7 @@
         <v>1</v>
       </c>
       <c r="H10" s="2">
-        <v>7</v>
+        <v>100000</v>
       </c>
       <c r="I10" s="2">
         <v>9</v>
@@ -1137,13 +1162,16 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" ht="16.2" x14ac:dyDescent="0.3">
       <c r="B11" s="2">
         <v>8</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>41</v>
       </c>
+      <c r="D11" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="F11" s="2">
         <v>2</v>
       </c>
@@ -1151,7 +1179,7 @@
         <v>2</v>
       </c>
       <c r="H11" s="2">
-        <v>34</v>
+        <v>100000</v>
       </c>
       <c r="I11" s="2">
         <v>47</v>
@@ -1172,13 +1200,16 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" ht="16.2" x14ac:dyDescent="0.3">
       <c r="B12" s="2">
         <v>9</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>41</v>
       </c>
+      <c r="D12" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="F12" s="2">
         <v>2</v>
       </c>
@@ -1186,7 +1217,7 @@
         <v>3</v>
       </c>
       <c r="H12" s="2">
-        <v>172</v>
+        <v>100000</v>
       </c>
       <c r="I12" s="2">
         <v>227</v>
@@ -1207,13 +1238,16 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" ht="16.2" x14ac:dyDescent="0.3">
       <c r="B13" s="2">
         <v>10</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>42</v>
       </c>
+      <c r="D13" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="F13" s="2">
         <v>3</v>
       </c>
@@ -1221,7 +1255,7 @@
         <v>1</v>
       </c>
       <c r="H13" s="2">
-        <v>5</v>
+        <v>100000</v>
       </c>
       <c r="I13" s="2">
         <v>15</v>
@@ -1242,13 +1276,16 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" ht="16.2" x14ac:dyDescent="0.3">
       <c r="B14" s="2">
         <v>11</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>42</v>
       </c>
+      <c r="D14" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="F14" s="2">
         <v>3</v>
       </c>
@@ -1256,7 +1293,7 @@
         <v>2</v>
       </c>
       <c r="H14" s="2">
-        <v>26</v>
+        <v>100000</v>
       </c>
       <c r="I14" s="2">
         <v>76</v>
@@ -1277,13 +1314,16 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" ht="16.2" x14ac:dyDescent="0.3">
       <c r="B15" s="2">
         <v>12</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>42</v>
       </c>
+      <c r="D15" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="F15" s="2">
         <v>3</v>
       </c>
@@ -1291,7 +1331,7 @@
         <v>3</v>
       </c>
       <c r="H15" s="2">
-        <v>132</v>
+        <v>100000</v>
       </c>
       <c r="I15" s="2">
         <v>338</v>
@@ -1312,13 +1352,16 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" ht="16.2" x14ac:dyDescent="0.3">
       <c r="B16" s="2">
         <v>13</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>43</v>
       </c>
+      <c r="D16" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="F16" s="2">
         <v>4</v>
       </c>
@@ -1326,7 +1369,7 @@
         <v>1</v>
       </c>
       <c r="H16" s="2">
-        <v>6</v>
+        <v>100000</v>
       </c>
       <c r="I16" s="2">
         <v>17</v>
@@ -1347,13 +1390,16 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:15" ht="16.2" x14ac:dyDescent="0.3">
       <c r="B17" s="2">
         <v>14</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>43</v>
       </c>
+      <c r="D17" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="F17" s="2">
         <v>4</v>
       </c>
@@ -1361,7 +1407,7 @@
         <v>2</v>
       </c>
       <c r="H17" s="2">
-        <v>30</v>
+        <v>100000</v>
       </c>
       <c r="I17" s="2">
         <v>77</v>
@@ -1382,13 +1428,16 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:15" ht="16.2" x14ac:dyDescent="0.3">
       <c r="B18" s="2">
         <v>15</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>43</v>
       </c>
+      <c r="D18" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="F18" s="2">
         <v>4</v>
       </c>
@@ -1396,7 +1445,7 @@
         <v>3</v>
       </c>
       <c r="H18" s="2">
-        <v>148</v>
+        <v>100000</v>
       </c>
       <c r="I18" s="2">
         <v>352</v>
@@ -1417,13 +1466,16 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:15" ht="16.2" x14ac:dyDescent="0.3">
       <c r="B19" s="2">
         <v>16</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>44</v>
       </c>
+      <c r="D19" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="F19" s="2">
         <v>2</v>
       </c>
@@ -1431,7 +1483,7 @@
         <v>1</v>
       </c>
       <c r="H19" s="2">
-        <v>8</v>
+        <v>100000</v>
       </c>
       <c r="I19" s="2">
         <v>9</v>
@@ -1452,13 +1504,16 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:15" ht="16.2" x14ac:dyDescent="0.3">
       <c r="B20" s="2">
         <v>17</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>44</v>
       </c>
+      <c r="D20" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="F20" s="2">
         <v>2</v>
       </c>
@@ -1466,7 +1521,7 @@
         <v>2</v>
       </c>
       <c r="H20" s="2">
-        <v>38</v>
+        <v>100000</v>
       </c>
       <c r="I20" s="2">
         <v>44</v>
@@ -1487,13 +1542,16 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:15" ht="16.2" x14ac:dyDescent="0.3">
       <c r="B21" s="2">
         <v>18</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>44</v>
       </c>
+      <c r="D21" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="F21" s="2">
         <v>2</v>
       </c>
@@ -1501,7 +1559,7 @@
         <v>3</v>
       </c>
       <c r="H21" s="2">
-        <v>188</v>
+        <v>100000</v>
       </c>
       <c r="I21" s="2">
         <v>208</v>
@@ -1522,13 +1580,16 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:15" ht="16.2" x14ac:dyDescent="0.3">
       <c r="B22" s="2">
         <v>19</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>45</v>
       </c>
+      <c r="D22" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="F22" s="2">
         <v>2</v>
       </c>
@@ -1536,7 +1597,7 @@
         <v>1</v>
       </c>
       <c r="H22" s="2">
-        <v>9</v>
+        <v>100000</v>
       </c>
       <c r="I22" s="2">
         <v>2</v>
@@ -1557,13 +1618,16 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:15" ht="16.2" x14ac:dyDescent="0.3">
       <c r="B23" s="2">
         <v>20</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>45</v>
       </c>
+      <c r="D23" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="F23" s="2">
         <v>2</v>
       </c>
@@ -1571,7 +1635,7 @@
         <v>2</v>
       </c>
       <c r="H23" s="2">
-        <v>44</v>
+        <v>100000</v>
       </c>
       <c r="I23" s="2">
         <v>10</v>
@@ -1592,13 +1656,16 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:15" ht="16.2" x14ac:dyDescent="0.3">
       <c r="B24" s="2">
         <v>21</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>45</v>
       </c>
+      <c r="D24" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="F24" s="2">
         <v>2</v>
       </c>
@@ -1606,7 +1673,7 @@
         <v>3</v>
       </c>
       <c r="H24" s="2">
-        <v>220</v>
+        <v>100000</v>
       </c>
       <c r="I24" s="2">
         <v>52</v>
@@ -1627,13 +1694,16 @@
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:15" ht="16.2" x14ac:dyDescent="0.3">
       <c r="B25" s="2">
         <v>22</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>46</v>
       </c>
+      <c r="D25" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="F25" s="2">
         <v>2</v>
       </c>
@@ -1641,7 +1711,7 @@
         <v>1</v>
       </c>
       <c r="H25" s="2">
-        <v>8</v>
+        <v>100000</v>
       </c>
       <c r="I25" s="2">
         <v>6</v>
@@ -1662,13 +1732,16 @@
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:15" ht="16.2" x14ac:dyDescent="0.3">
       <c r="B26" s="2">
         <v>23</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>46</v>
       </c>
+      <c r="D26" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="F26" s="2">
         <v>2</v>
       </c>
@@ -1676,7 +1749,7 @@
         <v>2</v>
       </c>
       <c r="H26" s="2">
-        <v>41</v>
+        <v>100000</v>
       </c>
       <c r="I26" s="2">
         <v>29</v>
@@ -1697,13 +1770,16 @@
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:15" ht="16.2" x14ac:dyDescent="0.3">
       <c r="B27" s="2">
         <v>24</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>46</v>
       </c>
+      <c r="D27" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="F27" s="2">
         <v>2</v>
       </c>
@@ -1711,7 +1787,7 @@
         <v>3</v>
       </c>
       <c r="H27" s="2">
-        <v>204</v>
+        <v>100000</v>
       </c>
       <c r="I27" s="2">
         <v>139</v>
@@ -1732,13 +1808,16 @@
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:15" ht="16.2" x14ac:dyDescent="0.3">
       <c r="B28" s="2">
         <v>25</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>47</v>
       </c>
+      <c r="D28" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="F28" s="2">
         <v>2</v>
       </c>
@@ -1746,7 +1825,7 @@
         <v>1</v>
       </c>
       <c r="H28" s="2">
-        <v>8</v>
+        <v>100000</v>
       </c>
       <c r="I28" s="2">
         <v>11</v>
@@ -1767,13 +1846,16 @@
         <v>46</v>
       </c>
     </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:15" ht="16.2" x14ac:dyDescent="0.3">
       <c r="B29" s="2">
         <v>26</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>47</v>
       </c>
+      <c r="D29" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="F29" s="2">
         <v>2</v>
       </c>
@@ -1781,7 +1863,7 @@
         <v>2</v>
       </c>
       <c r="H29" s="2">
-        <v>41</v>
+        <v>100000</v>
       </c>
       <c r="I29" s="2">
         <v>51</v>
@@ -1802,13 +1884,16 @@
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:15" ht="16.2" x14ac:dyDescent="0.3">
       <c r="B30" s="2">
         <v>27</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>47</v>
       </c>
+      <c r="D30" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="F30" s="2">
         <v>2</v>
       </c>
@@ -1816,7 +1901,7 @@
         <v>3</v>
       </c>
       <c r="H30" s="2">
-        <v>204</v>
+        <v>100</v>
       </c>
       <c r="I30" s="2">
         <v>255</v>
@@ -1837,13 +1922,16 @@
         <v>48</v>
       </c>
     </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:15" ht="16.2" x14ac:dyDescent="0.3">
       <c r="B31" s="2">
         <v>28</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>48</v>
       </c>
+      <c r="D31" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="F31" s="2">
         <v>4</v>
       </c>
@@ -1851,7 +1939,7 @@
         <v>1</v>
       </c>
       <c r="H31" s="2">
-        <v>7</v>
+        <v>100</v>
       </c>
       <c r="I31" s="2">
         <v>10</v>
@@ -1872,13 +1960,16 @@
         <v>51</v>
       </c>
     </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:15" ht="16.2" x14ac:dyDescent="0.3">
       <c r="B32" s="2">
         <v>29</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>48</v>
       </c>
+      <c r="D32" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="F32" s="2">
         <v>4</v>
       </c>
@@ -1886,7 +1977,7 @@
         <v>2</v>
       </c>
       <c r="H32" s="2">
-        <v>37</v>
+        <v>100</v>
       </c>
       <c r="I32" s="2">
         <v>49</v>
@@ -1907,13 +1998,16 @@
         <v>52</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:15" ht="16.2" x14ac:dyDescent="0.3">
       <c r="B33" s="2">
         <v>30</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>48</v>
       </c>
+      <c r="D33" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="F33" s="2">
         <v>4</v>
       </c>
@@ -1921,7 +2015,7 @@
         <v>3</v>
       </c>
       <c r="H33" s="2">
-        <v>184</v>
+        <v>100</v>
       </c>
       <c r="I33" s="2">
         <v>243</v>
@@ -1942,13 +2036,16 @@
         <v>53</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:15" ht="16.2" x14ac:dyDescent="0.3">
       <c r="B34" s="2">
         <v>31</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>49</v>
       </c>
+      <c r="D34" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="F34" s="2">
         <v>2</v>
       </c>
@@ -1956,7 +2053,7 @@
         <v>1</v>
       </c>
       <c r="H34" s="2">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="I34" s="2">
         <v>5</v>
@@ -1977,13 +2074,16 @@
         <v>56</v>
       </c>
     </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:15" ht="16.2" x14ac:dyDescent="0.3">
       <c r="B35" s="2">
         <v>32</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>49</v>
       </c>
+      <c r="D35" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="F35" s="2">
         <v>2</v>
       </c>
@@ -1991,7 +2091,7 @@
         <v>2</v>
       </c>
       <c r="H35" s="2">
-        <v>56</v>
+        <v>100</v>
       </c>
       <c r="I35" s="2">
         <v>22</v>
@@ -2012,13 +2112,16 @@
         <v>57</v>
       </c>
     </row>
-    <row r="36" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:15" ht="16.2" x14ac:dyDescent="0.3">
       <c r="B36" s="2">
         <v>33</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>49</v>
       </c>
+      <c r="D36" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="F36" s="2">
         <v>2</v>
       </c>
@@ -2026,7 +2129,7 @@
         <v>3</v>
       </c>
       <c r="H36" s="2">
-        <v>280</v>
+        <v>100</v>
       </c>
       <c r="I36" s="2">
         <v>101</v>
@@ -2047,13 +2150,16 @@
         <v>58</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:15" ht="16.2" x14ac:dyDescent="0.3">
       <c r="B37" s="2">
         <v>34</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>50</v>
       </c>
+      <c r="D37" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="F37" s="2">
         <v>1</v>
       </c>
@@ -2061,7 +2167,7 @@
         <v>1</v>
       </c>
       <c r="H37" s="2">
-        <v>9</v>
+        <v>100</v>
       </c>
       <c r="I37" s="2">
         <v>5</v>
@@ -2082,13 +2188,16 @@
         <v>66</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:15" ht="16.2" x14ac:dyDescent="0.3">
       <c r="B38" s="2">
         <v>35</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>50</v>
       </c>
+      <c r="D38" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="F38" s="2">
         <v>1</v>
       </c>
@@ -2096,7 +2205,7 @@
         <v>2</v>
       </c>
       <c r="H38" s="2">
-        <v>46</v>
+        <v>100</v>
       </c>
       <c r="I38" s="2">
         <v>26</v>
@@ -2117,13 +2226,16 @@
         <v>67</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:15" ht="16.2" x14ac:dyDescent="0.3">
       <c r="B39" s="2">
         <v>36</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>50</v>
       </c>
+      <c r="D39" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="F39" s="2">
         <v>1</v>
       </c>
@@ -2131,7 +2243,7 @@
         <v>3</v>
       </c>
       <c r="H39" s="2">
-        <v>232</v>
+        <v>100</v>
       </c>
       <c r="I39" s="2">
         <v>122</v>
@@ -2152,13 +2264,16 @@
         <v>68</v>
       </c>
     </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:15" ht="16.2" x14ac:dyDescent="0.3">
       <c r="B40" s="2">
         <v>37</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>51</v>
       </c>
+      <c r="D40" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="F40" s="2">
         <v>1</v>
       </c>
@@ -2166,7 +2281,7 @@
         <v>1</v>
       </c>
       <c r="H40" s="2">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="I40" s="2">
         <v>6</v>
@@ -2187,13 +2302,16 @@
         <v>71</v>
       </c>
     </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:15" ht="16.2" x14ac:dyDescent="0.3">
       <c r="B41" s="2">
         <v>38</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>51</v>
       </c>
+      <c r="D41" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="F41" s="2">
         <v>1</v>
       </c>
@@ -2201,7 +2319,7 @@
         <v>2</v>
       </c>
       <c r="H41" s="2">
-        <v>42</v>
+        <v>100</v>
       </c>
       <c r="I41" s="2">
         <v>30</v>
@@ -2222,13 +2340,16 @@
         <v>72</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:15" ht="16.2" x14ac:dyDescent="0.3">
       <c r="B42" s="2">
         <v>39</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>51</v>
       </c>
+      <c r="D42" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="F42" s="2">
         <v>1</v>
       </c>
@@ -2236,7 +2357,7 @@
         <v>3</v>
       </c>
       <c r="H42" s="2">
-        <v>208</v>
+        <v>100</v>
       </c>
       <c r="I42" s="2">
         <v>150</v>
@@ -2257,13 +2378,16 @@
         <v>73</v>
       </c>
     </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:15" ht="16.2" x14ac:dyDescent="0.3">
       <c r="B43" s="2">
         <v>40</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>52</v>
       </c>
+      <c r="D43" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="F43" s="2">
         <v>3</v>
       </c>
@@ -2271,7 +2395,7 @@
         <v>1</v>
       </c>
       <c r="H43" s="2">
-        <v>7</v>
+        <v>100</v>
       </c>
       <c r="I43" s="2">
         <v>14</v>
@@ -2292,13 +2416,16 @@
         <v>76</v>
       </c>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:15" ht="16.2" x14ac:dyDescent="0.3">
       <c r="B44" s="2">
         <v>41</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>52</v>
       </c>
+      <c r="D44" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="F44" s="2">
         <v>3</v>
       </c>
@@ -2306,7 +2433,7 @@
         <v>2</v>
       </c>
       <c r="H44" s="2">
-        <v>35</v>
+        <v>100</v>
       </c>
       <c r="I44" s="2">
         <v>71</v>
@@ -2327,13 +2454,16 @@
         <v>77</v>
       </c>
     </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:15" ht="16.2" x14ac:dyDescent="0.3">
       <c r="B45" s="2">
         <v>42</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>52</v>
       </c>
+      <c r="D45" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="F45" s="2">
         <v>3</v>
       </c>
@@ -2341,7 +2471,7 @@
         <v>3</v>
       </c>
       <c r="H45" s="2">
-        <v>176</v>
+        <v>100</v>
       </c>
       <c r="I45" s="2">
         <v>323</v>
@@ -2362,13 +2492,16 @@
         <v>78</v>
       </c>
     </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:15" ht="16.2" x14ac:dyDescent="0.3">
       <c r="B46" s="2">
         <v>43</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>53</v>
       </c>
+      <c r="D46" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="F46" s="2">
         <v>2</v>
       </c>
@@ -2376,7 +2509,7 @@
         <v>1</v>
       </c>
       <c r="H46" s="2">
-        <v>7</v>
+        <v>100</v>
       </c>
       <c r="I46" s="2">
         <v>4</v>
@@ -2397,13 +2530,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:15" ht="16.2" x14ac:dyDescent="0.3">
       <c r="B47" s="2">
         <v>44</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>53</v>
       </c>
+      <c r="D47" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="F47" s="2">
         <v>2</v>
       </c>
@@ -2411,7 +2547,7 @@
         <v>2</v>
       </c>
       <c r="H47" s="2">
-        <v>36</v>
+        <v>100</v>
       </c>
       <c r="I47" s="2">
         <v>21</v>
@@ -2432,13 +2568,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:15" ht="16.2" x14ac:dyDescent="0.3">
       <c r="B48" s="2">
         <v>45</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>53</v>
       </c>
+      <c r="D48" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="F48" s="2">
         <v>2</v>
       </c>
@@ -2446,7 +2585,7 @@
         <v>3</v>
       </c>
       <c r="H48" s="2">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="I48" s="2">
         <v>107</v>
@@ -2467,13 +2606,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:15" ht="16.2" x14ac:dyDescent="0.3">
       <c r="B49" s="2">
         <v>46</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>54</v>
       </c>
+      <c r="D49" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="F49" s="2">
         <v>1</v>
       </c>
@@ -2481,7 +2623,7 @@
         <v>1</v>
       </c>
       <c r="H49" s="2">
-        <v>6</v>
+        <v>100</v>
       </c>
       <c r="I49" s="2">
         <v>12</v>
@@ -2502,13 +2644,16 @@
         <v>61</v>
       </c>
     </row>
-    <row r="50" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:15" ht="16.2" x14ac:dyDescent="0.3">
       <c r="B50" s="2">
         <v>47</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>54</v>
       </c>
+      <c r="D50" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="F50" s="2">
         <v>1</v>
       </c>
@@ -2516,7 +2661,7 @@
         <v>2</v>
       </c>
       <c r="H50" s="2">
-        <v>31</v>
+        <v>100</v>
       </c>
       <c r="I50" s="2">
         <v>62</v>
@@ -2537,13 +2682,16 @@
         <v>62</v>
       </c>
     </row>
-    <row r="51" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:15" ht="16.2" x14ac:dyDescent="0.3">
       <c r="B51" s="2">
         <v>48</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>54</v>
       </c>
+      <c r="D51" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="F51" s="2">
         <v>1</v>
       </c>
@@ -2551,7 +2699,7 @@
         <v>3</v>
       </c>
       <c r="H51" s="2">
-        <v>156</v>
+        <v>100</v>
       </c>
       <c r="I51" s="2">
         <v>267</v>

--- a/ExcelConfig/怪物表.xlsx
+++ b/ExcelConfig/怪物表.xlsx
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="56">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -728,10 +728,10 @@
   <dimension ref="A1:P51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C30" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="R43" sqref="R43"/>
+      <selection pane="bottomRight" activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -913,7 +913,7 @@
         <v>1</v>
       </c>
       <c r="H4" s="2">
-        <v>100000</v>
+        <v>100</v>
       </c>
       <c r="I4" s="2">
         <v>10</v>
@@ -951,7 +951,7 @@
         <v>2</v>
       </c>
       <c r="H5" s="2">
-        <v>100000</v>
+        <v>100</v>
       </c>
       <c r="I5" s="2">
         <v>49</v>
@@ -989,7 +989,7 @@
         <v>3</v>
       </c>
       <c r="H6" s="2">
-        <v>100000</v>
+        <v>100</v>
       </c>
       <c r="I6" s="2">
         <v>237</v>
@@ -1027,7 +1027,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="2">
-        <v>100000</v>
+        <v>100</v>
       </c>
       <c r="I7" s="2">
         <v>5</v>
@@ -1065,7 +1065,7 @@
         <v>2</v>
       </c>
       <c r="H8" s="2">
-        <v>100000</v>
+        <v>100</v>
       </c>
       <c r="I8" s="2">
         <v>26</v>
@@ -1103,7 +1103,7 @@
         <v>3</v>
       </c>
       <c r="H9" s="2">
-        <v>100000</v>
+        <v>100</v>
       </c>
       <c r="I9" s="2">
         <v>118</v>
@@ -1141,7 +1141,7 @@
         <v>1</v>
       </c>
       <c r="H10" s="2">
-        <v>100000</v>
+        <v>100</v>
       </c>
       <c r="I10" s="2">
         <v>9</v>
@@ -1179,7 +1179,7 @@
         <v>2</v>
       </c>
       <c r="H11" s="2">
-        <v>100000</v>
+        <v>100</v>
       </c>
       <c r="I11" s="2">
         <v>47</v>
@@ -1217,7 +1217,7 @@
         <v>3</v>
       </c>
       <c r="H12" s="2">
-        <v>100000</v>
+        <v>100</v>
       </c>
       <c r="I12" s="2">
         <v>227</v>
@@ -1255,7 +1255,7 @@
         <v>1</v>
       </c>
       <c r="H13" s="2">
-        <v>100000</v>
+        <v>100</v>
       </c>
       <c r="I13" s="2">
         <v>15</v>
@@ -1293,7 +1293,7 @@
         <v>2</v>
       </c>
       <c r="H14" s="2">
-        <v>100000</v>
+        <v>100</v>
       </c>
       <c r="I14" s="2">
         <v>76</v>
@@ -1331,7 +1331,7 @@
         <v>3</v>
       </c>
       <c r="H15" s="2">
-        <v>100000</v>
+        <v>100</v>
       </c>
       <c r="I15" s="2">
         <v>338</v>
@@ -1369,7 +1369,7 @@
         <v>1</v>
       </c>
       <c r="H16" s="2">
-        <v>100000</v>
+        <v>100</v>
       </c>
       <c r="I16" s="2">
         <v>17</v>
@@ -1407,7 +1407,7 @@
         <v>2</v>
       </c>
       <c r="H17" s="2">
-        <v>100000</v>
+        <v>100</v>
       </c>
       <c r="I17" s="2">
         <v>77</v>
@@ -1445,7 +1445,7 @@
         <v>3</v>
       </c>
       <c r="H18" s="2">
-        <v>100000</v>
+        <v>100</v>
       </c>
       <c r="I18" s="2">
         <v>352</v>
@@ -1483,7 +1483,7 @@
         <v>1</v>
       </c>
       <c r="H19" s="2">
-        <v>100000</v>
+        <v>100</v>
       </c>
       <c r="I19" s="2">
         <v>9</v>
@@ -1521,7 +1521,7 @@
         <v>2</v>
       </c>
       <c r="H20" s="2">
-        <v>100000</v>
+        <v>100</v>
       </c>
       <c r="I20" s="2">
         <v>44</v>
@@ -1559,7 +1559,7 @@
         <v>3</v>
       </c>
       <c r="H21" s="2">
-        <v>100000</v>
+        <v>100</v>
       </c>
       <c r="I21" s="2">
         <v>208</v>
@@ -1597,7 +1597,7 @@
         <v>1</v>
       </c>
       <c r="H22" s="2">
-        <v>100000</v>
+        <v>100</v>
       </c>
       <c r="I22" s="2">
         <v>2</v>
@@ -1635,7 +1635,7 @@
         <v>2</v>
       </c>
       <c r="H23" s="2">
-        <v>100000</v>
+        <v>100</v>
       </c>
       <c r="I23" s="2">
         <v>10</v>
@@ -1673,7 +1673,7 @@
         <v>3</v>
       </c>
       <c r="H24" s="2">
-        <v>100000</v>
+        <v>100</v>
       </c>
       <c r="I24" s="2">
         <v>52</v>
@@ -1711,7 +1711,7 @@
         <v>1</v>
       </c>
       <c r="H25" s="2">
-        <v>100000</v>
+        <v>100</v>
       </c>
       <c r="I25" s="2">
         <v>6</v>
@@ -1749,7 +1749,7 @@
         <v>2</v>
       </c>
       <c r="H26" s="2">
-        <v>100000</v>
+        <v>100</v>
       </c>
       <c r="I26" s="2">
         <v>29</v>
@@ -1787,7 +1787,7 @@
         <v>3</v>
       </c>
       <c r="H27" s="2">
-        <v>100000</v>
+        <v>100</v>
       </c>
       <c r="I27" s="2">
         <v>139</v>
@@ -1825,7 +1825,7 @@
         <v>1</v>
       </c>
       <c r="H28" s="2">
-        <v>100000</v>
+        <v>100</v>
       </c>
       <c r="I28" s="2">
         <v>11</v>
@@ -1863,7 +1863,7 @@
         <v>2</v>
       </c>
       <c r="H29" s="2">
-        <v>100000</v>
+        <v>100</v>
       </c>
       <c r="I29" s="2">
         <v>51</v>

--- a/ExcelConfig/怪物表.xlsx
+++ b/ExcelConfig/怪物表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="5568" yWindow="192" windowWidth="20196" windowHeight="8016" activeTab="1"/>
+    <workbookView xWindow="5565" yWindow="195" windowWidth="20190" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="__Base" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="M3" authorId="0" shapeId="0">
+    <comment ref="N3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="58">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -271,6 +271,14 @@
   </si>
   <si>
     <t>js_jiuweihu</t>
+  </si>
+  <si>
+    <t>Level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -694,16 +702,16 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.77734375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="24.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24.5" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -725,28 +733,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P51"/>
+  <dimension ref="A1:Q51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="K9" sqref="K9"/>
+      <selection pane="bottomRight" activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.88671875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="23.5546875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="46.33203125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="20.5546875" style="2" customWidth="1"/>
-    <col min="6" max="12" width="9" style="2" customWidth="1"/>
-    <col min="13" max="13" width="16.33203125" style="2" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="2"/>
+    <col min="2" max="2" width="12.875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="23.5" style="2" customWidth="1"/>
+    <col min="4" max="5" width="46.375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="20.5" style="2" customWidth="1"/>
+    <col min="7" max="13" width="9" style="2" customWidth="1"/>
+    <col min="14" max="14" width="16.375" style="2" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -760,43 +768,46 @@
         <v>25</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -810,10 +821,10 @@
         <v>7</v>
       </c>
       <c r="E2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>7</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>6</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>6</v>
@@ -828,13 +839,13 @@
         <v>6</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="L2" s="5" t="s">
         <v>12</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="N2" s="5" t="s">
         <v>6</v>
@@ -845,8 +856,11 @@
       <c r="P2" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="Q2" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -860,43 +874,46 @@
         <v>13</v>
       </c>
       <c r="E3" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="G3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="H3" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="I3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="J3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="K3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="L3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="M3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="M3" s="6" t="s">
+      <c r="N3" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="N3" s="6" t="s">
+      <c r="O3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="O3" s="6" t="s">
+      <c r="P3" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="P3" s="6" t="s">
+      <c r="Q3" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
         <v>1</v>
       </c>
@@ -906,35 +923,38 @@
       <c r="D4" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F4" s="2">
+      <c r="E4" s="2">
+        <v>10</v>
+      </c>
+      <c r="G4" s="2">
         <v>4</v>
       </c>
-      <c r="G4" s="2">
-        <v>1</v>
-      </c>
       <c r="H4" s="2">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="I4" s="2">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="J4" s="2">
-        <v>8500</v>
-      </c>
-      <c r="L4" s="2">
+        <v>10</v>
+      </c>
+      <c r="K4" s="2">
+        <v>8500</v>
+      </c>
+      <c r="M4" s="2">
         <v>3</v>
       </c>
-      <c r="M4" s="2">
-        <v>2000</v>
-      </c>
       <c r="N4" s="2">
-        <v>15000</v>
+        <v>2000</v>
       </c>
       <c r="O4" s="2">
+        <v>15000</v>
+      </c>
+      <c r="P4" s="2">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B5" s="2">
         <v>2</v>
       </c>
@@ -944,35 +964,38 @@
       <c r="D5" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F5" s="2">
+      <c r="E5" s="2">
+        <v>10</v>
+      </c>
+      <c r="G5" s="2">
         <v>4</v>
       </c>
-      <c r="G5" s="2">
-        <v>2</v>
-      </c>
       <c r="H5" s="2">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="I5" s="2">
+        <v>100</v>
+      </c>
+      <c r="J5" s="2">
         <v>49</v>
       </c>
-      <c r="J5" s="2">
-        <v>8500</v>
-      </c>
-      <c r="L5" s="2">
+      <c r="K5" s="2">
+        <v>8500</v>
+      </c>
+      <c r="M5" s="2">
         <v>3.2</v>
       </c>
-      <c r="M5" s="2">
-        <v>2000</v>
-      </c>
       <c r="N5" s="2">
-        <v>15000</v>
+        <v>2000</v>
       </c>
       <c r="O5" s="2">
+        <v>15000</v>
+      </c>
+      <c r="P5" s="2">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B6" s="2">
         <v>3</v>
       </c>
@@ -982,35 +1005,38 @@
       <c r="D6" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F6" s="2">
+      <c r="E6" s="2">
+        <v>10</v>
+      </c>
+      <c r="G6" s="2">
         <v>4</v>
       </c>
-      <c r="G6" s="2">
+      <c r="H6" s="2">
         <v>3</v>
       </c>
-      <c r="H6" s="2">
-        <v>100</v>
-      </c>
       <c r="I6" s="2">
+        <v>100</v>
+      </c>
+      <c r="J6" s="2">
         <v>237</v>
       </c>
-      <c r="J6" s="2">
-        <v>8500</v>
-      </c>
-      <c r="L6" s="2">
+      <c r="K6" s="2">
+        <v>8500</v>
+      </c>
+      <c r="M6" s="2">
         <v>3.3000000000000003</v>
       </c>
-      <c r="M6" s="2">
-        <v>2000</v>
-      </c>
       <c r="N6" s="2">
-        <v>15000</v>
+        <v>2000</v>
       </c>
       <c r="O6" s="2">
+        <v>15000</v>
+      </c>
+      <c r="P6" s="2">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B7" s="2">
         <v>4</v>
       </c>
@@ -1020,35 +1046,38 @@
       <c r="D7" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F7" s="2">
-        <v>1</v>
+      <c r="E7" s="2">
+        <v>10</v>
       </c>
       <c r="G7" s="2">
         <v>1</v>
       </c>
       <c r="H7" s="2">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="I7" s="2">
+        <v>100</v>
+      </c>
+      <c r="J7" s="2">
         <v>5</v>
       </c>
-      <c r="J7" s="2">
-        <v>8500</v>
-      </c>
-      <c r="L7" s="2">
+      <c r="K7" s="2">
+        <v>8500</v>
+      </c>
+      <c r="M7" s="2">
         <v>4</v>
       </c>
-      <c r="M7" s="2">
-        <v>2000</v>
-      </c>
       <c r="N7" s="2">
-        <v>15000</v>
+        <v>2000</v>
       </c>
       <c r="O7" s="2">
+        <v>15000</v>
+      </c>
+      <c r="P7" s="2">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B8" s="2">
         <v>5</v>
       </c>
@@ -1058,35 +1087,38 @@
       <c r="D8" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F8" s="2">
-        <v>1</v>
+      <c r="E8" s="2">
+        <v>10</v>
       </c>
       <c r="G8" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H8" s="2">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="I8" s="2">
+        <v>100</v>
+      </c>
+      <c r="J8" s="2">
         <v>26</v>
       </c>
-      <c r="J8" s="2">
-        <v>8500</v>
-      </c>
-      <c r="L8" s="2">
+      <c r="K8" s="2">
+        <v>8500</v>
+      </c>
+      <c r="M8" s="2">
         <v>4</v>
       </c>
-      <c r="M8" s="2">
-        <v>2000</v>
-      </c>
       <c r="N8" s="2">
-        <v>15000</v>
+        <v>2000</v>
       </c>
       <c r="O8" s="2">
+        <v>15000</v>
+      </c>
+      <c r="P8" s="2">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B9" s="2">
         <v>6</v>
       </c>
@@ -1096,35 +1128,38 @@
       <c r="D9" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F9" s="2">
-        <v>1</v>
+      <c r="E9" s="2">
+        <v>10</v>
       </c>
       <c r="G9" s="2">
+        <v>1</v>
+      </c>
+      <c r="H9" s="2">
         <v>3</v>
       </c>
-      <c r="H9" s="2">
-        <v>100</v>
-      </c>
       <c r="I9" s="2">
+        <v>100</v>
+      </c>
+      <c r="J9" s="2">
         <v>118</v>
       </c>
-      <c r="J9" s="2">
-        <v>8500</v>
-      </c>
-      <c r="L9" s="2">
+      <c r="K9" s="2">
+        <v>8500</v>
+      </c>
+      <c r="M9" s="2">
         <v>4.4000000000000004</v>
       </c>
-      <c r="M9" s="2">
-        <v>2000</v>
-      </c>
       <c r="N9" s="2">
-        <v>15000</v>
+        <v>2000</v>
       </c>
       <c r="O9" s="2">
+        <v>15000</v>
+      </c>
+      <c r="P9" s="2">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B10" s="2">
         <v>7</v>
       </c>
@@ -1134,35 +1169,38 @@
       <c r="D10" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F10" s="2">
-        <v>2</v>
+      <c r="E10" s="2">
+        <v>10</v>
       </c>
       <c r="G10" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H10" s="2">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="I10" s="2">
+        <v>100</v>
+      </c>
+      <c r="J10" s="2">
         <v>9</v>
       </c>
-      <c r="J10" s="2">
-        <v>8500</v>
-      </c>
-      <c r="L10" s="2">
+      <c r="K10" s="2">
+        <v>8500</v>
+      </c>
+      <c r="M10" s="2">
         <v>3.1</v>
       </c>
-      <c r="M10" s="2">
-        <v>2000</v>
-      </c>
       <c r="N10" s="2">
-        <v>15000</v>
+        <v>2000</v>
       </c>
       <c r="O10" s="2">
+        <v>15000</v>
+      </c>
+      <c r="P10" s="2">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B11" s="2">
         <v>8</v>
       </c>
@@ -1172,35 +1210,38 @@
       <c r="D11" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F11" s="2">
-        <v>2</v>
+      <c r="E11" s="2">
+        <v>10</v>
       </c>
       <c r="G11" s="2">
         <v>2</v>
       </c>
       <c r="H11" s="2">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="I11" s="2">
+        <v>100</v>
+      </c>
+      <c r="J11" s="2">
         <v>47</v>
       </c>
-      <c r="J11" s="2">
-        <v>8500</v>
-      </c>
-      <c r="L11" s="2">
+      <c r="K11" s="2">
+        <v>8500</v>
+      </c>
+      <c r="M11" s="2">
         <v>3.1</v>
       </c>
-      <c r="M11" s="2">
-        <v>2000</v>
-      </c>
       <c r="N11" s="2">
-        <v>15000</v>
+        <v>2000</v>
       </c>
       <c r="O11" s="2">
+        <v>15000</v>
+      </c>
+      <c r="P11" s="2">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B12" s="2">
         <v>9</v>
       </c>
@@ -1210,35 +1251,38 @@
       <c r="D12" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F12" s="2">
-        <v>2</v>
+      <c r="E12" s="2">
+        <v>10</v>
       </c>
       <c r="G12" s="2">
+        <v>2</v>
+      </c>
+      <c r="H12" s="2">
         <v>3</v>
       </c>
-      <c r="H12" s="2">
-        <v>100</v>
-      </c>
       <c r="I12" s="2">
+        <v>100</v>
+      </c>
+      <c r="J12" s="2">
         <v>227</v>
       </c>
-      <c r="J12" s="2">
-        <v>8500</v>
-      </c>
-      <c r="L12" s="2">
+      <c r="K12" s="2">
+        <v>8500</v>
+      </c>
+      <c r="M12" s="2">
         <v>3.2</v>
       </c>
-      <c r="M12" s="2">
-        <v>2000</v>
-      </c>
       <c r="N12" s="2">
-        <v>15000</v>
+        <v>2000</v>
       </c>
       <c r="O12" s="2">
+        <v>15000</v>
+      </c>
+      <c r="P12" s="2">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B13" s="2">
         <v>10</v>
       </c>
@@ -1248,35 +1292,38 @@
       <c r="D13" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F13" s="2">
+      <c r="E13" s="2">
+        <v>10</v>
+      </c>
+      <c r="G13" s="2">
         <v>3</v>
       </c>
-      <c r="G13" s="2">
-        <v>1</v>
-      </c>
       <c r="H13" s="2">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="I13" s="2">
+        <v>100</v>
+      </c>
+      <c r="J13" s="2">
         <v>15</v>
       </c>
-      <c r="J13" s="2">
-        <v>8500</v>
-      </c>
-      <c r="L13" s="2">
+      <c r="K13" s="2">
+        <v>8500</v>
+      </c>
+      <c r="M13" s="2">
         <v>2.5</v>
       </c>
-      <c r="M13" s="2">
-        <v>2000</v>
-      </c>
       <c r="N13" s="2">
-        <v>15000</v>
+        <v>2000</v>
       </c>
       <c r="O13" s="2">
+        <v>15000</v>
+      </c>
+      <c r="P13" s="2">
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B14" s="2">
         <v>11</v>
       </c>
@@ -1286,35 +1333,38 @@
       <c r="D14" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F14" s="2">
+      <c r="E14" s="2">
+        <v>10</v>
+      </c>
+      <c r="G14" s="2">
         <v>3</v>
       </c>
-      <c r="G14" s="2">
-        <v>2</v>
-      </c>
       <c r="H14" s="2">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="I14" s="2">
+        <v>100</v>
+      </c>
+      <c r="J14" s="2">
         <v>76</v>
       </c>
-      <c r="J14" s="2">
-        <v>8500</v>
-      </c>
-      <c r="L14" s="2">
+      <c r="K14" s="2">
+        <v>8500</v>
+      </c>
+      <c r="M14" s="2">
         <v>2.5</v>
       </c>
-      <c r="M14" s="2">
-        <v>2000</v>
-      </c>
       <c r="N14" s="2">
-        <v>15000</v>
+        <v>2000</v>
       </c>
       <c r="O14" s="2">
+        <v>15000</v>
+      </c>
+      <c r="P14" s="2">
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B15" s="2">
         <v>12</v>
       </c>
@@ -1324,35 +1374,38 @@
       <c r="D15" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F15" s="2">
-        <v>3</v>
+      <c r="E15" s="2">
+        <v>10</v>
       </c>
       <c r="G15" s="2">
         <v>3</v>
       </c>
       <c r="H15" s="2">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="I15" s="2">
+        <v>100</v>
+      </c>
+      <c r="J15" s="2">
         <v>338</v>
       </c>
-      <c r="J15" s="2">
-        <v>8500</v>
-      </c>
-      <c r="L15" s="2">
+      <c r="K15" s="2">
+        <v>8500</v>
+      </c>
+      <c r="M15" s="2">
         <v>2.8000000000000003</v>
       </c>
-      <c r="M15" s="2">
-        <v>2000</v>
-      </c>
       <c r="N15" s="2">
-        <v>15000</v>
+        <v>2000</v>
       </c>
       <c r="O15" s="2">
+        <v>15000</v>
+      </c>
+      <c r="P15" s="2">
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B16" s="2">
         <v>13</v>
       </c>
@@ -1362,35 +1415,38 @@
       <c r="D16" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F16" s="2">
+      <c r="E16" s="2">
+        <v>10</v>
+      </c>
+      <c r="G16" s="2">
         <v>4</v>
       </c>
-      <c r="G16" s="2">
-        <v>1</v>
-      </c>
       <c r="H16" s="2">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="I16" s="2">
+        <v>100</v>
+      </c>
+      <c r="J16" s="2">
         <v>17</v>
       </c>
-      <c r="J16" s="2">
-        <v>8500</v>
-      </c>
-      <c r="L16" s="2">
-        <v>2</v>
+      <c r="K16" s="2">
+        <v>8500</v>
       </c>
       <c r="M16" s="2">
-        <v>2000</v>
+        <v>2</v>
       </c>
       <c r="N16" s="2">
-        <v>15000</v>
+        <v>2000</v>
       </c>
       <c r="O16" s="2">
+        <v>15000</v>
+      </c>
+      <c r="P16" s="2">
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="2:15" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B17" s="2">
         <v>14</v>
       </c>
@@ -1400,35 +1456,38 @@
       <c r="D17" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F17" s="2">
+      <c r="E17" s="2">
+        <v>10</v>
+      </c>
+      <c r="G17" s="2">
         <v>4</v>
       </c>
-      <c r="G17" s="2">
-        <v>2</v>
-      </c>
       <c r="H17" s="2">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="I17" s="2">
+        <v>100</v>
+      </c>
+      <c r="J17" s="2">
         <v>77</v>
       </c>
-      <c r="J17" s="2">
-        <v>8500</v>
-      </c>
-      <c r="L17" s="2">
+      <c r="K17" s="2">
+        <v>8500</v>
+      </c>
+      <c r="M17" s="2">
         <v>2.2000000000000002</v>
       </c>
-      <c r="M17" s="2">
-        <v>2000</v>
-      </c>
       <c r="N17" s="2">
-        <v>15000</v>
+        <v>2000</v>
       </c>
       <c r="O17" s="2">
+        <v>15000</v>
+      </c>
+      <c r="P17" s="2">
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="2:15" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B18" s="2">
         <v>15</v>
       </c>
@@ -1438,35 +1497,38 @@
       <c r="D18" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F18" s="2">
+      <c r="E18" s="2">
+        <v>10</v>
+      </c>
+      <c r="G18" s="2">
         <v>4</v>
       </c>
-      <c r="G18" s="2">
+      <c r="H18" s="2">
         <v>3</v>
       </c>
-      <c r="H18" s="2">
-        <v>100</v>
-      </c>
       <c r="I18" s="2">
+        <v>100</v>
+      </c>
+      <c r="J18" s="2">
         <v>352</v>
       </c>
-      <c r="J18" s="2">
-        <v>8500</v>
-      </c>
-      <c r="L18" s="2">
+      <c r="K18" s="2">
+        <v>8500</v>
+      </c>
+      <c r="M18" s="2">
         <v>2.4</v>
       </c>
-      <c r="M18" s="2">
-        <v>2000</v>
-      </c>
       <c r="N18" s="2">
-        <v>15000</v>
+        <v>2000</v>
       </c>
       <c r="O18" s="2">
+        <v>15000</v>
+      </c>
+      <c r="P18" s="2">
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="2:15" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B19" s="2">
         <v>16</v>
       </c>
@@ -1476,35 +1538,38 @@
       <c r="D19" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F19" s="2">
-        <v>2</v>
+      <c r="E19" s="2">
+        <v>10</v>
       </c>
       <c r="G19" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H19" s="2">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="I19" s="2">
+        <v>100</v>
+      </c>
+      <c r="J19" s="2">
         <v>9</v>
       </c>
-      <c r="J19" s="2">
-        <v>8500</v>
-      </c>
-      <c r="L19" s="2">
+      <c r="K19" s="2">
+        <v>8500</v>
+      </c>
+      <c r="M19" s="2">
         <v>3</v>
       </c>
-      <c r="M19" s="2">
-        <v>2000</v>
-      </c>
       <c r="N19" s="2">
-        <v>15000</v>
+        <v>2000</v>
       </c>
       <c r="O19" s="2">
+        <v>15000</v>
+      </c>
+      <c r="P19" s="2">
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="2:15" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B20" s="2">
         <v>17</v>
       </c>
@@ -1514,35 +1579,38 @@
       <c r="D20" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F20" s="2">
-        <v>2</v>
+      <c r="E20" s="2">
+        <v>10</v>
       </c>
       <c r="G20" s="2">
         <v>2</v>
       </c>
       <c r="H20" s="2">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="I20" s="2">
+        <v>100</v>
+      </c>
+      <c r="J20" s="2">
         <v>44</v>
       </c>
-      <c r="J20" s="2">
-        <v>8500</v>
-      </c>
-      <c r="L20" s="2">
+      <c r="K20" s="2">
+        <v>8500</v>
+      </c>
+      <c r="M20" s="2">
         <v>3</v>
       </c>
-      <c r="M20" s="2">
-        <v>2000</v>
-      </c>
       <c r="N20" s="2">
-        <v>15000</v>
+        <v>2000</v>
       </c>
       <c r="O20" s="2">
+        <v>15000</v>
+      </c>
+      <c r="P20" s="2">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="2:15" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B21" s="2">
         <v>18</v>
       </c>
@@ -1552,35 +1620,38 @@
       <c r="D21" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F21" s="2">
-        <v>2</v>
+      <c r="E21" s="2">
+        <v>10</v>
       </c>
       <c r="G21" s="2">
+        <v>2</v>
+      </c>
+      <c r="H21" s="2">
         <v>3</v>
       </c>
-      <c r="H21" s="2">
-        <v>100</v>
-      </c>
       <c r="I21" s="2">
+        <v>100</v>
+      </c>
+      <c r="J21" s="2">
         <v>208</v>
       </c>
-      <c r="J21" s="2">
-        <v>8500</v>
-      </c>
-      <c r="L21" s="2">
+      <c r="K21" s="2">
+        <v>8500</v>
+      </c>
+      <c r="M21" s="2">
         <v>3.2</v>
       </c>
-      <c r="M21" s="2">
-        <v>2000</v>
-      </c>
       <c r="N21" s="2">
-        <v>15000</v>
+        <v>2000</v>
       </c>
       <c r="O21" s="2">
+        <v>15000</v>
+      </c>
+      <c r="P21" s="2">
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="2:15" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B22" s="2">
         <v>19</v>
       </c>
@@ -1590,35 +1661,38 @@
       <c r="D22" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F22" s="2">
-        <v>2</v>
+      <c r="E22" s="2">
+        <v>10</v>
       </c>
       <c r="G22" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H22" s="2">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="I22" s="2">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="J22" s="2">
-        <v>8500</v>
-      </c>
-      <c r="L22" s="2">
+        <v>2</v>
+      </c>
+      <c r="K22" s="2">
+        <v>8500</v>
+      </c>
+      <c r="M22" s="2">
         <v>11</v>
       </c>
-      <c r="M22" s="2">
-        <v>2000</v>
-      </c>
       <c r="N22" s="2">
-        <v>15000</v>
+        <v>2000</v>
       </c>
       <c r="O22" s="2">
+        <v>15000</v>
+      </c>
+      <c r="P22" s="2">
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="2:15" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B23" s="2">
         <v>20</v>
       </c>
@@ -1628,35 +1702,38 @@
       <c r="D23" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F23" s="2">
-        <v>2</v>
+      <c r="E23" s="2">
+        <v>10</v>
       </c>
       <c r="G23" s="2">
         <v>2</v>
       </c>
       <c r="H23" s="2">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="I23" s="2">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="J23" s="2">
-        <v>8500</v>
-      </c>
-      <c r="L23" s="2">
+        <v>10</v>
+      </c>
+      <c r="K23" s="2">
+        <v>8500</v>
+      </c>
+      <c r="M23" s="2">
         <v>11</v>
       </c>
-      <c r="M23" s="2">
-        <v>2000</v>
-      </c>
       <c r="N23" s="2">
-        <v>15000</v>
+        <v>2000</v>
       </c>
       <c r="O23" s="2">
+        <v>15000</v>
+      </c>
+      <c r="P23" s="2">
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="2:15" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B24" s="2">
         <v>21</v>
       </c>
@@ -1666,35 +1743,38 @@
       <c r="D24" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F24" s="2">
-        <v>2</v>
+      <c r="E24" s="2">
+        <v>10</v>
       </c>
       <c r="G24" s="2">
+        <v>2</v>
+      </c>
+      <c r="H24" s="2">
         <v>3</v>
       </c>
-      <c r="H24" s="2">
-        <v>100</v>
-      </c>
       <c r="I24" s="2">
+        <v>100</v>
+      </c>
+      <c r="J24" s="2">
         <v>52</v>
       </c>
-      <c r="J24" s="2">
-        <v>8500</v>
-      </c>
-      <c r="L24" s="2">
+      <c r="K24" s="2">
+        <v>8500</v>
+      </c>
+      <c r="M24" s="2">
         <v>11</v>
       </c>
-      <c r="M24" s="2">
-        <v>2000</v>
-      </c>
       <c r="N24" s="2">
-        <v>15000</v>
+        <v>2000</v>
       </c>
       <c r="O24" s="2">
+        <v>15000</v>
+      </c>
+      <c r="P24" s="2">
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="2:15" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B25" s="2">
         <v>22</v>
       </c>
@@ -1704,35 +1784,38 @@
       <c r="D25" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F25" s="2">
-        <v>2</v>
+      <c r="E25" s="2">
+        <v>10</v>
       </c>
       <c r="G25" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H25" s="2">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="I25" s="2">
+        <v>100</v>
+      </c>
+      <c r="J25" s="2">
         <v>6</v>
       </c>
-      <c r="J25" s="2">
-        <v>8500</v>
-      </c>
-      <c r="L25" s="2">
+      <c r="K25" s="2">
+        <v>8500</v>
+      </c>
+      <c r="M25" s="2">
         <v>4</v>
       </c>
-      <c r="M25" s="2">
-        <v>2000</v>
-      </c>
       <c r="N25" s="2">
-        <v>15000</v>
+        <v>2000</v>
       </c>
       <c r="O25" s="2">
+        <v>15000</v>
+      </c>
+      <c r="P25" s="2">
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="2:15" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B26" s="2">
         <v>23</v>
       </c>
@@ -1742,35 +1825,38 @@
       <c r="D26" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F26" s="2">
-        <v>2</v>
+      <c r="E26" s="2">
+        <v>10</v>
       </c>
       <c r="G26" s="2">
         <v>2</v>
       </c>
       <c r="H26" s="2">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="I26" s="2">
+        <v>100</v>
+      </c>
+      <c r="J26" s="2">
         <v>29</v>
       </c>
-      <c r="J26" s="2">
-        <v>8500</v>
-      </c>
-      <c r="L26" s="2">
+      <c r="K26" s="2">
+        <v>8500</v>
+      </c>
+      <c r="M26" s="2">
         <v>4.2</v>
       </c>
-      <c r="M26" s="2">
-        <v>2000</v>
-      </c>
       <c r="N26" s="2">
-        <v>15000</v>
+        <v>2000</v>
       </c>
       <c r="O26" s="2">
+        <v>15000</v>
+      </c>
+      <c r="P26" s="2">
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="2:15" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B27" s="2">
         <v>24</v>
       </c>
@@ -1780,35 +1866,38 @@
       <c r="D27" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F27" s="2">
-        <v>2</v>
+      <c r="E27" s="2">
+        <v>10</v>
       </c>
       <c r="G27" s="2">
+        <v>2</v>
+      </c>
+      <c r="H27" s="2">
         <v>3</v>
       </c>
-      <c r="H27" s="2">
-        <v>100</v>
-      </c>
       <c r="I27" s="2">
+        <v>100</v>
+      </c>
+      <c r="J27" s="2">
         <v>139</v>
       </c>
-      <c r="J27" s="2">
-        <v>8500</v>
-      </c>
-      <c r="L27" s="2">
+      <c r="K27" s="2">
+        <v>8500</v>
+      </c>
+      <c r="M27" s="2">
         <v>4.4000000000000004</v>
       </c>
-      <c r="M27" s="2">
-        <v>2000</v>
-      </c>
       <c r="N27" s="2">
-        <v>15000</v>
+        <v>2000</v>
       </c>
       <c r="O27" s="2">
+        <v>15000</v>
+      </c>
+      <c r="P27" s="2">
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="2:15" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B28" s="2">
         <v>25</v>
       </c>
@@ -1818,35 +1907,38 @@
       <c r="D28" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F28" s="2">
-        <v>2</v>
+      <c r="E28" s="2">
+        <v>10</v>
       </c>
       <c r="G28" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H28" s="2">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="I28" s="2">
+        <v>100</v>
+      </c>
+      <c r="J28" s="2">
         <v>11</v>
       </c>
-      <c r="J28" s="2">
-        <v>8500</v>
-      </c>
-      <c r="L28" s="2">
+      <c r="K28" s="2">
+        <v>8500</v>
+      </c>
+      <c r="M28" s="2">
         <v>2.2000000000000002</v>
       </c>
-      <c r="M28" s="2">
-        <v>2000</v>
-      </c>
       <c r="N28" s="2">
-        <v>15000</v>
+        <v>2000</v>
       </c>
       <c r="O28" s="2">
+        <v>15000</v>
+      </c>
+      <c r="P28" s="2">
         <v>46</v>
       </c>
     </row>
-    <row r="29" spans="2:15" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B29" s="2">
         <v>26</v>
       </c>
@@ -1856,35 +1948,38 @@
       <c r="D29" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F29" s="2">
-        <v>2</v>
+      <c r="E29" s="2">
+        <v>10</v>
       </c>
       <c r="G29" s="2">
         <v>2</v>
       </c>
       <c r="H29" s="2">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="I29" s="2">
+        <v>100</v>
+      </c>
+      <c r="J29" s="2">
         <v>51</v>
       </c>
-      <c r="J29" s="2">
-        <v>8500</v>
-      </c>
-      <c r="L29" s="2">
+      <c r="K29" s="2">
+        <v>8500</v>
+      </c>
+      <c r="M29" s="2">
         <v>2.4</v>
       </c>
-      <c r="M29" s="2">
-        <v>2000</v>
-      </c>
       <c r="N29" s="2">
-        <v>15000</v>
+        <v>2000</v>
       </c>
       <c r="O29" s="2">
+        <v>15000</v>
+      </c>
+      <c r="P29" s="2">
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="2:15" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B30" s="2">
         <v>27</v>
       </c>
@@ -1894,35 +1989,38 @@
       <c r="D30" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F30" s="2">
-        <v>2</v>
+      <c r="E30" s="2">
+        <v>10</v>
       </c>
       <c r="G30" s="2">
+        <v>2</v>
+      </c>
+      <c r="H30" s="2">
         <v>3</v>
       </c>
-      <c r="H30" s="2">
-        <v>100</v>
-      </c>
       <c r="I30" s="2">
+        <v>100</v>
+      </c>
+      <c r="J30" s="2">
         <v>255</v>
       </c>
-      <c r="J30" s="2">
-        <v>8500</v>
-      </c>
-      <c r="L30" s="2">
+      <c r="K30" s="2">
+        <v>8500</v>
+      </c>
+      <c r="M30" s="2">
         <v>2.4</v>
       </c>
-      <c r="M30" s="2">
-        <v>2000</v>
-      </c>
       <c r="N30" s="2">
-        <v>15000</v>
+        <v>2000</v>
       </c>
       <c r="O30" s="2">
+        <v>15000</v>
+      </c>
+      <c r="P30" s="2">
         <v>48</v>
       </c>
     </row>
-    <row r="31" spans="2:15" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B31" s="2">
         <v>28</v>
       </c>
@@ -1932,35 +2030,38 @@
       <c r="D31" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F31" s="2">
+      <c r="E31" s="2">
+        <v>10</v>
+      </c>
+      <c r="G31" s="2">
         <v>4</v>
       </c>
-      <c r="G31" s="2">
-        <v>1</v>
-      </c>
       <c r="H31" s="2">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="I31" s="2">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="J31" s="2">
-        <v>8500</v>
-      </c>
-      <c r="L31" s="2">
+        <v>10</v>
+      </c>
+      <c r="K31" s="2">
+        <v>8500</v>
+      </c>
+      <c r="M31" s="2">
         <v>2.6</v>
       </c>
-      <c r="M31" s="2">
-        <v>2000</v>
-      </c>
       <c r="N31" s="2">
-        <v>15000</v>
+        <v>2000</v>
       </c>
       <c r="O31" s="2">
+        <v>15000</v>
+      </c>
+      <c r="P31" s="2">
         <v>51</v>
       </c>
     </row>
-    <row r="32" spans="2:15" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B32" s="2">
         <v>29</v>
       </c>
@@ -1970,35 +2071,38 @@
       <c r="D32" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F32" s="2">
+      <c r="E32" s="2">
+        <v>10</v>
+      </c>
+      <c r="G32" s="2">
         <v>4</v>
       </c>
-      <c r="G32" s="2">
-        <v>2</v>
-      </c>
       <c r="H32" s="2">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="I32" s="2">
+        <v>100</v>
+      </c>
+      <c r="J32" s="2">
         <v>49</v>
       </c>
-      <c r="J32" s="2">
-        <v>8500</v>
-      </c>
-      <c r="L32" s="2">
+      <c r="K32" s="2">
+        <v>8500</v>
+      </c>
+      <c r="M32" s="2">
         <v>2.8000000000000003</v>
       </c>
-      <c r="M32" s="2">
-        <v>2000</v>
-      </c>
       <c r="N32" s="2">
-        <v>15000</v>
+        <v>2000</v>
       </c>
       <c r="O32" s="2">
+        <v>15000</v>
+      </c>
+      <c r="P32" s="2">
         <v>52</v>
       </c>
     </row>
-    <row r="33" spans="2:15" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B33" s="2">
         <v>30</v>
       </c>
@@ -2008,35 +2112,38 @@
       <c r="D33" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F33" s="2">
+      <c r="E33" s="2">
+        <v>10</v>
+      </c>
+      <c r="G33" s="2">
         <v>4</v>
       </c>
-      <c r="G33" s="2">
+      <c r="H33" s="2">
         <v>3</v>
       </c>
-      <c r="H33" s="2">
-        <v>100</v>
-      </c>
       <c r="I33" s="2">
+        <v>100</v>
+      </c>
+      <c r="J33" s="2">
         <v>243</v>
       </c>
-      <c r="J33" s="2">
-        <v>8500</v>
-      </c>
-      <c r="L33" s="2">
+      <c r="K33" s="2">
+        <v>8500</v>
+      </c>
+      <c r="M33" s="2">
         <v>2.8000000000000003</v>
       </c>
-      <c r="M33" s="2">
-        <v>2000</v>
-      </c>
       <c r="N33" s="2">
-        <v>15000</v>
+        <v>2000</v>
       </c>
       <c r="O33" s="2">
+        <v>15000</v>
+      </c>
+      <c r="P33" s="2">
         <v>53</v>
       </c>
     </row>
-    <row r="34" spans="2:15" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B34" s="2">
         <v>31</v>
       </c>
@@ -2046,35 +2153,38 @@
       <c r="D34" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F34" s="2">
-        <v>2</v>
+      <c r="E34" s="2">
+        <v>10</v>
       </c>
       <c r="G34" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H34" s="2">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="I34" s="2">
+        <v>100</v>
+      </c>
+      <c r="J34" s="2">
         <v>5</v>
       </c>
-      <c r="J34" s="2">
-        <v>8500</v>
-      </c>
-      <c r="L34" s="2">
+      <c r="K34" s="2">
+        <v>8500</v>
+      </c>
+      <c r="M34" s="2">
         <v>3.5999999999999996</v>
       </c>
-      <c r="M34" s="2">
-        <v>2000</v>
-      </c>
       <c r="N34" s="2">
-        <v>15000</v>
+        <v>2000</v>
       </c>
       <c r="O34" s="2">
+        <v>15000</v>
+      </c>
+      <c r="P34" s="2">
         <v>56</v>
       </c>
     </row>
-    <row r="35" spans="2:15" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B35" s="2">
         <v>32</v>
       </c>
@@ -2084,35 +2194,38 @@
       <c r="D35" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F35" s="2">
-        <v>2</v>
+      <c r="E35" s="2">
+        <v>10</v>
       </c>
       <c r="G35" s="2">
         <v>2</v>
       </c>
       <c r="H35" s="2">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="I35" s="2">
+        <v>100</v>
+      </c>
+      <c r="J35" s="2">
         <v>22</v>
       </c>
-      <c r="J35" s="2">
-        <v>8500</v>
-      </c>
-      <c r="L35" s="2">
+      <c r="K35" s="2">
+        <v>8500</v>
+      </c>
+      <c r="M35" s="2">
         <v>4</v>
       </c>
-      <c r="M35" s="2">
-        <v>2000</v>
-      </c>
       <c r="N35" s="2">
-        <v>15000</v>
+        <v>2000</v>
       </c>
       <c r="O35" s="2">
+        <v>15000</v>
+      </c>
+      <c r="P35" s="2">
         <v>57</v>
       </c>
     </row>
-    <row r="36" spans="2:15" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B36" s="2">
         <v>33</v>
       </c>
@@ -2122,35 +2235,38 @@
       <c r="D36" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F36" s="2">
-        <v>2</v>
+      <c r="E36" s="2">
+        <v>10</v>
       </c>
       <c r="G36" s="2">
+        <v>2</v>
+      </c>
+      <c r="H36" s="2">
         <v>3</v>
       </c>
-      <c r="H36" s="2">
-        <v>100</v>
-      </c>
       <c r="I36" s="2">
+        <v>100</v>
+      </c>
+      <c r="J36" s="2">
         <v>101</v>
       </c>
-      <c r="J36" s="2">
-        <v>8500</v>
-      </c>
-      <c r="L36" s="2">
+      <c r="K36" s="2">
+        <v>8500</v>
+      </c>
+      <c r="M36" s="2">
         <v>4.4000000000000004</v>
       </c>
-      <c r="M36" s="2">
-        <v>2000</v>
-      </c>
       <c r="N36" s="2">
-        <v>15000</v>
+        <v>2000</v>
       </c>
       <c r="O36" s="2">
+        <v>15000</v>
+      </c>
+      <c r="P36" s="2">
         <v>58</v>
       </c>
     </row>
-    <row r="37" spans="2:15" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B37" s="2">
         <v>34</v>
       </c>
@@ -2160,35 +2276,38 @@
       <c r="D37" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F37" s="2">
-        <v>1</v>
+      <c r="E37" s="2">
+        <v>10</v>
       </c>
       <c r="G37" s="2">
         <v>1</v>
       </c>
       <c r="H37" s="2">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="I37" s="2">
+        <v>100</v>
+      </c>
+      <c r="J37" s="2">
         <v>5</v>
       </c>
-      <c r="J37" s="2">
-        <v>8500</v>
-      </c>
-      <c r="L37" s="2">
+      <c r="K37" s="2">
+        <v>8500</v>
+      </c>
+      <c r="M37" s="2">
         <v>4.2</v>
       </c>
-      <c r="M37" s="2">
-        <v>2000</v>
-      </c>
       <c r="N37" s="2">
-        <v>15000</v>
+        <v>2000</v>
       </c>
       <c r="O37" s="2">
+        <v>15000</v>
+      </c>
+      <c r="P37" s="2">
         <v>66</v>
       </c>
     </row>
-    <row r="38" spans="2:15" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B38" s="2">
         <v>35</v>
       </c>
@@ -2198,35 +2317,38 @@
       <c r="D38" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F38" s="2">
-        <v>1</v>
+      <c r="E38" s="2">
+        <v>10</v>
       </c>
       <c r="G38" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H38" s="2">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="I38" s="2">
+        <v>100</v>
+      </c>
+      <c r="J38" s="2">
         <v>26</v>
       </c>
-      <c r="J38" s="2">
-        <v>8500</v>
-      </c>
-      <c r="L38" s="2">
+      <c r="K38" s="2">
+        <v>8500</v>
+      </c>
+      <c r="M38" s="2">
         <v>4.2</v>
       </c>
-      <c r="M38" s="2">
-        <v>2000</v>
-      </c>
       <c r="N38" s="2">
-        <v>15000</v>
+        <v>2000</v>
       </c>
       <c r="O38" s="2">
+        <v>15000</v>
+      </c>
+      <c r="P38" s="2">
         <v>67</v>
       </c>
     </row>
-    <row r="39" spans="2:15" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B39" s="2">
         <v>36</v>
       </c>
@@ -2236,35 +2358,38 @@
       <c r="D39" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F39" s="2">
-        <v>1</v>
+      <c r="E39" s="2">
+        <v>10</v>
       </c>
       <c r="G39" s="2">
+        <v>1</v>
+      </c>
+      <c r="H39" s="2">
         <v>3</v>
       </c>
-      <c r="H39" s="2">
-        <v>100</v>
-      </c>
       <c r="I39" s="2">
+        <v>100</v>
+      </c>
+      <c r="J39" s="2">
         <v>122</v>
       </c>
-      <c r="J39" s="2">
-        <v>8500</v>
-      </c>
-      <c r="L39" s="2">
+      <c r="K39" s="2">
+        <v>8500</v>
+      </c>
+      <c r="M39" s="2">
         <v>4.4000000000000004</v>
       </c>
-      <c r="M39" s="2">
-        <v>2000</v>
-      </c>
       <c r="N39" s="2">
-        <v>15000</v>
+        <v>2000</v>
       </c>
       <c r="O39" s="2">
+        <v>15000</v>
+      </c>
+      <c r="P39" s="2">
         <v>68</v>
       </c>
     </row>
-    <row r="40" spans="2:15" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B40" s="2">
         <v>37</v>
       </c>
@@ -2274,35 +2399,38 @@
       <c r="D40" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F40" s="2">
-        <v>1</v>
+      <c r="E40" s="2">
+        <v>10</v>
       </c>
       <c r="G40" s="2">
         <v>1</v>
       </c>
       <c r="H40" s="2">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="I40" s="2">
+        <v>100</v>
+      </c>
+      <c r="J40" s="2">
         <v>6</v>
       </c>
-      <c r="J40" s="2">
-        <v>8500</v>
-      </c>
-      <c r="L40" s="2">
+      <c r="K40" s="2">
+        <v>8500</v>
+      </c>
+      <c r="M40" s="2">
         <v>4</v>
       </c>
-      <c r="M40" s="2">
-        <v>2000</v>
-      </c>
       <c r="N40" s="2">
-        <v>15000</v>
+        <v>2000</v>
       </c>
       <c r="O40" s="2">
+        <v>15000</v>
+      </c>
+      <c r="P40" s="2">
         <v>71</v>
       </c>
     </row>
-    <row r="41" spans="2:15" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B41" s="2">
         <v>38</v>
       </c>
@@ -2312,35 +2440,38 @@
       <c r="D41" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F41" s="2">
-        <v>1</v>
+      <c r="E41" s="2">
+        <v>10</v>
       </c>
       <c r="G41" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H41" s="2">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="I41" s="2">
+        <v>100</v>
+      </c>
+      <c r="J41" s="2">
         <v>30</v>
       </c>
-      <c r="J41" s="2">
-        <v>8500</v>
-      </c>
-      <c r="L41" s="2">
+      <c r="K41" s="2">
+        <v>8500</v>
+      </c>
+      <c r="M41" s="2">
         <v>4</v>
       </c>
-      <c r="M41" s="2">
-        <v>2000</v>
-      </c>
       <c r="N41" s="2">
-        <v>15000</v>
+        <v>2000</v>
       </c>
       <c r="O41" s="2">
+        <v>15000</v>
+      </c>
+      <c r="P41" s="2">
         <v>72</v>
       </c>
     </row>
-    <row r="42" spans="2:15" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B42" s="2">
         <v>39</v>
       </c>
@@ -2350,35 +2481,38 @@
       <c r="D42" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F42" s="2">
-        <v>1</v>
+      <c r="E42" s="2">
+        <v>10</v>
       </c>
       <c r="G42" s="2">
+        <v>1</v>
+      </c>
+      <c r="H42" s="2">
         <v>3</v>
       </c>
-      <c r="H42" s="2">
-        <v>100</v>
-      </c>
       <c r="I42" s="2">
+        <v>100</v>
+      </c>
+      <c r="J42" s="2">
         <v>150</v>
       </c>
-      <c r="J42" s="2">
-        <v>8500</v>
-      </c>
-      <c r="L42" s="2">
+      <c r="K42" s="2">
+        <v>8500</v>
+      </c>
+      <c r="M42" s="2">
         <v>4</v>
       </c>
-      <c r="M42" s="2">
-        <v>2000</v>
-      </c>
       <c r="N42" s="2">
-        <v>15000</v>
+        <v>2000</v>
       </c>
       <c r="O42" s="2">
+        <v>15000</v>
+      </c>
+      <c r="P42" s="2">
         <v>73</v>
       </c>
     </row>
-    <row r="43" spans="2:15" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B43" s="2">
         <v>40</v>
       </c>
@@ -2388,35 +2522,38 @@
       <c r="D43" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F43" s="2">
+      <c r="E43" s="2">
+        <v>10</v>
+      </c>
+      <c r="G43" s="2">
         <v>3</v>
       </c>
-      <c r="G43" s="2">
-        <v>1</v>
-      </c>
       <c r="H43" s="2">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="I43" s="2">
+        <v>100</v>
+      </c>
+      <c r="J43" s="2">
         <v>14</v>
       </c>
-      <c r="J43" s="2">
-        <v>8500</v>
-      </c>
-      <c r="L43" s="2">
-        <v>2</v>
+      <c r="K43" s="2">
+        <v>8500</v>
       </c>
       <c r="M43" s="2">
-        <v>2000</v>
+        <v>2</v>
       </c>
       <c r="N43" s="2">
-        <v>15000</v>
+        <v>2000</v>
       </c>
       <c r="O43" s="2">
+        <v>15000</v>
+      </c>
+      <c r="P43" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="44" spans="2:15" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B44" s="2">
         <v>41</v>
       </c>
@@ -2426,35 +2563,38 @@
       <c r="D44" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F44" s="2">
+      <c r="E44" s="2">
+        <v>10</v>
+      </c>
+      <c r="G44" s="2">
         <v>3</v>
       </c>
-      <c r="G44" s="2">
-        <v>2</v>
-      </c>
       <c r="H44" s="2">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="I44" s="2">
+        <v>100</v>
+      </c>
+      <c r="J44" s="2">
         <v>71</v>
       </c>
-      <c r="J44" s="2">
-        <v>8500</v>
-      </c>
-      <c r="L44" s="2">
-        <v>2</v>
+      <c r="K44" s="2">
+        <v>8500</v>
       </c>
       <c r="M44" s="2">
-        <v>2000</v>
+        <v>2</v>
       </c>
       <c r="N44" s="2">
-        <v>15000</v>
+        <v>2000</v>
       </c>
       <c r="O44" s="2">
+        <v>15000</v>
+      </c>
+      <c r="P44" s="2">
         <v>77</v>
       </c>
     </row>
-    <row r="45" spans="2:15" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B45" s="2">
         <v>42</v>
       </c>
@@ -2464,35 +2604,38 @@
       <c r="D45" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F45" s="2">
-        <v>3</v>
+      <c r="E45" s="2">
+        <v>10</v>
       </c>
       <c r="G45" s="2">
         <v>3</v>
       </c>
       <c r="H45" s="2">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="I45" s="2">
+        <v>100</v>
+      </c>
+      <c r="J45" s="2">
         <v>323</v>
       </c>
-      <c r="J45" s="2">
-        <v>8500</v>
-      </c>
-      <c r="L45" s="2">
+      <c r="K45" s="2">
+        <v>8500</v>
+      </c>
+      <c r="M45" s="2">
         <v>2.2000000000000002</v>
       </c>
-      <c r="M45" s="2">
-        <v>2000</v>
-      </c>
       <c r="N45" s="2">
-        <v>15000</v>
+        <v>2000</v>
       </c>
       <c r="O45" s="2">
+        <v>15000</v>
+      </c>
+      <c r="P45" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="46" spans="2:15" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B46" s="2">
         <v>43</v>
       </c>
@@ -2502,35 +2645,38 @@
       <c r="D46" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F46" s="2">
-        <v>2</v>
+      <c r="E46" s="2">
+        <v>10</v>
       </c>
       <c r="G46" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H46" s="2">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="I46" s="2">
+        <v>100</v>
+      </c>
+      <c r="J46" s="2">
         <v>4</v>
       </c>
-      <c r="J46" s="2">
-        <v>8500</v>
-      </c>
-      <c r="L46" s="2">
+      <c r="K46" s="2">
+        <v>8500</v>
+      </c>
+      <c r="M46" s="2">
         <v>6.5</v>
       </c>
-      <c r="M46" s="2">
-        <v>2000</v>
-      </c>
       <c r="N46" s="2">
-        <v>15000</v>
+        <v>2000</v>
       </c>
       <c r="O46" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="2:15" ht="16.2" x14ac:dyDescent="0.3">
+        <v>15000</v>
+      </c>
+      <c r="P46" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B47" s="2">
         <v>44</v>
       </c>
@@ -2540,35 +2686,38 @@
       <c r="D47" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F47" s="2">
-        <v>2</v>
+      <c r="E47" s="2">
+        <v>10</v>
       </c>
       <c r="G47" s="2">
         <v>2</v>
       </c>
       <c r="H47" s="2">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="I47" s="2">
+        <v>100</v>
+      </c>
+      <c r="J47" s="2">
         <v>21</v>
       </c>
-      <c r="J47" s="2">
-        <v>8500</v>
-      </c>
-      <c r="L47" s="2">
+      <c r="K47" s="2">
+        <v>8500</v>
+      </c>
+      <c r="M47" s="2">
         <v>6.5</v>
       </c>
-      <c r="M47" s="2">
-        <v>2000</v>
-      </c>
       <c r="N47" s="2">
-        <v>15000</v>
+        <v>2000</v>
       </c>
       <c r="O47" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="2:15" ht="16.2" x14ac:dyDescent="0.3">
+        <v>15000</v>
+      </c>
+      <c r="P47" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B48" s="2">
         <v>45</v>
       </c>
@@ -2578,35 +2727,38 @@
       <c r="D48" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F48" s="2">
-        <v>2</v>
+      <c r="E48" s="2">
+        <v>10</v>
       </c>
       <c r="G48" s="2">
+        <v>2</v>
+      </c>
+      <c r="H48" s="2">
         <v>3</v>
       </c>
-      <c r="H48" s="2">
-        <v>100</v>
-      </c>
       <c r="I48" s="2">
+        <v>100</v>
+      </c>
+      <c r="J48" s="2">
         <v>107</v>
       </c>
-      <c r="J48" s="2">
-        <v>8500</v>
-      </c>
-      <c r="L48" s="2">
+      <c r="K48" s="2">
+        <v>8500</v>
+      </c>
+      <c r="M48" s="2">
         <v>6.5</v>
       </c>
-      <c r="M48" s="2">
-        <v>2000</v>
-      </c>
       <c r="N48" s="2">
-        <v>15000</v>
+        <v>2000</v>
       </c>
       <c r="O48" s="2">
+        <v>15000</v>
+      </c>
+      <c r="P48" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="2:15" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B49" s="2">
         <v>46</v>
       </c>
@@ -2616,35 +2768,38 @@
       <c r="D49" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F49" s="2">
-        <v>1</v>
+      <c r="E49" s="2">
+        <v>10</v>
       </c>
       <c r="G49" s="2">
         <v>1</v>
       </c>
       <c r="H49" s="2">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="I49" s="2">
+        <v>100</v>
+      </c>
+      <c r="J49" s="2">
         <v>12</v>
       </c>
-      <c r="J49" s="2">
-        <v>8500</v>
-      </c>
-      <c r="L49" s="2">
+      <c r="K49" s="2">
+        <v>8500</v>
+      </c>
+      <c r="M49" s="2">
         <v>2.6</v>
       </c>
-      <c r="M49" s="2">
-        <v>2000</v>
-      </c>
       <c r="N49" s="2">
-        <v>15000</v>
+        <v>2000</v>
       </c>
       <c r="O49" s="2">
+        <v>15000</v>
+      </c>
+      <c r="P49" s="2">
         <v>61</v>
       </c>
     </row>
-    <row r="50" spans="2:15" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B50" s="2">
         <v>47</v>
       </c>
@@ -2654,35 +2809,38 @@
       <c r="D50" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F50" s="2">
-        <v>1</v>
+      <c r="E50" s="2">
+        <v>10</v>
       </c>
       <c r="G50" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H50" s="2">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="I50" s="2">
+        <v>100</v>
+      </c>
+      <c r="J50" s="2">
         <v>62</v>
       </c>
-      <c r="J50" s="2">
-        <v>8500</v>
-      </c>
-      <c r="L50" s="2">
+      <c r="K50" s="2">
+        <v>8500</v>
+      </c>
+      <c r="M50" s="2">
         <v>2.6</v>
       </c>
-      <c r="M50" s="2">
-        <v>2000</v>
-      </c>
       <c r="N50" s="2">
-        <v>15000</v>
+        <v>2000</v>
       </c>
       <c r="O50" s="2">
+        <v>15000</v>
+      </c>
+      <c r="P50" s="2">
         <v>62</v>
       </c>
     </row>
-    <row r="51" spans="2:15" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B51" s="2">
         <v>48</v>
       </c>
@@ -2692,38 +2850,41 @@
       <c r="D51" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F51" s="2">
-        <v>1</v>
+      <c r="E51" s="2">
+        <v>10</v>
       </c>
       <c r="G51" s="2">
+        <v>1</v>
+      </c>
+      <c r="H51" s="2">
         <v>3</v>
       </c>
-      <c r="H51" s="2">
-        <v>100</v>
-      </c>
       <c r="I51" s="2">
+        <v>100</v>
+      </c>
+      <c r="J51" s="2">
         <v>267</v>
       </c>
-      <c r="J51" s="2">
-        <v>8500</v>
-      </c>
-      <c r="L51" s="2">
+      <c r="K51" s="2">
+        <v>8500</v>
+      </c>
+      <c r="M51" s="2">
         <v>3</v>
       </c>
-      <c r="M51" s="2">
-        <v>2000</v>
-      </c>
       <c r="N51" s="2">
-        <v>15000</v>
+        <v>2000</v>
       </c>
       <c r="O51" s="2">
+        <v>15000</v>
+      </c>
+      <c r="P51" s="2">
         <v>63</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:R2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:S2">
       <formula1>"String,Int,DateTime,Float"</formula1>
     </dataValidation>
   </dataValidations>

--- a/ExcelConfig/怪物表.xlsx
+++ b/ExcelConfig/怪物表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="5565" yWindow="195" windowWidth="20190" windowHeight="8010" activeTab="1"/>
@@ -20,7 +20,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="N3" authorId="0" shapeId="0">
+    <comment ref="N3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="62">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -278,6 +278,22 @@
   </si>
   <si>
     <t>等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>八戒元神</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小猪妖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猪妖守卫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猪妖统领</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -410,7 +426,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -452,7 +468,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -487,7 +503,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -733,13 +749,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q51"/>
+  <dimension ref="A1:Q55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="F34" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="E36" sqref="E36"/>
+      <selection pane="bottomRight" activeCell="K57" sqref="K57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2881,6 +2897,170 @@
         <v>63</v>
       </c>
     </row>
+    <row r="52" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B52" s="2">
+        <v>49</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E52" s="2">
+        <v>1</v>
+      </c>
+      <c r="G52" s="2">
+        <v>2</v>
+      </c>
+      <c r="H52" s="2">
+        <v>2</v>
+      </c>
+      <c r="I52" s="2">
+        <v>10</v>
+      </c>
+      <c r="J52" s="2">
+        <v>1</v>
+      </c>
+      <c r="K52" s="2">
+        <v>8500</v>
+      </c>
+      <c r="M52" s="2">
+        <v>2</v>
+      </c>
+      <c r="N52" s="2">
+        <v>2000</v>
+      </c>
+      <c r="O52" s="2">
+        <v>15000</v>
+      </c>
+      <c r="P52" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="53" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B53" s="2">
+        <v>50</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E53" s="2">
+        <v>1</v>
+      </c>
+      <c r="G53" s="2">
+        <v>2</v>
+      </c>
+      <c r="H53" s="2">
+        <v>2</v>
+      </c>
+      <c r="I53" s="2">
+        <v>10</v>
+      </c>
+      <c r="J53" s="2">
+        <v>1</v>
+      </c>
+      <c r="K53" s="2">
+        <v>8500</v>
+      </c>
+      <c r="M53" s="2">
+        <v>2</v>
+      </c>
+      <c r="N53" s="2">
+        <v>2000</v>
+      </c>
+      <c r="O53" s="2">
+        <v>15000</v>
+      </c>
+      <c r="P53" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="54" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B54" s="2">
+        <v>51</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E54" s="2">
+        <v>1</v>
+      </c>
+      <c r="G54" s="2">
+        <v>2</v>
+      </c>
+      <c r="H54" s="2">
+        <v>2</v>
+      </c>
+      <c r="I54" s="2">
+        <v>10</v>
+      </c>
+      <c r="J54" s="2">
+        <v>1</v>
+      </c>
+      <c r="K54" s="2">
+        <v>8500</v>
+      </c>
+      <c r="M54" s="2">
+        <v>2</v>
+      </c>
+      <c r="N54" s="2">
+        <v>2000</v>
+      </c>
+      <c r="O54" s="2">
+        <v>15000</v>
+      </c>
+      <c r="P54" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="55" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B55" s="2">
+        <v>52</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E55" s="2">
+        <v>1</v>
+      </c>
+      <c r="G55" s="2">
+        <v>2</v>
+      </c>
+      <c r="H55" s="2">
+        <v>2</v>
+      </c>
+      <c r="I55" s="2">
+        <v>10</v>
+      </c>
+      <c r="J55" s="2">
+        <v>1</v>
+      </c>
+      <c r="K55" s="2">
+        <v>8500</v>
+      </c>
+      <c r="M55" s="2">
+        <v>2</v>
+      </c>
+      <c r="N55" s="2">
+        <v>2000</v>
+      </c>
+      <c r="O55" s="2">
+        <v>15000</v>
+      </c>
+      <c r="P55" s="2">
+        <v>81</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">

--- a/ExcelConfig/怪物表.xlsx
+++ b/ExcelConfig/怪物表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="2430" yWindow="0" windowWidth="16875" windowHeight="8955" activeTab="1"/>
+    <workbookView xWindow="2430" yWindow="30" windowWidth="16875" windowHeight="8925" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="__Base" sheetId="2" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="907" uniqueCount="166">
   <si>
     <t>ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1736,6 +1736,126 @@
   <si>
     <t>火云洞jjc7</t>
   </si>
+  <si>
+    <t>洞口小妖</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>花痴</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>杂役</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>守备猪妖</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>尖耳鼠</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>饕餮鼠</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>鼠妖军备</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>拓耳鼠</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>魅惑女子</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>奸佞老者</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒙眼老妪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>复生亡女</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>诈死老翁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>狼牙</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>持械狼妖</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>洞穴守备</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>护宝狼妖</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>械斗狼妖</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄袍精英</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>独角小妖</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>赤角小妖</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>洞穴卫兵</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>独角蛮兵</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>亲卫</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>赤脚幼童</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>肚兜娃</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>乳牙卫兵</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小角童儿</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>哭闹小童</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>嬉闹亲卫</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -2242,20 +2362,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q307"/>
+  <dimension ref="A1:S307"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="G4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="E263" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="F8" sqref="F8:R11"/>
+      <selection pane="bottomRight" activeCell="T269" sqref="T269"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" style="2" customWidth="1"/>
     <col min="4" max="4" width="15.375" style="2" customWidth="1"/>
     <col min="5" max="5" width="7.625" style="2" customWidth="1"/>
     <col min="6" max="6" width="10.75" style="2" customWidth="1"/>
@@ -2433,7 +2553,9 @@
       <c r="B4" s="2">
         <v>1</v>
       </c>
-      <c r="C4" s="3"/>
+      <c r="C4" s="3" t="s">
+        <v>136</v>
+      </c>
       <c r="D4" s="2" t="s">
         <v>39</v>
       </c>
@@ -2444,7 +2566,7 @@
         <v>1</v>
       </c>
       <c r="I4" s="2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J4" s="2">
         <v>3</v>
@@ -2478,7 +2600,9 @@
       <c r="B5" s="2">
         <v>2</v>
       </c>
-      <c r="C5" s="3"/>
+      <c r="C5" s="3" t="s">
+        <v>136</v>
+      </c>
       <c r="D5" s="2" t="s">
         <v>39</v>
       </c>
@@ -2489,7 +2613,7 @@
         <v>1</v>
       </c>
       <c r="I5" s="2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J5" s="2">
         <v>3</v>
@@ -2523,7 +2647,9 @@
       <c r="B6" s="2">
         <v>3</v>
       </c>
-      <c r="C6" s="3"/>
+      <c r="C6" s="3" t="s">
+        <v>136</v>
+      </c>
       <c r="D6" s="2" t="s">
         <v>39</v>
       </c>
@@ -2534,7 +2660,7 @@
         <v>1</v>
       </c>
       <c r="I6" s="2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J6" s="2">
         <v>3</v>
@@ -2568,7 +2694,9 @@
       <c r="B7" s="2">
         <v>4</v>
       </c>
-      <c r="C7" s="3"/>
+      <c r="C7" s="3" t="s">
+        <v>136</v>
+      </c>
       <c r="D7" s="2" t="s">
         <v>39</v>
       </c>
@@ -2579,7 +2707,7 @@
         <v>1</v>
       </c>
       <c r="I7" s="2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J7" s="2">
         <v>3</v>
@@ -2613,7 +2741,9 @@
       <c r="B8" s="2">
         <v>5</v>
       </c>
-      <c r="C8" s="3"/>
+      <c r="C8" s="3" t="s">
+        <v>136</v>
+      </c>
       <c r="D8" s="2" t="s">
         <v>39</v>
       </c>
@@ -2624,7 +2754,7 @@
         <v>1</v>
       </c>
       <c r="I8" s="2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J8" s="2">
         <v>3</v>
@@ -2658,7 +2788,9 @@
       <c r="B9" s="2">
         <v>6</v>
       </c>
-      <c r="C9" s="3"/>
+      <c r="C9" s="3" t="s">
+        <v>137</v>
+      </c>
       <c r="D9" s="2" t="s">
         <v>39</v>
       </c>
@@ -2669,7 +2801,7 @@
         <v>1</v>
       </c>
       <c r="I9" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J9" s="2">
         <v>5</v>
@@ -2703,7 +2835,9 @@
       <c r="B10" s="2">
         <v>7</v>
       </c>
-      <c r="C10" s="3"/>
+      <c r="C10" s="3" t="s">
+        <v>137</v>
+      </c>
       <c r="D10" s="2" t="s">
         <v>39</v>
       </c>
@@ -2714,7 +2848,7 @@
         <v>1</v>
       </c>
       <c r="I10" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J10" s="2">
         <v>5</v>
@@ -2748,7 +2882,9 @@
       <c r="B11" s="2">
         <v>8</v>
       </c>
-      <c r="C11" s="3"/>
+      <c r="C11" s="3" t="s">
+        <v>137</v>
+      </c>
       <c r="D11" s="2" t="s">
         <v>39</v>
       </c>
@@ -2759,7 +2895,7 @@
         <v>1</v>
       </c>
       <c r="I11" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J11" s="2">
         <v>5</v>
@@ -2793,7 +2929,9 @@
       <c r="B12" s="2">
         <v>9</v>
       </c>
-      <c r="C12" s="3"/>
+      <c r="C12" s="3" t="s">
+        <v>137</v>
+      </c>
       <c r="D12" s="2" t="s">
         <v>39</v>
       </c>
@@ -2804,7 +2942,7 @@
         <v>1</v>
       </c>
       <c r="I12" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J12" s="2">
         <v>5</v>
@@ -2838,7 +2976,9 @@
       <c r="B13" s="2">
         <v>10</v>
       </c>
-      <c r="C13" s="3"/>
+      <c r="C13" s="3" t="s">
+        <v>137</v>
+      </c>
       <c r="D13" s="2" t="s">
         <v>39</v>
       </c>
@@ -2849,7 +2989,7 @@
         <v>1</v>
       </c>
       <c r="I13" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J13" s="2">
         <v>5</v>
@@ -2883,7 +3023,9 @@
       <c r="B14" s="2">
         <v>11</v>
       </c>
-      <c r="C14" s="3"/>
+      <c r="C14" s="3" t="s">
+        <v>137</v>
+      </c>
       <c r="D14" s="2" t="s">
         <v>39</v>
       </c>
@@ -2894,7 +3036,7 @@
         <v>1</v>
       </c>
       <c r="I14" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J14" s="2">
         <v>5</v>
@@ -2928,7 +3070,9 @@
       <c r="B15" s="2">
         <v>12</v>
       </c>
-      <c r="C15" s="3"/>
+      <c r="C15" s="3" t="s">
+        <v>137</v>
+      </c>
       <c r="D15" s="2" t="s">
         <v>39</v>
       </c>
@@ -2939,7 +3083,7 @@
         <v>1</v>
       </c>
       <c r="I15" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J15" s="2">
         <v>5</v>
@@ -2973,7 +3117,9 @@
       <c r="B16" s="2">
         <v>13</v>
       </c>
-      <c r="C16" s="3"/>
+      <c r="C16" s="3" t="s">
+        <v>138</v>
+      </c>
       <c r="D16" s="2" t="s">
         <v>39</v>
       </c>
@@ -2984,7 +3130,7 @@
         <v>1</v>
       </c>
       <c r="I16" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J16" s="2">
         <v>7</v>
@@ -3018,7 +3164,9 @@
       <c r="B17" s="2">
         <v>14</v>
       </c>
-      <c r="C17" s="3"/>
+      <c r="C17" s="3" t="s">
+        <v>138</v>
+      </c>
       <c r="D17" s="2" t="s">
         <v>39</v>
       </c>
@@ -3029,7 +3177,7 @@
         <v>1</v>
       </c>
       <c r="I17" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J17" s="2">
         <v>7</v>
@@ -3063,7 +3211,9 @@
       <c r="B18" s="2">
         <v>15</v>
       </c>
-      <c r="C18" s="3"/>
+      <c r="C18" s="3" t="s">
+        <v>138</v>
+      </c>
       <c r="D18" s="2" t="s">
         <v>39</v>
       </c>
@@ -3074,7 +3224,7 @@
         <v>1</v>
       </c>
       <c r="I18" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J18" s="2">
         <v>7</v>
@@ -3108,7 +3258,9 @@
       <c r="B19" s="2">
         <v>16</v>
       </c>
-      <c r="C19" s="3"/>
+      <c r="C19" s="3" t="s">
+        <v>138</v>
+      </c>
       <c r="D19" s="2" t="s">
         <v>39</v>
       </c>
@@ -3119,7 +3271,7 @@
         <v>1</v>
       </c>
       <c r="I19" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J19" s="2">
         <v>7</v>
@@ -3153,7 +3305,9 @@
       <c r="B20" s="2">
         <v>17</v>
       </c>
-      <c r="C20" s="3"/>
+      <c r="C20" s="3" t="s">
+        <v>138</v>
+      </c>
       <c r="D20" s="2" t="s">
         <v>39</v>
       </c>
@@ -3164,7 +3318,7 @@
         <v>1</v>
       </c>
       <c r="I20" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J20" s="2">
         <v>7</v>
@@ -3198,7 +3352,9 @@
       <c r="B21" s="2">
         <v>18</v>
       </c>
-      <c r="C21" s="3"/>
+      <c r="C21" s="3" t="s">
+        <v>138</v>
+      </c>
       <c r="D21" s="2" t="s">
         <v>39</v>
       </c>
@@ -3209,7 +3365,7 @@
         <v>1</v>
       </c>
       <c r="I21" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J21" s="2">
         <v>7</v>
@@ -3243,7 +3399,9 @@
       <c r="B22" s="2">
         <v>19</v>
       </c>
-      <c r="C22" s="3"/>
+      <c r="C22" s="3" t="s">
+        <v>138</v>
+      </c>
       <c r="D22" s="2" t="s">
         <v>39</v>
       </c>
@@ -3254,7 +3412,7 @@
         <v>1</v>
       </c>
       <c r="I22" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J22" s="2">
         <v>7</v>
@@ -3288,7 +3446,9 @@
       <c r="B23" s="2">
         <v>20</v>
       </c>
-      <c r="C23" s="3"/>
+      <c r="C23" s="3" t="s">
+        <v>138</v>
+      </c>
       <c r="D23" s="2" t="s">
         <v>39</v>
       </c>
@@ -3299,7 +3459,7 @@
         <v>1</v>
       </c>
       <c r="I23" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J23" s="2">
         <v>7</v>
@@ -3333,7 +3493,9 @@
       <c r="B24" s="2">
         <v>21</v>
       </c>
-      <c r="C24" s="3"/>
+      <c r="C24" s="3" t="s">
+        <v>138</v>
+      </c>
       <c r="D24" s="2" t="s">
         <v>39</v>
       </c>
@@ -3344,7 +3506,7 @@
         <v>1</v>
       </c>
       <c r="I24" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J24" s="2">
         <v>7</v>
@@ -3378,6 +3540,9 @@
       <c r="B25" s="2">
         <v>22</v>
       </c>
+      <c r="C25" s="3" t="s">
+        <v>138</v>
+      </c>
       <c r="D25" s="2" t="s">
         <v>39</v>
       </c>
@@ -3388,7 +3553,7 @@
         <v>1</v>
       </c>
       <c r="I25" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J25" s="2">
         <v>7</v>
@@ -3422,6 +3587,9 @@
       <c r="B26" s="2">
         <v>23</v>
       </c>
+      <c r="C26" s="3" t="s">
+        <v>138</v>
+      </c>
       <c r="D26" s="2" t="s">
         <v>39</v>
       </c>
@@ -3432,7 +3600,7 @@
         <v>1</v>
       </c>
       <c r="I26" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J26" s="2">
         <v>7</v>
@@ -3466,6 +3634,9 @@
       <c r="B27" s="2">
         <v>24</v>
       </c>
+      <c r="C27" s="3" t="s">
+        <v>138</v>
+      </c>
       <c r="D27" s="2" t="s">
         <v>39</v>
       </c>
@@ -3476,7 +3647,7 @@
         <v>1</v>
       </c>
       <c r="I27" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J27" s="2">
         <v>7</v>
@@ -3510,7 +3681,9 @@
       <c r="B28" s="2">
         <v>25</v>
       </c>
-      <c r="C28" s="3"/>
+      <c r="C28" s="3" t="s">
+        <v>139</v>
+      </c>
       <c r="D28" s="2" t="s">
         <v>39</v>
       </c>
@@ -3521,7 +3694,7 @@
         <v>1</v>
       </c>
       <c r="I28" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J28" s="2">
         <v>6</v>
@@ -3555,6 +3728,9 @@
       <c r="B29" s="2">
         <v>26</v>
       </c>
+      <c r="C29" s="3" t="s">
+        <v>139</v>
+      </c>
       <c r="D29" s="2" t="s">
         <v>39</v>
       </c>
@@ -3565,7 +3741,7 @@
         <v>1</v>
       </c>
       <c r="I29" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J29" s="2">
         <v>6</v>
@@ -3599,6 +3775,9 @@
       <c r="B30" s="2">
         <v>27</v>
       </c>
+      <c r="C30" s="3" t="s">
+        <v>139</v>
+      </c>
       <c r="D30" s="2" t="s">
         <v>39</v>
       </c>
@@ -3609,7 +3788,7 @@
         <v>1</v>
       </c>
       <c r="I30" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J30" s="2">
         <v>6</v>
@@ -3643,6 +3822,9 @@
       <c r="B31" s="2">
         <v>28</v>
       </c>
+      <c r="C31" s="3" t="s">
+        <v>139</v>
+      </c>
       <c r="D31" s="2" t="s">
         <v>39</v>
       </c>
@@ -3653,7 +3835,7 @@
         <v>1</v>
       </c>
       <c r="I31" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J31" s="2">
         <v>6</v>
@@ -3687,6 +3869,9 @@
       <c r="B32" s="2">
         <v>29</v>
       </c>
+      <c r="C32" s="3" t="s">
+        <v>139</v>
+      </c>
       <c r="D32" s="2" t="s">
         <v>39</v>
       </c>
@@ -3697,7 +3882,7 @@
         <v>1</v>
       </c>
       <c r="I32" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J32" s="2">
         <v>6</v>
@@ -3744,7 +3929,7 @@
         <v>1</v>
       </c>
       <c r="I33" s="2">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="J33" s="2">
         <v>8</v>
@@ -3778,7 +3963,9 @@
       <c r="B34" s="2">
         <v>31</v>
       </c>
-      <c r="C34" s="3"/>
+      <c r="C34" s="3" t="s">
+        <v>140</v>
+      </c>
       <c r="D34" s="2" t="s">
         <v>39</v>
       </c>
@@ -3789,7 +3976,7 @@
         <v>1</v>
       </c>
       <c r="I34" s="2">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="J34" s="2">
         <v>9</v>
@@ -3823,7 +4010,9 @@
       <c r="B35" s="2">
         <v>32</v>
       </c>
-      <c r="C35" s="3"/>
+      <c r="C35" s="3" t="s">
+        <v>140</v>
+      </c>
       <c r="D35" s="2" t="s">
         <v>39</v>
       </c>
@@ -3834,7 +4023,7 @@
         <v>1</v>
       </c>
       <c r="I35" s="2">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="J35" s="2">
         <v>9</v>
@@ -3868,7 +4057,9 @@
       <c r="B36" s="2">
         <v>33</v>
       </c>
-      <c r="C36" s="3"/>
+      <c r="C36" s="3" t="s">
+        <v>140</v>
+      </c>
       <c r="D36" s="2" t="s">
         <v>39</v>
       </c>
@@ -3879,7 +4070,7 @@
         <v>1</v>
       </c>
       <c r="I36" s="2">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="J36" s="2">
         <v>9</v>
@@ -3913,7 +4104,9 @@
       <c r="B37" s="2">
         <v>34</v>
       </c>
-      <c r="C37" s="3"/>
+      <c r="C37" s="3" t="s">
+        <v>140</v>
+      </c>
       <c r="D37" s="2" t="s">
         <v>39</v>
       </c>
@@ -3924,7 +4117,7 @@
         <v>1</v>
       </c>
       <c r="I37" s="2">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="J37" s="2">
         <v>9</v>
@@ -3958,7 +4151,9 @@
       <c r="B38" s="2">
         <v>35</v>
       </c>
-      <c r="C38" s="3"/>
+      <c r="C38" s="3" t="s">
+        <v>140</v>
+      </c>
       <c r="D38" s="2" t="s">
         <v>39</v>
       </c>
@@ -3969,7 +4164,7 @@
         <v>1</v>
       </c>
       <c r="I38" s="2">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="J38" s="2">
         <v>9</v>
@@ -4003,7 +4198,9 @@
       <c r="B39" s="2">
         <v>36</v>
       </c>
-      <c r="C39" s="3"/>
+      <c r="C39" s="3" t="s">
+        <v>140</v>
+      </c>
       <c r="D39" s="2" t="s">
         <v>39</v>
       </c>
@@ -4014,7 +4211,7 @@
         <v>1</v>
       </c>
       <c r="I39" s="2">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="J39" s="2">
         <v>9</v>
@@ -4048,7 +4245,9 @@
       <c r="B40" s="2">
         <v>37</v>
       </c>
-      <c r="C40" s="3"/>
+      <c r="C40" s="3" t="s">
+        <v>140</v>
+      </c>
       <c r="D40" s="2" t="s">
         <v>39</v>
       </c>
@@ -4059,7 +4258,7 @@
         <v>1</v>
       </c>
       <c r="I40" s="2">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="J40" s="2">
         <v>9</v>
@@ -4093,7 +4292,9 @@
       <c r="B41" s="2">
         <v>38</v>
       </c>
-      <c r="C41" s="3"/>
+      <c r="C41" s="3" t="s">
+        <v>140</v>
+      </c>
       <c r="D41" s="2" t="s">
         <v>39</v>
       </c>
@@ -4104,7 +4305,7 @@
         <v>1</v>
       </c>
       <c r="I41" s="2">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="J41" s="2">
         <v>9</v>
@@ -4138,7 +4339,9 @@
       <c r="B42" s="2">
         <v>39</v>
       </c>
-      <c r="C42" s="3"/>
+      <c r="C42" s="3" t="s">
+        <v>140</v>
+      </c>
       <c r="D42" s="2" t="s">
         <v>39</v>
       </c>
@@ -4149,7 +4352,7 @@
         <v>1</v>
       </c>
       <c r="I42" s="2">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="J42" s="2">
         <v>9</v>
@@ -4183,7 +4386,9 @@
       <c r="B43" s="2">
         <v>40</v>
       </c>
-      <c r="C43" s="3"/>
+      <c r="C43" s="3" t="s">
+        <v>140</v>
+      </c>
       <c r="D43" s="2" t="s">
         <v>39</v>
       </c>
@@ -4194,7 +4399,7 @@
         <v>1</v>
       </c>
       <c r="I43" s="2">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="J43" s="2">
         <v>9</v>
@@ -4228,7 +4433,9 @@
       <c r="B44" s="2">
         <v>41</v>
       </c>
-      <c r="C44" s="3"/>
+      <c r="C44" s="3" t="s">
+        <v>141</v>
+      </c>
       <c r="D44" s="2" t="s">
         <v>39</v>
       </c>
@@ -4239,7 +4446,7 @@
         <v>1</v>
       </c>
       <c r="I44" s="2">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="J44" s="2">
         <v>11</v>
@@ -4273,7 +4480,9 @@
       <c r="B45" s="2">
         <v>42</v>
       </c>
-      <c r="C45" s="3"/>
+      <c r="C45" s="3" t="s">
+        <v>141</v>
+      </c>
       <c r="D45" s="2" t="s">
         <v>39</v>
       </c>
@@ -4284,7 +4493,7 @@
         <v>1</v>
       </c>
       <c r="I45" s="2">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="J45" s="2">
         <v>11</v>
@@ -4318,7 +4527,9 @@
       <c r="B46" s="2">
         <v>43</v>
       </c>
-      <c r="C46" s="3"/>
+      <c r="C46" s="3" t="s">
+        <v>141</v>
+      </c>
       <c r="D46" s="2" t="s">
         <v>39</v>
       </c>
@@ -4329,7 +4540,7 @@
         <v>1</v>
       </c>
       <c r="I46" s="2">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="J46" s="2">
         <v>11</v>
@@ -4363,7 +4574,9 @@
       <c r="B47" s="2">
         <v>44</v>
       </c>
-      <c r="C47" s="3"/>
+      <c r="C47" s="3" t="s">
+        <v>141</v>
+      </c>
       <c r="D47" s="2" t="s">
         <v>39</v>
       </c>
@@ -4374,7 +4587,7 @@
         <v>1</v>
       </c>
       <c r="I47" s="2">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="J47" s="2">
         <v>11</v>
@@ -4408,7 +4621,9 @@
       <c r="B48" s="2">
         <v>45</v>
       </c>
-      <c r="C48" s="3"/>
+      <c r="C48" s="3" t="s">
+        <v>141</v>
+      </c>
       <c r="D48" s="2" t="s">
         <v>39</v>
       </c>
@@ -4419,7 +4634,7 @@
         <v>1</v>
       </c>
       <c r="I48" s="2">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="J48" s="2">
         <v>11</v>
@@ -4453,7 +4668,9 @@
       <c r="B49" s="2">
         <v>46</v>
       </c>
-      <c r="C49" s="3"/>
+      <c r="C49" s="3" t="s">
+        <v>141</v>
+      </c>
       <c r="D49" s="2" t="s">
         <v>39</v>
       </c>
@@ -4464,7 +4681,7 @@
         <v>1</v>
       </c>
       <c r="I49" s="2">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="J49" s="2">
         <v>11</v>
@@ -4498,7 +4715,9 @@
       <c r="B50" s="2">
         <v>47</v>
       </c>
-      <c r="C50" s="3"/>
+      <c r="C50" s="3" t="s">
+        <v>141</v>
+      </c>
       <c r="D50" s="2" t="s">
         <v>39</v>
       </c>
@@ -4509,7 +4728,7 @@
         <v>1</v>
       </c>
       <c r="I50" s="2">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="J50" s="2">
         <v>11</v>
@@ -4543,7 +4762,9 @@
       <c r="B51" s="2">
         <v>48</v>
       </c>
-      <c r="C51" s="3"/>
+      <c r="C51" s="3" t="s">
+        <v>141</v>
+      </c>
       <c r="D51" s="2" t="s">
         <v>39</v>
       </c>
@@ -4554,7 +4775,7 @@
         <v>1</v>
       </c>
       <c r="I51" s="2">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="J51" s="2">
         <v>11</v>
@@ -4588,7 +4809,9 @@
       <c r="B52" s="2">
         <v>49</v>
       </c>
-      <c r="C52" s="3"/>
+      <c r="C52" s="3" t="s">
+        <v>141</v>
+      </c>
       <c r="D52" s="2" t="s">
         <v>39</v>
       </c>
@@ -4599,7 +4822,7 @@
         <v>1</v>
       </c>
       <c r="I52" s="2">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="J52" s="2">
         <v>11</v>
@@ -4633,7 +4856,9 @@
       <c r="B53" s="2">
         <v>50</v>
       </c>
-      <c r="C53" s="3"/>
+      <c r="C53" s="3" t="s">
+        <v>141</v>
+      </c>
       <c r="D53" s="2" t="s">
         <v>39</v>
       </c>
@@ -4644,7 +4869,7 @@
         <v>1</v>
       </c>
       <c r="I53" s="2">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="J53" s="2">
         <v>11</v>
@@ -4678,7 +4903,9 @@
       <c r="B54" s="2">
         <v>51</v>
       </c>
-      <c r="C54" s="3"/>
+      <c r="C54" s="3" t="s">
+        <v>142</v>
+      </c>
       <c r="D54" s="2" t="s">
         <v>39</v>
       </c>
@@ -4689,7 +4916,7 @@
         <v>1</v>
       </c>
       <c r="I54" s="2">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="J54" s="2">
         <v>14</v>
@@ -4723,7 +4950,9 @@
       <c r="B55" s="2">
         <v>52</v>
       </c>
-      <c r="C55" s="3"/>
+      <c r="C55" s="3" t="s">
+        <v>142</v>
+      </c>
       <c r="D55" s="2" t="s">
         <v>39</v>
       </c>
@@ -4734,7 +4963,7 @@
         <v>1</v>
       </c>
       <c r="I55" s="2">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="J55" s="2">
         <v>14</v>
@@ -4768,7 +4997,9 @@
       <c r="B56" s="2">
         <v>53</v>
       </c>
-      <c r="C56" s="3"/>
+      <c r="C56" s="3" t="s">
+        <v>142</v>
+      </c>
       <c r="D56" s="2" t="s">
         <v>39</v>
       </c>
@@ -4779,7 +5010,7 @@
         <v>1</v>
       </c>
       <c r="I56" s="2">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="J56" s="2">
         <v>14</v>
@@ -4813,7 +5044,9 @@
       <c r="B57" s="2">
         <v>54</v>
       </c>
-      <c r="C57" s="3"/>
+      <c r="C57" s="3" t="s">
+        <v>142</v>
+      </c>
       <c r="D57" s="2" t="s">
         <v>39</v>
       </c>
@@ -4824,7 +5057,7 @@
         <v>1</v>
       </c>
       <c r="I57" s="2">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="J57" s="2">
         <v>14</v>
@@ -4858,7 +5091,9 @@
       <c r="B58" s="2">
         <v>55</v>
       </c>
-      <c r="C58" s="3"/>
+      <c r="C58" s="3" t="s">
+        <v>142</v>
+      </c>
       <c r="D58" s="2" t="s">
         <v>39</v>
       </c>
@@ -4869,7 +5104,7 @@
         <v>1</v>
       </c>
       <c r="I58" s="2">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="J58" s="2">
         <v>14</v>
@@ -4903,7 +5138,9 @@
       <c r="B59" s="2">
         <v>56</v>
       </c>
-      <c r="C59" s="3"/>
+      <c r="C59" s="3" t="s">
+        <v>142</v>
+      </c>
       <c r="D59" s="2" t="s">
         <v>39</v>
       </c>
@@ -4914,7 +5151,7 @@
         <v>1</v>
       </c>
       <c r="I59" s="2">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="J59" s="2">
         <v>14</v>
@@ -4948,7 +5185,9 @@
       <c r="B60" s="2">
         <v>57</v>
       </c>
-      <c r="C60" s="3"/>
+      <c r="C60" s="3" t="s">
+        <v>142</v>
+      </c>
       <c r="D60" s="2" t="s">
         <v>39</v>
       </c>
@@ -4959,7 +5198,7 @@
         <v>1</v>
       </c>
       <c r="I60" s="2">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="J60" s="2">
         <v>14</v>
@@ -4993,7 +5232,9 @@
       <c r="B61" s="2">
         <v>58</v>
       </c>
-      <c r="C61" s="3"/>
+      <c r="C61" s="3" t="s">
+        <v>143</v>
+      </c>
       <c r="D61" s="2" t="s">
         <v>39</v>
       </c>
@@ -5004,7 +5245,7 @@
         <v>1</v>
       </c>
       <c r="I61" s="2">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="J61" s="2">
         <v>15</v>
@@ -5038,6 +5279,9 @@
       <c r="B62" s="2">
         <v>59</v>
       </c>
+      <c r="C62" s="3" t="s">
+        <v>143</v>
+      </c>
       <c r="D62" s="2" t="s">
         <v>39</v>
       </c>
@@ -5048,7 +5292,7 @@
         <v>1</v>
       </c>
       <c r="I62" s="2">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="J62" s="2">
         <v>15</v>
@@ -5082,6 +5326,9 @@
       <c r="B63" s="2">
         <v>60</v>
       </c>
+      <c r="C63" s="3" t="s">
+        <v>143</v>
+      </c>
       <c r="D63" s="2" t="s">
         <v>39</v>
       </c>
@@ -5092,7 +5339,7 @@
         <v>1</v>
       </c>
       <c r="I63" s="2">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="J63" s="2">
         <v>15</v>
@@ -5126,6 +5373,9 @@
       <c r="B64" s="2">
         <v>61</v>
       </c>
+      <c r="C64" s="3" t="s">
+        <v>143</v>
+      </c>
       <c r="D64" s="2" t="s">
         <v>39</v>
       </c>
@@ -5136,7 +5386,7 @@
         <v>1</v>
       </c>
       <c r="I64" s="2">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="J64" s="2">
         <v>15</v>
@@ -5170,6 +5420,9 @@
       <c r="B65" s="2">
         <v>62</v>
       </c>
+      <c r="C65" s="3" t="s">
+        <v>143</v>
+      </c>
       <c r="D65" s="2" t="s">
         <v>39</v>
       </c>
@@ -5180,7 +5433,7 @@
         <v>1</v>
       </c>
       <c r="I65" s="2">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="J65" s="2">
         <v>15</v>
@@ -5227,7 +5480,7 @@
         <v>1</v>
       </c>
       <c r="I66" s="2">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="J66" s="2">
         <v>17</v>
@@ -5261,7 +5514,9 @@
       <c r="B67" s="2">
         <v>64</v>
       </c>
-      <c r="C67" s="3"/>
+      <c r="C67" s="3" t="s">
+        <v>144</v>
+      </c>
       <c r="D67" s="2" t="s">
         <v>39</v>
       </c>
@@ -5272,7 +5527,7 @@
         <v>2</v>
       </c>
       <c r="I67" s="2">
-        <v>28</v>
+        <v>98</v>
       </c>
       <c r="J67" s="2">
         <v>18</v>
@@ -5306,7 +5561,9 @@
       <c r="B68" s="2">
         <v>65</v>
       </c>
-      <c r="C68" s="3"/>
+      <c r="C68" s="3" t="s">
+        <v>144</v>
+      </c>
       <c r="D68" s="2" t="s">
         <v>39</v>
       </c>
@@ -5317,7 +5574,7 @@
         <v>2</v>
       </c>
       <c r="I68" s="2">
-        <v>28</v>
+        <v>98</v>
       </c>
       <c r="J68" s="2">
         <v>18</v>
@@ -5351,7 +5608,9 @@
       <c r="B69" s="2">
         <v>66</v>
       </c>
-      <c r="C69" s="3"/>
+      <c r="C69" s="3" t="s">
+        <v>144</v>
+      </c>
       <c r="D69" s="2" t="s">
         <v>39</v>
       </c>
@@ -5362,7 +5621,7 @@
         <v>2</v>
       </c>
       <c r="I69" s="2">
-        <v>28</v>
+        <v>98</v>
       </c>
       <c r="J69" s="2">
         <v>18</v>
@@ -5396,7 +5655,9 @@
       <c r="B70" s="2">
         <v>67</v>
       </c>
-      <c r="C70" s="3"/>
+      <c r="C70" s="3" t="s">
+        <v>144</v>
+      </c>
       <c r="D70" s="2" t="s">
         <v>39</v>
       </c>
@@ -5407,7 +5668,7 @@
         <v>2</v>
       </c>
       <c r="I70" s="2">
-        <v>28</v>
+        <v>98</v>
       </c>
       <c r="J70" s="2">
         <v>18</v>
@@ -5441,7 +5702,9 @@
       <c r="B71" s="2">
         <v>68</v>
       </c>
-      <c r="C71" s="3"/>
+      <c r="C71" s="3" t="s">
+        <v>144</v>
+      </c>
       <c r="D71" s="2" t="s">
         <v>39</v>
       </c>
@@ -5452,7 +5715,7 @@
         <v>2</v>
       </c>
       <c r="I71" s="2">
-        <v>28</v>
+        <v>98</v>
       </c>
       <c r="J71" s="2">
         <v>18</v>
@@ -5486,7 +5749,9 @@
       <c r="B72" s="2">
         <v>69</v>
       </c>
-      <c r="C72" s="3"/>
+      <c r="C72" s="3" t="s">
+        <v>144</v>
+      </c>
       <c r="D72" s="2" t="s">
         <v>39</v>
       </c>
@@ -5497,7 +5762,7 @@
         <v>2</v>
       </c>
       <c r="I72" s="2">
-        <v>28</v>
+        <v>98</v>
       </c>
       <c r="J72" s="2">
         <v>18</v>
@@ -5531,7 +5796,9 @@
       <c r="B73" s="2">
         <v>70</v>
       </c>
-      <c r="C73" s="3"/>
+      <c r="C73" s="3" t="s">
+        <v>144</v>
+      </c>
       <c r="D73" s="2" t="s">
         <v>39</v>
       </c>
@@ -5542,7 +5809,7 @@
         <v>2</v>
       </c>
       <c r="I73" s="2">
-        <v>28</v>
+        <v>98</v>
       </c>
       <c r="J73" s="2">
         <v>18</v>
@@ -5576,7 +5843,9 @@
       <c r="B74" s="2">
         <v>71</v>
       </c>
-      <c r="C74" s="3"/>
+      <c r="C74" s="3" t="s">
+        <v>144</v>
+      </c>
       <c r="D74" s="2" t="s">
         <v>39</v>
       </c>
@@ -5587,7 +5856,7 @@
         <v>2</v>
       </c>
       <c r="I74" s="2">
-        <v>28</v>
+        <v>98</v>
       </c>
       <c r="J74" s="2">
         <v>18</v>
@@ -5621,7 +5890,9 @@
       <c r="B75" s="2">
         <v>72</v>
       </c>
-      <c r="C75" s="3"/>
+      <c r="C75" s="3" t="s">
+        <v>145</v>
+      </c>
       <c r="D75" s="2" t="s">
         <v>39</v>
       </c>
@@ -5632,7 +5903,7 @@
         <v>2</v>
       </c>
       <c r="I75" s="2">
-        <v>40</v>
+        <v>140</v>
       </c>
       <c r="J75" s="2">
         <v>21</v>
@@ -5666,7 +5937,9 @@
       <c r="B76" s="2">
         <v>73</v>
       </c>
-      <c r="C76" s="3"/>
+      <c r="C76" s="3" t="s">
+        <v>145</v>
+      </c>
       <c r="D76" s="2" t="s">
         <v>39</v>
       </c>
@@ -5677,7 +5950,7 @@
         <v>2</v>
       </c>
       <c r="I76" s="2">
-        <v>40</v>
+        <v>140</v>
       </c>
       <c r="J76" s="2">
         <v>21</v>
@@ -5711,7 +5984,9 @@
       <c r="B77" s="2">
         <v>74</v>
       </c>
-      <c r="C77" s="3"/>
+      <c r="C77" s="3" t="s">
+        <v>145</v>
+      </c>
       <c r="D77" s="2" t="s">
         <v>39</v>
       </c>
@@ -5722,7 +5997,7 @@
         <v>2</v>
       </c>
       <c r="I77" s="2">
-        <v>40</v>
+        <v>140</v>
       </c>
       <c r="J77" s="2">
         <v>21</v>
@@ -5756,7 +6031,9 @@
       <c r="B78" s="2">
         <v>75</v>
       </c>
-      <c r="C78" s="3"/>
+      <c r="C78" s="3" t="s">
+        <v>145</v>
+      </c>
       <c r="D78" s="2" t="s">
         <v>39</v>
       </c>
@@ -5767,7 +6044,7 @@
         <v>2</v>
       </c>
       <c r="I78" s="2">
-        <v>40</v>
+        <v>140</v>
       </c>
       <c r="J78" s="2">
         <v>21</v>
@@ -5801,7 +6078,9 @@
       <c r="B79" s="2">
         <v>76</v>
       </c>
-      <c r="C79" s="3"/>
+      <c r="C79" s="3" t="s">
+        <v>145</v>
+      </c>
       <c r="D79" s="2" t="s">
         <v>39</v>
       </c>
@@ -5812,7 +6091,7 @@
         <v>2</v>
       </c>
       <c r="I79" s="2">
-        <v>40</v>
+        <v>140</v>
       </c>
       <c r="J79" s="2">
         <v>21</v>
@@ -5846,7 +6125,9 @@
       <c r="B80" s="2">
         <v>77</v>
       </c>
-      <c r="C80" s="3"/>
+      <c r="C80" s="3" t="s">
+        <v>145</v>
+      </c>
       <c r="D80" s="2" t="s">
         <v>39</v>
       </c>
@@ -5857,7 +6138,7 @@
         <v>2</v>
       </c>
       <c r="I80" s="2">
-        <v>40</v>
+        <v>140</v>
       </c>
       <c r="J80" s="2">
         <v>21</v>
@@ -5891,7 +6172,9 @@
       <c r="B81" s="2">
         <v>78</v>
       </c>
-      <c r="C81" s="3"/>
+      <c r="C81" s="3" t="s">
+        <v>145</v>
+      </c>
       <c r="D81" s="2" t="s">
         <v>39</v>
       </c>
@@ -5902,7 +6185,7 @@
         <v>2</v>
       </c>
       <c r="I81" s="2">
-        <v>40</v>
+        <v>140</v>
       </c>
       <c r="J81" s="2">
         <v>21</v>
@@ -5936,7 +6219,9 @@
       <c r="B82" s="2">
         <v>79</v>
       </c>
-      <c r="C82" s="3"/>
+      <c r="C82" s="3" t="s">
+        <v>145</v>
+      </c>
       <c r="D82" s="2" t="s">
         <v>39</v>
       </c>
@@ -5947,7 +6232,7 @@
         <v>2</v>
       </c>
       <c r="I82" s="2">
-        <v>40</v>
+        <v>140</v>
       </c>
       <c r="J82" s="2">
         <v>21</v>
@@ -5981,7 +6266,9 @@
       <c r="B83" s="2">
         <v>80</v>
       </c>
-      <c r="C83" s="3"/>
+      <c r="C83" s="3" t="s">
+        <v>146</v>
+      </c>
       <c r="D83" s="2" t="s">
         <v>39</v>
       </c>
@@ -5992,7 +6279,7 @@
         <v>2</v>
       </c>
       <c r="I83" s="2">
-        <v>53</v>
+        <v>186</v>
       </c>
       <c r="J83" s="2">
         <v>35</v>
@@ -6026,7 +6313,9 @@
       <c r="B84" s="2">
         <v>81</v>
       </c>
-      <c r="C84" s="3"/>
+      <c r="C84" s="3" t="s">
+        <v>146</v>
+      </c>
       <c r="D84" s="2" t="s">
         <v>39</v>
       </c>
@@ -6037,7 +6326,7 @@
         <v>2</v>
       </c>
       <c r="I84" s="2">
-        <v>53</v>
+        <v>186</v>
       </c>
       <c r="J84" s="2">
         <v>35</v>
@@ -6071,7 +6360,9 @@
       <c r="B85" s="2">
         <v>82</v>
       </c>
-      <c r="C85" s="3"/>
+      <c r="C85" s="3" t="s">
+        <v>146</v>
+      </c>
       <c r="D85" s="2" t="s">
         <v>39</v>
       </c>
@@ -6082,7 +6373,7 @@
         <v>2</v>
       </c>
       <c r="I85" s="2">
-        <v>53</v>
+        <v>186</v>
       </c>
       <c r="J85" s="2">
         <v>35</v>
@@ -6116,7 +6407,9 @@
       <c r="B86" s="2">
         <v>83</v>
       </c>
-      <c r="C86" s="3"/>
+      <c r="C86" s="3" t="s">
+        <v>146</v>
+      </c>
       <c r="D86" s="2" t="s">
         <v>39</v>
       </c>
@@ -6127,7 +6420,7 @@
         <v>2</v>
       </c>
       <c r="I86" s="2">
-        <v>53</v>
+        <v>186</v>
       </c>
       <c r="J86" s="2">
         <v>35</v>
@@ -6161,7 +6454,9 @@
       <c r="B87" s="2">
         <v>84</v>
       </c>
-      <c r="C87" s="3"/>
+      <c r="C87" s="3" t="s">
+        <v>146</v>
+      </c>
       <c r="D87" s="2" t="s">
         <v>39</v>
       </c>
@@ -6172,7 +6467,7 @@
         <v>2</v>
       </c>
       <c r="I87" s="2">
-        <v>53</v>
+        <v>186</v>
       </c>
       <c r="J87" s="2">
         <v>35</v>
@@ -6206,7 +6501,9 @@
       <c r="B88" s="2">
         <v>85</v>
       </c>
-      <c r="C88" s="3"/>
+      <c r="C88" s="3" t="s">
+        <v>146</v>
+      </c>
       <c r="D88" s="2" t="s">
         <v>39</v>
       </c>
@@ -6217,7 +6514,7 @@
         <v>2</v>
       </c>
       <c r="I88" s="2">
-        <v>53</v>
+        <v>186</v>
       </c>
       <c r="J88" s="2">
         <v>35</v>
@@ -6251,7 +6548,9 @@
       <c r="B89" s="2">
         <v>86</v>
       </c>
-      <c r="C89" s="3"/>
+      <c r="C89" s="3" t="s">
+        <v>147</v>
+      </c>
       <c r="D89" s="2" t="s">
         <v>39</v>
       </c>
@@ -6262,7 +6561,7 @@
         <v>2</v>
       </c>
       <c r="I89" s="2">
-        <v>50</v>
+        <v>175</v>
       </c>
       <c r="J89" s="2">
         <v>43</v>
@@ -6296,7 +6595,9 @@
       <c r="B90" s="2">
         <v>87</v>
       </c>
-      <c r="C90" s="3"/>
+      <c r="C90" s="3" t="s">
+        <v>147</v>
+      </c>
       <c r="D90" s="2" t="s">
         <v>39</v>
       </c>
@@ -6307,7 +6608,7 @@
         <v>2</v>
       </c>
       <c r="I90" s="2">
-        <v>50</v>
+        <v>175</v>
       </c>
       <c r="J90" s="2">
         <v>43</v>
@@ -6341,7 +6642,9 @@
       <c r="B91" s="2">
         <v>88</v>
       </c>
-      <c r="C91" s="3"/>
+      <c r="C91" s="3" t="s">
+        <v>147</v>
+      </c>
       <c r="D91" s="2" t="s">
         <v>39</v>
       </c>
@@ -6352,7 +6655,7 @@
         <v>2</v>
       </c>
       <c r="I91" s="2">
-        <v>50</v>
+        <v>175</v>
       </c>
       <c r="J91" s="2">
         <v>43</v>
@@ -6386,7 +6689,9 @@
       <c r="B92" s="2">
         <v>89</v>
       </c>
-      <c r="C92" s="3"/>
+      <c r="C92" s="3" t="s">
+        <v>147</v>
+      </c>
       <c r="D92" s="2" t="s">
         <v>39</v>
       </c>
@@ -6397,7 +6702,7 @@
         <v>2</v>
       </c>
       <c r="I92" s="2">
-        <v>50</v>
+        <v>175</v>
       </c>
       <c r="J92" s="2">
         <v>43</v>
@@ -6431,7 +6736,9 @@
       <c r="B93" s="2">
         <v>90</v>
       </c>
-      <c r="C93" s="3"/>
+      <c r="C93" s="3" t="s">
+        <v>147</v>
+      </c>
       <c r="D93" s="2" t="s">
         <v>39</v>
       </c>
@@ -6442,7 +6749,7 @@
         <v>2</v>
       </c>
       <c r="I93" s="2">
-        <v>50</v>
+        <v>175</v>
       </c>
       <c r="J93" s="2">
         <v>43</v>
@@ -6476,7 +6783,9 @@
       <c r="B94" s="2">
         <v>91</v>
       </c>
-      <c r="C94" s="3"/>
+      <c r="C94" s="3" t="s">
+        <v>147</v>
+      </c>
       <c r="D94" s="2" t="s">
         <v>39</v>
       </c>
@@ -6487,7 +6796,7 @@
         <v>2</v>
       </c>
       <c r="I94" s="2">
-        <v>50</v>
+        <v>175</v>
       </c>
       <c r="J94" s="2">
         <v>43</v>
@@ -6521,7 +6830,9 @@
       <c r="B95" s="2">
         <v>92</v>
       </c>
-      <c r="C95" s="3"/>
+      <c r="C95" s="3" t="s">
+        <v>147</v>
+      </c>
       <c r="D95" s="2" t="s">
         <v>39</v>
       </c>
@@ -6532,7 +6843,7 @@
         <v>2</v>
       </c>
       <c r="I95" s="2">
-        <v>50</v>
+        <v>175</v>
       </c>
       <c r="J95" s="2">
         <v>43</v>
@@ -6566,7 +6877,9 @@
       <c r="B96" s="2">
         <v>93</v>
       </c>
-      <c r="C96" s="3"/>
+      <c r="C96" s="3" t="s">
+        <v>147</v>
+      </c>
       <c r="D96" s="2" t="s">
         <v>39</v>
       </c>
@@ -6577,7 +6890,7 @@
         <v>2</v>
       </c>
       <c r="I96" s="2">
-        <v>50</v>
+        <v>175</v>
       </c>
       <c r="J96" s="2">
         <v>43</v>
@@ -6611,7 +6924,9 @@
       <c r="B97" s="2">
         <v>94</v>
       </c>
-      <c r="C97" s="3"/>
+      <c r="C97" s="3" t="s">
+        <v>148</v>
+      </c>
       <c r="D97" s="2" t="s">
         <v>39</v>
       </c>
@@ -6622,7 +6937,7 @@
         <v>2</v>
       </c>
       <c r="I97" s="2">
-        <v>51</v>
+        <v>179</v>
       </c>
       <c r="J97" s="2">
         <v>28</v>
@@ -6656,6 +6971,9 @@
       <c r="B98" s="2">
         <v>95</v>
       </c>
+      <c r="C98" s="3" t="s">
+        <v>148</v>
+      </c>
       <c r="D98" s="2" t="s">
         <v>39</v>
       </c>
@@ -6666,7 +6984,7 @@
         <v>2</v>
       </c>
       <c r="I98" s="2">
-        <v>51</v>
+        <v>179</v>
       </c>
       <c r="J98" s="2">
         <v>28</v>
@@ -6700,6 +7018,9 @@
       <c r="B99" s="2">
         <v>96</v>
       </c>
+      <c r="C99" s="3" t="s">
+        <v>148</v>
+      </c>
       <c r="D99" s="2" t="s">
         <v>39</v>
       </c>
@@ -6710,7 +7031,7 @@
         <v>2</v>
       </c>
       <c r="I99" s="2">
-        <v>51</v>
+        <v>179</v>
       </c>
       <c r="J99" s="2">
         <v>28</v>
@@ -6744,6 +7065,9 @@
       <c r="B100" s="2">
         <v>97</v>
       </c>
+      <c r="C100" s="3" t="s">
+        <v>148</v>
+      </c>
       <c r="D100" s="2" t="s">
         <v>39</v>
       </c>
@@ -6754,7 +7078,7 @@
         <v>2</v>
       </c>
       <c r="I100" s="2">
-        <v>51</v>
+        <v>179</v>
       </c>
       <c r="J100" s="2">
         <v>28</v>
@@ -6788,6 +7112,9 @@
       <c r="B101" s="2">
         <v>98</v>
       </c>
+      <c r="C101" s="3" t="s">
+        <v>148</v>
+      </c>
       <c r="D101" s="2" t="s">
         <v>39</v>
       </c>
@@ -6798,7 +7125,7 @@
         <v>2</v>
       </c>
       <c r="I101" s="2">
-        <v>51</v>
+        <v>179</v>
       </c>
       <c r="J101" s="2">
         <v>28</v>
@@ -6832,6 +7159,9 @@
       <c r="B102" s="2">
         <v>99</v>
       </c>
+      <c r="C102" s="3" t="s">
+        <v>148</v>
+      </c>
       <c r="D102" s="2" t="s">
         <v>39</v>
       </c>
@@ -6842,7 +7172,7 @@
         <v>2</v>
       </c>
       <c r="I102" s="2">
-        <v>51</v>
+        <v>179</v>
       </c>
       <c r="J102" s="2">
         <v>28</v>
@@ -6889,7 +7219,7 @@
         <v>2</v>
       </c>
       <c r="I103" s="2">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="J103" s="2">
         <v>55</v>
@@ -6923,7 +7253,9 @@
       <c r="B104" s="2">
         <v>101</v>
       </c>
-      <c r="C104" s="3"/>
+      <c r="C104" s="3" t="s">
+        <v>149</v>
+      </c>
       <c r="D104" s="2" t="s">
         <v>39</v>
       </c>
@@ -6934,7 +7266,7 @@
         <v>2</v>
       </c>
       <c r="I104" s="2">
-        <v>55</v>
+        <v>248</v>
       </c>
       <c r="J104" s="2">
         <v>43</v>
@@ -6968,6 +7300,9 @@
       <c r="B105" s="2">
         <v>102</v>
       </c>
+      <c r="C105" s="3" t="s">
+        <v>149</v>
+      </c>
       <c r="D105" s="2" t="s">
         <v>39</v>
       </c>
@@ -6978,7 +7313,7 @@
         <v>2</v>
       </c>
       <c r="I105" s="2">
-        <v>55</v>
+        <v>248</v>
       </c>
       <c r="J105" s="2">
         <v>43</v>
@@ -7012,6 +7347,9 @@
       <c r="B106" s="2">
         <v>103</v>
       </c>
+      <c r="C106" s="3" t="s">
+        <v>149</v>
+      </c>
       <c r="D106" s="2" t="s">
         <v>39</v>
       </c>
@@ -7022,7 +7360,7 @@
         <v>2</v>
       </c>
       <c r="I106" s="2">
-        <v>55</v>
+        <v>248</v>
       </c>
       <c r="J106" s="2">
         <v>43</v>
@@ -7056,6 +7394,9 @@
       <c r="B107" s="2">
         <v>104</v>
       </c>
+      <c r="C107" s="3" t="s">
+        <v>149</v>
+      </c>
       <c r="D107" s="2" t="s">
         <v>39</v>
       </c>
@@ -7066,7 +7407,7 @@
         <v>2</v>
       </c>
       <c r="I107" s="2">
-        <v>55</v>
+        <v>248</v>
       </c>
       <c r="J107" s="2">
         <v>43</v>
@@ -7100,6 +7441,9 @@
       <c r="B108" s="2">
         <v>105</v>
       </c>
+      <c r="C108" s="3" t="s">
+        <v>149</v>
+      </c>
       <c r="D108" s="2" t="s">
         <v>39</v>
       </c>
@@ -7110,7 +7454,7 @@
         <v>2</v>
       </c>
       <c r="I108" s="2">
-        <v>55</v>
+        <v>248</v>
       </c>
       <c r="J108" s="2">
         <v>43</v>
@@ -7144,7 +7488,9 @@
       <c r="B109" s="2">
         <v>106</v>
       </c>
-      <c r="C109" s="3"/>
+      <c r="C109" s="3" t="s">
+        <v>150</v>
+      </c>
       <c r="D109" s="2" t="s">
         <v>39</v>
       </c>
@@ -7155,7 +7501,7 @@
         <v>2</v>
       </c>
       <c r="I109" s="2">
-        <v>77</v>
+        <v>347</v>
       </c>
       <c r="J109" s="2">
         <v>56</v>
@@ -7189,7 +7535,9 @@
       <c r="B110" s="2">
         <v>107</v>
       </c>
-      <c r="C110" s="3"/>
+      <c r="C110" s="3" t="s">
+        <v>150</v>
+      </c>
       <c r="D110" s="2" t="s">
         <v>39</v>
       </c>
@@ -7200,7 +7548,7 @@
         <v>2</v>
       </c>
       <c r="I110" s="2">
-        <v>77</v>
+        <v>347</v>
       </c>
       <c r="J110" s="2">
         <v>56</v>
@@ -7234,7 +7582,9 @@
       <c r="B111" s="2">
         <v>108</v>
       </c>
-      <c r="C111" s="3"/>
+      <c r="C111" s="3" t="s">
+        <v>150</v>
+      </c>
       <c r="D111" s="2" t="s">
         <v>39</v>
       </c>
@@ -7245,7 +7595,7 @@
         <v>2</v>
       </c>
       <c r="I111" s="2">
-        <v>77</v>
+        <v>347</v>
       </c>
       <c r="J111" s="2">
         <v>56</v>
@@ -7279,7 +7629,9 @@
       <c r="B112" s="2">
         <v>109</v>
       </c>
-      <c r="C112" s="3"/>
+      <c r="C112" s="3" t="s">
+        <v>150</v>
+      </c>
       <c r="D112" s="2" t="s">
         <v>39</v>
       </c>
@@ -7290,7 +7642,7 @@
         <v>2</v>
       </c>
       <c r="I112" s="2">
-        <v>77</v>
+        <v>347</v>
       </c>
       <c r="J112" s="2">
         <v>56</v>
@@ -7324,7 +7676,9 @@
       <c r="B113" s="2">
         <v>110</v>
       </c>
-      <c r="C113" s="3"/>
+      <c r="C113" s="3" t="s">
+        <v>150</v>
+      </c>
       <c r="D113" s="2" t="s">
         <v>39</v>
       </c>
@@ -7335,7 +7689,7 @@
         <v>2</v>
       </c>
       <c r="I113" s="2">
-        <v>77</v>
+        <v>347</v>
       </c>
       <c r="J113" s="2">
         <v>56</v>
@@ -7369,7 +7723,9 @@
       <c r="B114" s="2">
         <v>111</v>
       </c>
-      <c r="C114" s="3"/>
+      <c r="C114" s="3" t="s">
+        <v>149</v>
+      </c>
       <c r="D114" s="2" t="s">
         <v>39</v>
       </c>
@@ -7380,7 +7736,7 @@
         <v>2</v>
       </c>
       <c r="I114" s="2">
-        <v>92</v>
+        <v>414</v>
       </c>
       <c r="J114" s="2">
         <v>63</v>
@@ -7414,7 +7770,9 @@
       <c r="B115" s="2">
         <v>112</v>
       </c>
-      <c r="C115" s="3"/>
+      <c r="C115" s="3" t="s">
+        <v>149</v>
+      </c>
       <c r="D115" s="2" t="s">
         <v>39</v>
       </c>
@@ -7425,7 +7783,7 @@
         <v>2</v>
       </c>
       <c r="I115" s="2">
-        <v>92</v>
+        <v>414</v>
       </c>
       <c r="J115" s="2">
         <v>63</v>
@@ -7459,7 +7817,9 @@
       <c r="B116" s="2">
         <v>113</v>
       </c>
-      <c r="C116" s="3"/>
+      <c r="C116" s="3" t="s">
+        <v>149</v>
+      </c>
       <c r="D116" s="2" t="s">
         <v>39</v>
       </c>
@@ -7470,7 +7830,7 @@
         <v>2</v>
       </c>
       <c r="I116" s="2">
-        <v>92</v>
+        <v>414</v>
       </c>
       <c r="J116" s="2">
         <v>63</v>
@@ -7504,7 +7864,9 @@
       <c r="B117" s="2">
         <v>114</v>
       </c>
-      <c r="C117" s="3"/>
+      <c r="C117" s="3" t="s">
+        <v>149</v>
+      </c>
       <c r="D117" s="2" t="s">
         <v>39</v>
       </c>
@@ -7515,7 +7877,7 @@
         <v>2</v>
       </c>
       <c r="I117" s="2">
-        <v>92</v>
+        <v>414</v>
       </c>
       <c r="J117" s="2">
         <v>63</v>
@@ -7549,6 +7911,9 @@
       <c r="B118" s="2">
         <v>115</v>
       </c>
+      <c r="C118" s="3" t="s">
+        <v>149</v>
+      </c>
       <c r="D118" s="2" t="s">
         <v>39</v>
       </c>
@@ -7559,7 +7924,7 @@
         <v>2</v>
       </c>
       <c r="I118" s="2">
-        <v>92</v>
+        <v>414</v>
       </c>
       <c r="J118" s="2">
         <v>63</v>
@@ -7593,7 +7958,9 @@
       <c r="B119" s="2">
         <v>116</v>
       </c>
-      <c r="C119" s="3"/>
+      <c r="C119" s="3" t="s">
+        <v>151</v>
+      </c>
       <c r="D119" s="2" t="s">
         <v>39</v>
       </c>
@@ -7604,7 +7971,7 @@
         <v>2</v>
       </c>
       <c r="I119" s="2">
-        <v>88</v>
+        <v>396</v>
       </c>
       <c r="J119" s="2">
         <v>73</v>
@@ -7638,6 +8005,9 @@
       <c r="B120" s="2">
         <v>117</v>
       </c>
+      <c r="C120" s="3" t="s">
+        <v>151</v>
+      </c>
       <c r="D120" s="2" t="s">
         <v>39</v>
       </c>
@@ -7648,7 +8018,7 @@
         <v>2</v>
       </c>
       <c r="I120" s="2">
-        <v>88</v>
+        <v>396</v>
       </c>
       <c r="J120" s="2">
         <v>73</v>
@@ -7682,6 +8052,9 @@
       <c r="B121" s="2">
         <v>118</v>
       </c>
+      <c r="C121" s="3" t="s">
+        <v>151</v>
+      </c>
       <c r="D121" s="2" t="s">
         <v>39</v>
       </c>
@@ -7692,7 +8065,7 @@
         <v>2</v>
       </c>
       <c r="I121" s="2">
-        <v>88</v>
+        <v>396</v>
       </c>
       <c r="J121" s="2">
         <v>73</v>
@@ -7726,6 +8099,9 @@
       <c r="B122" s="2">
         <v>119</v>
       </c>
+      <c r="C122" s="3" t="s">
+        <v>151</v>
+      </c>
       <c r="D122" s="2" t="s">
         <v>39</v>
       </c>
@@ -7736,7 +8112,7 @@
         <v>2</v>
       </c>
       <c r="I122" s="2">
-        <v>88</v>
+        <v>396</v>
       </c>
       <c r="J122" s="2">
         <v>73</v>
@@ -7770,6 +8146,9 @@
       <c r="B123" s="2">
         <v>120</v>
       </c>
+      <c r="C123" s="3" t="s">
+        <v>151</v>
+      </c>
       <c r="D123" s="2" t="s">
         <v>39</v>
       </c>
@@ -7780,7 +8159,7 @@
         <v>2</v>
       </c>
       <c r="I123" s="2">
-        <v>88</v>
+        <v>396</v>
       </c>
       <c r="J123" s="2">
         <v>73</v>
@@ -7814,7 +8193,9 @@
       <c r="B124" s="2">
         <v>121</v>
       </c>
-      <c r="C124" s="3"/>
+      <c r="C124" s="3" t="s">
+        <v>152</v>
+      </c>
       <c r="D124" s="2" t="s">
         <v>39</v>
       </c>
@@ -7825,7 +8206,7 @@
         <v>2</v>
       </c>
       <c r="I124" s="2">
-        <v>97</v>
+        <v>437</v>
       </c>
       <c r="J124" s="2">
         <v>80</v>
@@ -7859,6 +8240,9 @@
       <c r="B125" s="2">
         <v>122</v>
       </c>
+      <c r="C125" s="3" t="s">
+        <v>152</v>
+      </c>
       <c r="D125" s="2" t="s">
         <v>39</v>
       </c>
@@ -7869,7 +8253,7 @@
         <v>2</v>
       </c>
       <c r="I125" s="2">
-        <v>97</v>
+        <v>437</v>
       </c>
       <c r="J125" s="2">
         <v>80</v>
@@ -7903,6 +8287,9 @@
       <c r="B126" s="2">
         <v>123</v>
       </c>
+      <c r="C126" s="3" t="s">
+        <v>152</v>
+      </c>
       <c r="D126" s="2" t="s">
         <v>39</v>
       </c>
@@ -7913,7 +8300,7 @@
         <v>2</v>
       </c>
       <c r="I126" s="2">
-        <v>97</v>
+        <v>437</v>
       </c>
       <c r="J126" s="2">
         <v>80</v>
@@ -7947,6 +8334,9 @@
       <c r="B127" s="2">
         <v>124</v>
       </c>
+      <c r="C127" s="3" t="s">
+        <v>152</v>
+      </c>
       <c r="D127" s="2" t="s">
         <v>39</v>
       </c>
@@ -7957,7 +8347,7 @@
         <v>2</v>
       </c>
       <c r="I127" s="2">
-        <v>97</v>
+        <v>437</v>
       </c>
       <c r="J127" s="2">
         <v>80</v>
@@ -7991,6 +8381,9 @@
       <c r="B128" s="2">
         <v>125</v>
       </c>
+      <c r="C128" s="3" t="s">
+        <v>152</v>
+      </c>
       <c r="D128" s="2" t="s">
         <v>39</v>
       </c>
@@ -8001,7 +8394,7 @@
         <v>2</v>
       </c>
       <c r="I128" s="2">
-        <v>97</v>
+        <v>437</v>
       </c>
       <c r="J128" s="2">
         <v>80</v>
@@ -8035,7 +8428,9 @@
       <c r="B129" s="2">
         <v>126</v>
       </c>
-      <c r="C129" s="3"/>
+      <c r="C129" s="3" t="s">
+        <v>153</v>
+      </c>
       <c r="D129" s="2" t="s">
         <v>39</v>
       </c>
@@ -8046,7 +8441,7 @@
         <v>2</v>
       </c>
       <c r="I129" s="2">
-        <v>97</v>
+        <v>437</v>
       </c>
       <c r="J129" s="2">
         <v>87</v>
@@ -8080,6 +8475,9 @@
       <c r="B130" s="2">
         <v>127</v>
       </c>
+      <c r="C130" s="3" t="s">
+        <v>153</v>
+      </c>
       <c r="D130" s="2" t="s">
         <v>39</v>
       </c>
@@ -8090,7 +8488,7 @@
         <v>2</v>
       </c>
       <c r="I130" s="2">
-        <v>97</v>
+        <v>437</v>
       </c>
       <c r="J130" s="2">
         <v>87</v>
@@ -8124,6 +8522,9 @@
       <c r="B131" s="2">
         <v>128</v>
       </c>
+      <c r="C131" s="3" t="s">
+        <v>153</v>
+      </c>
       <c r="D131" s="2" t="s">
         <v>39</v>
       </c>
@@ -8134,7 +8535,7 @@
         <v>2</v>
       </c>
       <c r="I131" s="2">
-        <v>97</v>
+        <v>437</v>
       </c>
       <c r="J131" s="2">
         <v>87</v>
@@ -8168,6 +8569,9 @@
       <c r="B132" s="2">
         <v>129</v>
       </c>
+      <c r="C132" s="3" t="s">
+        <v>153</v>
+      </c>
       <c r="D132" s="2" t="s">
         <v>39</v>
       </c>
@@ -8178,7 +8582,7 @@
         <v>2</v>
       </c>
       <c r="I132" s="2">
-        <v>97</v>
+        <v>437</v>
       </c>
       <c r="J132" s="2">
         <v>87</v>
@@ -8212,6 +8616,9 @@
       <c r="B133" s="2">
         <v>130</v>
       </c>
+      <c r="C133" s="3" t="s">
+        <v>153</v>
+      </c>
       <c r="D133" s="2" t="s">
         <v>39</v>
       </c>
@@ -8222,7 +8629,7 @@
         <v>2</v>
       </c>
       <c r="I133" s="2">
-        <v>97</v>
+        <v>437</v>
       </c>
       <c r="J133" s="2">
         <v>87</v>
@@ -8256,7 +8663,9 @@
       <c r="B134" s="2">
         <v>131</v>
       </c>
-      <c r="C134" s="3"/>
+      <c r="C134" s="3" t="s">
+        <v>154</v>
+      </c>
       <c r="D134" s="2" t="s">
         <v>39</v>
       </c>
@@ -8267,7 +8676,7 @@
         <v>2</v>
       </c>
       <c r="I134" s="2">
-        <v>101</v>
+        <v>455</v>
       </c>
       <c r="J134" s="2">
         <v>90</v>
@@ -8301,6 +8710,9 @@
       <c r="B135" s="2">
         <v>132</v>
       </c>
+      <c r="C135" s="3" t="s">
+        <v>154</v>
+      </c>
       <c r="D135" s="2" t="s">
         <v>39</v>
       </c>
@@ -8311,7 +8723,7 @@
         <v>2</v>
       </c>
       <c r="I135" s="2">
-        <v>101</v>
+        <v>455</v>
       </c>
       <c r="J135" s="2">
         <v>90</v>
@@ -8345,6 +8757,9 @@
       <c r="B136" s="2">
         <v>133</v>
       </c>
+      <c r="C136" s="3" t="s">
+        <v>154</v>
+      </c>
       <c r="D136" s="2" t="s">
         <v>39</v>
       </c>
@@ -8355,7 +8770,7 @@
         <v>2</v>
       </c>
       <c r="I136" s="2">
-        <v>101</v>
+        <v>455</v>
       </c>
       <c r="J136" s="2">
         <v>90</v>
@@ -8389,6 +8804,9 @@
       <c r="B137" s="2">
         <v>134</v>
       </c>
+      <c r="C137" s="3" t="s">
+        <v>154</v>
+      </c>
       <c r="D137" s="2" t="s">
         <v>39</v>
       </c>
@@ -8399,7 +8817,7 @@
         <v>2</v>
       </c>
       <c r="I137" s="2">
-        <v>101</v>
+        <v>455</v>
       </c>
       <c r="J137" s="2">
         <v>90</v>
@@ -8433,6 +8851,9 @@
       <c r="B138" s="2">
         <v>135</v>
       </c>
+      <c r="C138" s="3" t="s">
+        <v>154</v>
+      </c>
       <c r="D138" s="2" t="s">
         <v>39</v>
       </c>
@@ -8443,7 +8864,7 @@
         <v>2</v>
       </c>
       <c r="I138" s="2">
-        <v>101</v>
+        <v>455</v>
       </c>
       <c r="J138" s="2">
         <v>90</v>
@@ -8477,7 +8898,9 @@
       <c r="B139" s="2">
         <v>136</v>
       </c>
-      <c r="C139" s="3"/>
+      <c r="C139" s="3" t="s">
+        <v>138</v>
+      </c>
       <c r="D139" s="2" t="s">
         <v>39</v>
       </c>
@@ -8488,7 +8911,7 @@
         <v>2</v>
       </c>
       <c r="I139" s="2">
-        <v>85</v>
+        <v>383</v>
       </c>
       <c r="J139" s="2">
         <v>62</v>
@@ -8522,6 +8945,9 @@
       <c r="B140" s="2">
         <v>137</v>
       </c>
+      <c r="C140" s="3" t="s">
+        <v>138</v>
+      </c>
       <c r="D140" s="2" t="s">
         <v>39</v>
       </c>
@@ -8532,7 +8958,7 @@
         <v>2</v>
       </c>
       <c r="I140" s="2">
-        <v>85</v>
+        <v>383</v>
       </c>
       <c r="J140" s="2">
         <v>62</v>
@@ -8566,6 +8992,9 @@
       <c r="B141" s="2">
         <v>138</v>
       </c>
+      <c r="C141" s="3" t="s">
+        <v>138</v>
+      </c>
       <c r="D141" s="2" t="s">
         <v>39</v>
       </c>
@@ -8576,7 +9005,7 @@
         <v>2</v>
       </c>
       <c r="I141" s="2">
-        <v>85</v>
+        <v>383</v>
       </c>
       <c r="J141" s="2">
         <v>62</v>
@@ -8610,6 +9039,9 @@
       <c r="B142" s="2">
         <v>139</v>
       </c>
+      <c r="C142" s="3" t="s">
+        <v>138</v>
+      </c>
       <c r="D142" s="2" t="s">
         <v>39</v>
       </c>
@@ -8620,7 +9052,7 @@
         <v>2</v>
       </c>
       <c r="I142" s="2">
-        <v>85</v>
+        <v>383</v>
       </c>
       <c r="J142" s="2">
         <v>62</v>
@@ -8654,6 +9086,9 @@
       <c r="B143" s="2">
         <v>140</v>
       </c>
+      <c r="C143" s="3" t="s">
+        <v>138</v>
+      </c>
       <c r="D143" s="2" t="s">
         <v>39</v>
       </c>
@@ -8664,7 +9099,7 @@
         <v>2</v>
       </c>
       <c r="I143" s="2">
-        <v>85</v>
+        <v>383</v>
       </c>
       <c r="J143" s="2">
         <v>62</v>
@@ -8698,6 +9133,9 @@
       <c r="B144" s="2">
         <v>141</v>
       </c>
+      <c r="C144" s="3" t="s">
+        <v>138</v>
+      </c>
       <c r="D144" s="2" t="s">
         <v>39</v>
       </c>
@@ -8708,7 +9146,7 @@
         <v>2</v>
       </c>
       <c r="I144" s="2">
-        <v>85</v>
+        <v>383</v>
       </c>
       <c r="J144" s="2">
         <v>62</v>
@@ -8755,7 +9193,7 @@
         <v>2</v>
       </c>
       <c r="I145" s="2">
-        <v>79</v>
+        <v>395</v>
       </c>
       <c r="J145" s="2">
         <v>110</v>
@@ -8789,7 +9227,9 @@
       <c r="B146" s="2">
         <v>143</v>
       </c>
-      <c r="C146" s="3"/>
+      <c r="C146" s="3" t="s">
+        <v>155</v>
+      </c>
       <c r="D146" s="2" t="s">
         <v>39</v>
       </c>
@@ -8800,7 +9240,7 @@
         <v>2</v>
       </c>
       <c r="I146" s="2">
-        <v>106</v>
+        <v>636</v>
       </c>
       <c r="J146" s="2">
         <v>95</v>
@@ -8834,7 +9274,9 @@
       <c r="B147" s="2">
         <v>144</v>
       </c>
-      <c r="C147" s="3"/>
+      <c r="C147" s="3" t="s">
+        <v>155</v>
+      </c>
       <c r="D147" s="2" t="s">
         <v>39</v>
       </c>
@@ -8845,7 +9287,7 @@
         <v>2</v>
       </c>
       <c r="I147" s="2">
-        <v>106</v>
+        <v>636</v>
       </c>
       <c r="J147" s="2">
         <v>95</v>
@@ -8879,7 +9321,9 @@
       <c r="B148" s="2">
         <v>145</v>
       </c>
-      <c r="C148" s="3"/>
+      <c r="C148" s="3" t="s">
+        <v>155</v>
+      </c>
       <c r="D148" s="2" t="s">
         <v>39</v>
       </c>
@@ -8890,7 +9334,7 @@
         <v>2</v>
       </c>
       <c r="I148" s="2">
-        <v>106</v>
+        <v>636</v>
       </c>
       <c r="J148" s="2">
         <v>95</v>
@@ -8924,7 +9368,9 @@
       <c r="B149" s="2">
         <v>146</v>
       </c>
-      <c r="C149" s="3"/>
+      <c r="C149" s="3" t="s">
+        <v>155</v>
+      </c>
       <c r="D149" s="2" t="s">
         <v>39</v>
       </c>
@@ -8935,7 +9381,7 @@
         <v>2</v>
       </c>
       <c r="I149" s="2">
-        <v>106</v>
+        <v>636</v>
       </c>
       <c r="J149" s="2">
         <v>95</v>
@@ -8969,7 +9415,9 @@
       <c r="B150" s="2">
         <v>147</v>
       </c>
-      <c r="C150" s="3"/>
+      <c r="C150" s="3" t="s">
+        <v>156</v>
+      </c>
       <c r="D150" s="2" t="s">
         <v>39</v>
       </c>
@@ -8980,7 +9428,7 @@
         <v>2</v>
       </c>
       <c r="I150" s="2">
-        <v>116</v>
+        <v>696</v>
       </c>
       <c r="J150" s="2">
         <v>104</v>
@@ -9014,6 +9462,9 @@
       <c r="B151" s="2">
         <v>148</v>
       </c>
+      <c r="C151" s="3" t="s">
+        <v>156</v>
+      </c>
       <c r="D151" s="2" t="s">
         <v>39</v>
       </c>
@@ -9024,7 +9475,7 @@
         <v>2</v>
       </c>
       <c r="I151" s="2">
-        <v>116</v>
+        <v>696</v>
       </c>
       <c r="J151" s="2">
         <v>104</v>
@@ -9058,6 +9509,9 @@
       <c r="B152" s="2">
         <v>149</v>
       </c>
+      <c r="C152" s="3" t="s">
+        <v>156</v>
+      </c>
       <c r="D152" s="2" t="s">
         <v>39</v>
       </c>
@@ -9068,7 +9522,7 @@
         <v>2</v>
       </c>
       <c r="I152" s="2">
-        <v>116</v>
+        <v>696</v>
       </c>
       <c r="J152" s="2">
         <v>104</v>
@@ -9102,6 +9556,9 @@
       <c r="B153" s="2">
         <v>150</v>
       </c>
+      <c r="C153" s="3" t="s">
+        <v>156</v>
+      </c>
       <c r="D153" s="2" t="s">
         <v>39</v>
       </c>
@@ -9112,7 +9569,7 @@
         <v>2</v>
       </c>
       <c r="I153" s="2">
-        <v>116</v>
+        <v>696</v>
       </c>
       <c r="J153" s="2">
         <v>104</v>
@@ -9146,7 +9603,9 @@
       <c r="B154" s="2">
         <v>151</v>
       </c>
-      <c r="C154" s="3"/>
+      <c r="C154" s="3" t="s">
+        <v>155</v>
+      </c>
       <c r="D154" s="2" t="s">
         <v>39</v>
       </c>
@@ -9157,7 +9616,7 @@
         <v>2</v>
       </c>
       <c r="I154" s="2">
-        <v>132</v>
+        <v>792</v>
       </c>
       <c r="J154" s="2">
         <v>109</v>
@@ -9191,6 +9650,9 @@
       <c r="B155" s="2">
         <v>152</v>
       </c>
+      <c r="C155" s="3" t="s">
+        <v>155</v>
+      </c>
       <c r="D155" s="2" t="s">
         <v>39</v>
       </c>
@@ -9201,7 +9663,7 @@
         <v>2</v>
       </c>
       <c r="I155" s="2">
-        <v>132</v>
+        <v>792</v>
       </c>
       <c r="J155" s="2">
         <v>109</v>
@@ -9235,6 +9697,9 @@
       <c r="B156" s="2">
         <v>153</v>
       </c>
+      <c r="C156" s="3" t="s">
+        <v>155</v>
+      </c>
       <c r="D156" s="2" t="s">
         <v>39</v>
       </c>
@@ -9245,7 +9710,7 @@
         <v>2</v>
       </c>
       <c r="I156" s="2">
-        <v>132</v>
+        <v>792</v>
       </c>
       <c r="J156" s="2">
         <v>109</v>
@@ -9279,6 +9744,9 @@
       <c r="B157" s="2">
         <v>154</v>
       </c>
+      <c r="C157" s="3" t="s">
+        <v>155</v>
+      </c>
       <c r="D157" s="2" t="s">
         <v>39</v>
       </c>
@@ -9289,7 +9757,7 @@
         <v>2</v>
       </c>
       <c r="I157" s="2">
-        <v>132</v>
+        <v>792</v>
       </c>
       <c r="J157" s="2">
         <v>109</v>
@@ -9323,6 +9791,9 @@
       <c r="B158" s="2">
         <v>155</v>
       </c>
+      <c r="C158" s="3" t="s">
+        <v>155</v>
+      </c>
       <c r="D158" s="2" t="s">
         <v>39</v>
       </c>
@@ -9333,7 +9804,7 @@
         <v>2</v>
       </c>
       <c r="I158" s="2">
-        <v>132</v>
+        <v>792</v>
       </c>
       <c r="J158" s="2">
         <v>109</v>
@@ -9367,7 +9838,9 @@
       <c r="B159" s="2">
         <v>156</v>
       </c>
-      <c r="C159" s="3"/>
+      <c r="C159" s="3" t="s">
+        <v>157</v>
+      </c>
       <c r="D159" s="2" t="s">
         <v>39</v>
       </c>
@@ -9378,7 +9851,7 @@
         <v>2</v>
       </c>
       <c r="I159" s="2">
-        <v>152</v>
+        <v>912</v>
       </c>
       <c r="J159" s="2">
         <v>121</v>
@@ -9412,7 +9885,9 @@
       <c r="B160" s="2">
         <v>157</v>
       </c>
-      <c r="C160" s="3"/>
+      <c r="C160" s="3" t="s">
+        <v>157</v>
+      </c>
       <c r="D160" s="2" t="s">
         <v>39</v>
       </c>
@@ -9423,7 +9898,7 @@
         <v>2</v>
       </c>
       <c r="I160" s="2">
-        <v>152</v>
+        <v>912</v>
       </c>
       <c r="J160" s="2">
         <v>121</v>
@@ -9457,7 +9932,9 @@
       <c r="B161" s="2">
         <v>158</v>
       </c>
-      <c r="C161" s="3"/>
+      <c r="C161" s="3" t="s">
+        <v>157</v>
+      </c>
       <c r="D161" s="2" t="s">
         <v>39</v>
       </c>
@@ -9468,7 +9945,7 @@
         <v>2</v>
       </c>
       <c r="I161" s="2">
-        <v>152</v>
+        <v>912</v>
       </c>
       <c r="J161" s="2">
         <v>121</v>
@@ -9502,7 +9979,9 @@
       <c r="B162" s="2">
         <v>159</v>
       </c>
-      <c r="C162" s="3"/>
+      <c r="C162" s="3" t="s">
+        <v>157</v>
+      </c>
       <c r="D162" s="2" t="s">
         <v>39</v>
       </c>
@@ -9513,7 +9992,7 @@
         <v>2</v>
       </c>
       <c r="I162" s="2">
-        <v>152</v>
+        <v>912</v>
       </c>
       <c r="J162" s="2">
         <v>121</v>
@@ -9547,7 +10026,9 @@
       <c r="B163" s="2">
         <v>160</v>
       </c>
-      <c r="C163" s="3"/>
+      <c r="C163" s="3" t="s">
+        <v>157</v>
+      </c>
       <c r="D163" s="2" t="s">
         <v>39</v>
       </c>
@@ -9558,7 +10039,7 @@
         <v>2</v>
       </c>
       <c r="I163" s="2">
-        <v>152</v>
+        <v>912</v>
       </c>
       <c r="J163" s="2">
         <v>121</v>
@@ -9592,7 +10073,9 @@
       <c r="B164" s="2">
         <v>161</v>
       </c>
-      <c r="C164" s="3"/>
+      <c r="C164" s="3" t="s">
+        <v>157</v>
+      </c>
       <c r="D164" s="2" t="s">
         <v>39</v>
       </c>
@@ -9603,7 +10086,7 @@
         <v>2</v>
       </c>
       <c r="I164" s="2">
-        <v>152</v>
+        <v>912</v>
       </c>
       <c r="J164" s="2">
         <v>121</v>
@@ -9637,7 +10120,9 @@
       <c r="B165" s="2">
         <v>162</v>
       </c>
-      <c r="C165" s="3"/>
+      <c r="C165" s="3" t="s">
+        <v>157</v>
+      </c>
       <c r="D165" s="2" t="s">
         <v>39</v>
       </c>
@@ -9648,7 +10133,7 @@
         <v>2</v>
       </c>
       <c r="I165" s="2">
-        <v>152</v>
+        <v>912</v>
       </c>
       <c r="J165" s="2">
         <v>121</v>
@@ -9682,7 +10167,9 @@
       <c r="B166" s="2">
         <v>163</v>
       </c>
-      <c r="C166" s="3"/>
+      <c r="C166" s="3" t="s">
+        <v>157</v>
+      </c>
       <c r="D166" s="2" t="s">
         <v>39</v>
       </c>
@@ -9693,7 +10180,7 @@
         <v>2</v>
       </c>
       <c r="I166" s="2">
-        <v>152</v>
+        <v>912</v>
       </c>
       <c r="J166" s="2">
         <v>121</v>
@@ -9727,7 +10214,9 @@
       <c r="B167" s="2">
         <v>164</v>
       </c>
-      <c r="C167" s="3"/>
+      <c r="C167" s="3" t="s">
+        <v>157</v>
+      </c>
       <c r="D167" s="2" t="s">
         <v>39</v>
       </c>
@@ -9738,7 +10227,7 @@
         <v>2</v>
       </c>
       <c r="I167" s="2">
-        <v>152</v>
+        <v>912</v>
       </c>
       <c r="J167" s="2">
         <v>121</v>
@@ -9772,7 +10261,9 @@
       <c r="B168" s="2">
         <v>165</v>
       </c>
-      <c r="C168" s="3"/>
+      <c r="C168" s="3" t="s">
+        <v>157</v>
+      </c>
       <c r="D168" s="2" t="s">
         <v>39</v>
       </c>
@@ -9783,7 +10274,7 @@
         <v>2</v>
       </c>
       <c r="I168" s="2">
-        <v>152</v>
+        <v>912</v>
       </c>
       <c r="J168" s="2">
         <v>121</v>
@@ -9817,7 +10308,9 @@
       <c r="B169" s="2">
         <v>166</v>
       </c>
-      <c r="C169" s="3"/>
+      <c r="C169" s="3" t="s">
+        <v>157</v>
+      </c>
       <c r="D169" s="2" t="s">
         <v>39</v>
       </c>
@@ -9828,7 +10321,7 @@
         <v>2</v>
       </c>
       <c r="I169" s="2">
-        <v>152</v>
+        <v>912</v>
       </c>
       <c r="J169" s="2">
         <v>121</v>
@@ -9862,7 +10355,9 @@
       <c r="B170" s="2">
         <v>167</v>
       </c>
-      <c r="C170" s="3"/>
+      <c r="C170" s="3" t="s">
+        <v>157</v>
+      </c>
       <c r="D170" s="2" t="s">
         <v>39</v>
       </c>
@@ -9873,7 +10368,7 @@
         <v>2</v>
       </c>
       <c r="I170" s="2">
-        <v>152</v>
+        <v>912</v>
       </c>
       <c r="J170" s="2">
         <v>121</v>
@@ -9907,7 +10402,9 @@
       <c r="B171" s="2">
         <v>168</v>
       </c>
-      <c r="C171" s="3"/>
+      <c r="C171" s="3" t="s">
+        <v>158</v>
+      </c>
       <c r="D171" s="2" t="s">
         <v>39</v>
       </c>
@@ -9918,7 +10415,7 @@
         <v>3</v>
       </c>
       <c r="I171" s="2">
-        <v>159</v>
+        <v>954</v>
       </c>
       <c r="J171" s="2">
         <v>131</v>
@@ -9952,6 +10449,9 @@
       <c r="B172" s="2">
         <v>169</v>
       </c>
+      <c r="C172" s="3" t="s">
+        <v>158</v>
+      </c>
       <c r="D172" s="2" t="s">
         <v>39</v>
       </c>
@@ -9962,7 +10462,7 @@
         <v>3</v>
       </c>
       <c r="I172" s="2">
-        <v>159</v>
+        <v>954</v>
       </c>
       <c r="J172" s="2">
         <v>131</v>
@@ -9996,6 +10496,9 @@
       <c r="B173" s="2">
         <v>170</v>
       </c>
+      <c r="C173" s="3" t="s">
+        <v>158</v>
+      </c>
       <c r="D173" s="2" t="s">
         <v>39</v>
       </c>
@@ -10006,7 +10509,7 @@
         <v>3</v>
       </c>
       <c r="I173" s="2">
-        <v>159</v>
+        <v>954</v>
       </c>
       <c r="J173" s="2">
         <v>131</v>
@@ -10040,6 +10543,9 @@
       <c r="B174" s="2">
         <v>171</v>
       </c>
+      <c r="C174" s="3" t="s">
+        <v>158</v>
+      </c>
       <c r="D174" s="2" t="s">
         <v>39</v>
       </c>
@@ -10050,7 +10556,7 @@
         <v>3</v>
       </c>
       <c r="I174" s="2">
-        <v>159</v>
+        <v>954</v>
       </c>
       <c r="J174" s="2">
         <v>131</v>
@@ -10084,6 +10590,9 @@
       <c r="B175" s="2">
         <v>172</v>
       </c>
+      <c r="C175" s="3" t="s">
+        <v>158</v>
+      </c>
       <c r="D175" s="2" t="s">
         <v>39</v>
       </c>
@@ -10094,7 +10603,7 @@
         <v>3</v>
       </c>
       <c r="I175" s="2">
-        <v>159</v>
+        <v>954</v>
       </c>
       <c r="J175" s="2">
         <v>131</v>
@@ -10128,7 +10637,9 @@
       <c r="B176" s="2">
         <v>173</v>
       </c>
-      <c r="C176" s="3"/>
+      <c r="C176" s="3" t="s">
+        <v>158</v>
+      </c>
       <c r="D176" s="2" t="s">
         <v>39</v>
       </c>
@@ -10139,7 +10650,7 @@
         <v>3</v>
       </c>
       <c r="I176" s="2">
-        <v>176</v>
+        <v>1056</v>
       </c>
       <c r="J176" s="2">
         <v>145</v>
@@ -10173,6 +10684,9 @@
       <c r="B177" s="2">
         <v>174</v>
       </c>
+      <c r="C177" s="3" t="s">
+        <v>158</v>
+      </c>
       <c r="D177" s="2" t="s">
         <v>39</v>
       </c>
@@ -10183,7 +10697,7 @@
         <v>3</v>
       </c>
       <c r="I177" s="2">
-        <v>176</v>
+        <v>1056</v>
       </c>
       <c r="J177" s="2">
         <v>145</v>
@@ -10217,6 +10731,9 @@
       <c r="B178" s="2">
         <v>175</v>
       </c>
+      <c r="C178" s="3" t="s">
+        <v>158</v>
+      </c>
       <c r="D178" s="2" t="s">
         <v>39</v>
       </c>
@@ -10227,7 +10744,7 @@
         <v>3</v>
       </c>
       <c r="I178" s="2">
-        <v>176</v>
+        <v>1056</v>
       </c>
       <c r="J178" s="2">
         <v>145</v>
@@ -10261,6 +10778,9 @@
       <c r="B179" s="2">
         <v>176</v>
       </c>
+      <c r="C179" s="3" t="s">
+        <v>158</v>
+      </c>
       <c r="D179" s="2" t="s">
         <v>39</v>
       </c>
@@ -10271,7 +10791,7 @@
         <v>3</v>
       </c>
       <c r="I179" s="2">
-        <v>176</v>
+        <v>1056</v>
       </c>
       <c r="J179" s="2">
         <v>145</v>
@@ -10305,6 +10825,9 @@
       <c r="B180" s="2">
         <v>177</v>
       </c>
+      <c r="C180" s="3" t="s">
+        <v>158</v>
+      </c>
       <c r="D180" s="2" t="s">
         <v>39</v>
       </c>
@@ -10315,7 +10838,7 @@
         <v>3</v>
       </c>
       <c r="I180" s="2">
-        <v>176</v>
+        <v>1056</v>
       </c>
       <c r="J180" s="2">
         <v>145</v>
@@ -10349,6 +10872,9 @@
       <c r="B181" s="2">
         <v>178</v>
       </c>
+      <c r="C181" s="3" t="s">
+        <v>158</v>
+      </c>
       <c r="D181" s="2" t="s">
         <v>39</v>
       </c>
@@ -10359,7 +10885,7 @@
         <v>3</v>
       </c>
       <c r="I181" s="2">
-        <v>176</v>
+        <v>1056</v>
       </c>
       <c r="J181" s="2">
         <v>145</v>
@@ -10393,6 +10919,9 @@
       <c r="B182" s="2">
         <v>179</v>
       </c>
+      <c r="C182" s="3" t="s">
+        <v>158</v>
+      </c>
       <c r="D182" s="2" t="s">
         <v>39</v>
       </c>
@@ -10403,7 +10932,7 @@
         <v>3</v>
       </c>
       <c r="I182" s="2">
-        <v>176</v>
+        <v>1056</v>
       </c>
       <c r="J182" s="2">
         <v>145</v>
@@ -10437,6 +10966,9 @@
       <c r="B183" s="2">
         <v>180</v>
       </c>
+      <c r="C183" s="3" t="s">
+        <v>158</v>
+      </c>
       <c r="D183" s="2" t="s">
         <v>39</v>
       </c>
@@ -10447,7 +10979,7 @@
         <v>3</v>
       </c>
       <c r="I183" s="2">
-        <v>176</v>
+        <v>1056</v>
       </c>
       <c r="J183" s="2">
         <v>145</v>
@@ -10481,6 +11013,9 @@
       <c r="B184" s="2">
         <v>181</v>
       </c>
+      <c r="C184" s="3" t="s">
+        <v>158</v>
+      </c>
       <c r="D184" s="2" t="s">
         <v>39</v>
       </c>
@@ -10491,7 +11026,7 @@
         <v>3</v>
       </c>
       <c r="I184" s="2">
-        <v>176</v>
+        <v>1056</v>
       </c>
       <c r="J184" s="2">
         <v>145</v>
@@ -10525,6 +11060,9 @@
       <c r="B185" s="2">
         <v>182</v>
       </c>
+      <c r="C185" s="3" t="s">
+        <v>159</v>
+      </c>
       <c r="D185" s="2" t="s">
         <v>39</v>
       </c>
@@ -10535,7 +11073,7 @@
         <v>3</v>
       </c>
       <c r="I185" s="2">
-        <v>168</v>
+        <v>1008</v>
       </c>
       <c r="J185" s="2">
         <v>100</v>
@@ -10569,6 +11107,9 @@
       <c r="B186" s="2">
         <v>183</v>
       </c>
+      <c r="C186" s="3" t="s">
+        <v>159</v>
+      </c>
       <c r="D186" s="2" t="s">
         <v>39</v>
       </c>
@@ -10579,7 +11120,7 @@
         <v>3</v>
       </c>
       <c r="I186" s="2">
-        <v>168</v>
+        <v>1008</v>
       </c>
       <c r="J186" s="2">
         <v>100</v>
@@ -10613,6 +11154,9 @@
       <c r="B187" s="2">
         <v>184</v>
       </c>
+      <c r="C187" s="3" t="s">
+        <v>159</v>
+      </c>
       <c r="D187" s="2" t="s">
         <v>39</v>
       </c>
@@ -10623,7 +11167,7 @@
         <v>3</v>
       </c>
       <c r="I187" s="2">
-        <v>168</v>
+        <v>1008</v>
       </c>
       <c r="J187" s="2">
         <v>100</v>
@@ -10657,6 +11201,9 @@
       <c r="B188" s="2">
         <v>185</v>
       </c>
+      <c r="C188" s="3" t="s">
+        <v>159</v>
+      </c>
       <c r="D188" s="2" t="s">
         <v>39</v>
       </c>
@@ -10667,7 +11214,7 @@
         <v>3</v>
       </c>
       <c r="I188" s="2">
-        <v>168</v>
+        <v>1008</v>
       </c>
       <c r="J188" s="2">
         <v>100</v>
@@ -10701,6 +11248,9 @@
       <c r="B189" s="2">
         <v>186</v>
       </c>
+      <c r="C189" s="3" t="s">
+        <v>159</v>
+      </c>
       <c r="D189" s="2" t="s">
         <v>39</v>
       </c>
@@ -10711,7 +11261,7 @@
         <v>3</v>
       </c>
       <c r="I189" s="2">
-        <v>168</v>
+        <v>1008</v>
       </c>
       <c r="J189" s="2">
         <v>100</v>
@@ -10745,6 +11295,9 @@
       <c r="B190" s="2">
         <v>187</v>
       </c>
+      <c r="C190" s="3" t="s">
+        <v>159</v>
+      </c>
       <c r="D190" s="2" t="s">
         <v>39</v>
       </c>
@@ -10755,7 +11308,7 @@
         <v>3</v>
       </c>
       <c r="I190" s="2">
-        <v>168</v>
+        <v>1008</v>
       </c>
       <c r="J190" s="2">
         <v>100</v>
@@ -10789,6 +11342,9 @@
       <c r="B191" s="2">
         <v>188</v>
       </c>
+      <c r="C191" s="3" t="s">
+        <v>159</v>
+      </c>
       <c r="D191" s="2" t="s">
         <v>39</v>
       </c>
@@ -10799,7 +11355,7 @@
         <v>3</v>
       </c>
       <c r="I191" s="2">
-        <v>168</v>
+        <v>1008</v>
       </c>
       <c r="J191" s="2">
         <v>100</v>
@@ -10833,6 +11389,9 @@
       <c r="B192" s="2">
         <v>189</v>
       </c>
+      <c r="C192" s="3" t="s">
+        <v>159</v>
+      </c>
       <c r="D192" s="2" t="s">
         <v>39</v>
       </c>
@@ -10843,7 +11402,7 @@
         <v>3</v>
       </c>
       <c r="I192" s="2">
-        <v>168</v>
+        <v>1008</v>
       </c>
       <c r="J192" s="2">
         <v>100</v>
@@ -10890,7 +11449,7 @@
         <v>3</v>
       </c>
       <c r="I193" s="2">
-        <v>139</v>
+        <v>973</v>
       </c>
       <c r="J193" s="2">
         <v>154</v>
@@ -10937,7 +11496,7 @@
         <v>3</v>
       </c>
       <c r="I194" s="2">
-        <v>145</v>
+        <v>1160</v>
       </c>
       <c r="J194" s="2">
         <v>161</v>
@@ -10971,7 +11530,9 @@
       <c r="B195" s="2">
         <v>192</v>
       </c>
-      <c r="C195" s="3"/>
+      <c r="C195" s="3" t="s">
+        <v>160</v>
+      </c>
       <c r="D195" s="2" t="s">
         <v>39</v>
       </c>
@@ -10982,7 +11543,7 @@
         <v>3</v>
       </c>
       <c r="I195" s="2">
-        <v>277</v>
+        <v>2216</v>
       </c>
       <c r="J195" s="2">
         <v>135</v>
@@ -11016,6 +11577,9 @@
       <c r="B196" s="2">
         <v>193</v>
       </c>
+      <c r="C196" s="3" t="s">
+        <v>160</v>
+      </c>
       <c r="D196" s="2" t="s">
         <v>39</v>
       </c>
@@ -11026,7 +11590,7 @@
         <v>3</v>
       </c>
       <c r="I196" s="2">
-        <v>277</v>
+        <v>2216</v>
       </c>
       <c r="J196" s="2">
         <v>135</v>
@@ -11060,6 +11624,9 @@
       <c r="B197" s="2">
         <v>194</v>
       </c>
+      <c r="C197" s="3" t="s">
+        <v>160</v>
+      </c>
       <c r="D197" s="2" t="s">
         <v>39</v>
       </c>
@@ -11070,7 +11637,7 @@
         <v>3</v>
       </c>
       <c r="I197" s="2">
-        <v>277</v>
+        <v>2216</v>
       </c>
       <c r="J197" s="2">
         <v>135</v>
@@ -11104,6 +11671,9 @@
       <c r="B198" s="2">
         <v>195</v>
       </c>
+      <c r="C198" s="3" t="s">
+        <v>160</v>
+      </c>
       <c r="D198" s="2" t="s">
         <v>39</v>
       </c>
@@ -11114,7 +11684,7 @@
         <v>3</v>
       </c>
       <c r="I198" s="2">
-        <v>277</v>
+        <v>2216</v>
       </c>
       <c r="J198" s="2">
         <v>135</v>
@@ -11148,6 +11718,9 @@
       <c r="B199" s="2">
         <v>196</v>
       </c>
+      <c r="C199" s="3" t="s">
+        <v>160</v>
+      </c>
       <c r="D199" s="2" t="s">
         <v>39</v>
       </c>
@@ -11158,7 +11731,7 @@
         <v>3</v>
       </c>
       <c r="I199" s="2">
-        <v>277</v>
+        <v>2216</v>
       </c>
       <c r="J199" s="2">
         <v>135</v>
@@ -11192,7 +11765,9 @@
       <c r="B200" s="2">
         <v>197</v>
       </c>
-      <c r="C200" s="3"/>
+      <c r="C200" s="3" t="s">
+        <v>161</v>
+      </c>
       <c r="D200" s="2" t="s">
         <v>39</v>
       </c>
@@ -11203,7 +11778,7 @@
         <v>3</v>
       </c>
       <c r="I200" s="2">
-        <v>300</v>
+        <v>2400</v>
       </c>
       <c r="J200" s="2">
         <v>146</v>
@@ -11237,6 +11812,9 @@
       <c r="B201" s="2">
         <v>198</v>
       </c>
+      <c r="C201" s="3" t="s">
+        <v>161</v>
+      </c>
       <c r="D201" s="2" t="s">
         <v>39</v>
       </c>
@@ -11247,7 +11825,7 @@
         <v>3</v>
       </c>
       <c r="I201" s="2">
-        <v>300</v>
+        <v>2400</v>
       </c>
       <c r="J201" s="2">
         <v>146</v>
@@ -11281,6 +11859,9 @@
       <c r="B202" s="2">
         <v>199</v>
       </c>
+      <c r="C202" s="3" t="s">
+        <v>161</v>
+      </c>
       <c r="D202" s="2" t="s">
         <v>39</v>
       </c>
@@ -11291,7 +11872,7 @@
         <v>3</v>
       </c>
       <c r="I202" s="2">
-        <v>300</v>
+        <v>2400</v>
       </c>
       <c r="J202" s="2">
         <v>146</v>
@@ -11325,6 +11906,9 @@
       <c r="B203" s="2">
         <v>200</v>
       </c>
+      <c r="C203" s="3" t="s">
+        <v>161</v>
+      </c>
       <c r="D203" s="2" t="s">
         <v>39</v>
       </c>
@@ -11335,7 +11919,7 @@
         <v>3</v>
       </c>
       <c r="I203" s="2">
-        <v>300</v>
+        <v>2400</v>
       </c>
       <c r="J203" s="2">
         <v>146</v>
@@ -11369,6 +11953,9 @@
       <c r="B204" s="2">
         <v>201</v>
       </c>
+      <c r="C204" s="3" t="s">
+        <v>161</v>
+      </c>
       <c r="D204" s="2" t="s">
         <v>39</v>
       </c>
@@ -11379,7 +11966,7 @@
         <v>3</v>
       </c>
       <c r="I204" s="2">
-        <v>300</v>
+        <v>2400</v>
       </c>
       <c r="J204" s="2">
         <v>146</v>
@@ -11413,7 +12000,9 @@
       <c r="B205" s="2">
         <v>202</v>
       </c>
-      <c r="C205" s="3"/>
+      <c r="C205" s="3" t="s">
+        <v>160</v>
+      </c>
       <c r="D205" s="2" t="s">
         <v>39</v>
       </c>
@@ -11424,7 +12013,7 @@
         <v>3</v>
       </c>
       <c r="I205" s="2">
-        <v>312</v>
+        <v>2496</v>
       </c>
       <c r="J205" s="2">
         <v>165</v>
@@ -11458,6 +12047,9 @@
       <c r="B206" s="2">
         <v>203</v>
       </c>
+      <c r="C206" s="3" t="s">
+        <v>160</v>
+      </c>
       <c r="D206" s="2" t="s">
         <v>39</v>
       </c>
@@ -11468,7 +12060,7 @@
         <v>3</v>
       </c>
       <c r="I206" s="2">
-        <v>312</v>
+        <v>2496</v>
       </c>
       <c r="J206" s="2">
         <v>165</v>
@@ -11502,6 +12094,9 @@
       <c r="B207" s="2">
         <v>204</v>
       </c>
+      <c r="C207" s="3" t="s">
+        <v>160</v>
+      </c>
       <c r="D207" s="2" t="s">
         <v>39</v>
       </c>
@@ -11512,7 +12107,7 @@
         <v>3</v>
       </c>
       <c r="I207" s="2">
-        <v>312</v>
+        <v>2496</v>
       </c>
       <c r="J207" s="2">
         <v>165</v>
@@ -11546,6 +12141,9 @@
       <c r="B208" s="2">
         <v>205</v>
       </c>
+      <c r="C208" s="3" t="s">
+        <v>160</v>
+      </c>
       <c r="D208" s="2" t="s">
         <v>39</v>
       </c>
@@ -11556,7 +12154,7 @@
         <v>3</v>
       </c>
       <c r="I208" s="2">
-        <v>312</v>
+        <v>2496</v>
       </c>
       <c r="J208" s="2">
         <v>165</v>
@@ -11590,7 +12188,9 @@
       <c r="B209" s="2">
         <v>206</v>
       </c>
-      <c r="C209" s="3"/>
+      <c r="C209" s="3" t="s">
+        <v>161</v>
+      </c>
       <c r="D209" s="2" t="s">
         <v>39</v>
       </c>
@@ -11601,7 +12201,7 @@
         <v>3</v>
       </c>
       <c r="I209" s="2">
-        <v>334</v>
+        <v>2672</v>
       </c>
       <c r="J209" s="2">
         <v>176</v>
@@ -11635,6 +12235,9 @@
       <c r="B210" s="2">
         <v>207</v>
       </c>
+      <c r="C210" s="3" t="s">
+        <v>161</v>
+      </c>
       <c r="D210" s="2" t="s">
         <v>39</v>
       </c>
@@ -11645,7 +12248,7 @@
         <v>3</v>
       </c>
       <c r="I210" s="2">
-        <v>334</v>
+        <v>2672</v>
       </c>
       <c r="J210" s="2">
         <v>176</v>
@@ -11679,6 +12282,9 @@
       <c r="B211" s="2">
         <v>208</v>
       </c>
+      <c r="C211" s="3" t="s">
+        <v>161</v>
+      </c>
       <c r="D211" s="2" t="s">
         <v>39</v>
       </c>
@@ -11689,7 +12295,7 @@
         <v>3</v>
       </c>
       <c r="I211" s="2">
-        <v>334</v>
+        <v>2672</v>
       </c>
       <c r="J211" s="2">
         <v>176</v>
@@ -11723,6 +12329,9 @@
       <c r="B212" s="2">
         <v>209</v>
       </c>
+      <c r="C212" s="3" t="s">
+        <v>161</v>
+      </c>
       <c r="D212" s="2" t="s">
         <v>39</v>
       </c>
@@ -11733,7 +12342,7 @@
         <v>3</v>
       </c>
       <c r="I212" s="2">
-        <v>334</v>
+        <v>2672</v>
       </c>
       <c r="J212" s="2">
         <v>176</v>
@@ -11767,6 +12376,9 @@
       <c r="B213" s="2">
         <v>210</v>
       </c>
+      <c r="C213" s="3" t="s">
+        <v>161</v>
+      </c>
       <c r="D213" s="2" t="s">
         <v>39</v>
       </c>
@@ -11777,7 +12389,7 @@
         <v>3</v>
       </c>
       <c r="I213" s="2">
-        <v>334</v>
+        <v>2672</v>
       </c>
       <c r="J213" s="2">
         <v>176</v>
@@ -11811,7 +12423,9 @@
       <c r="B214" s="2">
         <v>211</v>
       </c>
-      <c r="C214" s="3"/>
+      <c r="C214" s="3" t="s">
+        <v>162</v>
+      </c>
       <c r="D214" s="2" t="s">
         <v>39</v>
       </c>
@@ -11822,7 +12436,7 @@
         <v>3</v>
       </c>
       <c r="I214" s="2">
-        <v>356</v>
+        <v>2848</v>
       </c>
       <c r="J214" s="2">
         <v>188</v>
@@ -11856,6 +12470,9 @@
       <c r="B215" s="2">
         <v>212</v>
       </c>
+      <c r="C215" s="3" t="s">
+        <v>162</v>
+      </c>
       <c r="D215" s="2" t="s">
         <v>39</v>
       </c>
@@ -11866,7 +12483,7 @@
         <v>3</v>
       </c>
       <c r="I215" s="2">
-        <v>356</v>
+        <v>2848</v>
       </c>
       <c r="J215" s="2">
         <v>188</v>
@@ -11900,6 +12517,9 @@
       <c r="B216" s="2">
         <v>213</v>
       </c>
+      <c r="C216" s="3" t="s">
+        <v>162</v>
+      </c>
       <c r="D216" s="2" t="s">
         <v>39</v>
       </c>
@@ -11910,7 +12530,7 @@
         <v>3</v>
       </c>
       <c r="I216" s="2">
-        <v>356</v>
+        <v>2848</v>
       </c>
       <c r="J216" s="2">
         <v>188</v>
@@ -11944,6 +12564,9 @@
       <c r="B217" s="2">
         <v>214</v>
       </c>
+      <c r="C217" s="3" t="s">
+        <v>162</v>
+      </c>
       <c r="D217" s="2" t="s">
         <v>39</v>
       </c>
@@ -11954,7 +12577,7 @@
         <v>3</v>
       </c>
       <c r="I217" s="2">
-        <v>356</v>
+        <v>2848</v>
       </c>
       <c r="J217" s="2">
         <v>188</v>
@@ -11988,6 +12611,9 @@
       <c r="B218" s="2">
         <v>215</v>
       </c>
+      <c r="C218" s="3" t="s">
+        <v>162</v>
+      </c>
       <c r="D218" s="2" t="s">
         <v>39</v>
       </c>
@@ -11998,7 +12624,7 @@
         <v>3</v>
       </c>
       <c r="I218" s="2">
-        <v>356</v>
+        <v>2848</v>
       </c>
       <c r="J218" s="2">
         <v>188</v>
@@ -12032,7 +12658,9 @@
       <c r="B219" s="2">
         <v>216</v>
       </c>
-      <c r="C219" s="3"/>
+      <c r="C219" s="3" t="s">
+        <v>163</v>
+      </c>
       <c r="D219" s="2" t="s">
         <v>39</v>
       </c>
@@ -12043,7 +12671,7 @@
         <v>3</v>
       </c>
       <c r="I219" s="2">
-        <v>378</v>
+        <v>3024</v>
       </c>
       <c r="J219" s="2">
         <v>225</v>
@@ -12077,7 +12705,9 @@
       <c r="B220" s="2">
         <v>217</v>
       </c>
-      <c r="C220" s="3"/>
+      <c r="C220" s="3" t="s">
+        <v>163</v>
+      </c>
       <c r="D220" s="2" t="s">
         <v>39</v>
       </c>
@@ -12088,7 +12718,7 @@
         <v>3</v>
       </c>
       <c r="I220" s="2">
-        <v>378</v>
+        <v>3024</v>
       </c>
       <c r="J220" s="2">
         <v>225</v>
@@ -12122,7 +12752,9 @@
       <c r="B221" s="2">
         <v>218</v>
       </c>
-      <c r="C221" s="3"/>
+      <c r="C221" s="3" t="s">
+        <v>163</v>
+      </c>
       <c r="D221" s="2" t="s">
         <v>39</v>
       </c>
@@ -12133,7 +12765,7 @@
         <v>3</v>
       </c>
       <c r="I221" s="2">
-        <v>378</v>
+        <v>3024</v>
       </c>
       <c r="J221" s="2">
         <v>225</v>
@@ -12167,7 +12799,9 @@
       <c r="B222" s="2">
         <v>219</v>
       </c>
-      <c r="C222" s="3"/>
+      <c r="C222" s="3" t="s">
+        <v>163</v>
+      </c>
       <c r="D222" s="2" t="s">
         <v>39</v>
       </c>
@@ -12178,7 +12812,7 @@
         <v>3</v>
       </c>
       <c r="I222" s="2">
-        <v>378</v>
+        <v>3024</v>
       </c>
       <c r="J222" s="2">
         <v>225</v>
@@ -12212,7 +12846,9 @@
       <c r="B223" s="2">
         <v>220</v>
       </c>
-      <c r="C223" s="3"/>
+      <c r="C223" s="3" t="s">
+        <v>163</v>
+      </c>
       <c r="D223" s="2" t="s">
         <v>39</v>
       </c>
@@ -12223,7 +12859,7 @@
         <v>3</v>
       </c>
       <c r="I223" s="2">
-        <v>378</v>
+        <v>3024</v>
       </c>
       <c r="J223" s="2">
         <v>225</v>
@@ -12257,7 +12893,9 @@
       <c r="B224" s="2">
         <v>221</v>
       </c>
-      <c r="C224" s="3"/>
+      <c r="C224" s="3" t="s">
+        <v>162</v>
+      </c>
       <c r="D224" s="2" t="s">
         <v>39</v>
       </c>
@@ -12268,7 +12906,7 @@
         <v>3</v>
       </c>
       <c r="I224" s="2">
-        <v>420</v>
+        <v>3360</v>
       </c>
       <c r="J224" s="2">
         <v>250</v>
@@ -12302,6 +12940,9 @@
       <c r="B225" s="2">
         <v>222</v>
       </c>
+      <c r="C225" s="3" t="s">
+        <v>162</v>
+      </c>
       <c r="D225" s="2" t="s">
         <v>39</v>
       </c>
@@ -12312,7 +12953,7 @@
         <v>3</v>
       </c>
       <c r="I225" s="2">
-        <v>420</v>
+        <v>3360</v>
       </c>
       <c r="J225" s="2">
         <v>250</v>
@@ -12346,6 +12987,9 @@
       <c r="B226" s="2">
         <v>223</v>
       </c>
+      <c r="C226" s="3" t="s">
+        <v>162</v>
+      </c>
       <c r="D226" s="2" t="s">
         <v>39</v>
       </c>
@@ -12356,7 +13000,7 @@
         <v>3</v>
       </c>
       <c r="I226" s="2">
-        <v>420</v>
+        <v>3360</v>
       </c>
       <c r="J226" s="2">
         <v>250</v>
@@ -12390,6 +13034,9 @@
       <c r="B227" s="2">
         <v>224</v>
       </c>
+      <c r="C227" s="3" t="s">
+        <v>162</v>
+      </c>
       <c r="D227" s="2" t="s">
         <v>39</v>
       </c>
@@ -12400,7 +13047,7 @@
         <v>3</v>
       </c>
       <c r="I227" s="2">
-        <v>420</v>
+        <v>3360</v>
       </c>
       <c r="J227" s="2">
         <v>250</v>
@@ -12434,6 +13081,9 @@
       <c r="B228" s="2">
         <v>225</v>
       </c>
+      <c r="C228" s="3" t="s">
+        <v>162</v>
+      </c>
       <c r="D228" s="2" t="s">
         <v>39</v>
       </c>
@@ -12444,7 +13094,7 @@
         <v>3</v>
       </c>
       <c r="I228" s="2">
-        <v>420</v>
+        <v>3360</v>
       </c>
       <c r="J228" s="2">
         <v>250</v>
@@ -12478,7 +13128,9 @@
       <c r="B229" s="2">
         <v>226</v>
       </c>
-      <c r="C229" s="3"/>
+      <c r="C229" s="3" t="s">
+        <v>163</v>
+      </c>
       <c r="D229" s="2" t="s">
         <v>39</v>
       </c>
@@ -12489,7 +13141,7 @@
         <v>3</v>
       </c>
       <c r="I229" s="2">
-        <v>441</v>
+        <v>3528</v>
       </c>
       <c r="J229" s="2">
         <v>300</v>
@@ -12523,6 +13175,9 @@
       <c r="B230" s="2">
         <v>227</v>
       </c>
+      <c r="C230" s="3" t="s">
+        <v>163</v>
+      </c>
       <c r="D230" s="2" t="s">
         <v>39</v>
       </c>
@@ -12533,7 +13188,7 @@
         <v>3</v>
       </c>
       <c r="I230" s="2">
-        <v>441</v>
+        <v>3528</v>
       </c>
       <c r="J230" s="2">
         <v>300</v>
@@ -12567,6 +13222,9 @@
       <c r="B231" s="2">
         <v>228</v>
       </c>
+      <c r="C231" s="3" t="s">
+        <v>163</v>
+      </c>
       <c r="D231" s="2" t="s">
         <v>39</v>
       </c>
@@ -12577,7 +13235,7 @@
         <v>3</v>
       </c>
       <c r="I231" s="2">
-        <v>441</v>
+        <v>3528</v>
       </c>
       <c r="J231" s="2">
         <v>300</v>
@@ -12611,6 +13269,9 @@
       <c r="B232" s="2">
         <v>229</v>
       </c>
+      <c r="C232" s="3" t="s">
+        <v>163</v>
+      </c>
       <c r="D232" s="2" t="s">
         <v>39</v>
       </c>
@@ -12621,7 +13282,7 @@
         <v>3</v>
       </c>
       <c r="I232" s="2">
-        <v>441</v>
+        <v>3528</v>
       </c>
       <c r="J232" s="2">
         <v>300</v>
@@ -12655,6 +13316,9 @@
       <c r="B233" s="2">
         <v>230</v>
       </c>
+      <c r="C233" s="3" t="s">
+        <v>163</v>
+      </c>
       <c r="D233" s="2" t="s">
         <v>39</v>
       </c>
@@ -12665,7 +13329,7 @@
         <v>3</v>
       </c>
       <c r="I233" s="2">
-        <v>441</v>
+        <v>3528</v>
       </c>
       <c r="J233" s="2">
         <v>300</v>
@@ -12699,7 +13363,9 @@
       <c r="B234" s="2">
         <v>231</v>
       </c>
-      <c r="C234" s="3"/>
+      <c r="C234" s="3" t="s">
+        <v>164</v>
+      </c>
       <c r="D234" s="2" t="s">
         <v>39</v>
       </c>
@@ -12710,7 +13376,7 @@
         <v>3</v>
       </c>
       <c r="I234" s="2">
-        <v>416</v>
+        <v>3328</v>
       </c>
       <c r="J234" s="2">
         <v>346</v>
@@ -12744,6 +13410,9 @@
       <c r="B235" s="2">
         <v>232</v>
       </c>
+      <c r="C235" s="3" t="s">
+        <v>164</v>
+      </c>
       <c r="D235" s="2" t="s">
         <v>39</v>
       </c>
@@ -12754,7 +13423,7 @@
         <v>3</v>
       </c>
       <c r="I235" s="2">
-        <v>416</v>
+        <v>3328</v>
       </c>
       <c r="J235" s="2">
         <v>346</v>
@@ -12788,6 +13457,9 @@
       <c r="B236" s="2">
         <v>233</v>
       </c>
+      <c r="C236" s="3" t="s">
+        <v>164</v>
+      </c>
       <c r="D236" s="2" t="s">
         <v>39</v>
       </c>
@@ -12798,7 +13470,7 @@
         <v>3</v>
       </c>
       <c r="I236" s="2">
-        <v>416</v>
+        <v>3328</v>
       </c>
       <c r="J236" s="2">
         <v>346</v>
@@ -12832,6 +13504,9 @@
       <c r="B237" s="2">
         <v>234</v>
       </c>
+      <c r="C237" s="3" t="s">
+        <v>164</v>
+      </c>
       <c r="D237" s="2" t="s">
         <v>39</v>
       </c>
@@ -12842,7 +13517,7 @@
         <v>3</v>
       </c>
       <c r="I237" s="2">
-        <v>416</v>
+        <v>3328</v>
       </c>
       <c r="J237" s="2">
         <v>346</v>
@@ -12876,6 +13551,9 @@
       <c r="B238" s="2">
         <v>235</v>
       </c>
+      <c r="C238" s="3" t="s">
+        <v>164</v>
+      </c>
       <c r="D238" s="2" t="s">
         <v>39</v>
       </c>
@@ -12886,7 +13564,7 @@
         <v>3</v>
       </c>
       <c r="I238" s="2">
-        <v>416</v>
+        <v>3328</v>
       </c>
       <c r="J238" s="2">
         <v>346</v>
@@ -12920,7 +13598,9 @@
       <c r="B239" s="2">
         <v>236</v>
       </c>
-      <c r="C239" s="3"/>
+      <c r="C239" s="3" t="s">
+        <v>165</v>
+      </c>
       <c r="D239" s="2" t="s">
         <v>39</v>
       </c>
@@ -12931,7 +13611,7 @@
         <v>3</v>
       </c>
       <c r="I239" s="2">
-        <v>282</v>
+        <v>2256</v>
       </c>
       <c r="J239" s="2">
         <v>182</v>
@@ -12965,7 +13645,9 @@
       <c r="B240" s="2">
         <v>237</v>
       </c>
-      <c r="C240" s="3"/>
+      <c r="C240" s="3" t="s">
+        <v>165</v>
+      </c>
       <c r="D240" s="2" t="s">
         <v>39</v>
       </c>
@@ -12976,7 +13658,7 @@
         <v>3</v>
       </c>
       <c r="I240" s="2">
-        <v>282</v>
+        <v>2256</v>
       </c>
       <c r="J240" s="2">
         <v>182</v>
@@ -13010,7 +13692,9 @@
       <c r="B241" s="2">
         <v>238</v>
       </c>
-      <c r="C241" s="3"/>
+      <c r="C241" s="3" t="s">
+        <v>165</v>
+      </c>
       <c r="D241" s="2" t="s">
         <v>39</v>
       </c>
@@ -13021,7 +13705,7 @@
         <v>3</v>
       </c>
       <c r="I241" s="2">
-        <v>282</v>
+        <v>2256</v>
       </c>
       <c r="J241" s="2">
         <v>182</v>
@@ -13055,7 +13739,9 @@
       <c r="B242" s="2">
         <v>239</v>
       </c>
-      <c r="C242" s="3"/>
+      <c r="C242" s="3" t="s">
+        <v>165</v>
+      </c>
       <c r="D242" s="2" t="s">
         <v>39</v>
       </c>
@@ -13066,7 +13752,7 @@
         <v>3</v>
       </c>
       <c r="I242" s="2">
-        <v>282</v>
+        <v>2256</v>
       </c>
       <c r="J242" s="2">
         <v>182</v>
@@ -13100,7 +13786,9 @@
       <c r="B243" s="2">
         <v>240</v>
       </c>
-      <c r="C243" s="3"/>
+      <c r="C243" s="3" t="s">
+        <v>165</v>
+      </c>
       <c r="D243" s="2" t="s">
         <v>39</v>
       </c>
@@ -13111,7 +13799,7 @@
         <v>3</v>
       </c>
       <c r="I243" s="2">
-        <v>282</v>
+        <v>2256</v>
       </c>
       <c r="J243" s="2">
         <v>182</v>
@@ -13145,7 +13833,9 @@
       <c r="B244" s="2">
         <v>241</v>
       </c>
-      <c r="C244" s="3"/>
+      <c r="C244" s="3" t="s">
+        <v>165</v>
+      </c>
       <c r="D244" s="2" t="s">
         <v>39</v>
       </c>
@@ -13156,7 +13846,7 @@
         <v>3</v>
       </c>
       <c r="I244" s="2">
-        <v>282</v>
+        <v>2256</v>
       </c>
       <c r="J244" s="2">
         <v>182</v>
@@ -13190,7 +13880,9 @@
       <c r="B245" s="2">
         <v>242</v>
       </c>
-      <c r="C245" s="3"/>
+      <c r="C245" s="3" t="s">
+        <v>165</v>
+      </c>
       <c r="D245" s="2" t="s">
         <v>39</v>
       </c>
@@ -13201,7 +13893,7 @@
         <v>3</v>
       </c>
       <c r="I245" s="2">
-        <v>282</v>
+        <v>2256</v>
       </c>
       <c r="J245" s="2">
         <v>182</v>
@@ -13235,7 +13927,9 @@
       <c r="B246" s="2">
         <v>243</v>
       </c>
-      <c r="C246" s="3"/>
+      <c r="C246" s="3" t="s">
+        <v>165</v>
+      </c>
       <c r="D246" s="2" t="s">
         <v>39</v>
       </c>
@@ -13246,7 +13940,7 @@
         <v>3</v>
       </c>
       <c r="I246" s="2">
-        <v>282</v>
+        <v>2256</v>
       </c>
       <c r="J246" s="2">
         <v>182</v>
@@ -13293,7 +13987,7 @@
         <v>3</v>
       </c>
       <c r="I247" s="2">
-        <v>420</v>
+        <v>4200</v>
       </c>
       <c r="J247" s="2">
         <v>375</v>
@@ -14345,7 +15039,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="273" spans="2:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="273" spans="2:19" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B273" s="2">
         <v>270</v>
       </c>
@@ -14386,7 +15080,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="274" spans="2:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="274" spans="2:19" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B274" s="2">
         <v>271</v>
       </c>
@@ -14427,7 +15121,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="275" spans="2:17" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="275" spans="2:19" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B275" s="14">
         <v>272</v>
       </c>
@@ -14444,7 +15138,7 @@
         <v>1</v>
       </c>
       <c r="I275" s="14">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="J275" s="14">
         <v>5</v>
@@ -14470,8 +15164,10 @@
       <c r="Q275" s="14">
         <v>67</v>
       </c>
-    </row>
-    <row r="276" spans="2:17" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="R275" s="2"/>
+      <c r="S275" s="2"/>
+    </row>
+    <row r="276" spans="2:19" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B276" s="2">
         <v>273</v>
       </c>
@@ -14488,7 +15184,7 @@
         <v>1</v>
       </c>
       <c r="I276" s="2">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="J276" s="2">
         <v>6</v>
@@ -14515,7 +15211,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="277" spans="2:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="277" spans="2:19" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B277" s="2">
         <v>274</v>
       </c>
@@ -14532,7 +15228,7 @@
         <v>1</v>
       </c>
       <c r="I277" s="2">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="J277" s="2">
         <v>8</v>
@@ -14559,7 +15255,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="278" spans="2:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="278" spans="2:19" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B278" s="2">
         <v>275</v>
       </c>
@@ -14576,7 +15272,7 @@
         <v>1</v>
       </c>
       <c r="I278" s="2">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="J278" s="2">
         <v>8</v>
@@ -14603,7 +15299,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="279" spans="2:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="279" spans="2:19" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B279" s="2">
         <v>276</v>
       </c>
@@ -14620,7 +15316,7 @@
         <v>1</v>
       </c>
       <c r="I279" s="2">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="J279" s="2">
         <v>8</v>
@@ -14647,7 +15343,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="280" spans="2:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="280" spans="2:19" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B280" s="2">
         <v>277</v>
       </c>
@@ -14664,7 +15360,7 @@
         <v>1</v>
       </c>
       <c r="I280" s="2">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="J280" s="2">
         <v>10</v>
@@ -14691,7 +15387,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="281" spans="2:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="281" spans="2:19" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B281" s="2">
         <v>278</v>
       </c>
@@ -14708,7 +15404,7 @@
         <v>1</v>
       </c>
       <c r="I281" s="2">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="J281" s="2">
         <v>10</v>
@@ -14735,7 +15431,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="282" spans="2:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="282" spans="2:19" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B282" s="2">
         <v>279</v>
       </c>
@@ -14752,7 +15448,7 @@
         <v>1</v>
       </c>
       <c r="I282" s="2">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="J282" s="2">
         <v>14</v>
@@ -14779,7 +15475,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="283" spans="2:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="283" spans="2:19" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B283" s="2">
         <v>280</v>
       </c>
@@ -14796,7 +15492,7 @@
         <v>1</v>
       </c>
       <c r="I283" s="2">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="J283" s="2">
         <v>15</v>
@@ -14823,7 +15519,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="284" spans="2:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="284" spans="2:19" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B284" s="2">
         <v>281</v>
       </c>
@@ -14840,7 +15536,7 @@
         <v>1</v>
       </c>
       <c r="I284" s="2">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="J284" s="2">
         <v>15</v>
@@ -14867,7 +15563,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="285" spans="2:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="285" spans="2:19" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B285" s="2">
         <v>282</v>
       </c>
@@ -14884,7 +15580,7 @@
         <v>2</v>
       </c>
       <c r="I285" s="2">
-        <v>46</v>
+        <v>161</v>
       </c>
       <c r="J285" s="2">
         <v>23</v>
@@ -14911,7 +15607,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="286" spans="2:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="286" spans="2:19" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B286" s="2">
         <v>283</v>
       </c>
@@ -14928,7 +15624,7 @@
         <v>2</v>
       </c>
       <c r="I286" s="2">
-        <v>46</v>
+        <v>161</v>
       </c>
       <c r="J286" s="2">
         <v>23</v>
@@ -14955,7 +15651,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="287" spans="2:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="287" spans="2:19" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B287" s="2">
         <v>284</v>
       </c>
@@ -14972,7 +15668,7 @@
         <v>2</v>
       </c>
       <c r="I287" s="2">
-        <v>58</v>
+        <v>203</v>
       </c>
       <c r="J287" s="2">
         <v>32</v>
@@ -14999,7 +15695,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="288" spans="2:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="288" spans="2:19" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B288" s="2">
         <v>285</v>
       </c>
@@ -15016,7 +15712,7 @@
         <v>2</v>
       </c>
       <c r="I288" s="2">
-        <v>58</v>
+        <v>203</v>
       </c>
       <c r="J288" s="2">
         <v>32</v>
@@ -15060,7 +15756,7 @@
         <v>2</v>
       </c>
       <c r="I289" s="2">
-        <v>69</v>
+        <v>276</v>
       </c>
       <c r="J289" s="2">
         <v>45</v>
@@ -15104,7 +15800,7 @@
         <v>2</v>
       </c>
       <c r="I290" s="2">
-        <v>88</v>
+        <v>396</v>
       </c>
       <c r="J290" s="2">
         <v>43</v>
@@ -15148,7 +15844,7 @@
         <v>2</v>
       </c>
       <c r="I291" s="2">
-        <v>88</v>
+        <v>396</v>
       </c>
       <c r="J291" s="2">
         <v>49</v>
@@ -15192,7 +15888,7 @@
         <v>2</v>
       </c>
       <c r="I292" s="2">
-        <v>102</v>
+        <v>459</v>
       </c>
       <c r="J292" s="2">
         <v>57</v>
@@ -15236,7 +15932,7 @@
         <v>2</v>
       </c>
       <c r="I293" s="2">
-        <v>102</v>
+        <v>459</v>
       </c>
       <c r="J293" s="2">
         <v>57</v>
@@ -15280,7 +15976,7 @@
         <v>2</v>
       </c>
       <c r="I294" s="2">
-        <v>116</v>
+        <v>580</v>
       </c>
       <c r="J294" s="2">
         <v>64</v>
@@ -15324,7 +16020,7 @@
         <v>3</v>
       </c>
       <c r="I295" s="2">
-        <v>185</v>
+        <v>1110</v>
       </c>
       <c r="J295" s="2">
         <v>90</v>
@@ -15368,7 +16064,7 @@
         <v>3</v>
       </c>
       <c r="I296" s="2">
-        <v>231</v>
+        <v>1386</v>
       </c>
       <c r="J296" s="2">
         <v>113</v>
@@ -15412,7 +16108,7 @@
         <v>3</v>
       </c>
       <c r="I297" s="2">
-        <v>289</v>
+        <v>1734</v>
       </c>
       <c r="J297" s="2">
         <v>161</v>
@@ -15456,7 +16152,7 @@
         <v>3</v>
       </c>
       <c r="I298" s="2">
-        <v>347</v>
+        <v>2082</v>
       </c>
       <c r="J298" s="2">
         <v>193</v>
@@ -15500,7 +16196,7 @@
         <v>3</v>
       </c>
       <c r="I299" s="2">
-        <v>404</v>
+        <v>2424</v>
       </c>
       <c r="J299" s="2">
         <v>225</v>
@@ -15544,7 +16240,7 @@
         <v>3</v>
       </c>
       <c r="I300" s="2">
-        <v>462</v>
+        <v>3234</v>
       </c>
       <c r="J300" s="2">
         <v>300</v>
@@ -15588,7 +16284,7 @@
         <v>3</v>
       </c>
       <c r="I301" s="2">
-        <v>462</v>
+        <v>3696</v>
       </c>
       <c r="J301" s="2">
         <v>225</v>
@@ -15632,7 +16328,7 @@
         <v>3</v>
       </c>
       <c r="I302" s="2">
-        <v>520</v>
+        <v>4160</v>
       </c>
       <c r="J302" s="2">
         <v>253</v>
@@ -15676,7 +16372,7 @@
         <v>3</v>
       </c>
       <c r="I303" s="2">
-        <v>578</v>
+        <v>4624</v>
       </c>
       <c r="J303" s="2">
         <v>321</v>
@@ -15720,7 +16416,7 @@
         <v>3</v>
       </c>
       <c r="I304" s="2">
-        <v>693</v>
+        <v>5544</v>
       </c>
       <c r="J304" s="2">
         <v>386</v>
@@ -15764,7 +16460,7 @@
         <v>3</v>
       </c>
       <c r="I305" s="2">
-        <v>751</v>
+        <v>6008</v>
       </c>
       <c r="J305" s="2">
         <v>418</v>
@@ -15808,7 +16504,7 @@
         <v>3</v>
       </c>
       <c r="I306" s="2">
-        <v>809</v>
+        <v>6472</v>
       </c>
       <c r="J306" s="2">
         <v>450</v>
@@ -15852,7 +16548,7 @@
         <v>3</v>
       </c>
       <c r="I307" s="2">
-        <v>866</v>
+        <v>6928</v>
       </c>
       <c r="J307" s="2">
         <v>563</v>

--- a/ExcelConfig/怪物表.xlsx
+++ b/ExcelConfig/怪物表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="2430" yWindow="30" windowWidth="16875" windowHeight="8925" activeTab="1"/>
+    <workbookView xWindow="75" yWindow="-90" windowWidth="6300" windowHeight="8895" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="__Base" sheetId="2" r:id="rId1"/>
@@ -1861,7 +1861,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1959,6 +1959,13 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1998,7 +2005,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2021,6 +2028,7 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2362,13 +2370,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S307"/>
+  <dimension ref="A1:T307"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="E263" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="I285" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="T269" sqref="T269"/>
+      <selection pane="bottomRight" activeCell="J275" sqref="J275:J307"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2377,17 +2385,18 @@
     <col min="2" max="2" width="5.875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" style="2" customWidth="1"/>
     <col min="4" max="4" width="15.375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="7.625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="10.75" style="2" customWidth="1"/>
-    <col min="7" max="13" width="9" style="2" customWidth="1"/>
-    <col min="14" max="14" width="13.25" style="2" customWidth="1"/>
-    <col min="15" max="15" width="9" style="2" customWidth="1"/>
+    <col min="5" max="5" width="7.625" style="2" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="10.75" style="2" hidden="1" customWidth="1"/>
+    <col min="7" max="10" width="9" style="2" customWidth="1"/>
+    <col min="11" max="13" width="9" style="2" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="13.25" style="2" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="9" style="2" hidden="1" customWidth="1"/>
     <col min="16" max="16" width="10.125" style="2" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="11.25" style="2" bestFit="1" customWidth="1"/>
     <col min="18" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -2440,7 +2449,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -2493,7 +2502,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -2546,7 +2555,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>42</v>
       </c>
@@ -2568,8 +2577,8 @@
       <c r="I4" s="2">
         <v>8</v>
       </c>
-      <c r="J4" s="2">
-        <v>3</v>
+      <c r="J4" s="18">
+        <v>2</v>
       </c>
       <c r="K4" s="2">
         <v>9500</v>
@@ -2592,8 +2601,15 @@
       <c r="Q4" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S4" s="2">
+        <v>2</v>
+      </c>
+      <c r="T4" s="2">
+        <f>ROUND(S4*I4,0)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>42</v>
       </c>
@@ -2615,8 +2631,8 @@
       <c r="I5" s="2">
         <v>8</v>
       </c>
-      <c r="J5" s="2">
-        <v>3</v>
+      <c r="J5" s="18">
+        <v>2</v>
       </c>
       <c r="K5" s="2">
         <v>9500</v>
@@ -2639,8 +2655,15 @@
       <c r="Q5" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S5" s="2">
+        <v>2</v>
+      </c>
+      <c r="T5" s="2">
+        <f t="shared" ref="T5:T68" si="0">ROUND(S5*I5,0)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>42</v>
       </c>
@@ -2662,8 +2685,8 @@
       <c r="I6" s="2">
         <v>8</v>
       </c>
-      <c r="J6" s="2">
-        <v>3</v>
+      <c r="J6" s="18">
+        <v>2</v>
       </c>
       <c r="K6" s="2">
         <v>9500</v>
@@ -2686,8 +2709,15 @@
       <c r="Q6" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S6" s="2">
+        <v>2</v>
+      </c>
+      <c r="T6" s="2">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>42</v>
       </c>
@@ -2709,8 +2739,8 @@
       <c r="I7" s="2">
         <v>8</v>
       </c>
-      <c r="J7" s="2">
-        <v>3</v>
+      <c r="J7" s="18">
+        <v>2</v>
       </c>
       <c r="K7" s="2">
         <v>9500</v>
@@ -2733,8 +2763,15 @@
       <c r="Q7" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S7" s="2">
+        <v>2</v>
+      </c>
+      <c r="T7" s="2">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>42</v>
       </c>
@@ -2756,8 +2793,8 @@
       <c r="I8" s="2">
         <v>8</v>
       </c>
-      <c r="J8" s="2">
-        <v>3</v>
+      <c r="J8" s="18">
+        <v>2</v>
       </c>
       <c r="K8" s="2">
         <v>9500</v>
@@ -2780,8 +2817,15 @@
       <c r="Q8" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S8" s="2">
+        <v>2</v>
+      </c>
+      <c r="T8" s="2">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>43</v>
       </c>
@@ -2801,10 +2845,10 @@
         <v>1</v>
       </c>
       <c r="I9" s="2">
-        <v>10</v>
-      </c>
-      <c r="J9" s="2">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="J9" s="18">
+        <v>3</v>
       </c>
       <c r="K9" s="2">
         <v>9500</v>
@@ -2827,8 +2871,15 @@
       <c r="Q9" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S9" s="2">
+        <v>2</v>
+      </c>
+      <c r="T9" s="2">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>43</v>
       </c>
@@ -2848,10 +2899,10 @@
         <v>1</v>
       </c>
       <c r="I10" s="2">
-        <v>10</v>
-      </c>
-      <c r="J10" s="2">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="J10" s="18">
+        <v>3</v>
       </c>
       <c r="K10" s="2">
         <v>9500</v>
@@ -2874,8 +2925,15 @@
       <c r="Q10" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S10" s="2">
+        <v>2</v>
+      </c>
+      <c r="T10" s="2">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>43</v>
       </c>
@@ -2895,10 +2953,10 @@
         <v>1</v>
       </c>
       <c r="I11" s="2">
-        <v>10</v>
-      </c>
-      <c r="J11" s="2">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="J11" s="18">
+        <v>3</v>
       </c>
       <c r="K11" s="2">
         <v>9500</v>
@@ -2921,8 +2979,15 @@
       <c r="Q11" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S11" s="2">
+        <v>2</v>
+      </c>
+      <c r="T11" s="2">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>43</v>
       </c>
@@ -2942,10 +3007,10 @@
         <v>1</v>
       </c>
       <c r="I12" s="2">
-        <v>10</v>
-      </c>
-      <c r="J12" s="2">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="J12" s="18">
+        <v>3</v>
       </c>
       <c r="K12" s="2">
         <v>9500</v>
@@ -2968,8 +3033,15 @@
       <c r="Q12" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S12" s="2">
+        <v>2</v>
+      </c>
+      <c r="T12" s="2">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>43</v>
       </c>
@@ -2989,10 +3061,10 @@
         <v>1</v>
       </c>
       <c r="I13" s="2">
-        <v>10</v>
-      </c>
-      <c r="J13" s="2">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="J13" s="18">
+        <v>3</v>
       </c>
       <c r="K13" s="2">
         <v>9500</v>
@@ -3015,8 +3087,15 @@
       <c r="Q13" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S13" s="2">
+        <v>2</v>
+      </c>
+      <c r="T13" s="2">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>43</v>
       </c>
@@ -3036,10 +3115,10 @@
         <v>1</v>
       </c>
       <c r="I14" s="2">
-        <v>10</v>
-      </c>
-      <c r="J14" s="2">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="J14" s="18">
+        <v>3</v>
       </c>
       <c r="K14" s="2">
         <v>9500</v>
@@ -3062,8 +3141,15 @@
       <c r="Q14" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S14" s="2">
+        <v>2</v>
+      </c>
+      <c r="T14" s="2">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>43</v>
       </c>
@@ -3083,10 +3169,10 @@
         <v>1</v>
       </c>
       <c r="I15" s="2">
-        <v>10</v>
-      </c>
-      <c r="J15" s="2">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="J15" s="18">
+        <v>3</v>
       </c>
       <c r="K15" s="2">
         <v>9500</v>
@@ -3109,8 +3195,15 @@
       <c r="Q15" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S15" s="2">
+        <v>2</v>
+      </c>
+      <c r="T15" s="2">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>44</v>
       </c>
@@ -3132,8 +3225,8 @@
       <c r="I16" s="2">
         <v>10</v>
       </c>
-      <c r="J16" s="2">
-        <v>7</v>
+      <c r="J16" s="18">
+        <v>4</v>
       </c>
       <c r="K16" s="2">
         <v>9500</v>
@@ -3156,8 +3249,15 @@
       <c r="Q16" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S16" s="2">
+        <v>2</v>
+      </c>
+      <c r="T16" s="2">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>44</v>
       </c>
@@ -3179,8 +3279,8 @@
       <c r="I17" s="2">
         <v>10</v>
       </c>
-      <c r="J17" s="2">
-        <v>7</v>
+      <c r="J17" s="18">
+        <v>4</v>
       </c>
       <c r="K17" s="2">
         <v>9500</v>
@@ -3203,8 +3303,15 @@
       <c r="Q17" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S17" s="2">
+        <v>2</v>
+      </c>
+      <c r="T17" s="2">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>44</v>
       </c>
@@ -3226,8 +3333,8 @@
       <c r="I18" s="2">
         <v>10</v>
       </c>
-      <c r="J18" s="2">
-        <v>7</v>
+      <c r="J18" s="18">
+        <v>4</v>
       </c>
       <c r="K18" s="2">
         <v>9500</v>
@@ -3250,8 +3357,15 @@
       <c r="Q18" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S18" s="2">
+        <v>2</v>
+      </c>
+      <c r="T18" s="2">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>44</v>
       </c>
@@ -3273,8 +3387,8 @@
       <c r="I19" s="2">
         <v>10</v>
       </c>
-      <c r="J19" s="2">
-        <v>7</v>
+      <c r="J19" s="18">
+        <v>4</v>
       </c>
       <c r="K19" s="2">
         <v>9500</v>
@@ -3297,8 +3411,15 @@
       <c r="Q19" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S19" s="2">
+        <v>2</v>
+      </c>
+      <c r="T19" s="2">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>44</v>
       </c>
@@ -3320,8 +3441,8 @@
       <c r="I20" s="2">
         <v>10</v>
       </c>
-      <c r="J20" s="2">
-        <v>7</v>
+      <c r="J20" s="18">
+        <v>4</v>
       </c>
       <c r="K20" s="2">
         <v>9500</v>
@@ -3344,8 +3465,15 @@
       <c r="Q20" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="21" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S20" s="2">
+        <v>2</v>
+      </c>
+      <c r="T20" s="2">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>44</v>
       </c>
@@ -3367,8 +3495,8 @@
       <c r="I21" s="2">
         <v>10</v>
       </c>
-      <c r="J21" s="2">
-        <v>7</v>
+      <c r="J21" s="18">
+        <v>4</v>
       </c>
       <c r="K21" s="2">
         <v>9500</v>
@@ -3391,8 +3519,15 @@
       <c r="Q21" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S21" s="2">
+        <v>2</v>
+      </c>
+      <c r="T21" s="2">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>44</v>
       </c>
@@ -3414,8 +3549,8 @@
       <c r="I22" s="2">
         <v>10</v>
       </c>
-      <c r="J22" s="2">
-        <v>7</v>
+      <c r="J22" s="18">
+        <v>4</v>
       </c>
       <c r="K22" s="2">
         <v>9500</v>
@@ -3438,8 +3573,15 @@
       <c r="Q22" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S22" s="2">
+        <v>2</v>
+      </c>
+      <c r="T22" s="2">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>44</v>
       </c>
@@ -3461,8 +3603,8 @@
       <c r="I23" s="2">
         <v>10</v>
       </c>
-      <c r="J23" s="2">
-        <v>7</v>
+      <c r="J23" s="18">
+        <v>4</v>
       </c>
       <c r="K23" s="2">
         <v>9500</v>
@@ -3485,8 +3627,15 @@
       <c r="Q23" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="24" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S23" s="2">
+        <v>2</v>
+      </c>
+      <c r="T23" s="2">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>44</v>
       </c>
@@ -3508,8 +3657,8 @@
       <c r="I24" s="2">
         <v>10</v>
       </c>
-      <c r="J24" s="2">
-        <v>7</v>
+      <c r="J24" s="18">
+        <v>4</v>
       </c>
       <c r="K24" s="2">
         <v>9500</v>
@@ -3532,8 +3681,15 @@
       <c r="Q24" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="25" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S24" s="2">
+        <v>2</v>
+      </c>
+      <c r="T24" s="2">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>44</v>
       </c>
@@ -3555,8 +3711,8 @@
       <c r="I25" s="2">
         <v>10</v>
       </c>
-      <c r="J25" s="2">
-        <v>7</v>
+      <c r="J25" s="18">
+        <v>4</v>
       </c>
       <c r="K25" s="2">
         <v>9500</v>
@@ -3579,8 +3735,15 @@
       <c r="Q25" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="26" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S25" s="2">
+        <v>2</v>
+      </c>
+      <c r="T25" s="2">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>44</v>
       </c>
@@ -3602,8 +3765,8 @@
       <c r="I26" s="2">
         <v>10</v>
       </c>
-      <c r="J26" s="2">
-        <v>7</v>
+      <c r="J26" s="18">
+        <v>4</v>
       </c>
       <c r="K26" s="2">
         <v>9500</v>
@@ -3626,8 +3789,15 @@
       <c r="Q26" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="27" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S26" s="2">
+        <v>2</v>
+      </c>
+      <c r="T26" s="2">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
         <v>44</v>
       </c>
@@ -3649,8 +3819,8 @@
       <c r="I27" s="2">
         <v>10</v>
       </c>
-      <c r="J27" s="2">
-        <v>7</v>
+      <c r="J27" s="18">
+        <v>4</v>
       </c>
       <c r="K27" s="2">
         <v>9500</v>
@@ -3673,8 +3843,15 @@
       <c r="Q27" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="28" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S27" s="2">
+        <v>2</v>
+      </c>
+      <c r="T27" s="2">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>87</v>
       </c>
@@ -3697,7 +3874,7 @@
         <v>10</v>
       </c>
       <c r="J28" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K28" s="2">
         <v>9500</v>
@@ -3720,8 +3897,15 @@
       <c r="Q28" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="29" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S28" s="2">
+        <v>2</v>
+      </c>
+      <c r="T28" s="2">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>87</v>
       </c>
@@ -3744,7 +3928,7 @@
         <v>10</v>
       </c>
       <c r="J29" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K29" s="2">
         <v>9500</v>
@@ -3767,8 +3951,15 @@
       <c r="Q29" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="30" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S29" s="2">
+        <v>2</v>
+      </c>
+      <c r="T29" s="2">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>87</v>
       </c>
@@ -3791,7 +3982,7 @@
         <v>10</v>
       </c>
       <c r="J30" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K30" s="2">
         <v>9500</v>
@@ -3814,8 +4005,15 @@
       <c r="Q30" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="31" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S30" s="2">
+        <v>2</v>
+      </c>
+      <c r="T30" s="2">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>87</v>
       </c>
@@ -3838,7 +4036,7 @@
         <v>10</v>
       </c>
       <c r="J31" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K31" s="2">
         <v>9500</v>
@@ -3861,8 +4059,15 @@
       <c r="Q31" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="32" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S31" s="2">
+        <v>2</v>
+      </c>
+      <c r="T31" s="2">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
         <v>87</v>
       </c>
@@ -3885,7 +4090,7 @@
         <v>10</v>
       </c>
       <c r="J32" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K32" s="2">
         <v>9500</v>
@@ -3908,8 +4113,15 @@
       <c r="Q32" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="33" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S32" s="2">
+        <v>2</v>
+      </c>
+      <c r="T32" s="2">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
         <v>45</v>
       </c>
@@ -3929,10 +4141,10 @@
         <v>1</v>
       </c>
       <c r="I33" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J33" s="2">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K33" s="2">
         <v>9500</v>
@@ -3955,8 +4167,15 @@
       <c r="Q33" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="34" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S33" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="T33" s="2">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>46</v>
       </c>
@@ -3975,11 +4194,11 @@
       <c r="H34" s="2">
         <v>1</v>
       </c>
-      <c r="I34" s="2">
-        <v>47</v>
+      <c r="I34" s="14">
+        <v>28</v>
       </c>
       <c r="J34" s="2">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="K34" s="2">
         <v>9500</v>
@@ -4002,8 +4221,15 @@
       <c r="Q34" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="35" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S34" s="2">
+        <v>2</v>
+      </c>
+      <c r="T34" s="2">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>46</v>
       </c>
@@ -4022,11 +4248,11 @@
       <c r="H35" s="2">
         <v>1</v>
       </c>
-      <c r="I35" s="2">
-        <v>47</v>
+      <c r="I35" s="14">
+        <v>28</v>
       </c>
       <c r="J35" s="2">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="K35" s="2">
         <v>9500</v>
@@ -4049,8 +4275,15 @@
       <c r="Q35" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="36" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S35" s="2">
+        <v>2</v>
+      </c>
+      <c r="T35" s="2">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>46</v>
       </c>
@@ -4069,11 +4302,11 @@
       <c r="H36" s="2">
         <v>1</v>
       </c>
-      <c r="I36" s="2">
-        <v>47</v>
+      <c r="I36" s="14">
+        <v>28</v>
       </c>
       <c r="J36" s="2">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="K36" s="2">
         <v>9500</v>
@@ -4096,8 +4329,15 @@
       <c r="Q36" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="37" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S36" s="2">
+        <v>2</v>
+      </c>
+      <c r="T36" s="2">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>46</v>
       </c>
@@ -4116,11 +4356,11 @@
       <c r="H37" s="2">
         <v>1</v>
       </c>
-      <c r="I37" s="2">
-        <v>47</v>
+      <c r="I37" s="14">
+        <v>28</v>
       </c>
       <c r="J37" s="2">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="K37" s="2">
         <v>9500</v>
@@ -4143,8 +4383,15 @@
       <c r="Q37" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="38" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S37" s="2">
+        <v>2</v>
+      </c>
+      <c r="T37" s="2">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>46</v>
       </c>
@@ -4163,11 +4410,11 @@
       <c r="H38" s="2">
         <v>1</v>
       </c>
-      <c r="I38" s="2">
-        <v>47</v>
+      <c r="I38" s="14">
+        <v>28</v>
       </c>
       <c r="J38" s="2">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="K38" s="2">
         <v>9500</v>
@@ -4190,8 +4437,15 @@
       <c r="Q38" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="39" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S38" s="2">
+        <v>2</v>
+      </c>
+      <c r="T38" s="2">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>46</v>
       </c>
@@ -4210,11 +4464,11 @@
       <c r="H39" s="2">
         <v>1</v>
       </c>
-      <c r="I39" s="2">
-        <v>47</v>
+      <c r="I39" s="14">
+        <v>28</v>
       </c>
       <c r="J39" s="2">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="K39" s="2">
         <v>9500</v>
@@ -4237,8 +4491,15 @@
       <c r="Q39" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="40" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S39" s="2">
+        <v>2</v>
+      </c>
+      <c r="T39" s="2">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>46</v>
       </c>
@@ -4257,11 +4518,11 @@
       <c r="H40" s="2">
         <v>1</v>
       </c>
-      <c r="I40" s="2">
-        <v>47</v>
+      <c r="I40" s="14">
+        <v>28</v>
       </c>
       <c r="J40" s="2">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="K40" s="2">
         <v>9500</v>
@@ -4284,8 +4545,15 @@
       <c r="Q40" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="41" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S40" s="2">
+        <v>2</v>
+      </c>
+      <c r="T40" s="2">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>46</v>
       </c>
@@ -4304,11 +4572,11 @@
       <c r="H41" s="2">
         <v>1</v>
       </c>
-      <c r="I41" s="2">
-        <v>47</v>
+      <c r="I41" s="14">
+        <v>28</v>
       </c>
       <c r="J41" s="2">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="K41" s="2">
         <v>9500</v>
@@ -4331,8 +4599,15 @@
       <c r="Q41" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S41" s="2">
+        <v>2</v>
+      </c>
+      <c r="T41" s="2">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>46</v>
       </c>
@@ -4351,11 +4626,11 @@
       <c r="H42" s="2">
         <v>1</v>
       </c>
-      <c r="I42" s="2">
-        <v>47</v>
+      <c r="I42" s="14">
+        <v>28</v>
       </c>
       <c r="J42" s="2">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="K42" s="2">
         <v>9500</v>
@@ -4378,8 +4653,15 @@
       <c r="Q42" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S42" s="2">
+        <v>2</v>
+      </c>
+      <c r="T42" s="2">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
         <v>46</v>
       </c>
@@ -4398,11 +4680,11 @@
       <c r="H43" s="2">
         <v>1</v>
       </c>
-      <c r="I43" s="2">
-        <v>47</v>
+      <c r="I43" s="14">
+        <v>28</v>
       </c>
       <c r="J43" s="2">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="K43" s="2">
         <v>9500</v>
@@ -4425,8 +4707,15 @@
       <c r="Q43" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="44" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S43" s="2">
+        <v>2</v>
+      </c>
+      <c r="T43" s="2">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>47</v>
       </c>
@@ -4445,11 +4734,11 @@
       <c r="H44" s="2">
         <v>1</v>
       </c>
-      <c r="I44" s="2">
-        <v>42</v>
+      <c r="I44" s="14">
+        <v>26</v>
       </c>
       <c r="J44" s="2">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="K44" s="2">
         <v>9500</v>
@@ -4472,8 +4761,15 @@
       <c r="Q44" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="45" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S44" s="2">
+        <v>2</v>
+      </c>
+      <c r="T44" s="2">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>47</v>
       </c>
@@ -4492,11 +4788,11 @@
       <c r="H45" s="2">
         <v>1</v>
       </c>
-      <c r="I45" s="2">
-        <v>42</v>
+      <c r="I45" s="14">
+        <v>26</v>
       </c>
       <c r="J45" s="2">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="K45" s="2">
         <v>9500</v>
@@ -4519,8 +4815,15 @@
       <c r="Q45" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="46" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S45" s="2">
+        <v>2</v>
+      </c>
+      <c r="T45" s="2">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>47</v>
       </c>
@@ -4539,11 +4842,11 @@
       <c r="H46" s="2">
         <v>1</v>
       </c>
-      <c r="I46" s="2">
-        <v>42</v>
+      <c r="I46" s="14">
+        <v>26</v>
       </c>
       <c r="J46" s="2">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="K46" s="2">
         <v>9500</v>
@@ -4566,8 +4869,15 @@
       <c r="Q46" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="47" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S46" s="2">
+        <v>2</v>
+      </c>
+      <c r="T46" s="2">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>47</v>
       </c>
@@ -4586,11 +4896,11 @@
       <c r="H47" s="2">
         <v>1</v>
       </c>
-      <c r="I47" s="2">
-        <v>42</v>
+      <c r="I47" s="14">
+        <v>26</v>
       </c>
       <c r="J47" s="2">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="K47" s="2">
         <v>9500</v>
@@ -4613,8 +4923,15 @@
       <c r="Q47" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="48" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S47" s="2">
+        <v>2</v>
+      </c>
+      <c r="T47" s="2">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>47</v>
       </c>
@@ -4633,11 +4950,11 @@
       <c r="H48" s="2">
         <v>1</v>
       </c>
-      <c r="I48" s="2">
-        <v>42</v>
+      <c r="I48" s="14">
+        <v>26</v>
       </c>
       <c r="J48" s="2">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="K48" s="2">
         <v>9500</v>
@@ -4660,8 +4977,15 @@
       <c r="Q48" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="49" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S48" s="2">
+        <v>2</v>
+      </c>
+      <c r="T48" s="2">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>47</v>
       </c>
@@ -4680,11 +5004,11 @@
       <c r="H49" s="2">
         <v>1</v>
       </c>
-      <c r="I49" s="2">
-        <v>42</v>
+      <c r="I49" s="14">
+        <v>26</v>
       </c>
       <c r="J49" s="2">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="K49" s="2">
         <v>9500</v>
@@ -4707,8 +5031,15 @@
       <c r="Q49" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="50" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S49" s="2">
+        <v>2</v>
+      </c>
+      <c r="T49" s="2">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>47</v>
       </c>
@@ -4727,11 +5058,11 @@
       <c r="H50" s="2">
         <v>1</v>
       </c>
-      <c r="I50" s="2">
-        <v>42</v>
+      <c r="I50" s="14">
+        <v>26</v>
       </c>
       <c r="J50" s="2">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="K50" s="2">
         <v>9500</v>
@@ -4754,8 +5085,15 @@
       <c r="Q50" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="51" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S50" s="2">
+        <v>2</v>
+      </c>
+      <c r="T50" s="2">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>47</v>
       </c>
@@ -4774,11 +5112,11 @@
       <c r="H51" s="2">
         <v>1</v>
       </c>
-      <c r="I51" s="2">
-        <v>42</v>
+      <c r="I51" s="14">
+        <v>26</v>
       </c>
       <c r="J51" s="2">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="K51" s="2">
         <v>9500</v>
@@ -4801,8 +5139,15 @@
       <c r="Q51" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="52" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S51" s="2">
+        <v>2</v>
+      </c>
+      <c r="T51" s="2">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>47</v>
       </c>
@@ -4821,11 +5166,11 @@
       <c r="H52" s="2">
         <v>1</v>
       </c>
-      <c r="I52" s="2">
-        <v>42</v>
+      <c r="I52" s="14">
+        <v>26</v>
       </c>
       <c r="J52" s="2">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="K52" s="2">
         <v>9500</v>
@@ -4848,8 +5193,15 @@
       <c r="Q52" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="53" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S52" s="2">
+        <v>2</v>
+      </c>
+      <c r="T52" s="2">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A53" s="11" t="s">
         <v>47</v>
       </c>
@@ -4868,11 +5220,11 @@
       <c r="H53" s="2">
         <v>1</v>
       </c>
-      <c r="I53" s="2">
-        <v>42</v>
+      <c r="I53" s="14">
+        <v>26</v>
       </c>
       <c r="J53" s="2">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="K53" s="2">
         <v>9500</v>
@@ -4895,8 +5247,15 @@
       <c r="Q53" s="2">
         <v>11</v>
       </c>
-    </row>
-    <row r="54" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S53" s="2">
+        <v>2</v>
+      </c>
+      <c r="T53" s="2">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>48</v>
       </c>
@@ -4915,11 +5274,11 @@
       <c r="H54" s="2">
         <v>1</v>
       </c>
-      <c r="I54" s="2">
-        <v>51</v>
+      <c r="I54" s="14">
+        <v>30</v>
       </c>
       <c r="J54" s="2">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="K54" s="2">
         <v>9500</v>
@@ -4942,8 +5301,15 @@
       <c r="Q54" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="55" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S54" s="2">
+        <v>2</v>
+      </c>
+      <c r="T54" s="2">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>48</v>
       </c>
@@ -4962,11 +5328,11 @@
       <c r="H55" s="2">
         <v>1</v>
       </c>
-      <c r="I55" s="2">
-        <v>51</v>
+      <c r="I55" s="14">
+        <v>30</v>
       </c>
       <c r="J55" s="2">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="K55" s="2">
         <v>9500</v>
@@ -4989,8 +5355,15 @@
       <c r="Q55" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="56" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S55" s="2">
+        <v>2</v>
+      </c>
+      <c r="T55" s="2">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>48</v>
       </c>
@@ -5009,11 +5382,11 @@
       <c r="H56" s="2">
         <v>1</v>
       </c>
-      <c r="I56" s="2">
-        <v>51</v>
+      <c r="I56" s="14">
+        <v>30</v>
       </c>
       <c r="J56" s="2">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="K56" s="2">
         <v>9500</v>
@@ -5036,8 +5409,15 @@
       <c r="Q56" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="57" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S56" s="2">
+        <v>2</v>
+      </c>
+      <c r="T56" s="2">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>48</v>
       </c>
@@ -5056,11 +5436,11 @@
       <c r="H57" s="2">
         <v>1</v>
       </c>
-      <c r="I57" s="2">
-        <v>51</v>
+      <c r="I57" s="14">
+        <v>30</v>
       </c>
       <c r="J57" s="2">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="K57" s="2">
         <v>9500</v>
@@ -5083,8 +5463,15 @@
       <c r="Q57" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="58" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S57" s="2">
+        <v>2</v>
+      </c>
+      <c r="T57" s="2">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>48</v>
       </c>
@@ -5103,11 +5490,11 @@
       <c r="H58" s="2">
         <v>1</v>
       </c>
-      <c r="I58" s="2">
-        <v>51</v>
+      <c r="I58" s="14">
+        <v>30</v>
       </c>
       <c r="J58" s="2">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="K58" s="2">
         <v>9500</v>
@@ -5130,8 +5517,15 @@
       <c r="Q58" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="59" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S58" s="2">
+        <v>2</v>
+      </c>
+      <c r="T58" s="2">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>48</v>
       </c>
@@ -5150,11 +5544,11 @@
       <c r="H59" s="2">
         <v>1</v>
       </c>
-      <c r="I59" s="2">
-        <v>51</v>
+      <c r="I59" s="14">
+        <v>30</v>
       </c>
       <c r="J59" s="2">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="K59" s="2">
         <v>9500</v>
@@ -5177,8 +5571,15 @@
       <c r="Q59" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="60" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S59" s="2">
+        <v>2</v>
+      </c>
+      <c r="T59" s="2">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A60" s="11" t="s">
         <v>48</v>
       </c>
@@ -5197,11 +5598,11 @@
       <c r="H60" s="2">
         <v>1</v>
       </c>
-      <c r="I60" s="2">
-        <v>51</v>
+      <c r="I60" s="14">
+        <v>30</v>
       </c>
       <c r="J60" s="2">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="K60" s="2">
         <v>9500</v>
@@ -5224,8 +5625,15 @@
       <c r="Q60" s="2">
         <v>13</v>
       </c>
-    </row>
-    <row r="61" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S60" s="2">
+        <v>2</v>
+      </c>
+      <c r="T60" s="2">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>88</v>
       </c>
@@ -5245,10 +5653,10 @@
         <v>1</v>
       </c>
       <c r="I61" s="2">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="J61" s="2">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="K61" s="2">
         <v>9500</v>
@@ -5271,8 +5679,15 @@
       <c r="Q61" s="2">
         <v>14</v>
       </c>
-    </row>
-    <row r="62" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S61" s="2">
+        <v>2</v>
+      </c>
+      <c r="T61" s="2">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>88</v>
       </c>
@@ -5292,10 +5707,10 @@
         <v>1</v>
       </c>
       <c r="I62" s="2">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="J62" s="2">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="K62" s="2">
         <v>9500</v>
@@ -5318,8 +5733,15 @@
       <c r="Q62" s="2">
         <v>14</v>
       </c>
-    </row>
-    <row r="63" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S62" s="2">
+        <v>2</v>
+      </c>
+      <c r="T62" s="2">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>88</v>
       </c>
@@ -5339,10 +5761,10 @@
         <v>1</v>
       </c>
       <c r="I63" s="2">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="J63" s="2">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="K63" s="2">
         <v>9500</v>
@@ -5365,8 +5787,15 @@
       <c r="Q63" s="2">
         <v>14</v>
       </c>
-    </row>
-    <row r="64" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S63" s="2">
+        <v>2</v>
+      </c>
+      <c r="T63" s="2">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>88</v>
       </c>
@@ -5386,10 +5815,10 @@
         <v>1</v>
       </c>
       <c r="I64" s="2">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="J64" s="2">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="K64" s="2">
         <v>9500</v>
@@ -5412,8 +5841,15 @@
       <c r="Q64" s="2">
         <v>14</v>
       </c>
-    </row>
-    <row r="65" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S64" s="2">
+        <v>2</v>
+      </c>
+      <c r="T64" s="2">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A65" s="11" t="s">
         <v>88</v>
       </c>
@@ -5433,10 +5869,10 @@
         <v>1</v>
       </c>
       <c r="I65" s="2">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="J65" s="2">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="K65" s="2">
         <v>9500</v>
@@ -5459,8 +5895,15 @@
       <c r="Q65" s="2">
         <v>14</v>
       </c>
-    </row>
-    <row r="66" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S65" s="2">
+        <v>2</v>
+      </c>
+      <c r="T65" s="2">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A66" s="11" t="s">
         <v>49</v>
       </c>
@@ -5480,10 +5923,10 @@
         <v>1</v>
       </c>
       <c r="I66" s="2">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="J66" s="2">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="K66" s="2">
         <v>9500</v>
@@ -5506,8 +5949,15 @@
       <c r="Q66" s="2">
         <v>14</v>
       </c>
-    </row>
-    <row r="67" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S66" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="T66" s="2">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>50</v>
       </c>
@@ -5527,10 +5977,10 @@
         <v>2</v>
       </c>
       <c r="I67" s="2">
-        <v>98</v>
-      </c>
-      <c r="J67" s="2">
-        <v>18</v>
+        <v>43</v>
+      </c>
+      <c r="J67" s="14">
+        <v>11</v>
       </c>
       <c r="K67" s="2">
         <v>10000</v>
@@ -5553,8 +6003,15 @@
       <c r="Q67" s="2">
         <v>15</v>
       </c>
-    </row>
-    <row r="68" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S67" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="T67" s="2">
+        <f t="shared" si="0"/>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>50</v>
       </c>
@@ -5574,10 +6031,10 @@
         <v>2</v>
       </c>
       <c r="I68" s="2">
-        <v>98</v>
-      </c>
-      <c r="J68" s="2">
-        <v>18</v>
+        <v>43</v>
+      </c>
+      <c r="J68" s="14">
+        <v>11</v>
       </c>
       <c r="K68" s="2">
         <v>10000</v>
@@ -5600,8 +6057,15 @@
       <c r="Q68" s="2">
         <v>15</v>
       </c>
-    </row>
-    <row r="69" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S68" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="T68" s="2">
+        <f t="shared" si="0"/>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>50</v>
       </c>
@@ -5621,10 +6085,10 @@
         <v>2</v>
       </c>
       <c r="I69" s="2">
-        <v>98</v>
-      </c>
-      <c r="J69" s="2">
-        <v>18</v>
+        <v>43</v>
+      </c>
+      <c r="J69" s="14">
+        <v>11</v>
       </c>
       <c r="K69" s="2">
         <v>10000</v>
@@ -5647,8 +6111,15 @@
       <c r="Q69" s="2">
         <v>15</v>
       </c>
-    </row>
-    <row r="70" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S69" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="T69" s="2">
+        <f t="shared" ref="T69:T132" si="1">ROUND(S69*I69,0)</f>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="70" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>50</v>
       </c>
@@ -5668,10 +6139,10 @@
         <v>2</v>
       </c>
       <c r="I70" s="2">
-        <v>98</v>
-      </c>
-      <c r="J70" s="2">
-        <v>18</v>
+        <v>43</v>
+      </c>
+      <c r="J70" s="14">
+        <v>11</v>
       </c>
       <c r="K70" s="2">
         <v>10000</v>
@@ -5694,8 +6165,15 @@
       <c r="Q70" s="2">
         <v>15</v>
       </c>
-    </row>
-    <row r="71" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S70" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="T70" s="2">
+        <f t="shared" si="1"/>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>50</v>
       </c>
@@ -5715,10 +6193,10 @@
         <v>2</v>
       </c>
       <c r="I71" s="2">
-        <v>98</v>
-      </c>
-      <c r="J71" s="2">
-        <v>18</v>
+        <v>43</v>
+      </c>
+      <c r="J71" s="14">
+        <v>11</v>
       </c>
       <c r="K71" s="2">
         <v>10000</v>
@@ -5741,8 +6219,15 @@
       <c r="Q71" s="2">
         <v>15</v>
       </c>
-    </row>
-    <row r="72" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S71" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="T71" s="2">
+        <f t="shared" si="1"/>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>50</v>
       </c>
@@ -5762,10 +6247,10 @@
         <v>2</v>
       </c>
       <c r="I72" s="2">
-        <v>98</v>
-      </c>
-      <c r="J72" s="2">
-        <v>18</v>
+        <v>43</v>
+      </c>
+      <c r="J72" s="14">
+        <v>11</v>
       </c>
       <c r="K72" s="2">
         <v>10000</v>
@@ -5788,8 +6273,15 @@
       <c r="Q72" s="2">
         <v>15</v>
       </c>
-    </row>
-    <row r="73" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S72" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="T72" s="2">
+        <f t="shared" si="1"/>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="73" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>50</v>
       </c>
@@ -5809,10 +6301,10 @@
         <v>2</v>
       </c>
       <c r="I73" s="2">
-        <v>98</v>
-      </c>
-      <c r="J73" s="2">
-        <v>18</v>
+        <v>43</v>
+      </c>
+      <c r="J73" s="14">
+        <v>11</v>
       </c>
       <c r="K73" s="2">
         <v>10000</v>
@@ -5835,8 +6327,15 @@
       <c r="Q73" s="2">
         <v>15</v>
       </c>
-    </row>
-    <row r="74" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S73" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="T73" s="2">
+        <f t="shared" si="1"/>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="74" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A74" s="11" t="s">
         <v>50</v>
       </c>
@@ -5856,10 +6355,10 @@
         <v>2</v>
       </c>
       <c r="I74" s="2">
-        <v>98</v>
-      </c>
-      <c r="J74" s="2">
-        <v>18</v>
+        <v>43</v>
+      </c>
+      <c r="J74" s="14">
+        <v>11</v>
       </c>
       <c r="K74" s="2">
         <v>10000</v>
@@ -5882,8 +6381,15 @@
       <c r="Q74" s="2">
         <v>16</v>
       </c>
-    </row>
-    <row r="75" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S74" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="T74" s="2">
+        <f t="shared" si="1"/>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="75" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>51</v>
       </c>
@@ -5903,10 +6409,10 @@
         <v>2</v>
       </c>
       <c r="I75" s="2">
-        <v>140</v>
-      </c>
-      <c r="J75" s="2">
-        <v>21</v>
+        <v>50</v>
+      </c>
+      <c r="J75" s="14">
+        <v>10</v>
       </c>
       <c r="K75" s="2">
         <v>10000</v>
@@ -5929,8 +6435,15 @@
       <c r="Q75" s="2">
         <v>17</v>
       </c>
-    </row>
-    <row r="76" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S75" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="T75" s="2">
+        <f t="shared" si="1"/>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="76" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>51</v>
       </c>
@@ -5950,10 +6463,10 @@
         <v>2</v>
       </c>
       <c r="I76" s="2">
-        <v>140</v>
-      </c>
-      <c r="J76" s="2">
-        <v>21</v>
+        <v>50</v>
+      </c>
+      <c r="J76" s="14">
+        <v>10</v>
       </c>
       <c r="K76" s="2">
         <v>10000</v>
@@ -5976,8 +6489,15 @@
       <c r="Q76" s="2">
         <v>17</v>
       </c>
-    </row>
-    <row r="77" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S76" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="T76" s="2">
+        <f t="shared" si="1"/>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="77" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>51</v>
       </c>
@@ -5997,10 +6517,10 @@
         <v>2</v>
       </c>
       <c r="I77" s="2">
-        <v>140</v>
-      </c>
-      <c r="J77" s="2">
-        <v>21</v>
+        <v>50</v>
+      </c>
+      <c r="J77" s="14">
+        <v>10</v>
       </c>
       <c r="K77" s="2">
         <v>10000</v>
@@ -6023,8 +6543,15 @@
       <c r="Q77" s="2">
         <v>17</v>
       </c>
-    </row>
-    <row r="78" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S77" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="T77" s="2">
+        <f t="shared" si="1"/>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="78" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>51</v>
       </c>
@@ -6044,10 +6571,10 @@
         <v>2</v>
       </c>
       <c r="I78" s="2">
-        <v>140</v>
-      </c>
-      <c r="J78" s="2">
-        <v>21</v>
+        <v>50</v>
+      </c>
+      <c r="J78" s="14">
+        <v>10</v>
       </c>
       <c r="K78" s="2">
         <v>10000</v>
@@ -6070,8 +6597,15 @@
       <c r="Q78" s="2">
         <v>17</v>
       </c>
-    </row>
-    <row r="79" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S78" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="T78" s="2">
+        <f t="shared" si="1"/>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="79" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>51</v>
       </c>
@@ -6091,10 +6625,10 @@
         <v>2</v>
       </c>
       <c r="I79" s="2">
-        <v>140</v>
-      </c>
-      <c r="J79" s="2">
-        <v>21</v>
+        <v>50</v>
+      </c>
+      <c r="J79" s="14">
+        <v>10</v>
       </c>
       <c r="K79" s="2">
         <v>10000</v>
@@ -6117,8 +6651,15 @@
       <c r="Q79" s="2">
         <v>17</v>
       </c>
-    </row>
-    <row r="80" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S79" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="T79" s="2">
+        <f t="shared" si="1"/>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="80" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>51</v>
       </c>
@@ -6138,10 +6679,10 @@
         <v>2</v>
       </c>
       <c r="I80" s="2">
-        <v>140</v>
-      </c>
-      <c r="J80" s="2">
-        <v>21</v>
+        <v>50</v>
+      </c>
+      <c r="J80" s="14">
+        <v>10</v>
       </c>
       <c r="K80" s="2">
         <v>10000</v>
@@ -6164,8 +6705,15 @@
       <c r="Q80" s="2">
         <v>17</v>
       </c>
-    </row>
-    <row r="81" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S80" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="T80" s="2">
+        <f t="shared" si="1"/>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="81" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>51</v>
       </c>
@@ -6185,10 +6733,10 @@
         <v>2</v>
       </c>
       <c r="I81" s="2">
-        <v>140</v>
-      </c>
-      <c r="J81" s="2">
-        <v>21</v>
+        <v>50</v>
+      </c>
+      <c r="J81" s="14">
+        <v>10</v>
       </c>
       <c r="K81" s="2">
         <v>10000</v>
@@ -6211,8 +6759,15 @@
       <c r="Q81" s="2">
         <v>17</v>
       </c>
-    </row>
-    <row r="82" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S81" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="T81" s="2">
+        <f t="shared" si="1"/>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="82" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A82" s="11" t="s">
         <v>51</v>
       </c>
@@ -6232,10 +6787,10 @@
         <v>2</v>
       </c>
       <c r="I82" s="2">
-        <v>140</v>
-      </c>
-      <c r="J82" s="2">
-        <v>21</v>
+        <v>50</v>
+      </c>
+      <c r="J82" s="14">
+        <v>10</v>
       </c>
       <c r="K82" s="2">
         <v>10000</v>
@@ -6258,8 +6813,15 @@
       <c r="Q82" s="2">
         <v>18</v>
       </c>
-    </row>
-    <row r="83" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S82" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="T82" s="2">
+        <f t="shared" si="1"/>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="83" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>52</v>
       </c>
@@ -6279,10 +6841,10 @@
         <v>2</v>
       </c>
       <c r="I83" s="2">
-        <v>186</v>
-      </c>
-      <c r="J83" s="2">
-        <v>35</v>
+        <v>96</v>
+      </c>
+      <c r="J83" s="14">
+        <v>23</v>
       </c>
       <c r="K83" s="2">
         <v>10000</v>
@@ -6305,8 +6867,15 @@
       <c r="Q83" s="2">
         <v>19</v>
       </c>
-    </row>
-    <row r="84" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S83" s="2">
+        <v>2.75</v>
+      </c>
+      <c r="T83" s="2">
+        <f t="shared" si="1"/>
+        <v>264</v>
+      </c>
+    </row>
+    <row r="84" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>52</v>
       </c>
@@ -6326,10 +6895,10 @@
         <v>2</v>
       </c>
       <c r="I84" s="2">
-        <v>186</v>
-      </c>
-      <c r="J84" s="2">
-        <v>35</v>
+        <v>96</v>
+      </c>
+      <c r="J84" s="14">
+        <v>23</v>
       </c>
       <c r="K84" s="2">
         <v>10000</v>
@@ -6352,8 +6921,15 @@
       <c r="Q84" s="2">
         <v>19</v>
       </c>
-    </row>
-    <row r="85" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S84" s="2">
+        <v>2.75</v>
+      </c>
+      <c r="T84" s="2">
+        <f t="shared" si="1"/>
+        <v>264</v>
+      </c>
+    </row>
+    <row r="85" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>52</v>
       </c>
@@ -6373,10 +6949,10 @@
         <v>2</v>
       </c>
       <c r="I85" s="2">
-        <v>186</v>
-      </c>
-      <c r="J85" s="2">
-        <v>35</v>
+        <v>96</v>
+      </c>
+      <c r="J85" s="14">
+        <v>23</v>
       </c>
       <c r="K85" s="2">
         <v>10000</v>
@@ -6399,8 +6975,15 @@
       <c r="Q85" s="2">
         <v>19</v>
       </c>
-    </row>
-    <row r="86" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S85" s="2">
+        <v>2.75</v>
+      </c>
+      <c r="T85" s="2">
+        <f t="shared" si="1"/>
+        <v>264</v>
+      </c>
+    </row>
+    <row r="86" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>52</v>
       </c>
@@ -6420,10 +7003,10 @@
         <v>2</v>
       </c>
       <c r="I86" s="2">
-        <v>186</v>
-      </c>
-      <c r="J86" s="2">
-        <v>35</v>
+        <v>96</v>
+      </c>
+      <c r="J86" s="14">
+        <v>23</v>
       </c>
       <c r="K86" s="2">
         <v>10000</v>
@@ -6446,8 +7029,15 @@
       <c r="Q86" s="2">
         <v>19</v>
       </c>
-    </row>
-    <row r="87" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S86" s="2">
+        <v>2.75</v>
+      </c>
+      <c r="T86" s="2">
+        <f t="shared" si="1"/>
+        <v>264</v>
+      </c>
+    </row>
+    <row r="87" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>52</v>
       </c>
@@ -6467,10 +7057,10 @@
         <v>2</v>
       </c>
       <c r="I87" s="2">
-        <v>186</v>
-      </c>
-      <c r="J87" s="2">
-        <v>35</v>
+        <v>96</v>
+      </c>
+      <c r="J87" s="14">
+        <v>23</v>
       </c>
       <c r="K87" s="2">
         <v>10000</v>
@@ -6493,8 +7083,15 @@
       <c r="Q87" s="2">
         <v>19</v>
       </c>
-    </row>
-    <row r="88" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S87" s="2">
+        <v>2.75</v>
+      </c>
+      <c r="T87" s="2">
+        <f t="shared" si="1"/>
+        <v>264</v>
+      </c>
+    </row>
+    <row r="88" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A88" s="11" t="s">
         <v>52</v>
       </c>
@@ -6514,10 +7111,10 @@
         <v>2</v>
       </c>
       <c r="I88" s="2">
-        <v>186</v>
-      </c>
-      <c r="J88" s="2">
-        <v>35</v>
+        <v>96</v>
+      </c>
+      <c r="J88" s="14">
+        <v>23</v>
       </c>
       <c r="K88" s="2">
         <v>10000</v>
@@ -6540,8 +7137,15 @@
       <c r="Q88" s="2">
         <v>20</v>
       </c>
-    </row>
-    <row r="89" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S88" s="2">
+        <v>2.75</v>
+      </c>
+      <c r="T88" s="2">
+        <f t="shared" si="1"/>
+        <v>264</v>
+      </c>
+    </row>
+    <row r="89" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>53</v>
       </c>
@@ -6561,10 +7165,10 @@
         <v>2</v>
       </c>
       <c r="I89" s="2">
-        <v>175</v>
-      </c>
-      <c r="J89" s="2">
-        <v>43</v>
+        <v>83</v>
+      </c>
+      <c r="J89" s="14">
+        <v>26</v>
       </c>
       <c r="K89" s="2">
         <v>10000</v>
@@ -6587,8 +7191,15 @@
       <c r="Q89" s="2">
         <v>21</v>
       </c>
-    </row>
-    <row r="90" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S89" s="2">
+        <v>2.75</v>
+      </c>
+      <c r="T89" s="2">
+        <f t="shared" si="1"/>
+        <v>228</v>
+      </c>
+    </row>
+    <row r="90" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>53</v>
       </c>
@@ -6608,10 +7219,10 @@
         <v>2</v>
       </c>
       <c r="I90" s="2">
-        <v>175</v>
-      </c>
-      <c r="J90" s="2">
-        <v>43</v>
+        <v>83</v>
+      </c>
+      <c r="J90" s="14">
+        <v>26</v>
       </c>
       <c r="K90" s="2">
         <v>10000</v>
@@ -6634,8 +7245,15 @@
       <c r="Q90" s="2">
         <v>21</v>
       </c>
-    </row>
-    <row r="91" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S90" s="2">
+        <v>2.75</v>
+      </c>
+      <c r="T90" s="2">
+        <f t="shared" si="1"/>
+        <v>228</v>
+      </c>
+    </row>
+    <row r="91" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>53</v>
       </c>
@@ -6655,10 +7273,10 @@
         <v>2</v>
       </c>
       <c r="I91" s="2">
-        <v>175</v>
-      </c>
-      <c r="J91" s="2">
-        <v>43</v>
+        <v>83</v>
+      </c>
+      <c r="J91" s="14">
+        <v>26</v>
       </c>
       <c r="K91" s="2">
         <v>10000</v>
@@ -6681,8 +7299,15 @@
       <c r="Q91" s="2">
         <v>21</v>
       </c>
-    </row>
-    <row r="92" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S91" s="2">
+        <v>2.75</v>
+      </c>
+      <c r="T91" s="2">
+        <f t="shared" si="1"/>
+        <v>228</v>
+      </c>
+    </row>
+    <row r="92" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>53</v>
       </c>
@@ -6702,10 +7327,10 @@
         <v>2</v>
       </c>
       <c r="I92" s="2">
-        <v>175</v>
-      </c>
-      <c r="J92" s="2">
-        <v>43</v>
+        <v>83</v>
+      </c>
+      <c r="J92" s="14">
+        <v>26</v>
       </c>
       <c r="K92" s="2">
         <v>10000</v>
@@ -6728,8 +7353,15 @@
       <c r="Q92" s="2">
         <v>21</v>
       </c>
-    </row>
-    <row r="93" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S92" s="2">
+        <v>2.75</v>
+      </c>
+      <c r="T92" s="2">
+        <f t="shared" si="1"/>
+        <v>228</v>
+      </c>
+    </row>
+    <row r="93" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>53</v>
       </c>
@@ -6749,10 +7381,10 @@
         <v>2</v>
       </c>
       <c r="I93" s="2">
-        <v>175</v>
-      </c>
-      <c r="J93" s="2">
-        <v>43</v>
+        <v>83</v>
+      </c>
+      <c r="J93" s="14">
+        <v>26</v>
       </c>
       <c r="K93" s="2">
         <v>10000</v>
@@ -6775,8 +7407,15 @@
       <c r="Q93" s="2">
         <v>21</v>
       </c>
-    </row>
-    <row r="94" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S93" s="2">
+        <v>2.75</v>
+      </c>
+      <c r="T93" s="2">
+        <f t="shared" si="1"/>
+        <v>228</v>
+      </c>
+    </row>
+    <row r="94" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>53</v>
       </c>
@@ -6796,10 +7435,10 @@
         <v>2</v>
       </c>
       <c r="I94" s="2">
-        <v>175</v>
-      </c>
-      <c r="J94" s="2">
-        <v>43</v>
+        <v>83</v>
+      </c>
+      <c r="J94" s="14">
+        <v>26</v>
       </c>
       <c r="K94" s="2">
         <v>10000</v>
@@ -6822,8 +7461,15 @@
       <c r="Q94" s="2">
         <v>21</v>
       </c>
-    </row>
-    <row r="95" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S94" s="2">
+        <v>2.75</v>
+      </c>
+      <c r="T94" s="2">
+        <f t="shared" si="1"/>
+        <v>228</v>
+      </c>
+    </row>
+    <row r="95" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>53</v>
       </c>
@@ -6843,10 +7489,10 @@
         <v>2</v>
       </c>
       <c r="I95" s="2">
-        <v>175</v>
-      </c>
-      <c r="J95" s="2">
-        <v>43</v>
+        <v>83</v>
+      </c>
+      <c r="J95" s="14">
+        <v>26</v>
       </c>
       <c r="K95" s="2">
         <v>10000</v>
@@ -6869,8 +7515,15 @@
       <c r="Q95" s="2">
         <v>21</v>
       </c>
-    </row>
-    <row r="96" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S95" s="2">
+        <v>2.75</v>
+      </c>
+      <c r="T95" s="2">
+        <f t="shared" si="1"/>
+        <v>228</v>
+      </c>
+    </row>
+    <row r="96" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A96" s="11" t="s">
         <v>53</v>
       </c>
@@ -6890,10 +7543,10 @@
         <v>2</v>
       </c>
       <c r="I96" s="2">
-        <v>175</v>
-      </c>
-      <c r="J96" s="2">
-        <v>43</v>
+        <v>83</v>
+      </c>
+      <c r="J96" s="14">
+        <v>26</v>
       </c>
       <c r="K96" s="2">
         <v>10000</v>
@@ -6916,8 +7569,15 @@
       <c r="Q96" s="2">
         <v>22</v>
       </c>
-    </row>
-    <row r="97" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S96" s="2">
+        <v>2.75</v>
+      </c>
+      <c r="T96" s="2">
+        <f t="shared" si="1"/>
+        <v>228</v>
+      </c>
+    </row>
+    <row r="97" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>89</v>
       </c>
@@ -6937,10 +7597,10 @@
         <v>2</v>
       </c>
       <c r="I97" s="2">
-        <v>179</v>
+        <v>113</v>
       </c>
       <c r="J97" s="2">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="K97" s="2">
         <v>10000</v>
@@ -6963,8 +7623,15 @@
       <c r="Q97" s="2">
         <v>23</v>
       </c>
-    </row>
-    <row r="98" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S97" s="2">
+        <v>2.75</v>
+      </c>
+      <c r="T97" s="2">
+        <f t="shared" si="1"/>
+        <v>311</v>
+      </c>
+    </row>
+    <row r="98" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>89</v>
       </c>
@@ -6984,10 +7651,10 @@
         <v>2</v>
       </c>
       <c r="I98" s="2">
-        <v>179</v>
+        <v>113</v>
       </c>
       <c r="J98" s="2">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="K98" s="2">
         <v>10000</v>
@@ -7010,8 +7677,15 @@
       <c r="Q98" s="2">
         <v>23</v>
       </c>
-    </row>
-    <row r="99" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S98" s="2">
+        <v>2.75</v>
+      </c>
+      <c r="T98" s="2">
+        <f t="shared" si="1"/>
+        <v>311</v>
+      </c>
+    </row>
+    <row r="99" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>89</v>
       </c>
@@ -7031,10 +7705,10 @@
         <v>2</v>
       </c>
       <c r="I99" s="2">
-        <v>179</v>
+        <v>113</v>
       </c>
       <c r="J99" s="2">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="K99" s="2">
         <v>10000</v>
@@ -7057,8 +7731,15 @@
       <c r="Q99" s="2">
         <v>23</v>
       </c>
-    </row>
-    <row r="100" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S99" s="2">
+        <v>2.75</v>
+      </c>
+      <c r="T99" s="2">
+        <f t="shared" si="1"/>
+        <v>311</v>
+      </c>
+    </row>
+    <row r="100" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>89</v>
       </c>
@@ -7078,10 +7759,10 @@
         <v>2</v>
       </c>
       <c r="I100" s="2">
-        <v>179</v>
+        <v>113</v>
       </c>
       <c r="J100" s="2">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="K100" s="2">
         <v>10000</v>
@@ -7104,8 +7785,15 @@
       <c r="Q100" s="2">
         <v>23</v>
       </c>
-    </row>
-    <row r="101" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S100" s="2">
+        <v>2.75</v>
+      </c>
+      <c r="T100" s="2">
+        <f t="shared" si="1"/>
+        <v>311</v>
+      </c>
+    </row>
+    <row r="101" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>89</v>
       </c>
@@ -7125,10 +7813,10 @@
         <v>2</v>
       </c>
       <c r="I101" s="2">
-        <v>179</v>
+        <v>113</v>
       </c>
       <c r="J101" s="2">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="K101" s="2">
         <v>10000</v>
@@ -7151,8 +7839,15 @@
       <c r="Q101" s="2">
         <v>23</v>
       </c>
-    </row>
-    <row r="102" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S101" s="2">
+        <v>2.75</v>
+      </c>
+      <c r="T101" s="2">
+        <f t="shared" si="1"/>
+        <v>311</v>
+      </c>
+    </row>
+    <row r="102" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A102" s="11" t="s">
         <v>89</v>
       </c>
@@ -7172,10 +7867,10 @@
         <v>2</v>
       </c>
       <c r="I102" s="2">
-        <v>179</v>
+        <v>113</v>
       </c>
       <c r="J102" s="2">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="K102" s="2">
         <v>10000</v>
@@ -7198,8 +7893,15 @@
       <c r="Q102" s="2">
         <v>23</v>
       </c>
-    </row>
-    <row r="103" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S102" s="2">
+        <v>2.75</v>
+      </c>
+      <c r="T102" s="2">
+        <f t="shared" si="1"/>
+        <v>311</v>
+      </c>
+    </row>
+    <row r="103" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A103" s="11" t="s">
         <v>54</v>
       </c>
@@ -7219,10 +7921,10 @@
         <v>2</v>
       </c>
       <c r="I103" s="2">
-        <v>200</v>
+        <v>111</v>
       </c>
       <c r="J103" s="2">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="K103" s="2">
         <v>10000</v>
@@ -7245,8 +7947,15 @@
       <c r="Q103" s="2">
         <v>23</v>
       </c>
-    </row>
-    <row r="104" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S103" s="2">
+        <v>3</v>
+      </c>
+      <c r="T103" s="2">
+        <f t="shared" si="1"/>
+        <v>333</v>
+      </c>
+    </row>
+    <row r="104" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>55</v>
       </c>
@@ -7266,10 +7975,10 @@
         <v>2</v>
       </c>
       <c r="I104" s="2">
-        <v>248</v>
-      </c>
-      <c r="J104" s="2">
-        <v>43</v>
+        <v>179</v>
+      </c>
+      <c r="J104" s="14">
+        <v>36</v>
       </c>
       <c r="K104" s="2">
         <v>10000</v>
@@ -7292,8 +8001,15 @@
       <c r="Q104" s="2">
         <v>24</v>
       </c>
-    </row>
-    <row r="105" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S104" s="2">
+        <v>3.25</v>
+      </c>
+      <c r="T104" s="2">
+        <f t="shared" si="1"/>
+        <v>582</v>
+      </c>
+    </row>
+    <row r="105" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>55</v>
       </c>
@@ -7313,10 +8029,10 @@
         <v>2</v>
       </c>
       <c r="I105" s="2">
-        <v>248</v>
-      </c>
-      <c r="J105" s="2">
-        <v>43</v>
+        <v>179</v>
+      </c>
+      <c r="J105" s="14">
+        <v>36</v>
       </c>
       <c r="K105" s="2">
         <v>10000</v>
@@ -7339,8 +8055,15 @@
       <c r="Q105" s="2">
         <v>24</v>
       </c>
-    </row>
-    <row r="106" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S105" s="2">
+        <v>3.25</v>
+      </c>
+      <c r="T105" s="2">
+        <f t="shared" si="1"/>
+        <v>582</v>
+      </c>
+    </row>
+    <row r="106" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>55</v>
       </c>
@@ -7360,10 +8083,10 @@
         <v>2</v>
       </c>
       <c r="I106" s="2">
-        <v>248</v>
-      </c>
-      <c r="J106" s="2">
-        <v>43</v>
+        <v>179</v>
+      </c>
+      <c r="J106" s="14">
+        <v>36</v>
       </c>
       <c r="K106" s="2">
         <v>10000</v>
@@ -7386,8 +8109,15 @@
       <c r="Q106" s="2">
         <v>24</v>
       </c>
-    </row>
-    <row r="107" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S106" s="2">
+        <v>3.25</v>
+      </c>
+      <c r="T106" s="2">
+        <f t="shared" si="1"/>
+        <v>582</v>
+      </c>
+    </row>
+    <row r="107" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>55</v>
       </c>
@@ -7407,10 +8137,10 @@
         <v>2</v>
       </c>
       <c r="I107" s="2">
-        <v>248</v>
-      </c>
-      <c r="J107" s="2">
-        <v>43</v>
+        <v>179</v>
+      </c>
+      <c r="J107" s="14">
+        <v>36</v>
       </c>
       <c r="K107" s="2">
         <v>10000</v>
@@ -7433,8 +8163,15 @@
       <c r="Q107" s="2">
         <v>24</v>
       </c>
-    </row>
-    <row r="108" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S107" s="2">
+        <v>3.25</v>
+      </c>
+      <c r="T107" s="2">
+        <f t="shared" si="1"/>
+        <v>582</v>
+      </c>
+    </row>
+    <row r="108" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A108" s="11" t="s">
         <v>55</v>
       </c>
@@ -7454,10 +8191,10 @@
         <v>2</v>
       </c>
       <c r="I108" s="2">
-        <v>248</v>
-      </c>
-      <c r="J108" s="2">
-        <v>43</v>
+        <v>179</v>
+      </c>
+      <c r="J108" s="14">
+        <v>36</v>
       </c>
       <c r="K108" s="2">
         <v>10000</v>
@@ -7480,8 +8217,15 @@
       <c r="Q108" s="2">
         <v>25</v>
       </c>
-    </row>
-    <row r="109" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S108" s="2">
+        <v>3.25</v>
+      </c>
+      <c r="T108" s="2">
+        <f t="shared" si="1"/>
+        <v>582</v>
+      </c>
+    </row>
+    <row r="109" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>56</v>
       </c>
@@ -7501,10 +8245,10 @@
         <v>2</v>
       </c>
       <c r="I109" s="2">
-        <v>347</v>
-      </c>
-      <c r="J109" s="2">
-        <v>56</v>
+        <v>195</v>
+      </c>
+      <c r="J109" s="14">
+        <v>45</v>
       </c>
       <c r="K109" s="2">
         <v>10000</v>
@@ -7527,8 +8271,15 @@
       <c r="Q109" s="2">
         <v>26</v>
       </c>
-    </row>
-    <row r="110" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S109" s="2">
+        <v>3.25</v>
+      </c>
+      <c r="T109" s="2">
+        <f t="shared" si="1"/>
+        <v>634</v>
+      </c>
+    </row>
+    <row r="110" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>56</v>
       </c>
@@ -7548,10 +8299,10 @@
         <v>2</v>
       </c>
       <c r="I110" s="2">
-        <v>347</v>
-      </c>
-      <c r="J110" s="2">
-        <v>56</v>
+        <v>195</v>
+      </c>
+      <c r="J110" s="14">
+        <v>45</v>
       </c>
       <c r="K110" s="2">
         <v>10000</v>
@@ -7574,8 +8325,15 @@
       <c r="Q110" s="2">
         <v>26</v>
       </c>
-    </row>
-    <row r="111" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S110" s="2">
+        <v>3.25</v>
+      </c>
+      <c r="T110" s="2">
+        <f t="shared" si="1"/>
+        <v>634</v>
+      </c>
+    </row>
+    <row r="111" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>56</v>
       </c>
@@ -7595,10 +8353,10 @@
         <v>2</v>
       </c>
       <c r="I111" s="2">
-        <v>347</v>
-      </c>
-      <c r="J111" s="2">
-        <v>56</v>
+        <v>195</v>
+      </c>
+      <c r="J111" s="14">
+        <v>45</v>
       </c>
       <c r="K111" s="2">
         <v>10000</v>
@@ -7621,8 +8379,15 @@
       <c r="Q111" s="2">
         <v>26</v>
       </c>
-    </row>
-    <row r="112" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S111" s="2">
+        <v>3.25</v>
+      </c>
+      <c r="T111" s="2">
+        <f t="shared" si="1"/>
+        <v>634</v>
+      </c>
+    </row>
+    <row r="112" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>56</v>
       </c>
@@ -7642,10 +8407,10 @@
         <v>2</v>
       </c>
       <c r="I112" s="2">
-        <v>347</v>
-      </c>
-      <c r="J112" s="2">
-        <v>56</v>
+        <v>195</v>
+      </c>
+      <c r="J112" s="14">
+        <v>45</v>
       </c>
       <c r="K112" s="2">
         <v>10000</v>
@@ -7668,8 +8433,15 @@
       <c r="Q112" s="2">
         <v>26</v>
       </c>
-    </row>
-    <row r="113" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S112" s="2">
+        <v>3.25</v>
+      </c>
+      <c r="T112" s="2">
+        <f t="shared" si="1"/>
+        <v>634</v>
+      </c>
+    </row>
+    <row r="113" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A113" s="11" t="s">
         <v>56</v>
       </c>
@@ -7689,10 +8461,10 @@
         <v>2</v>
       </c>
       <c r="I113" s="2">
-        <v>347</v>
-      </c>
-      <c r="J113" s="2">
-        <v>56</v>
+        <v>195</v>
+      </c>
+      <c r="J113" s="14">
+        <v>45</v>
       </c>
       <c r="K113" s="2">
         <v>10000</v>
@@ -7715,8 +8487,15 @@
       <c r="Q113" s="2">
         <v>27</v>
       </c>
-    </row>
-    <row r="114" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S113" s="2">
+        <v>3.25</v>
+      </c>
+      <c r="T113" s="2">
+        <f t="shared" si="1"/>
+        <v>634</v>
+      </c>
+    </row>
+    <row r="114" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>57</v>
       </c>
@@ -7736,10 +8515,10 @@
         <v>2</v>
       </c>
       <c r="I114" s="2">
-        <v>414</v>
-      </c>
-      <c r="J114" s="2">
-        <v>63</v>
+        <v>231</v>
+      </c>
+      <c r="J114" s="14">
+        <v>49</v>
       </c>
       <c r="K114" s="2">
         <v>10000</v>
@@ -7762,8 +8541,15 @@
       <c r="Q114" s="2">
         <v>28</v>
       </c>
-    </row>
-    <row r="115" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S114" s="2">
+        <v>3.25</v>
+      </c>
+      <c r="T114" s="2">
+        <f t="shared" si="1"/>
+        <v>751</v>
+      </c>
+    </row>
+    <row r="115" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>57</v>
       </c>
@@ -7783,10 +8569,10 @@
         <v>2</v>
       </c>
       <c r="I115" s="2">
-        <v>414</v>
-      </c>
-      <c r="J115" s="2">
-        <v>63</v>
+        <v>231</v>
+      </c>
+      <c r="J115" s="14">
+        <v>49</v>
       </c>
       <c r="K115" s="2">
         <v>10000</v>
@@ -7809,8 +8595,15 @@
       <c r="Q115" s="2">
         <v>28</v>
       </c>
-    </row>
-    <row r="116" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S115" s="2">
+        <v>3.25</v>
+      </c>
+      <c r="T115" s="2">
+        <f t="shared" si="1"/>
+        <v>751</v>
+      </c>
+    </row>
+    <row r="116" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>57</v>
       </c>
@@ -7830,10 +8623,10 @@
         <v>2</v>
       </c>
       <c r="I116" s="2">
-        <v>414</v>
-      </c>
-      <c r="J116" s="2">
-        <v>63</v>
+        <v>231</v>
+      </c>
+      <c r="J116" s="14">
+        <v>49</v>
       </c>
       <c r="K116" s="2">
         <v>10000</v>
@@ -7856,8 +8649,15 @@
       <c r="Q116" s="2">
         <v>28</v>
       </c>
-    </row>
-    <row r="117" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S116" s="2">
+        <v>3.25</v>
+      </c>
+      <c r="T116" s="2">
+        <f t="shared" si="1"/>
+        <v>751</v>
+      </c>
+    </row>
+    <row r="117" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>57</v>
       </c>
@@ -7877,10 +8677,10 @@
         <v>2</v>
       </c>
       <c r="I117" s="2">
-        <v>414</v>
-      </c>
-      <c r="J117" s="2">
-        <v>63</v>
+        <v>231</v>
+      </c>
+      <c r="J117" s="14">
+        <v>49</v>
       </c>
       <c r="K117" s="2">
         <v>10000</v>
@@ -7903,8 +8703,15 @@
       <c r="Q117" s="2">
         <v>28</v>
       </c>
-    </row>
-    <row r="118" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S117" s="2">
+        <v>3.25</v>
+      </c>
+      <c r="T117" s="2">
+        <f t="shared" si="1"/>
+        <v>751</v>
+      </c>
+    </row>
+    <row r="118" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A118" s="11" t="s">
         <v>57</v>
       </c>
@@ -7924,10 +8731,10 @@
         <v>2</v>
       </c>
       <c r="I118" s="2">
-        <v>414</v>
-      </c>
-      <c r="J118" s="2">
-        <v>63</v>
+        <v>231</v>
+      </c>
+      <c r="J118" s="14">
+        <v>49</v>
       </c>
       <c r="K118" s="2">
         <v>10000</v>
@@ -7950,8 +8757,15 @@
       <c r="Q118" s="2">
         <v>29</v>
       </c>
-    </row>
-    <row r="119" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S118" s="2">
+        <v>3.25</v>
+      </c>
+      <c r="T118" s="2">
+        <f t="shared" si="1"/>
+        <v>751</v>
+      </c>
+    </row>
+    <row r="119" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>58</v>
       </c>
@@ -7971,10 +8785,10 @@
         <v>2</v>
       </c>
       <c r="I119" s="2">
-        <v>396</v>
-      </c>
-      <c r="J119" s="2">
-        <v>73</v>
+        <v>235</v>
+      </c>
+      <c r="J119" s="14">
+        <v>55</v>
       </c>
       <c r="K119" s="2">
         <v>10000</v>
@@ -7997,8 +8811,15 @@
       <c r="Q119" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="120" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S119" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="T119" s="2">
+        <f t="shared" si="1"/>
+        <v>823</v>
+      </c>
+    </row>
+    <row r="120" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>58</v>
       </c>
@@ -8018,10 +8839,10 @@
         <v>2</v>
       </c>
       <c r="I120" s="2">
-        <v>396</v>
-      </c>
-      <c r="J120" s="2">
-        <v>73</v>
+        <v>235</v>
+      </c>
+      <c r="J120" s="14">
+        <v>55</v>
       </c>
       <c r="K120" s="2">
         <v>10000</v>
@@ -8044,8 +8865,15 @@
       <c r="Q120" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="121" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S120" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="T120" s="2">
+        <f t="shared" si="1"/>
+        <v>823</v>
+      </c>
+    </row>
+    <row r="121" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>58</v>
       </c>
@@ -8065,10 +8893,10 @@
         <v>2</v>
       </c>
       <c r="I121" s="2">
-        <v>396</v>
-      </c>
-      <c r="J121" s="2">
-        <v>73</v>
+        <v>235</v>
+      </c>
+      <c r="J121" s="14">
+        <v>55</v>
       </c>
       <c r="K121" s="2">
         <v>10000</v>
@@ -8091,8 +8919,15 @@
       <c r="Q121" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="122" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S121" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="T121" s="2">
+        <f t="shared" si="1"/>
+        <v>823</v>
+      </c>
+    </row>
+    <row r="122" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>58</v>
       </c>
@@ -8112,10 +8947,10 @@
         <v>2</v>
       </c>
       <c r="I122" s="2">
-        <v>396</v>
-      </c>
-      <c r="J122" s="2">
-        <v>73</v>
+        <v>235</v>
+      </c>
+      <c r="J122" s="14">
+        <v>55</v>
       </c>
       <c r="K122" s="2">
         <v>10000</v>
@@ -8138,8 +8973,15 @@
       <c r="Q122" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="123" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S122" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="T122" s="2">
+        <f t="shared" si="1"/>
+        <v>823</v>
+      </c>
+    </row>
+    <row r="123" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A123" s="11" t="s">
         <v>58</v>
       </c>
@@ -8159,10 +9001,10 @@
         <v>2</v>
       </c>
       <c r="I123" s="2">
-        <v>396</v>
-      </c>
-      <c r="J123" s="2">
-        <v>73</v>
+        <v>235</v>
+      </c>
+      <c r="J123" s="14">
+        <v>55</v>
       </c>
       <c r="K123" s="2">
         <v>10000</v>
@@ -8185,8 +9027,15 @@
       <c r="Q123" s="2">
         <v>31</v>
       </c>
-    </row>
-    <row r="124" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S123" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="T123" s="2">
+        <f t="shared" si="1"/>
+        <v>823</v>
+      </c>
+    </row>
+    <row r="124" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>59</v>
       </c>
@@ -8206,10 +9055,10 @@
         <v>2</v>
       </c>
       <c r="I124" s="2">
-        <v>437</v>
-      </c>
-      <c r="J124" s="2">
-        <v>80</v>
+        <v>273</v>
+      </c>
+      <c r="J124" s="14">
+        <v>64</v>
       </c>
       <c r="K124" s="2">
         <v>10000</v>
@@ -8232,8 +9081,15 @@
       <c r="Q124" s="2">
         <v>32</v>
       </c>
-    </row>
-    <row r="125" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S124" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="T124" s="2">
+        <f t="shared" si="1"/>
+        <v>956</v>
+      </c>
+    </row>
+    <row r="125" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>59</v>
       </c>
@@ -8253,10 +9109,10 @@
         <v>2</v>
       </c>
       <c r="I125" s="2">
-        <v>437</v>
-      </c>
-      <c r="J125" s="2">
-        <v>80</v>
+        <v>273</v>
+      </c>
+      <c r="J125" s="14">
+        <v>64</v>
       </c>
       <c r="K125" s="2">
         <v>10000</v>
@@ -8279,8 +9135,15 @@
       <c r="Q125" s="2">
         <v>32</v>
       </c>
-    </row>
-    <row r="126" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S125" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="T125" s="2">
+        <f t="shared" si="1"/>
+        <v>956</v>
+      </c>
+    </row>
+    <row r="126" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>59</v>
       </c>
@@ -8300,10 +9163,10 @@
         <v>2</v>
       </c>
       <c r="I126" s="2">
-        <v>437</v>
-      </c>
-      <c r="J126" s="2">
-        <v>80</v>
+        <v>273</v>
+      </c>
+      <c r="J126" s="14">
+        <v>64</v>
       </c>
       <c r="K126" s="2">
         <v>10000</v>
@@ -8326,8 +9189,15 @@
       <c r="Q126" s="2">
         <v>32</v>
       </c>
-    </row>
-    <row r="127" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S126" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="T126" s="2">
+        <f t="shared" si="1"/>
+        <v>956</v>
+      </c>
+    </row>
+    <row r="127" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>59</v>
       </c>
@@ -8347,10 +9217,10 @@
         <v>2</v>
       </c>
       <c r="I127" s="2">
-        <v>437</v>
-      </c>
-      <c r="J127" s="2">
-        <v>80</v>
+        <v>273</v>
+      </c>
+      <c r="J127" s="14">
+        <v>64</v>
       </c>
       <c r="K127" s="2">
         <v>10000</v>
@@ -8373,8 +9243,15 @@
       <c r="Q127" s="2">
         <v>32</v>
       </c>
-    </row>
-    <row r="128" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S127" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="T127" s="2">
+        <f t="shared" si="1"/>
+        <v>956</v>
+      </c>
+    </row>
+    <row r="128" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A128" s="11" t="s">
         <v>59</v>
       </c>
@@ -8394,10 +9271,10 @@
         <v>2</v>
       </c>
       <c r="I128" s="2">
-        <v>437</v>
-      </c>
-      <c r="J128" s="2">
-        <v>80</v>
+        <v>273</v>
+      </c>
+      <c r="J128" s="14">
+        <v>64</v>
       </c>
       <c r="K128" s="2">
         <v>10000</v>
@@ -8420,8 +9297,15 @@
       <c r="Q128" s="2">
         <v>33</v>
       </c>
-    </row>
-    <row r="129" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S128" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="T128" s="2">
+        <f t="shared" si="1"/>
+        <v>956</v>
+      </c>
+    </row>
+    <row r="129" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>60</v>
       </c>
@@ -8441,10 +9325,10 @@
         <v>2</v>
       </c>
       <c r="I129" s="2">
-        <v>437</v>
-      </c>
-      <c r="J129" s="2">
-        <v>87</v>
+        <v>294</v>
+      </c>
+      <c r="J129" s="14">
+        <v>75</v>
       </c>
       <c r="K129" s="2">
         <v>10000</v>
@@ -8467,8 +9351,15 @@
       <c r="Q129" s="2">
         <v>34</v>
       </c>
-    </row>
-    <row r="130" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S129" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="T129" s="2">
+        <f t="shared" si="1"/>
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="130" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>60</v>
       </c>
@@ -8488,10 +9379,10 @@
         <v>2</v>
       </c>
       <c r="I130" s="2">
-        <v>437</v>
-      </c>
-      <c r="J130" s="2">
-        <v>87</v>
+        <v>294</v>
+      </c>
+      <c r="J130" s="14">
+        <v>75</v>
       </c>
       <c r="K130" s="2">
         <v>10000</v>
@@ -8514,8 +9405,15 @@
       <c r="Q130" s="2">
         <v>34</v>
       </c>
-    </row>
-    <row r="131" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S130" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="T130" s="2">
+        <f t="shared" si="1"/>
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="131" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>60</v>
       </c>
@@ -8535,10 +9433,10 @@
         <v>2</v>
       </c>
       <c r="I131" s="2">
-        <v>437</v>
-      </c>
-      <c r="J131" s="2">
-        <v>87</v>
+        <v>294</v>
+      </c>
+      <c r="J131" s="14">
+        <v>75</v>
       </c>
       <c r="K131" s="2">
         <v>10000</v>
@@ -8561,8 +9459,15 @@
       <c r="Q131" s="2">
         <v>34</v>
       </c>
-    </row>
-    <row r="132" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S131" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="T131" s="2">
+        <f t="shared" si="1"/>
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="132" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>60</v>
       </c>
@@ -8582,10 +9487,10 @@
         <v>2</v>
       </c>
       <c r="I132" s="2">
-        <v>437</v>
-      </c>
-      <c r="J132" s="2">
-        <v>87</v>
+        <v>294</v>
+      </c>
+      <c r="J132" s="14">
+        <v>75</v>
       </c>
       <c r="K132" s="2">
         <v>10000</v>
@@ -8608,8 +9513,15 @@
       <c r="Q132" s="2">
         <v>34</v>
       </c>
-    </row>
-    <row r="133" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S132" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="T132" s="2">
+        <f t="shared" si="1"/>
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="133" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A133" s="11" t="s">
         <v>60</v>
       </c>
@@ -8629,10 +9541,10 @@
         <v>2</v>
       </c>
       <c r="I133" s="2">
-        <v>437</v>
-      </c>
-      <c r="J133" s="2">
-        <v>87</v>
+        <v>294</v>
+      </c>
+      <c r="J133" s="14">
+        <v>75</v>
       </c>
       <c r="K133" s="2">
         <v>10000</v>
@@ -8655,8 +9567,15 @@
       <c r="Q133" s="2">
         <v>35</v>
       </c>
-    </row>
-    <row r="134" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S133" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="T133" s="2">
+        <f t="shared" ref="T133:T196" si="2">ROUND(S133*I133,0)</f>
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="134" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
         <v>61</v>
       </c>
@@ -8676,10 +9595,10 @@
         <v>2</v>
       </c>
       <c r="I134" s="2">
-        <v>455</v>
-      </c>
-      <c r="J134" s="2">
-        <v>90</v>
+        <v>322</v>
+      </c>
+      <c r="J134" s="14">
+        <v>83</v>
       </c>
       <c r="K134" s="2">
         <v>10000</v>
@@ -8702,8 +9621,15 @@
       <c r="Q134" s="2">
         <v>36</v>
       </c>
-    </row>
-    <row r="135" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S134" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="T134" s="2">
+        <f t="shared" si="2"/>
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="135" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
         <v>61</v>
       </c>
@@ -8723,10 +9649,10 @@
         <v>2</v>
       </c>
       <c r="I135" s="2">
-        <v>455</v>
-      </c>
-      <c r="J135" s="2">
-        <v>90</v>
+        <v>322</v>
+      </c>
+      <c r="J135" s="14">
+        <v>83</v>
       </c>
       <c r="K135" s="2">
         <v>10000</v>
@@ -8749,8 +9675,15 @@
       <c r="Q135" s="2">
         <v>36</v>
       </c>
-    </row>
-    <row r="136" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S135" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="T135" s="2">
+        <f t="shared" si="2"/>
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="136" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
         <v>61</v>
       </c>
@@ -8770,10 +9703,10 @@
         <v>2</v>
       </c>
       <c r="I136" s="2">
-        <v>455</v>
-      </c>
-      <c r="J136" s="2">
-        <v>90</v>
+        <v>322</v>
+      </c>
+      <c r="J136" s="14">
+        <v>83</v>
       </c>
       <c r="K136" s="2">
         <v>10000</v>
@@ -8796,8 +9729,15 @@
       <c r="Q136" s="2">
         <v>36</v>
       </c>
-    </row>
-    <row r="137" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S136" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="T136" s="2">
+        <f t="shared" si="2"/>
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="137" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
         <v>61</v>
       </c>
@@ -8817,10 +9757,10 @@
         <v>2</v>
       </c>
       <c r="I137" s="2">
-        <v>455</v>
-      </c>
-      <c r="J137" s="2">
-        <v>90</v>
+        <v>322</v>
+      </c>
+      <c r="J137" s="14">
+        <v>83</v>
       </c>
       <c r="K137" s="2">
         <v>10000</v>
@@ -8843,8 +9783,15 @@
       <c r="Q137" s="2">
         <v>36</v>
       </c>
-    </row>
-    <row r="138" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S137" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="T137" s="2">
+        <f t="shared" si="2"/>
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="138" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A138" s="11" t="s">
         <v>61</v>
       </c>
@@ -8864,10 +9811,10 @@
         <v>2</v>
       </c>
       <c r="I138" s="2">
-        <v>455</v>
-      </c>
-      <c r="J138" s="2">
-        <v>90</v>
+        <v>322</v>
+      </c>
+      <c r="J138" s="14">
+        <v>83</v>
       </c>
       <c r="K138" s="2">
         <v>10000</v>
@@ -8890,8 +9837,15 @@
       <c r="Q138" s="2">
         <v>37</v>
       </c>
-    </row>
-    <row r="139" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S138" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="T138" s="2">
+        <f t="shared" si="2"/>
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="139" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
         <v>90</v>
       </c>
@@ -8911,10 +9865,10 @@
         <v>2</v>
       </c>
       <c r="I139" s="2">
-        <v>383</v>
+        <v>266</v>
       </c>
       <c r="J139" s="2">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="K139" s="2">
         <v>10000</v>
@@ -8937,8 +9891,15 @@
       <c r="Q139" s="2">
         <v>38</v>
       </c>
-    </row>
-    <row r="140" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S139" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="T139" s="2">
+        <f t="shared" si="2"/>
+        <v>931</v>
+      </c>
+    </row>
+    <row r="140" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>90</v>
       </c>
@@ -8958,10 +9919,10 @@
         <v>2</v>
       </c>
       <c r="I140" s="2">
-        <v>383</v>
+        <v>266</v>
       </c>
       <c r="J140" s="2">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="K140" s="2">
         <v>10000</v>
@@ -8984,8 +9945,15 @@
       <c r="Q140" s="2">
         <v>38</v>
       </c>
-    </row>
-    <row r="141" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S140" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="T140" s="2">
+        <f t="shared" si="2"/>
+        <v>931</v>
+      </c>
+    </row>
+    <row r="141" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
         <v>90</v>
       </c>
@@ -9005,10 +9973,10 @@
         <v>2</v>
       </c>
       <c r="I141" s="2">
-        <v>383</v>
+        <v>266</v>
       </c>
       <c r="J141" s="2">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="K141" s="2">
         <v>10000</v>
@@ -9031,8 +9999,15 @@
       <c r="Q141" s="2">
         <v>38</v>
       </c>
-    </row>
-    <row r="142" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S141" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="T141" s="2">
+        <f t="shared" si="2"/>
+        <v>931</v>
+      </c>
+    </row>
+    <row r="142" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
         <v>90</v>
       </c>
@@ -9052,10 +10027,10 @@
         <v>2</v>
       </c>
       <c r="I142" s="2">
-        <v>383</v>
+        <v>266</v>
       </c>
       <c r="J142" s="2">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="K142" s="2">
         <v>10000</v>
@@ -9078,8 +10053,15 @@
       <c r="Q142" s="2">
         <v>38</v>
       </c>
-    </row>
-    <row r="143" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S142" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="T142" s="2">
+        <f t="shared" si="2"/>
+        <v>931</v>
+      </c>
+    </row>
+    <row r="143" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
         <v>90</v>
       </c>
@@ -9099,10 +10081,10 @@
         <v>2</v>
       </c>
       <c r="I143" s="2">
-        <v>383</v>
+        <v>266</v>
       </c>
       <c r="J143" s="2">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="K143" s="2">
         <v>10000</v>
@@ -9125,8 +10107,15 @@
       <c r="Q143" s="2">
         <v>38</v>
       </c>
-    </row>
-    <row r="144" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S143" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="T143" s="2">
+        <f t="shared" si="2"/>
+        <v>931</v>
+      </c>
+    </row>
+    <row r="144" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A144" s="11" t="s">
         <v>90</v>
       </c>
@@ -9146,10 +10135,10 @@
         <v>2</v>
       </c>
       <c r="I144" s="2">
-        <v>383</v>
+        <v>266</v>
       </c>
       <c r="J144" s="2">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="K144" s="2">
         <v>10000</v>
@@ -9172,8 +10161,15 @@
       <c r="Q144" s="2">
         <v>38</v>
       </c>
-    </row>
-    <row r="145" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S144" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="T144" s="2">
+        <f t="shared" si="2"/>
+        <v>931</v>
+      </c>
+    </row>
+    <row r="145" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A145" s="11" t="s">
         <v>62</v>
       </c>
@@ -9193,10 +10189,10 @@
         <v>2</v>
       </c>
       <c r="I145" s="2">
-        <v>395</v>
+        <v>259</v>
       </c>
       <c r="J145" s="2">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="K145" s="2">
         <v>10000</v>
@@ -9219,8 +10215,15 @@
       <c r="Q145" s="2">
         <v>38</v>
       </c>
-    </row>
-    <row r="146" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S145" s="2">
+        <v>3.75</v>
+      </c>
+      <c r="T145" s="2">
+        <f t="shared" si="2"/>
+        <v>971</v>
+      </c>
+    </row>
+    <row r="146" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
         <v>63</v>
       </c>
@@ -9240,10 +10243,10 @@
         <v>2</v>
       </c>
       <c r="I146" s="2">
-        <v>636</v>
+        <v>336</v>
       </c>
       <c r="J146" s="2">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="K146" s="2">
         <v>10000</v>
@@ -9266,8 +10269,15 @@
       <c r="Q146" s="2">
         <v>39</v>
       </c>
-    </row>
-    <row r="147" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S146" s="2">
+        <v>4</v>
+      </c>
+      <c r="T146" s="2">
+        <f t="shared" si="2"/>
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="147" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
         <v>63</v>
       </c>
@@ -9287,10 +10297,10 @@
         <v>2</v>
       </c>
       <c r="I147" s="2">
-        <v>636</v>
+        <v>336</v>
       </c>
       <c r="J147" s="2">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="K147" s="2">
         <v>10000</v>
@@ -9313,8 +10323,15 @@
       <c r="Q147" s="2">
         <v>39</v>
       </c>
-    </row>
-    <row r="148" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S147" s="2">
+        <v>4</v>
+      </c>
+      <c r="T147" s="2">
+        <f t="shared" si="2"/>
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="148" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
         <v>63</v>
       </c>
@@ -9334,10 +10351,10 @@
         <v>2</v>
       </c>
       <c r="I148" s="2">
-        <v>636</v>
+        <v>336</v>
       </c>
       <c r="J148" s="2">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="K148" s="2">
         <v>10000</v>
@@ -9360,8 +10377,15 @@
       <c r="Q148" s="2">
         <v>39</v>
       </c>
-    </row>
-    <row r="149" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S148" s="2">
+        <v>4</v>
+      </c>
+      <c r="T148" s="2">
+        <f t="shared" si="2"/>
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="149" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A149" s="11" t="s">
         <v>63</v>
       </c>
@@ -9381,10 +10405,10 @@
         <v>2</v>
       </c>
       <c r="I149" s="2">
-        <v>636</v>
+        <v>336</v>
       </c>
       <c r="J149" s="2">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="K149" s="2">
         <v>10000</v>
@@ -9407,8 +10431,15 @@
       <c r="Q149" s="2">
         <v>40</v>
       </c>
-    </row>
-    <row r="150" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S149" s="2">
+        <v>4</v>
+      </c>
+      <c r="T149" s="2">
+        <f t="shared" si="2"/>
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="150" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
         <v>64</v>
       </c>
@@ -9428,10 +10459,10 @@
         <v>2</v>
       </c>
       <c r="I150" s="2">
-        <v>696</v>
+        <v>368</v>
       </c>
       <c r="J150" s="2">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="K150" s="2">
         <v>10000</v>
@@ -9454,8 +10485,15 @@
       <c r="Q150" s="2">
         <v>41</v>
       </c>
-    </row>
-    <row r="151" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S150" s="2">
+        <v>4</v>
+      </c>
+      <c r="T150" s="2">
+        <f t="shared" si="2"/>
+        <v>1472</v>
+      </c>
+    </row>
+    <row r="151" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
         <v>64</v>
       </c>
@@ -9475,10 +10513,10 @@
         <v>2</v>
       </c>
       <c r="I151" s="2">
-        <v>696</v>
+        <v>368</v>
       </c>
       <c r="J151" s="2">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="K151" s="2">
         <v>10000</v>
@@ -9501,8 +10539,15 @@
       <c r="Q151" s="2">
         <v>41</v>
       </c>
-    </row>
-    <row r="152" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S151" s="2">
+        <v>4</v>
+      </c>
+      <c r="T151" s="2">
+        <f t="shared" si="2"/>
+        <v>1472</v>
+      </c>
+    </row>
+    <row r="152" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
         <v>64</v>
       </c>
@@ -9522,10 +10567,10 @@
         <v>2</v>
       </c>
       <c r="I152" s="2">
-        <v>696</v>
+        <v>368</v>
       </c>
       <c r="J152" s="2">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="K152" s="2">
         <v>10000</v>
@@ -9548,8 +10593,15 @@
       <c r="Q152" s="2">
         <v>41</v>
       </c>
-    </row>
-    <row r="153" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S152" s="2">
+        <v>4</v>
+      </c>
+      <c r="T152" s="2">
+        <f t="shared" si="2"/>
+        <v>1472</v>
+      </c>
+    </row>
+    <row r="153" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A153" s="11" t="s">
         <v>64</v>
       </c>
@@ -9569,10 +10621,10 @@
         <v>2</v>
       </c>
       <c r="I153" s="2">
-        <v>696</v>
+        <v>368</v>
       </c>
       <c r="J153" s="2">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="K153" s="2">
         <v>10000</v>
@@ -9595,8 +10647,15 @@
       <c r="Q153" s="2">
         <v>42</v>
       </c>
-    </row>
-    <row r="154" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S153" s="2">
+        <v>4</v>
+      </c>
+      <c r="T153" s="2">
+        <f t="shared" si="2"/>
+        <v>1472</v>
+      </c>
+    </row>
+    <row r="154" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
         <v>65</v>
       </c>
@@ -9616,10 +10675,10 @@
         <v>2</v>
       </c>
       <c r="I154" s="2">
-        <v>792</v>
+        <v>416</v>
       </c>
       <c r="J154" s="2">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="K154" s="2">
         <v>10000</v>
@@ -9642,8 +10701,15 @@
       <c r="Q154" s="2">
         <v>43</v>
       </c>
-    </row>
-    <row r="155" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S154" s="2">
+        <v>4</v>
+      </c>
+      <c r="T154" s="2">
+        <f t="shared" si="2"/>
+        <v>1664</v>
+      </c>
+    </row>
+    <row r="155" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
         <v>65</v>
       </c>
@@ -9663,10 +10729,10 @@
         <v>2</v>
       </c>
       <c r="I155" s="2">
-        <v>792</v>
+        <v>416</v>
       </c>
       <c r="J155" s="2">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="K155" s="2">
         <v>10000</v>
@@ -9689,8 +10755,15 @@
       <c r="Q155" s="2">
         <v>43</v>
       </c>
-    </row>
-    <row r="156" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S155" s="2">
+        <v>4</v>
+      </c>
+      <c r="T155" s="2">
+        <f t="shared" si="2"/>
+        <v>1664</v>
+      </c>
+    </row>
+    <row r="156" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
         <v>65</v>
       </c>
@@ -9710,10 +10783,10 @@
         <v>2</v>
       </c>
       <c r="I156" s="2">
-        <v>792</v>
+        <v>416</v>
       </c>
       <c r="J156" s="2">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="K156" s="2">
         <v>10000</v>
@@ -9736,8 +10809,15 @@
       <c r="Q156" s="2">
         <v>43</v>
       </c>
-    </row>
-    <row r="157" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S156" s="2">
+        <v>4</v>
+      </c>
+      <c r="T156" s="2">
+        <f t="shared" si="2"/>
+        <v>1664</v>
+      </c>
+    </row>
+    <row r="157" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
         <v>65</v>
       </c>
@@ -9757,10 +10837,10 @@
         <v>2</v>
       </c>
       <c r="I157" s="2">
-        <v>792</v>
+        <v>416</v>
       </c>
       <c r="J157" s="2">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="K157" s="2">
         <v>10000</v>
@@ -9783,8 +10863,15 @@
       <c r="Q157" s="2">
         <v>43</v>
       </c>
-    </row>
-    <row r="158" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S157" s="2">
+        <v>4</v>
+      </c>
+      <c r="T157" s="2">
+        <f t="shared" si="2"/>
+        <v>1664</v>
+      </c>
+    </row>
+    <row r="158" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A158" s="11" t="s">
         <v>65</v>
       </c>
@@ -9804,10 +10891,10 @@
         <v>2</v>
       </c>
       <c r="I158" s="2">
-        <v>792</v>
+        <v>416</v>
       </c>
       <c r="J158" s="2">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="K158" s="2">
         <v>10000</v>
@@ -9830,8 +10917,15 @@
       <c r="Q158" s="2">
         <v>44</v>
       </c>
-    </row>
-    <row r="159" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S158" s="2">
+        <v>4</v>
+      </c>
+      <c r="T158" s="2">
+        <f t="shared" si="2"/>
+        <v>1664</v>
+      </c>
+    </row>
+    <row r="159" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
         <v>66</v>
       </c>
@@ -9851,10 +10945,10 @@
         <v>2</v>
       </c>
       <c r="I159" s="2">
-        <v>912</v>
+        <v>459</v>
       </c>
       <c r="J159" s="2">
-        <v>121</v>
+        <v>87</v>
       </c>
       <c r="K159" s="2">
         <v>10000</v>
@@ -9877,8 +10971,15 @@
       <c r="Q159" s="2">
         <v>45</v>
       </c>
-    </row>
-    <row r="160" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S159" s="2">
+        <v>4.25</v>
+      </c>
+      <c r="T159" s="2">
+        <f t="shared" si="2"/>
+        <v>1951</v>
+      </c>
+    </row>
+    <row r="160" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
         <v>66</v>
       </c>
@@ -9898,10 +10999,10 @@
         <v>2</v>
       </c>
       <c r="I160" s="2">
-        <v>912</v>
+        <v>472</v>
       </c>
       <c r="J160" s="2">
-        <v>121</v>
+        <v>87</v>
       </c>
       <c r="K160" s="2">
         <v>10000</v>
@@ -9924,8 +11025,15 @@
       <c r="Q160" s="2">
         <v>45</v>
       </c>
-    </row>
-    <row r="161" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S160" s="2">
+        <v>4.25</v>
+      </c>
+      <c r="T160" s="2">
+        <f t="shared" si="2"/>
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="161" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
         <v>66</v>
       </c>
@@ -9945,10 +11053,10 @@
         <v>2</v>
       </c>
       <c r="I161" s="2">
-        <v>912</v>
+        <v>485</v>
       </c>
       <c r="J161" s="2">
-        <v>121</v>
+        <v>87</v>
       </c>
       <c r="K161" s="2">
         <v>10000</v>
@@ -9971,8 +11079,15 @@
       <c r="Q161" s="2">
         <v>45</v>
       </c>
-    </row>
-    <row r="162" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S161" s="2">
+        <v>4.25</v>
+      </c>
+      <c r="T161" s="2">
+        <f t="shared" si="2"/>
+        <v>2061</v>
+      </c>
+    </row>
+    <row r="162" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
         <v>66</v>
       </c>
@@ -9992,10 +11107,10 @@
         <v>2</v>
       </c>
       <c r="I162" s="2">
-        <v>912</v>
+        <v>493</v>
       </c>
       <c r="J162" s="2">
-        <v>121</v>
+        <v>87</v>
       </c>
       <c r="K162" s="2">
         <v>10000</v>
@@ -10018,8 +11133,15 @@
       <c r="Q162" s="2">
         <v>45</v>
       </c>
-    </row>
-    <row r="163" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S162" s="2">
+        <v>4.25</v>
+      </c>
+      <c r="T162" s="2">
+        <f t="shared" si="2"/>
+        <v>2095</v>
+      </c>
+    </row>
+    <row r="163" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
         <v>66</v>
       </c>
@@ -10039,10 +11161,10 @@
         <v>2</v>
       </c>
       <c r="I163" s="2">
-        <v>912</v>
+        <v>506</v>
       </c>
       <c r="J163" s="2">
-        <v>121</v>
+        <v>87</v>
       </c>
       <c r="K163" s="2">
         <v>10000</v>
@@ -10065,8 +11187,15 @@
       <c r="Q163" s="2">
         <v>45</v>
       </c>
-    </row>
-    <row r="164" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S163" s="2">
+        <v>4.25</v>
+      </c>
+      <c r="T163" s="2">
+        <f t="shared" si="2"/>
+        <v>2151</v>
+      </c>
+    </row>
+    <row r="164" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
         <v>66</v>
       </c>
@@ -10086,10 +11215,10 @@
         <v>2</v>
       </c>
       <c r="I164" s="2">
-        <v>912</v>
+        <v>506</v>
       </c>
       <c r="J164" s="2">
-        <v>121</v>
+        <v>87</v>
       </c>
       <c r="K164" s="2">
         <v>10000</v>
@@ -10112,8 +11241,15 @@
       <c r="Q164" s="2">
         <v>45</v>
       </c>
-    </row>
-    <row r="165" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S164" s="2">
+        <v>4.25</v>
+      </c>
+      <c r="T164" s="2">
+        <f t="shared" si="2"/>
+        <v>2151</v>
+      </c>
+    </row>
+    <row r="165" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
         <v>66</v>
       </c>
@@ -10133,10 +11269,10 @@
         <v>2</v>
       </c>
       <c r="I165" s="2">
-        <v>912</v>
+        <v>506</v>
       </c>
       <c r="J165" s="2">
-        <v>121</v>
+        <v>87</v>
       </c>
       <c r="K165" s="2">
         <v>10000</v>
@@ -10159,8 +11295,15 @@
       <c r="Q165" s="2">
         <v>45</v>
       </c>
-    </row>
-    <row r="166" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S165" s="2">
+        <v>4.25</v>
+      </c>
+      <c r="T165" s="2">
+        <f t="shared" si="2"/>
+        <v>2151</v>
+      </c>
+    </row>
+    <row r="166" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
         <v>66</v>
       </c>
@@ -10180,10 +11323,10 @@
         <v>2</v>
       </c>
       <c r="I166" s="2">
-        <v>912</v>
+        <v>506</v>
       </c>
       <c r="J166" s="2">
-        <v>121</v>
+        <v>87</v>
       </c>
       <c r="K166" s="2">
         <v>10000</v>
@@ -10206,8 +11349,15 @@
       <c r="Q166" s="2">
         <v>45</v>
       </c>
-    </row>
-    <row r="167" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S166" s="2">
+        <v>4.25</v>
+      </c>
+      <c r="T166" s="2">
+        <f t="shared" si="2"/>
+        <v>2151</v>
+      </c>
+    </row>
+    <row r="167" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
         <v>66</v>
       </c>
@@ -10227,10 +11377,10 @@
         <v>2</v>
       </c>
       <c r="I167" s="2">
-        <v>912</v>
+        <v>506</v>
       </c>
       <c r="J167" s="2">
-        <v>121</v>
+        <v>87</v>
       </c>
       <c r="K167" s="2">
         <v>10000</v>
@@ -10253,8 +11403,15 @@
       <c r="Q167" s="2">
         <v>45</v>
       </c>
-    </row>
-    <row r="168" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S167" s="2">
+        <v>4.25</v>
+      </c>
+      <c r="T167" s="2">
+        <f t="shared" si="2"/>
+        <v>2151</v>
+      </c>
+    </row>
+    <row r="168" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
         <v>66</v>
       </c>
@@ -10274,10 +11431,10 @@
         <v>2</v>
       </c>
       <c r="I168" s="2">
-        <v>912</v>
+        <v>506</v>
       </c>
       <c r="J168" s="2">
-        <v>121</v>
+        <v>87</v>
       </c>
       <c r="K168" s="2">
         <v>10000</v>
@@ -10300,8 +11457,15 @@
       <c r="Q168" s="2">
         <v>45</v>
       </c>
-    </row>
-    <row r="169" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S168" s="2">
+        <v>4.25</v>
+      </c>
+      <c r="T168" s="2">
+        <f t="shared" si="2"/>
+        <v>2151</v>
+      </c>
+    </row>
+    <row r="169" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
         <v>66</v>
       </c>
@@ -10321,10 +11485,10 @@
         <v>2</v>
       </c>
       <c r="I169" s="2">
-        <v>912</v>
+        <v>506</v>
       </c>
       <c r="J169" s="2">
-        <v>121</v>
+        <v>87</v>
       </c>
       <c r="K169" s="2">
         <v>10000</v>
@@ -10347,8 +11511,15 @@
       <c r="Q169" s="2">
         <v>45</v>
       </c>
-    </row>
-    <row r="170" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S169" s="2">
+        <v>4.25</v>
+      </c>
+      <c r="T169" s="2">
+        <f t="shared" si="2"/>
+        <v>2151</v>
+      </c>
+    </row>
+    <row r="170" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A170" s="11" t="s">
         <v>66</v>
       </c>
@@ -10368,10 +11539,10 @@
         <v>2</v>
       </c>
       <c r="I170" s="2">
-        <v>912</v>
+        <v>506</v>
       </c>
       <c r="J170" s="2">
-        <v>121</v>
+        <v>87</v>
       </c>
       <c r="K170" s="2">
         <v>10000</v>
@@ -10394,8 +11565,15 @@
       <c r="Q170" s="2">
         <v>46</v>
       </c>
-    </row>
-    <row r="171" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S170" s="2">
+        <v>4.25</v>
+      </c>
+      <c r="T170" s="2">
+        <f t="shared" si="2"/>
+        <v>2151</v>
+      </c>
+    </row>
+    <row r="171" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
         <v>67</v>
       </c>
@@ -10415,10 +11593,10 @@
         <v>3</v>
       </c>
       <c r="I171" s="2">
-        <v>954</v>
+        <v>561</v>
       </c>
       <c r="J171" s="2">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="K171" s="2">
         <v>10000</v>
@@ -10441,8 +11619,15 @@
       <c r="Q171" s="2">
         <v>47</v>
       </c>
-    </row>
-    <row r="172" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S171" s="2">
+        <v>4.25</v>
+      </c>
+      <c r="T171" s="2">
+        <f t="shared" si="2"/>
+        <v>2384</v>
+      </c>
+    </row>
+    <row r="172" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
         <v>67</v>
       </c>
@@ -10462,10 +11647,10 @@
         <v>3</v>
       </c>
       <c r="I172" s="2">
-        <v>954</v>
+        <v>561</v>
       </c>
       <c r="J172" s="2">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="K172" s="2">
         <v>10000</v>
@@ -10488,8 +11673,15 @@
       <c r="Q172" s="2">
         <v>47</v>
       </c>
-    </row>
-    <row r="173" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S172" s="2">
+        <v>4.25</v>
+      </c>
+      <c r="T172" s="2">
+        <f t="shared" si="2"/>
+        <v>2384</v>
+      </c>
+    </row>
+    <row r="173" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
         <v>67</v>
       </c>
@@ -10509,10 +11701,10 @@
         <v>3</v>
       </c>
       <c r="I173" s="2">
-        <v>954</v>
+        <v>561</v>
       </c>
       <c r="J173" s="2">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="K173" s="2">
         <v>10000</v>
@@ -10535,8 +11727,15 @@
       <c r="Q173" s="2">
         <v>47</v>
       </c>
-    </row>
-    <row r="174" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S173" s="2">
+        <v>4.25</v>
+      </c>
+      <c r="T173" s="2">
+        <f t="shared" si="2"/>
+        <v>2384</v>
+      </c>
+    </row>
+    <row r="174" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
         <v>67</v>
       </c>
@@ -10556,10 +11755,10 @@
         <v>3</v>
       </c>
       <c r="I174" s="2">
-        <v>954</v>
+        <v>561</v>
       </c>
       <c r="J174" s="2">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="K174" s="2">
         <v>10000</v>
@@ -10582,8 +11781,15 @@
       <c r="Q174" s="2">
         <v>47</v>
       </c>
-    </row>
-    <row r="175" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S174" s="2">
+        <v>4.25</v>
+      </c>
+      <c r="T174" s="2">
+        <f t="shared" si="2"/>
+        <v>2384</v>
+      </c>
+    </row>
+    <row r="175" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A175" s="11" t="s">
         <v>67</v>
       </c>
@@ -10603,10 +11809,10 @@
         <v>3</v>
       </c>
       <c r="I175" s="2">
-        <v>954</v>
+        <v>561</v>
       </c>
       <c r="J175" s="2">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="K175" s="2">
         <v>10000</v>
@@ -10629,8 +11835,15 @@
       <c r="Q175" s="2">
         <v>48</v>
       </c>
-    </row>
-    <row r="176" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S175" s="2">
+        <v>4.25</v>
+      </c>
+      <c r="T175" s="2">
+        <f t="shared" si="2"/>
+        <v>2384</v>
+      </c>
+    </row>
+    <row r="176" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
         <v>68</v>
       </c>
@@ -10650,10 +11863,10 @@
         <v>3</v>
       </c>
       <c r="I176" s="2">
-        <v>1056</v>
+        <v>599</v>
       </c>
       <c r="J176" s="2">
-        <v>145</v>
+        <v>116</v>
       </c>
       <c r="K176" s="2">
         <v>10000</v>
@@ -10676,8 +11889,15 @@
       <c r="Q176" s="2">
         <v>49</v>
       </c>
-    </row>
-    <row r="177" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S176" s="2">
+        <v>4.25</v>
+      </c>
+      <c r="T176" s="2">
+        <f t="shared" si="2"/>
+        <v>2546</v>
+      </c>
+    </row>
+    <row r="177" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
         <v>68</v>
       </c>
@@ -10697,10 +11917,10 @@
         <v>3</v>
       </c>
       <c r="I177" s="2">
-        <v>1056</v>
+        <v>599</v>
       </c>
       <c r="J177" s="2">
-        <v>145</v>
+        <v>116</v>
       </c>
       <c r="K177" s="2">
         <v>10000</v>
@@ -10723,8 +11943,15 @@
       <c r="Q177" s="2">
         <v>49</v>
       </c>
-    </row>
-    <row r="178" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S177" s="2">
+        <v>4.25</v>
+      </c>
+      <c r="T177" s="2">
+        <f t="shared" si="2"/>
+        <v>2546</v>
+      </c>
+    </row>
+    <row r="178" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
         <v>68</v>
       </c>
@@ -10744,10 +11971,10 @@
         <v>3</v>
       </c>
       <c r="I178" s="2">
-        <v>1056</v>
+        <v>599</v>
       </c>
       <c r="J178" s="2">
-        <v>145</v>
+        <v>116</v>
       </c>
       <c r="K178" s="2">
         <v>10000</v>
@@ -10770,8 +11997,15 @@
       <c r="Q178" s="2">
         <v>49</v>
       </c>
-    </row>
-    <row r="179" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S178" s="2">
+        <v>4.25</v>
+      </c>
+      <c r="T178" s="2">
+        <f t="shared" si="2"/>
+        <v>2546</v>
+      </c>
+    </row>
+    <row r="179" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
         <v>68</v>
       </c>
@@ -10791,10 +12025,10 @@
         <v>3</v>
       </c>
       <c r="I179" s="2">
-        <v>1056</v>
+        <v>599</v>
       </c>
       <c r="J179" s="2">
-        <v>145</v>
+        <v>116</v>
       </c>
       <c r="K179" s="2">
         <v>10000</v>
@@ -10817,8 +12051,15 @@
       <c r="Q179" s="2">
         <v>49</v>
       </c>
-    </row>
-    <row r="180" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S179" s="2">
+        <v>4.25</v>
+      </c>
+      <c r="T179" s="2">
+        <f t="shared" si="2"/>
+        <v>2546</v>
+      </c>
+    </row>
+    <row r="180" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
         <v>68</v>
       </c>
@@ -10838,10 +12079,10 @@
         <v>3</v>
       </c>
       <c r="I180" s="2">
-        <v>1056</v>
+        <v>599</v>
       </c>
       <c r="J180" s="2">
-        <v>145</v>
+        <v>116</v>
       </c>
       <c r="K180" s="2">
         <v>10000</v>
@@ -10864,8 +12105,15 @@
       <c r="Q180" s="2">
         <v>49</v>
       </c>
-    </row>
-    <row r="181" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S180" s="2">
+        <v>4.25</v>
+      </c>
+      <c r="T180" s="2">
+        <f t="shared" si="2"/>
+        <v>2546</v>
+      </c>
+    </row>
+    <row r="181" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
         <v>68</v>
       </c>
@@ -10885,10 +12133,10 @@
         <v>3</v>
       </c>
       <c r="I181" s="2">
-        <v>1056</v>
+        <v>599</v>
       </c>
       <c r="J181" s="2">
-        <v>145</v>
+        <v>116</v>
       </c>
       <c r="K181" s="2">
         <v>10000</v>
@@ -10911,8 +12159,15 @@
       <c r="Q181" s="2">
         <v>49</v>
       </c>
-    </row>
-    <row r="182" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S181" s="2">
+        <v>4.25</v>
+      </c>
+      <c r="T181" s="2">
+        <f t="shared" si="2"/>
+        <v>2546</v>
+      </c>
+    </row>
+    <row r="182" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
         <v>68</v>
       </c>
@@ -10932,10 +12187,10 @@
         <v>3</v>
       </c>
       <c r="I182" s="2">
-        <v>1056</v>
+        <v>599</v>
       </c>
       <c r="J182" s="2">
-        <v>145</v>
+        <v>116</v>
       </c>
       <c r="K182" s="2">
         <v>10000</v>
@@ -10958,8 +12213,15 @@
       <c r="Q182" s="2">
         <v>49</v>
       </c>
-    </row>
-    <row r="183" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S182" s="2">
+        <v>4.25</v>
+      </c>
+      <c r="T182" s="2">
+        <f t="shared" si="2"/>
+        <v>2546</v>
+      </c>
+    </row>
+    <row r="183" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A183" s="11" t="s">
         <v>68</v>
       </c>
@@ -10979,10 +12241,10 @@
         <v>3</v>
       </c>
       <c r="I183" s="2">
-        <v>1056</v>
+        <v>599</v>
       </c>
       <c r="J183" s="2">
-        <v>145</v>
+        <v>116</v>
       </c>
       <c r="K183" s="2">
         <v>10000</v>
@@ -11005,8 +12267,15 @@
       <c r="Q183" s="2">
         <v>49</v>
       </c>
-    </row>
-    <row r="184" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S183" s="2">
+        <v>4.25</v>
+      </c>
+      <c r="T183" s="2">
+        <f t="shared" si="2"/>
+        <v>2546</v>
+      </c>
+    </row>
+    <row r="184" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A184" s="11" t="s">
         <v>68</v>
       </c>
@@ -11026,10 +12295,10 @@
         <v>3</v>
       </c>
       <c r="I184" s="2">
-        <v>1056</v>
+        <v>599</v>
       </c>
       <c r="J184" s="2">
-        <v>145</v>
+        <v>116</v>
       </c>
       <c r="K184" s="2">
         <v>10000</v>
@@ -11052,8 +12321,15 @@
       <c r="Q184" s="2">
         <v>49</v>
       </c>
-    </row>
-    <row r="185" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S184" s="2">
+        <v>4.25</v>
+      </c>
+      <c r="T184" s="2">
+        <f t="shared" si="2"/>
+        <v>2546</v>
+      </c>
+    </row>
+    <row r="185" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
         <v>92</v>
       </c>
@@ -11073,7 +12349,7 @@
         <v>3</v>
       </c>
       <c r="I185" s="2">
-        <v>1008</v>
+        <v>714</v>
       </c>
       <c r="J185" s="2">
         <v>100</v>
@@ -11099,8 +12375,15 @@
       <c r="Q185" s="2">
         <v>49</v>
       </c>
-    </row>
-    <row r="186" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S185" s="2">
+        <v>4.25</v>
+      </c>
+      <c r="T185" s="2">
+        <f t="shared" si="2"/>
+        <v>3035</v>
+      </c>
+    </row>
+    <row r="186" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
         <v>92</v>
       </c>
@@ -11120,7 +12403,7 @@
         <v>3</v>
       </c>
       <c r="I186" s="2">
-        <v>1008</v>
+        <v>714</v>
       </c>
       <c r="J186" s="2">
         <v>100</v>
@@ -11146,8 +12429,15 @@
       <c r="Q186" s="2">
         <v>49</v>
       </c>
-    </row>
-    <row r="187" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S186" s="2">
+        <v>4.25</v>
+      </c>
+      <c r="T186" s="2">
+        <f t="shared" si="2"/>
+        <v>3035</v>
+      </c>
+    </row>
+    <row r="187" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
         <v>92</v>
       </c>
@@ -11167,7 +12457,7 @@
         <v>3</v>
       </c>
       <c r="I187" s="2">
-        <v>1008</v>
+        <v>714</v>
       </c>
       <c r="J187" s="2">
         <v>100</v>
@@ -11193,8 +12483,15 @@
       <c r="Q187" s="2">
         <v>49</v>
       </c>
-    </row>
-    <row r="188" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S187" s="2">
+        <v>4.25</v>
+      </c>
+      <c r="T187" s="2">
+        <f t="shared" si="2"/>
+        <v>3035</v>
+      </c>
+    </row>
+    <row r="188" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
         <v>92</v>
       </c>
@@ -11214,7 +12511,7 @@
         <v>3</v>
       </c>
       <c r="I188" s="2">
-        <v>1008</v>
+        <v>714</v>
       </c>
       <c r="J188" s="2">
         <v>100</v>
@@ -11240,8 +12537,15 @@
       <c r="Q188" s="2">
         <v>49</v>
       </c>
-    </row>
-    <row r="189" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S188" s="2">
+        <v>4.25</v>
+      </c>
+      <c r="T188" s="2">
+        <f t="shared" si="2"/>
+        <v>3035</v>
+      </c>
+    </row>
+    <row r="189" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
         <v>92</v>
       </c>
@@ -11261,7 +12565,7 @@
         <v>3</v>
       </c>
       <c r="I189" s="2">
-        <v>1008</v>
+        <v>714</v>
       </c>
       <c r="J189" s="2">
         <v>100</v>
@@ -11287,8 +12591,15 @@
       <c r="Q189" s="2">
         <v>49</v>
       </c>
-    </row>
-    <row r="190" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S189" s="2">
+        <v>4.25</v>
+      </c>
+      <c r="T189" s="2">
+        <f t="shared" si="2"/>
+        <v>3035</v>
+      </c>
+    </row>
+    <row r="190" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
         <v>92</v>
       </c>
@@ -11308,7 +12619,7 @@
         <v>3</v>
       </c>
       <c r="I190" s="2">
-        <v>1008</v>
+        <v>714</v>
       </c>
       <c r="J190" s="2">
         <v>100</v>
@@ -11334,8 +12645,15 @@
       <c r="Q190" s="2">
         <v>49</v>
       </c>
-    </row>
-    <row r="191" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S190" s="2">
+        <v>4.25</v>
+      </c>
+      <c r="T190" s="2">
+        <f t="shared" si="2"/>
+        <v>3035</v>
+      </c>
+    </row>
+    <row r="191" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
         <v>92</v>
       </c>
@@ -11355,7 +12673,7 @@
         <v>3</v>
       </c>
       <c r="I191" s="2">
-        <v>1008</v>
+        <v>714</v>
       </c>
       <c r="J191" s="2">
         <v>100</v>
@@ -11381,8 +12699,15 @@
       <c r="Q191" s="2">
         <v>49</v>
       </c>
-    </row>
-    <row r="192" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S191" s="2">
+        <v>4.25</v>
+      </c>
+      <c r="T191" s="2">
+        <f t="shared" si="2"/>
+        <v>3035</v>
+      </c>
+    </row>
+    <row r="192" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A192" s="11" t="s">
         <v>92</v>
       </c>
@@ -11402,7 +12727,7 @@
         <v>3</v>
       </c>
       <c r="I192" s="2">
-        <v>1008</v>
+        <v>714</v>
       </c>
       <c r="J192" s="2">
         <v>100</v>
@@ -11428,8 +12753,15 @@
       <c r="Q192" s="2">
         <v>49</v>
       </c>
-    </row>
-    <row r="193" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S192" s="2">
+        <v>4.25</v>
+      </c>
+      <c r="T192" s="2">
+        <f t="shared" si="2"/>
+        <v>3035</v>
+      </c>
+    </row>
+    <row r="193" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A193" s="11" t="s">
         <v>69</v>
       </c>
@@ -11449,7 +12781,7 @@
         <v>3</v>
       </c>
       <c r="I193" s="2">
-        <v>973</v>
+        <v>695</v>
       </c>
       <c r="J193" s="2">
         <v>154</v>
@@ -11475,8 +12807,15 @@
       <c r="Q193" s="2">
         <v>49</v>
       </c>
-    </row>
-    <row r="194" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S193" s="2">
+        <v>5</v>
+      </c>
+      <c r="T193" s="2">
+        <f t="shared" si="2"/>
+        <v>3475</v>
+      </c>
+    </row>
+    <row r="194" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A194" s="12" t="s">
         <v>86</v>
       </c>
@@ -11496,7 +12835,7 @@
         <v>3</v>
       </c>
       <c r="I194" s="2">
-        <v>1160</v>
+        <v>705</v>
       </c>
       <c r="J194" s="2">
         <v>161</v>
@@ -11522,8 +12861,15 @@
       <c r="Q194" s="2">
         <v>49</v>
       </c>
-    </row>
-    <row r="195" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S194" s="2">
+        <v>5</v>
+      </c>
+      <c r="T194" s="2">
+        <f t="shared" si="2"/>
+        <v>3525</v>
+      </c>
+    </row>
+    <row r="195" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
         <v>70</v>
       </c>
@@ -11543,7 +12889,7 @@
         <v>3</v>
       </c>
       <c r="I195" s="2">
-        <v>2216</v>
+        <v>1385</v>
       </c>
       <c r="J195" s="2">
         <v>135</v>
@@ -11569,8 +12915,15 @@
       <c r="Q195" s="2">
         <v>50</v>
       </c>
-    </row>
-    <row r="196" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S195" s="2">
+        <v>5</v>
+      </c>
+      <c r="T195" s="2">
+        <f t="shared" si="2"/>
+        <v>6925</v>
+      </c>
+    </row>
+    <row r="196" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
         <v>70</v>
       </c>
@@ -11590,7 +12943,7 @@
         <v>3</v>
       </c>
       <c r="I196" s="2">
-        <v>2216</v>
+        <v>1385</v>
       </c>
       <c r="J196" s="2">
         <v>135</v>
@@ -11616,8 +12969,15 @@
       <c r="Q196" s="2">
         <v>50</v>
       </c>
-    </row>
-    <row r="197" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S196" s="2">
+        <v>5</v>
+      </c>
+      <c r="T196" s="2">
+        <f t="shared" si="2"/>
+        <v>6925</v>
+      </c>
+    </row>
+    <row r="197" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
         <v>70</v>
       </c>
@@ -11637,7 +12997,7 @@
         <v>3</v>
       </c>
       <c r="I197" s="2">
-        <v>2216</v>
+        <v>1385</v>
       </c>
       <c r="J197" s="2">
         <v>135</v>
@@ -11663,8 +13023,15 @@
       <c r="Q197" s="2">
         <v>50</v>
       </c>
-    </row>
-    <row r="198" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S197" s="2">
+        <v>5</v>
+      </c>
+      <c r="T197" s="2">
+        <f t="shared" ref="T197:T247" si="3">ROUND(S197*I197,0)</f>
+        <v>6925</v>
+      </c>
+    </row>
+    <row r="198" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
         <v>70</v>
       </c>
@@ -11684,7 +13051,7 @@
         <v>3</v>
       </c>
       <c r="I198" s="2">
-        <v>2216</v>
+        <v>1385</v>
       </c>
       <c r="J198" s="2">
         <v>135</v>
@@ -11710,8 +13077,15 @@
       <c r="Q198" s="2">
         <v>50</v>
       </c>
-    </row>
-    <row r="199" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S198" s="2">
+        <v>5</v>
+      </c>
+      <c r="T198" s="2">
+        <f t="shared" si="3"/>
+        <v>6925</v>
+      </c>
+    </row>
+    <row r="199" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A199" s="11" t="s">
         <v>70</v>
       </c>
@@ -11731,7 +13105,7 @@
         <v>3</v>
       </c>
       <c r="I199" s="2">
-        <v>2216</v>
+        <v>1385</v>
       </c>
       <c r="J199" s="2">
         <v>135</v>
@@ -11757,8 +13131,15 @@
       <c r="Q199" s="2">
         <v>51</v>
       </c>
-    </row>
-    <row r="200" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S199" s="2">
+        <v>5</v>
+      </c>
+      <c r="T199" s="2">
+        <f t="shared" si="3"/>
+        <v>6925</v>
+      </c>
+    </row>
+    <row r="200" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
         <v>71</v>
       </c>
@@ -11778,7 +13159,7 @@
         <v>3</v>
       </c>
       <c r="I200" s="2">
-        <v>2400</v>
+        <v>1500</v>
       </c>
       <c r="J200" s="2">
         <v>146</v>
@@ -11804,8 +13185,15 @@
       <c r="Q200" s="2">
         <v>52</v>
       </c>
-    </row>
-    <row r="201" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S200" s="2">
+        <v>5</v>
+      </c>
+      <c r="T200" s="2">
+        <f t="shared" si="3"/>
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="201" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
         <v>71</v>
       </c>
@@ -11825,7 +13213,7 @@
         <v>3</v>
       </c>
       <c r="I201" s="2">
-        <v>2400</v>
+        <v>1500</v>
       </c>
       <c r="J201" s="2">
         <v>146</v>
@@ -11851,8 +13239,15 @@
       <c r="Q201" s="2">
         <v>52</v>
       </c>
-    </row>
-    <row r="202" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S201" s="2">
+        <v>5</v>
+      </c>
+      <c r="T201" s="2">
+        <f t="shared" si="3"/>
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="202" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
         <v>71</v>
       </c>
@@ -11872,7 +13267,7 @@
         <v>3</v>
       </c>
       <c r="I202" s="2">
-        <v>2400</v>
+        <v>1500</v>
       </c>
       <c r="J202" s="2">
         <v>146</v>
@@ -11898,8 +13293,15 @@
       <c r="Q202" s="2">
         <v>52</v>
       </c>
-    </row>
-    <row r="203" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S202" s="2">
+        <v>5</v>
+      </c>
+      <c r="T202" s="2">
+        <f t="shared" si="3"/>
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="203" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
         <v>71</v>
       </c>
@@ -11919,7 +13321,7 @@
         <v>3</v>
       </c>
       <c r="I203" s="2">
-        <v>2400</v>
+        <v>1500</v>
       </c>
       <c r="J203" s="2">
         <v>146</v>
@@ -11945,8 +13347,15 @@
       <c r="Q203" s="2">
         <v>52</v>
       </c>
-    </row>
-    <row r="204" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S203" s="2">
+        <v>5</v>
+      </c>
+      <c r="T203" s="2">
+        <f t="shared" si="3"/>
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="204" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A204" s="11" t="s">
         <v>71</v>
       </c>
@@ -11966,7 +13375,7 @@
         <v>3</v>
       </c>
       <c r="I204" s="2">
-        <v>2400</v>
+        <v>1500</v>
       </c>
       <c r="J204" s="2">
         <v>146</v>
@@ -11992,8 +13401,15 @@
       <c r="Q204" s="2">
         <v>53</v>
       </c>
-    </row>
-    <row r="205" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S204" s="2">
+        <v>5</v>
+      </c>
+      <c r="T204" s="2">
+        <f t="shared" si="3"/>
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="205" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
         <v>72</v>
       </c>
@@ -12013,7 +13429,7 @@
         <v>3</v>
       </c>
       <c r="I205" s="2">
-        <v>2496</v>
+        <v>1560</v>
       </c>
       <c r="J205" s="2">
         <v>165</v>
@@ -12039,8 +13455,15 @@
       <c r="Q205" s="2">
         <v>54</v>
       </c>
-    </row>
-    <row r="206" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S205" s="2">
+        <v>5</v>
+      </c>
+      <c r="T205" s="2">
+        <f t="shared" si="3"/>
+        <v>7800</v>
+      </c>
+    </row>
+    <row r="206" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
         <v>72</v>
       </c>
@@ -12060,7 +13483,7 @@
         <v>3</v>
       </c>
       <c r="I206" s="2">
-        <v>2496</v>
+        <v>1560</v>
       </c>
       <c r="J206" s="2">
         <v>165</v>
@@ -12086,8 +13509,15 @@
       <c r="Q206" s="2">
         <v>54</v>
       </c>
-    </row>
-    <row r="207" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S206" s="2">
+        <v>5</v>
+      </c>
+      <c r="T206" s="2">
+        <f t="shared" si="3"/>
+        <v>7800</v>
+      </c>
+    </row>
+    <row r="207" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
         <v>72</v>
       </c>
@@ -12107,7 +13537,7 @@
         <v>3</v>
       </c>
       <c r="I207" s="2">
-        <v>2496</v>
+        <v>1560</v>
       </c>
       <c r="J207" s="2">
         <v>165</v>
@@ -12133,8 +13563,15 @@
       <c r="Q207" s="2">
         <v>54</v>
       </c>
-    </row>
-    <row r="208" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S207" s="2">
+        <v>5</v>
+      </c>
+      <c r="T207" s="2">
+        <f t="shared" si="3"/>
+        <v>7800</v>
+      </c>
+    </row>
+    <row r="208" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A208" s="11" t="s">
         <v>72</v>
       </c>
@@ -12154,7 +13591,7 @@
         <v>3</v>
       </c>
       <c r="I208" s="2">
-        <v>2496</v>
+        <v>1560</v>
       </c>
       <c r="J208" s="2">
         <v>165</v>
@@ -12180,8 +13617,15 @@
       <c r="Q208" s="2">
         <v>55</v>
       </c>
-    </row>
-    <row r="209" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S208" s="2">
+        <v>5</v>
+      </c>
+      <c r="T208" s="2">
+        <f t="shared" si="3"/>
+        <v>7800</v>
+      </c>
+    </row>
+    <row r="209" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
         <v>73</v>
       </c>
@@ -12201,7 +13645,7 @@
         <v>3</v>
       </c>
       <c r="I209" s="2">
-        <v>2672</v>
+        <v>1670</v>
       </c>
       <c r="J209" s="2">
         <v>176</v>
@@ -12227,8 +13671,15 @@
       <c r="Q209" s="2">
         <v>56</v>
       </c>
-    </row>
-    <row r="210" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S209" s="2">
+        <v>5</v>
+      </c>
+      <c r="T209" s="2">
+        <f t="shared" si="3"/>
+        <v>8350</v>
+      </c>
+    </row>
+    <row r="210" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
         <v>73</v>
       </c>
@@ -12248,7 +13699,7 @@
         <v>3</v>
       </c>
       <c r="I210" s="2">
-        <v>2672</v>
+        <v>1670</v>
       </c>
       <c r="J210" s="2">
         <v>176</v>
@@ -12274,8 +13725,15 @@
       <c r="Q210" s="2">
         <v>56</v>
       </c>
-    </row>
-    <row r="211" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S210" s="2">
+        <v>5</v>
+      </c>
+      <c r="T210" s="2">
+        <f t="shared" si="3"/>
+        <v>8350</v>
+      </c>
+    </row>
+    <row r="211" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
         <v>73</v>
       </c>
@@ -12295,7 +13753,7 @@
         <v>3</v>
       </c>
       <c r="I211" s="2">
-        <v>2672</v>
+        <v>1670</v>
       </c>
       <c r="J211" s="2">
         <v>176</v>
@@ -12321,8 +13779,15 @@
       <c r="Q211" s="2">
         <v>56</v>
       </c>
-    </row>
-    <row r="212" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S211" s="2">
+        <v>5</v>
+      </c>
+      <c r="T211" s="2">
+        <f t="shared" si="3"/>
+        <v>8350</v>
+      </c>
+    </row>
+    <row r="212" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
         <v>73</v>
       </c>
@@ -12342,7 +13807,7 @@
         <v>3</v>
       </c>
       <c r="I212" s="2">
-        <v>2672</v>
+        <v>1670</v>
       </c>
       <c r="J212" s="2">
         <v>176</v>
@@ -12368,8 +13833,15 @@
       <c r="Q212" s="2">
         <v>56</v>
       </c>
-    </row>
-    <row r="213" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S212" s="2">
+        <v>5</v>
+      </c>
+      <c r="T212" s="2">
+        <f t="shared" si="3"/>
+        <v>8350</v>
+      </c>
+    </row>
+    <row r="213" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A213" s="11" t="s">
         <v>73</v>
       </c>
@@ -12389,7 +13861,7 @@
         <v>3</v>
       </c>
       <c r="I213" s="2">
-        <v>2672</v>
+        <v>1670</v>
       </c>
       <c r="J213" s="2">
         <v>176</v>
@@ -12415,8 +13887,15 @@
       <c r="Q213" s="2">
         <v>57</v>
       </c>
-    </row>
-    <row r="214" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S213" s="2">
+        <v>5</v>
+      </c>
+      <c r="T213" s="2">
+        <f t="shared" si="3"/>
+        <v>8350</v>
+      </c>
+    </row>
+    <row r="214" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
         <v>74</v>
       </c>
@@ -12436,7 +13915,7 @@
         <v>3</v>
       </c>
       <c r="I214" s="2">
-        <v>2848</v>
+        <v>1780</v>
       </c>
       <c r="J214" s="2">
         <v>188</v>
@@ -12462,8 +13941,15 @@
       <c r="Q214" s="2">
         <v>58</v>
       </c>
-    </row>
-    <row r="215" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S214" s="2">
+        <v>5</v>
+      </c>
+      <c r="T214" s="2">
+        <f t="shared" si="3"/>
+        <v>8900</v>
+      </c>
+    </row>
+    <row r="215" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
         <v>74</v>
       </c>
@@ -12483,7 +13969,7 @@
         <v>3</v>
       </c>
       <c r="I215" s="2">
-        <v>2848</v>
+        <v>1780</v>
       </c>
       <c r="J215" s="2">
         <v>188</v>
@@ -12509,8 +13995,15 @@
       <c r="Q215" s="2">
         <v>58</v>
       </c>
-    </row>
-    <row r="216" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S215" s="2">
+        <v>5</v>
+      </c>
+      <c r="T215" s="2">
+        <f t="shared" si="3"/>
+        <v>8900</v>
+      </c>
+    </row>
+    <row r="216" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
         <v>74</v>
       </c>
@@ -12530,7 +14023,7 @@
         <v>3</v>
       </c>
       <c r="I216" s="2">
-        <v>2848</v>
+        <v>1780</v>
       </c>
       <c r="J216" s="2">
         <v>188</v>
@@ -12556,8 +14049,15 @@
       <c r="Q216" s="2">
         <v>58</v>
       </c>
-    </row>
-    <row r="217" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S216" s="2">
+        <v>5</v>
+      </c>
+      <c r="T216" s="2">
+        <f t="shared" si="3"/>
+        <v>8900</v>
+      </c>
+    </row>
+    <row r="217" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
         <v>74</v>
       </c>
@@ -12577,7 +14077,7 @@
         <v>3</v>
       </c>
       <c r="I217" s="2">
-        <v>2848</v>
+        <v>1780</v>
       </c>
       <c r="J217" s="2">
         <v>188</v>
@@ -12603,8 +14103,15 @@
       <c r="Q217" s="2">
         <v>58</v>
       </c>
-    </row>
-    <row r="218" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S217" s="2">
+        <v>5</v>
+      </c>
+      <c r="T217" s="2">
+        <f t="shared" si="3"/>
+        <v>8900</v>
+      </c>
+    </row>
+    <row r="218" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A218" s="11" t="s">
         <v>74</v>
       </c>
@@ -12624,7 +14131,7 @@
         <v>3</v>
       </c>
       <c r="I218" s="2">
-        <v>2848</v>
+        <v>1780</v>
       </c>
       <c r="J218" s="2">
         <v>188</v>
@@ -12650,8 +14157,15 @@
       <c r="Q218" s="2">
         <v>59</v>
       </c>
-    </row>
-    <row r="219" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S218" s="2">
+        <v>5</v>
+      </c>
+      <c r="T218" s="2">
+        <f t="shared" si="3"/>
+        <v>8900</v>
+      </c>
+    </row>
+    <row r="219" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
         <v>75</v>
       </c>
@@ -12671,7 +14185,7 @@
         <v>3</v>
       </c>
       <c r="I219" s="2">
-        <v>3024</v>
+        <v>1890</v>
       </c>
       <c r="J219" s="2">
         <v>225</v>
@@ -12697,8 +14211,15 @@
       <c r="Q219" s="2">
         <v>60</v>
       </c>
-    </row>
-    <row r="220" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S219" s="2">
+        <v>5</v>
+      </c>
+      <c r="T219" s="2">
+        <f t="shared" si="3"/>
+        <v>9450</v>
+      </c>
+    </row>
+    <row r="220" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
         <v>75</v>
       </c>
@@ -12718,7 +14239,7 @@
         <v>3</v>
       </c>
       <c r="I220" s="2">
-        <v>3024</v>
+        <v>1890</v>
       </c>
       <c r="J220" s="2">
         <v>225</v>
@@ -12744,8 +14265,15 @@
       <c r="Q220" s="2">
         <v>60</v>
       </c>
-    </row>
-    <row r="221" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S220" s="2">
+        <v>5</v>
+      </c>
+      <c r="T220" s="2">
+        <f t="shared" si="3"/>
+        <v>9450</v>
+      </c>
+    </row>
+    <row r="221" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
         <v>75</v>
       </c>
@@ -12765,7 +14293,7 @@
         <v>3</v>
       </c>
       <c r="I221" s="2">
-        <v>3024</v>
+        <v>1890</v>
       </c>
       <c r="J221" s="2">
         <v>225</v>
@@ -12791,8 +14319,15 @@
       <c r="Q221" s="2">
         <v>60</v>
       </c>
-    </row>
-    <row r="222" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S221" s="2">
+        <v>5</v>
+      </c>
+      <c r="T221" s="2">
+        <f t="shared" si="3"/>
+        <v>9450</v>
+      </c>
+    </row>
+    <row r="222" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
         <v>75</v>
       </c>
@@ -12812,7 +14347,7 @@
         <v>3</v>
       </c>
       <c r="I222" s="2">
-        <v>3024</v>
+        <v>1890</v>
       </c>
       <c r="J222" s="2">
         <v>225</v>
@@ -12838,8 +14373,15 @@
       <c r="Q222" s="2">
         <v>60</v>
       </c>
-    </row>
-    <row r="223" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S222" s="2">
+        <v>5</v>
+      </c>
+      <c r="T222" s="2">
+        <f t="shared" si="3"/>
+        <v>9450</v>
+      </c>
+    </row>
+    <row r="223" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A223" s="11" t="s">
         <v>75</v>
       </c>
@@ -12859,7 +14401,7 @@
         <v>3</v>
       </c>
       <c r="I223" s="2">
-        <v>3024</v>
+        <v>1890</v>
       </c>
       <c r="J223" s="2">
         <v>225</v>
@@ -12885,8 +14427,15 @@
       <c r="Q223" s="2">
         <v>61</v>
       </c>
-    </row>
-    <row r="224" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S223" s="2">
+        <v>5</v>
+      </c>
+      <c r="T223" s="2">
+        <f t="shared" si="3"/>
+        <v>9450</v>
+      </c>
+    </row>
+    <row r="224" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
         <v>76</v>
       </c>
@@ -12906,7 +14455,7 @@
         <v>3</v>
       </c>
       <c r="I224" s="2">
-        <v>3360</v>
+        <v>1890</v>
       </c>
       <c r="J224" s="2">
         <v>250</v>
@@ -12932,8 +14481,15 @@
       <c r="Q224" s="2">
         <v>62</v>
       </c>
-    </row>
-    <row r="225" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S224" s="2">
+        <v>5</v>
+      </c>
+      <c r="T224" s="2">
+        <f t="shared" si="3"/>
+        <v>9450</v>
+      </c>
+    </row>
+    <row r="225" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
         <v>76</v>
       </c>
@@ -12953,7 +14509,7 @@
         <v>3</v>
       </c>
       <c r="I225" s="2">
-        <v>3360</v>
+        <v>1890</v>
       </c>
       <c r="J225" s="2">
         <v>250</v>
@@ -12979,8 +14535,15 @@
       <c r="Q225" s="2">
         <v>62</v>
       </c>
-    </row>
-    <row r="226" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S225" s="2">
+        <v>5</v>
+      </c>
+      <c r="T225" s="2">
+        <f t="shared" si="3"/>
+        <v>9450</v>
+      </c>
+    </row>
+    <row r="226" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
         <v>76</v>
       </c>
@@ -13000,7 +14563,7 @@
         <v>3</v>
       </c>
       <c r="I226" s="2">
-        <v>3360</v>
+        <v>1890</v>
       </c>
       <c r="J226" s="2">
         <v>250</v>
@@ -13026,8 +14589,15 @@
       <c r="Q226" s="2">
         <v>62</v>
       </c>
-    </row>
-    <row r="227" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S226" s="2">
+        <v>5</v>
+      </c>
+      <c r="T226" s="2">
+        <f t="shared" si="3"/>
+        <v>9450</v>
+      </c>
+    </row>
+    <row r="227" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
         <v>76</v>
       </c>
@@ -13047,7 +14617,7 @@
         <v>3</v>
       </c>
       <c r="I227" s="2">
-        <v>3360</v>
+        <v>1890</v>
       </c>
       <c r="J227" s="2">
         <v>250</v>
@@ -13073,8 +14643,15 @@
       <c r="Q227" s="2">
         <v>62</v>
       </c>
-    </row>
-    <row r="228" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S227" s="2">
+        <v>5</v>
+      </c>
+      <c r="T227" s="2">
+        <f t="shared" si="3"/>
+        <v>9450</v>
+      </c>
+    </row>
+    <row r="228" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A228" s="11" t="s">
         <v>76</v>
       </c>
@@ -13094,7 +14671,7 @@
         <v>3</v>
       </c>
       <c r="I228" s="2">
-        <v>3360</v>
+        <v>1890</v>
       </c>
       <c r="J228" s="2">
         <v>250</v>
@@ -13120,8 +14697,15 @@
       <c r="Q228" s="2">
         <v>63</v>
       </c>
-    </row>
-    <row r="229" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S228" s="2">
+        <v>5</v>
+      </c>
+      <c r="T228" s="2">
+        <f t="shared" si="3"/>
+        <v>9450</v>
+      </c>
+    </row>
+    <row r="229" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="s">
         <v>77</v>
       </c>
@@ -13141,7 +14725,7 @@
         <v>3</v>
       </c>
       <c r="I229" s="2">
-        <v>3528</v>
+        <v>1890</v>
       </c>
       <c r="J229" s="2">
         <v>300</v>
@@ -13167,8 +14751,15 @@
       <c r="Q229" s="2">
         <v>64</v>
       </c>
-    </row>
-    <row r="230" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S229" s="2">
+        <v>5</v>
+      </c>
+      <c r="T229" s="2">
+        <f t="shared" si="3"/>
+        <v>9450</v>
+      </c>
+    </row>
+    <row r="230" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
         <v>77</v>
       </c>
@@ -13188,7 +14779,7 @@
         <v>3</v>
       </c>
       <c r="I230" s="2">
-        <v>3528</v>
+        <v>1890</v>
       </c>
       <c r="J230" s="2">
         <v>300</v>
@@ -13214,8 +14805,15 @@
       <c r="Q230" s="2">
         <v>64</v>
       </c>
-    </row>
-    <row r="231" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S230" s="2">
+        <v>5</v>
+      </c>
+      <c r="T230" s="2">
+        <f t="shared" si="3"/>
+        <v>9450</v>
+      </c>
+    </row>
+    <row r="231" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
         <v>77</v>
       </c>
@@ -13235,7 +14833,7 @@
         <v>3</v>
       </c>
       <c r="I231" s="2">
-        <v>3528</v>
+        <v>1890</v>
       </c>
       <c r="J231" s="2">
         <v>300</v>
@@ -13261,8 +14859,15 @@
       <c r="Q231" s="2">
         <v>64</v>
       </c>
-    </row>
-    <row r="232" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S231" s="2">
+        <v>5</v>
+      </c>
+      <c r="T231" s="2">
+        <f t="shared" si="3"/>
+        <v>9450</v>
+      </c>
+    </row>
+    <row r="232" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="s">
         <v>77</v>
       </c>
@@ -13282,7 +14887,7 @@
         <v>3</v>
       </c>
       <c r="I232" s="2">
-        <v>3528</v>
+        <v>1890</v>
       </c>
       <c r="J232" s="2">
         <v>300</v>
@@ -13308,8 +14913,15 @@
       <c r="Q232" s="2">
         <v>64</v>
       </c>
-    </row>
-    <row r="233" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S232" s="2">
+        <v>5</v>
+      </c>
+      <c r="T232" s="2">
+        <f t="shared" si="3"/>
+        <v>9450</v>
+      </c>
+    </row>
+    <row r="233" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A233" s="11" t="s">
         <v>77</v>
       </c>
@@ -13329,7 +14941,7 @@
         <v>3</v>
       </c>
       <c r="I233" s="2">
-        <v>3528</v>
+        <v>1890</v>
       </c>
       <c r="J233" s="2">
         <v>300</v>
@@ -13355,8 +14967,15 @@
       <c r="Q233" s="2">
         <v>64</v>
       </c>
-    </row>
-    <row r="234" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S233" s="2">
+        <v>5</v>
+      </c>
+      <c r="T233" s="2">
+        <f t="shared" si="3"/>
+        <v>9450</v>
+      </c>
+    </row>
+    <row r="234" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="s">
         <v>78</v>
       </c>
@@ -13376,7 +14995,7 @@
         <v>3</v>
       </c>
       <c r="I234" s="2">
-        <v>3328</v>
+        <v>1700</v>
       </c>
       <c r="J234" s="2">
         <v>346</v>
@@ -13402,8 +15021,15 @@
       <c r="Q234" s="2">
         <v>64</v>
       </c>
-    </row>
-    <row r="235" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S234" s="2">
+        <v>5</v>
+      </c>
+      <c r="T234" s="2">
+        <f t="shared" si="3"/>
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="235" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A235" s="2" t="s">
         <v>78</v>
       </c>
@@ -13423,7 +15049,7 @@
         <v>3</v>
       </c>
       <c r="I235" s="2">
-        <v>3328</v>
+        <v>1700</v>
       </c>
       <c r="J235" s="2">
         <v>346</v>
@@ -13449,8 +15075,15 @@
       <c r="Q235" s="2">
         <v>64</v>
       </c>
-    </row>
-    <row r="236" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S235" s="2">
+        <v>5</v>
+      </c>
+      <c r="T235" s="2">
+        <f t="shared" si="3"/>
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="236" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A236" s="2" t="s">
         <v>78</v>
       </c>
@@ -13470,7 +15103,7 @@
         <v>3</v>
       </c>
       <c r="I236" s="2">
-        <v>3328</v>
+        <v>1700</v>
       </c>
       <c r="J236" s="2">
         <v>346</v>
@@ -13496,8 +15129,15 @@
       <c r="Q236" s="2">
         <v>64</v>
       </c>
-    </row>
-    <row r="237" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S236" s="2">
+        <v>5</v>
+      </c>
+      <c r="T236" s="2">
+        <f t="shared" si="3"/>
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="237" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A237" s="2" t="s">
         <v>78</v>
       </c>
@@ -13517,7 +15157,7 @@
         <v>3</v>
       </c>
       <c r="I237" s="2">
-        <v>3328</v>
+        <v>1700</v>
       </c>
       <c r="J237" s="2">
         <v>346</v>
@@ -13543,8 +15183,15 @@
       <c r="Q237" s="2">
         <v>64</v>
       </c>
-    </row>
-    <row r="238" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S237" s="2">
+        <v>5</v>
+      </c>
+      <c r="T237" s="2">
+        <f t="shared" si="3"/>
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="238" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A238" s="11" t="s">
         <v>78</v>
       </c>
@@ -13564,7 +15211,7 @@
         <v>3</v>
       </c>
       <c r="I238" s="2">
-        <v>3328</v>
+        <v>1700</v>
       </c>
       <c r="J238" s="2">
         <v>346</v>
@@ -13590,8 +15237,15 @@
       <c r="Q238" s="2">
         <v>65</v>
       </c>
-    </row>
-    <row r="239" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S238" s="2">
+        <v>5</v>
+      </c>
+      <c r="T238" s="2">
+        <f t="shared" si="3"/>
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="239" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A239" s="2" t="s">
         <v>91</v>
       </c>
@@ -13611,7 +15265,7 @@
         <v>3</v>
       </c>
       <c r="I239" s="2">
-        <v>2256</v>
+        <v>1410</v>
       </c>
       <c r="J239" s="2">
         <v>182</v>
@@ -13637,8 +15291,15 @@
       <c r="Q239" s="2">
         <v>66</v>
       </c>
-    </row>
-    <row r="240" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S239" s="2">
+        <v>5</v>
+      </c>
+      <c r="T239" s="2">
+        <f t="shared" si="3"/>
+        <v>7050</v>
+      </c>
+    </row>
+    <row r="240" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
         <v>91</v>
       </c>
@@ -13658,7 +15319,7 @@
         <v>3</v>
       </c>
       <c r="I240" s="2">
-        <v>2256</v>
+        <v>1410</v>
       </c>
       <c r="J240" s="2">
         <v>182</v>
@@ -13684,8 +15345,15 @@
       <c r="Q240" s="2">
         <v>66</v>
       </c>
-    </row>
-    <row r="241" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S240" s="2">
+        <v>5</v>
+      </c>
+      <c r="T240" s="2">
+        <f t="shared" si="3"/>
+        <v>7050</v>
+      </c>
+    </row>
+    <row r="241" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
         <v>91</v>
       </c>
@@ -13705,7 +15373,7 @@
         <v>3</v>
       </c>
       <c r="I241" s="2">
-        <v>2256</v>
+        <v>1410</v>
       </c>
       <c r="J241" s="2">
         <v>182</v>
@@ -13731,8 +15399,15 @@
       <c r="Q241" s="2">
         <v>66</v>
       </c>
-    </row>
-    <row r="242" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S241" s="2">
+        <v>5</v>
+      </c>
+      <c r="T241" s="2">
+        <f t="shared" si="3"/>
+        <v>7050</v>
+      </c>
+    </row>
+    <row r="242" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A242" s="2" t="s">
         <v>91</v>
       </c>
@@ -13752,7 +15427,7 @@
         <v>3</v>
       </c>
       <c r="I242" s="2">
-        <v>2256</v>
+        <v>1410</v>
       </c>
       <c r="J242" s="2">
         <v>182</v>
@@ -13778,8 +15453,15 @@
       <c r="Q242" s="2">
         <v>66</v>
       </c>
-    </row>
-    <row r="243" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S242" s="2">
+        <v>5</v>
+      </c>
+      <c r="T242" s="2">
+        <f t="shared" si="3"/>
+        <v>7050</v>
+      </c>
+    </row>
+    <row r="243" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
         <v>91</v>
       </c>
@@ -13799,7 +15481,7 @@
         <v>3</v>
       </c>
       <c r="I243" s="2">
-        <v>2256</v>
+        <v>1410</v>
       </c>
       <c r="J243" s="2">
         <v>182</v>
@@ -13825,8 +15507,15 @@
       <c r="Q243" s="2">
         <v>66</v>
       </c>
-    </row>
-    <row r="244" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S243" s="2">
+        <v>5</v>
+      </c>
+      <c r="T243" s="2">
+        <f t="shared" si="3"/>
+        <v>7050</v>
+      </c>
+    </row>
+    <row r="244" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
         <v>91</v>
       </c>
@@ -13846,7 +15535,7 @@
         <v>3</v>
       </c>
       <c r="I244" s="2">
-        <v>2256</v>
+        <v>1410</v>
       </c>
       <c r="J244" s="2">
         <v>182</v>
@@ -13872,8 +15561,15 @@
       <c r="Q244" s="2">
         <v>66</v>
       </c>
-    </row>
-    <row r="245" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S244" s="2">
+        <v>5</v>
+      </c>
+      <c r="T244" s="2">
+        <f t="shared" si="3"/>
+        <v>7050</v>
+      </c>
+    </row>
+    <row r="245" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A245" s="2" t="s">
         <v>91</v>
       </c>
@@ -13893,7 +15589,7 @@
         <v>3</v>
       </c>
       <c r="I245" s="2">
-        <v>2256</v>
+        <v>1410</v>
       </c>
       <c r="J245" s="2">
         <v>182</v>
@@ -13919,8 +15615,15 @@
       <c r="Q245" s="2">
         <v>66</v>
       </c>
-    </row>
-    <row r="246" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S245" s="2">
+        <v>5</v>
+      </c>
+      <c r="T245" s="2">
+        <f t="shared" si="3"/>
+        <v>7050</v>
+      </c>
+    </row>
+    <row r="246" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A246" s="11" t="s">
         <v>91</v>
       </c>
@@ -13940,7 +15643,7 @@
         <v>3</v>
       </c>
       <c r="I246" s="2">
-        <v>2256</v>
+        <v>1410</v>
       </c>
       <c r="J246" s="2">
         <v>182</v>
@@ -13966,8 +15669,15 @@
       <c r="Q246" s="2">
         <v>66</v>
       </c>
-    </row>
-    <row r="247" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S246" s="2">
+        <v>5</v>
+      </c>
+      <c r="T246" s="2">
+        <f t="shared" si="3"/>
+        <v>7050</v>
+      </c>
+    </row>
+    <row r="247" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A247" s="11" t="s">
         <v>79</v>
       </c>
@@ -13987,7 +15697,7 @@
         <v>3</v>
       </c>
       <c r="I247" s="2">
-        <v>4200</v>
+        <v>1848</v>
       </c>
       <c r="J247" s="2">
         <v>375</v>
@@ -14013,8 +15723,15 @@
       <c r="Q247" s="2">
         <v>66</v>
       </c>
-    </row>
-    <row r="248" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="S247" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="T247" s="2">
+        <f t="shared" si="3"/>
+        <v>10164</v>
+      </c>
+    </row>
+    <row r="248" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B248" s="2">
         <v>245</v>
       </c>
@@ -14055,7 +15772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B249" s="2">
         <v>246</v>
       </c>
@@ -14096,7 +15813,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="250" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B250" s="2">
         <v>247</v>
       </c>
@@ -14137,7 +15854,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="251" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B251" s="2">
         <v>248</v>
       </c>
@@ -14178,7 +15895,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="252" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B252" s="2">
         <v>249</v>
       </c>
@@ -14219,7 +15936,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="253" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B253" s="2">
         <v>250</v>
       </c>
@@ -14260,7 +15977,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="254" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B254" s="2">
         <v>251</v>
       </c>
@@ -14301,7 +16018,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="255" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B255" s="2">
         <v>252</v>
       </c>
@@ -14342,7 +16059,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="256" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B256" s="2">
         <v>253</v>
       </c>
@@ -15039,7 +16756,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="273" spans="2:19" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="273" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B273" s="2">
         <v>270</v>
       </c>
@@ -15080,7 +16797,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="274" spans="2:19" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="274" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B274" s="2">
         <v>271</v>
       </c>
@@ -15121,7 +16838,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="275" spans="2:19" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="275" spans="2:20" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B275" s="14">
         <v>272</v>
       </c>
@@ -15141,7 +16858,7 @@
         <v>14</v>
       </c>
       <c r="J275" s="14">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K275" s="14">
         <v>9000</v>
@@ -15165,9 +16882,15 @@
         <v>67</v>
       </c>
       <c r="R275" s="2"/>
-      <c r="S275" s="2"/>
-    </row>
-    <row r="276" spans="2:19" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="S275" s="2">
+        <v>2</v>
+      </c>
+      <c r="T275" s="14">
+        <f>ROUND(S275*I275,0)</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="276" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B276" s="2">
         <v>273</v>
       </c>
@@ -15187,7 +16910,7 @@
         <v>14</v>
       </c>
       <c r="J276" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K276" s="2">
         <v>9000</v>
@@ -15210,8 +16933,15 @@
       <c r="Q276" s="14">
         <v>67</v>
       </c>
-    </row>
-    <row r="277" spans="2:19" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="S276" s="2">
+        <v>2</v>
+      </c>
+      <c r="T276" s="14">
+        <f t="shared" ref="T276:T307" si="4">ROUND(S276*I276,0)</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="277" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B277" s="2">
         <v>274</v>
       </c>
@@ -15228,10 +16958,10 @@
         <v>1</v>
       </c>
       <c r="I277" s="2">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J277" s="2">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K277" s="2">
         <v>9000</v>
@@ -15254,8 +16984,15 @@
       <c r="Q277" s="14">
         <v>67</v>
       </c>
-    </row>
-    <row r="278" spans="2:19" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="S277" s="2">
+        <v>2</v>
+      </c>
+      <c r="T277" s="14">
+        <f t="shared" si="4"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="278" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B278" s="2">
         <v>275</v>
       </c>
@@ -15272,10 +17009,10 @@
         <v>1</v>
       </c>
       <c r="I278" s="2">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J278" s="2">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K278" s="2">
         <v>9000</v>
@@ -15298,8 +17035,15 @@
       <c r="Q278" s="14">
         <v>67</v>
       </c>
-    </row>
-    <row r="279" spans="2:19" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="S278" s="2">
+        <v>2</v>
+      </c>
+      <c r="T278" s="14">
+        <f t="shared" si="4"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="279" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B279" s="2">
         <v>276</v>
       </c>
@@ -15316,10 +17060,10 @@
         <v>1</v>
       </c>
       <c r="I279" s="2">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="J279" s="2">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K279" s="2">
         <v>9000</v>
@@ -15342,8 +17086,15 @@
       <c r="Q279" s="14">
         <v>67</v>
       </c>
-    </row>
-    <row r="280" spans="2:19" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="S279" s="2">
+        <v>2</v>
+      </c>
+      <c r="T279" s="14">
+        <f t="shared" si="4"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="280" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B280" s="2">
         <v>277</v>
       </c>
@@ -15360,10 +17111,10 @@
         <v>1</v>
       </c>
       <c r="I280" s="2">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="J280" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K280" s="2">
         <v>9000</v>
@@ -15386,8 +17137,15 @@
       <c r="Q280" s="2">
         <v>68</v>
       </c>
-    </row>
-    <row r="281" spans="2:19" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="S280" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="T280" s="14">
+        <f t="shared" si="4"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="281" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B281" s="2">
         <v>278</v>
       </c>
@@ -15404,10 +17162,10 @@
         <v>1</v>
       </c>
       <c r="I281" s="2">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="J281" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K281" s="2">
         <v>9000</v>
@@ -15430,8 +17188,15 @@
       <c r="Q281" s="2">
         <v>68</v>
       </c>
-    </row>
-    <row r="282" spans="2:19" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="S281" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="T281" s="14">
+        <f t="shared" si="4"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="282" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B282" s="2">
         <v>279</v>
       </c>
@@ -15448,10 +17213,10 @@
         <v>1</v>
       </c>
       <c r="I282" s="2">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="J282" s="2">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="K282" s="2">
         <v>9000</v>
@@ -15474,8 +17239,15 @@
       <c r="Q282" s="2">
         <v>68</v>
       </c>
-    </row>
-    <row r="283" spans="2:19" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="S282" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="T282" s="14">
+        <f t="shared" si="4"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="283" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B283" s="2">
         <v>280</v>
       </c>
@@ -15492,10 +17264,10 @@
         <v>1</v>
       </c>
       <c r="I283" s="2">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="J283" s="2">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="K283" s="2">
         <v>9000</v>
@@ -15518,8 +17290,15 @@
       <c r="Q283" s="2">
         <v>68</v>
       </c>
-    </row>
-    <row r="284" spans="2:19" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="S283" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="T283" s="14">
+        <f t="shared" si="4"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="284" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B284" s="2">
         <v>281</v>
       </c>
@@ -15536,10 +17315,10 @@
         <v>1</v>
       </c>
       <c r="I284" s="2">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="J284" s="2">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="K284" s="2">
         <v>9000</v>
@@ -15562,8 +17341,15 @@
       <c r="Q284" s="2">
         <v>68</v>
       </c>
-    </row>
-    <row r="285" spans="2:19" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="S284" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="T284" s="14">
+        <f t="shared" si="4"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="285" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B285" s="2">
         <v>282</v>
       </c>
@@ -15580,10 +17366,10 @@
         <v>2</v>
       </c>
       <c r="I285" s="2">
-        <v>161</v>
+        <v>105</v>
       </c>
       <c r="J285" s="2">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="K285" s="2">
         <v>9500</v>
@@ -15606,8 +17392,15 @@
       <c r="Q285" s="2">
         <v>69</v>
       </c>
-    </row>
-    <row r="286" spans="2:19" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="S285" s="2">
+        <v>3</v>
+      </c>
+      <c r="T285" s="14">
+        <f t="shared" si="4"/>
+        <v>315</v>
+      </c>
+    </row>
+    <row r="286" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B286" s="2">
         <v>283</v>
       </c>
@@ -15624,10 +17417,10 @@
         <v>2</v>
       </c>
       <c r="I286" s="2">
-        <v>161</v>
+        <v>105</v>
       </c>
       <c r="J286" s="2">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="K286" s="2">
         <v>9500</v>
@@ -15650,8 +17443,15 @@
       <c r="Q286" s="2">
         <v>69</v>
       </c>
-    </row>
-    <row r="287" spans="2:19" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="S286" s="2">
+        <v>3</v>
+      </c>
+      <c r="T286" s="14">
+        <f t="shared" si="4"/>
+        <v>315</v>
+      </c>
+    </row>
+    <row r="287" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B287" s="2">
         <v>284</v>
       </c>
@@ -15668,10 +17468,10 @@
         <v>2</v>
       </c>
       <c r="I287" s="2">
-        <v>203</v>
+        <v>105</v>
       </c>
       <c r="J287" s="2">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="K287" s="2">
         <v>9500</v>
@@ -15694,8 +17494,15 @@
       <c r="Q287" s="2">
         <v>69</v>
       </c>
-    </row>
-    <row r="288" spans="2:19" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="S287" s="2">
+        <v>3</v>
+      </c>
+      <c r="T287" s="14">
+        <f t="shared" si="4"/>
+        <v>315</v>
+      </c>
+    </row>
+    <row r="288" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B288" s="2">
         <v>285</v>
       </c>
@@ -15712,10 +17519,10 @@
         <v>2</v>
       </c>
       <c r="I288" s="2">
-        <v>203</v>
+        <v>105</v>
       </c>
       <c r="J288" s="2">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="K288" s="2">
         <v>9500</v>
@@ -15738,8 +17545,15 @@
       <c r="Q288" s="2">
         <v>69</v>
       </c>
-    </row>
-    <row r="289" spans="2:17" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="S288" s="2">
+        <v>3</v>
+      </c>
+      <c r="T288" s="14">
+        <f t="shared" si="4"/>
+        <v>315</v>
+      </c>
+    </row>
+    <row r="289" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B289" s="2">
         <v>286</v>
       </c>
@@ -15756,10 +17570,10 @@
         <v>2</v>
       </c>
       <c r="I289" s="2">
-        <v>276</v>
+        <v>138</v>
       </c>
       <c r="J289" s="2">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="K289" s="2">
         <v>9500</v>
@@ -15782,8 +17596,15 @@
       <c r="Q289" s="2">
         <v>69</v>
       </c>
-    </row>
-    <row r="290" spans="2:17" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="S289" s="2">
+        <v>3</v>
+      </c>
+      <c r="T289" s="14">
+        <f t="shared" si="4"/>
+        <v>414</v>
+      </c>
+    </row>
+    <row r="290" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B290" s="2">
         <v>287</v>
       </c>
@@ -15800,10 +17621,10 @@
         <v>2</v>
       </c>
       <c r="I290" s="2">
-        <v>396</v>
+        <v>276</v>
       </c>
       <c r="J290" s="2">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="K290" s="2">
         <v>9500</v>
@@ -15826,8 +17647,15 @@
       <c r="Q290" s="2">
         <v>70</v>
       </c>
-    </row>
-    <row r="291" spans="2:17" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="S290" s="2">
+        <v>4</v>
+      </c>
+      <c r="T290" s="14">
+        <f t="shared" si="4"/>
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="291" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B291" s="2">
         <v>288</v>
       </c>
@@ -15844,10 +17672,10 @@
         <v>2</v>
       </c>
       <c r="I291" s="2">
-        <v>396</v>
+        <v>276</v>
       </c>
       <c r="J291" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="K291" s="2">
         <v>9500</v>
@@ -15870,8 +17698,15 @@
       <c r="Q291" s="2">
         <v>70</v>
       </c>
-    </row>
-    <row r="292" spans="2:17" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="S291" s="2">
+        <v>4</v>
+      </c>
+      <c r="T291" s="14">
+        <f t="shared" si="4"/>
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="292" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B292" s="2">
         <v>289</v>
       </c>
@@ -15888,10 +17723,10 @@
         <v>2</v>
       </c>
       <c r="I292" s="2">
-        <v>459</v>
+        <v>304</v>
       </c>
       <c r="J292" s="2">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="K292" s="2">
         <v>9500</v>
@@ -15914,8 +17749,15 @@
       <c r="Q292" s="2">
         <v>70</v>
       </c>
-    </row>
-    <row r="293" spans="2:17" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="S292" s="2">
+        <v>4</v>
+      </c>
+      <c r="T292" s="14">
+        <f t="shared" si="4"/>
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="293" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B293" s="2">
         <v>290</v>
       </c>
@@ -15932,10 +17774,10 @@
         <v>2</v>
       </c>
       <c r="I293" s="2">
-        <v>459</v>
+        <v>304</v>
       </c>
       <c r="J293" s="2">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="K293" s="2">
         <v>9500</v>
@@ -15958,8 +17800,15 @@
       <c r="Q293" s="2">
         <v>70</v>
       </c>
-    </row>
-    <row r="294" spans="2:17" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="S293" s="2">
+        <v>4</v>
+      </c>
+      <c r="T293" s="14">
+        <f t="shared" si="4"/>
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="294" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B294" s="2">
         <v>291</v>
       </c>
@@ -15976,10 +17825,10 @@
         <v>2</v>
       </c>
       <c r="I294" s="2">
-        <v>580</v>
+        <v>352</v>
       </c>
       <c r="J294" s="2">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="K294" s="2">
         <v>9500</v>
@@ -16002,8 +17851,15 @@
       <c r="Q294" s="2">
         <v>70</v>
       </c>
-    </row>
-    <row r="295" spans="2:17" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="S294" s="2">
+        <v>4</v>
+      </c>
+      <c r="T294" s="14">
+        <f t="shared" si="4"/>
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="295" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B295" s="2">
         <v>292</v>
       </c>
@@ -16020,7 +17876,7 @@
         <v>3</v>
       </c>
       <c r="I295" s="2">
-        <v>1110</v>
+        <v>925</v>
       </c>
       <c r="J295" s="2">
         <v>90</v>
@@ -16046,8 +17902,15 @@
       <c r="Q295" s="2">
         <v>70</v>
       </c>
-    </row>
-    <row r="296" spans="2:17" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="S295" s="2">
+        <v>5</v>
+      </c>
+      <c r="T295" s="14">
+        <f t="shared" si="4"/>
+        <v>4625</v>
+      </c>
+    </row>
+    <row r="296" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B296" s="2">
         <v>293</v>
       </c>
@@ -16064,10 +17927,10 @@
         <v>3</v>
       </c>
       <c r="I296" s="2">
-        <v>1386</v>
+        <v>925</v>
       </c>
       <c r="J296" s="2">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="K296" s="2">
         <v>10000</v>
@@ -16090,8 +17953,15 @@
       <c r="Q296" s="2">
         <v>70</v>
       </c>
-    </row>
-    <row r="297" spans="2:17" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="S296" s="2">
+        <v>5</v>
+      </c>
+      <c r="T296" s="14">
+        <f t="shared" si="4"/>
+        <v>4625</v>
+      </c>
+    </row>
+    <row r="297" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B297" s="2">
         <v>294</v>
       </c>
@@ -16108,10 +17978,10 @@
         <v>3</v>
       </c>
       <c r="I297" s="2">
-        <v>1734</v>
+        <v>1155</v>
       </c>
       <c r="J297" s="2">
-        <v>161</v>
+        <v>129</v>
       </c>
       <c r="K297" s="2">
         <v>10000</v>
@@ -16134,8 +18004,15 @@
       <c r="Q297" s="2">
         <v>70</v>
       </c>
-    </row>
-    <row r="298" spans="2:17" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="S297" s="2">
+        <v>5</v>
+      </c>
+      <c r="T297" s="14">
+        <f t="shared" si="4"/>
+        <v>5775</v>
+      </c>
+    </row>
+    <row r="298" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B298" s="2">
         <v>295</v>
       </c>
@@ -16152,10 +18029,10 @@
         <v>3</v>
       </c>
       <c r="I298" s="2">
-        <v>2082</v>
+        <v>1155</v>
       </c>
       <c r="J298" s="2">
-        <v>193</v>
+        <v>129</v>
       </c>
       <c r="K298" s="2">
         <v>10000</v>
@@ -16178,8 +18055,15 @@
       <c r="Q298" s="2">
         <v>70</v>
       </c>
-    </row>
-    <row r="299" spans="2:17" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="S298" s="2">
+        <v>5</v>
+      </c>
+      <c r="T298" s="14">
+        <f t="shared" si="4"/>
+        <v>5775</v>
+      </c>
+    </row>
+    <row r="299" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B299" s="2">
         <v>296</v>
       </c>
@@ -16196,10 +18080,10 @@
         <v>3</v>
       </c>
       <c r="I299" s="2">
-        <v>2424</v>
+        <v>1445</v>
       </c>
       <c r="J299" s="2">
-        <v>225</v>
+        <v>161</v>
       </c>
       <c r="K299" s="2">
         <v>10000</v>
@@ -16222,8 +18106,15 @@
       <c r="Q299" s="2">
         <v>70</v>
       </c>
-    </row>
-    <row r="300" spans="2:17" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="S299" s="2">
+        <v>5</v>
+      </c>
+      <c r="T299" s="14">
+        <f t="shared" si="4"/>
+        <v>7225</v>
+      </c>
+    </row>
+    <row r="300" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B300" s="2">
         <v>297</v>
       </c>
@@ -16240,10 +18131,10 @@
         <v>3</v>
       </c>
       <c r="I300" s="2">
-        <v>3234</v>
+        <v>1735</v>
       </c>
       <c r="J300" s="2">
-        <v>300</v>
+        <v>225</v>
       </c>
       <c r="K300" s="2">
         <v>10000</v>
@@ -16266,8 +18157,15 @@
       <c r="Q300" s="2">
         <v>70</v>
       </c>
-    </row>
-    <row r="301" spans="2:17" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="S300" s="2">
+        <v>5</v>
+      </c>
+      <c r="T300" s="14">
+        <f t="shared" si="4"/>
+        <v>8675</v>
+      </c>
+    </row>
+    <row r="301" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B301" s="2">
         <v>298</v>
       </c>
@@ -16284,7 +18182,7 @@
         <v>3</v>
       </c>
       <c r="I301" s="2">
-        <v>3696</v>
+        <v>2772</v>
       </c>
       <c r="J301" s="2">
         <v>225</v>
@@ -16310,8 +18208,15 @@
       <c r="Q301" s="2">
         <v>70</v>
       </c>
-    </row>
-    <row r="302" spans="2:17" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="S301" s="2">
+        <v>6</v>
+      </c>
+      <c r="T301" s="14">
+        <f t="shared" si="4"/>
+        <v>16632</v>
+      </c>
+    </row>
+    <row r="302" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B302" s="2">
         <v>299</v>
       </c>
@@ -16328,7 +18233,7 @@
         <v>3</v>
       </c>
       <c r="I302" s="2">
-        <v>4160</v>
+        <v>3120</v>
       </c>
       <c r="J302" s="2">
         <v>253</v>
@@ -16354,8 +18259,15 @@
       <c r="Q302" s="2">
         <v>70</v>
       </c>
-    </row>
-    <row r="303" spans="2:17" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="S302" s="2">
+        <v>6</v>
+      </c>
+      <c r="T302" s="14">
+        <f t="shared" si="4"/>
+        <v>18720</v>
+      </c>
+    </row>
+    <row r="303" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B303" s="2">
         <v>300</v>
       </c>
@@ -16372,7 +18284,7 @@
         <v>3</v>
       </c>
       <c r="I303" s="2">
-        <v>4624</v>
+        <v>3468</v>
       </c>
       <c r="J303" s="2">
         <v>321</v>
@@ -16398,8 +18310,15 @@
       <c r="Q303" s="2">
         <v>70</v>
       </c>
-    </row>
-    <row r="304" spans="2:17" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="S303" s="2">
+        <v>6</v>
+      </c>
+      <c r="T303" s="14">
+        <f t="shared" si="4"/>
+        <v>20808</v>
+      </c>
+    </row>
+    <row r="304" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B304" s="2">
         <v>301</v>
       </c>
@@ -16416,7 +18335,7 @@
         <v>3</v>
       </c>
       <c r="I304" s="2">
-        <v>5544</v>
+        <v>4158</v>
       </c>
       <c r="J304" s="2">
         <v>386</v>
@@ -16442,8 +18361,15 @@
       <c r="Q304" s="2">
         <v>70</v>
       </c>
-    </row>
-    <row r="305" spans="2:17" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="S304" s="2">
+        <v>6</v>
+      </c>
+      <c r="T304" s="14">
+        <f t="shared" si="4"/>
+        <v>24948</v>
+      </c>
+    </row>
+    <row r="305" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B305" s="2">
         <v>302</v>
       </c>
@@ -16460,7 +18386,7 @@
         <v>3</v>
       </c>
       <c r="I305" s="2">
-        <v>6008</v>
+        <v>4506</v>
       </c>
       <c r="J305" s="2">
         <v>418</v>
@@ -16486,8 +18412,15 @@
       <c r="Q305" s="2">
         <v>70</v>
       </c>
-    </row>
-    <row r="306" spans="2:17" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="S305" s="2">
+        <v>6</v>
+      </c>
+      <c r="T305" s="14">
+        <f t="shared" si="4"/>
+        <v>27036</v>
+      </c>
+    </row>
+    <row r="306" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B306" s="2">
         <v>303</v>
       </c>
@@ -16504,7 +18437,7 @@
         <v>3</v>
       </c>
       <c r="I306" s="2">
-        <v>6472</v>
+        <v>4854</v>
       </c>
       <c r="J306" s="2">
         <v>450</v>
@@ -16530,8 +18463,15 @@
       <c r="Q306" s="2">
         <v>70</v>
       </c>
-    </row>
-    <row r="307" spans="2:17" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="S306" s="2">
+        <v>6</v>
+      </c>
+      <c r="T306" s="14">
+        <f t="shared" si="4"/>
+        <v>29124</v>
+      </c>
+    </row>
+    <row r="307" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B307" s="2">
         <v>304</v>
       </c>
@@ -16548,7 +18488,7 @@
         <v>3</v>
       </c>
       <c r="I307" s="2">
-        <v>6928</v>
+        <v>5196</v>
       </c>
       <c r="J307" s="2">
         <v>563</v>
@@ -16573,6 +18513,13 @@
       </c>
       <c r="Q307" s="2">
         <v>70</v>
+      </c>
+      <c r="S307" s="2">
+        <v>6</v>
+      </c>
+      <c r="T307" s="14">
+        <f t="shared" si="4"/>
+        <v>31176</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelConfig/怪物表.xlsx
+++ b/ExcelConfig/怪物表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="75" yWindow="-90" windowWidth="6300" windowHeight="8895" activeTab="1"/>
@@ -10,7 +10,7 @@
     <sheet name="__Base" sheetId="2" r:id="rId1"/>
     <sheet name="MonsterConfig" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -20,7 +20,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="N3" authorId="0">
+    <comment ref="N3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="907" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="907" uniqueCount="174">
   <si>
     <t>ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1856,6 +1856,30 @@
     <t>嬉闹亲卫</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>js_baigujing</t>
+  </si>
+  <si>
+    <t>js_honghaier</t>
+  </si>
+  <si>
+    <t>js_jinjiao</t>
+  </si>
+  <si>
+    <t>js_huangfengguai</t>
+  </si>
+  <si>
+    <t>js_yinjiao</t>
+  </si>
+  <si>
+    <t>js_tianpengzhu</t>
+  </si>
+  <si>
+    <t>js_huangpaoguai</t>
+  </si>
+  <si>
+    <t>js_xiaohou</t>
+  </si>
 </sst>
 </file>
 
@@ -2047,7 +2071,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2089,7 +2113,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2124,7 +2148,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2373,10 +2397,10 @@
   <dimension ref="A1:T307"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="I285" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C232" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="J275" sqref="J275:J307"/>
+      <selection pane="bottomRight" activeCell="V250" sqref="V250"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7912,7 +7936,7 @@
         <v>82</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>39</v>
+        <v>166</v>
       </c>
       <c r="G103" s="3">
         <v>3</v>
@@ -15688,7 +15712,7 @@
         <v>80</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>39</v>
+        <v>167</v>
       </c>
       <c r="G247" s="3">
         <v>1</v>
@@ -15739,7 +15763,7 @@
         <v>93</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>39</v>
+        <v>173</v>
       </c>
       <c r="G248" s="3">
         <v>2</v>
@@ -15780,7 +15804,7 @@
         <v>93</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>39</v>
+        <v>173</v>
       </c>
       <c r="G249" s="3">
         <v>2</v>
@@ -15821,7 +15845,7 @@
         <v>93</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>39</v>
+        <v>173</v>
       </c>
       <c r="G250" s="3">
         <v>2</v>
@@ -15862,7 +15886,7 @@
         <v>94</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>39</v>
+        <v>166</v>
       </c>
       <c r="G251" s="3">
         <v>3</v>
@@ -15903,7 +15927,7 @@
         <v>94</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>39</v>
+        <v>166</v>
       </c>
       <c r="G252" s="3">
         <v>3</v>
@@ -15944,7 +15968,7 @@
         <v>94</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>39</v>
+        <v>166</v>
       </c>
       <c r="G253" s="3">
         <v>3</v>
@@ -15985,7 +16009,7 @@
         <v>95</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>39</v>
+        <v>172</v>
       </c>
       <c r="G254" s="3">
         <v>2</v>
@@ -16026,7 +16050,7 @@
         <v>95</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>39</v>
+        <v>172</v>
       </c>
       <c r="G255" s="3">
         <v>2</v>
@@ -16067,7 +16091,7 @@
         <v>95</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>39</v>
+        <v>172</v>
       </c>
       <c r="G256" s="3">
         <v>2</v>
@@ -16108,7 +16132,7 @@
         <v>96</v>
       </c>
       <c r="D257" s="2" t="s">
-        <v>39</v>
+        <v>169</v>
       </c>
       <c r="G257" s="3">
         <v>2</v>
@@ -16149,7 +16173,7 @@
         <v>96</v>
       </c>
       <c r="D258" s="2" t="s">
-        <v>39</v>
+        <v>169</v>
       </c>
       <c r="G258" s="3">
         <v>2</v>
@@ -16190,7 +16214,7 @@
         <v>96</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>39</v>
+        <v>169</v>
       </c>
       <c r="G259" s="3">
         <v>2</v>
@@ -16231,7 +16255,7 @@
         <v>97</v>
       </c>
       <c r="D260" s="2" t="s">
-        <v>39</v>
+        <v>168</v>
       </c>
       <c r="G260" s="3">
         <v>2</v>
@@ -16272,7 +16296,7 @@
         <v>97</v>
       </c>
       <c r="D261" s="2" t="s">
-        <v>39</v>
+        <v>168</v>
       </c>
       <c r="G261" s="3">
         <v>2</v>
@@ -16313,7 +16337,7 @@
         <v>97</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>39</v>
+        <v>168</v>
       </c>
       <c r="G262" s="3">
         <v>2</v>
@@ -16354,7 +16378,7 @@
         <v>98</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>39</v>
+        <v>170</v>
       </c>
       <c r="G263" s="3">
         <v>2</v>
@@ -16395,7 +16419,7 @@
         <v>98</v>
       </c>
       <c r="D264" s="2" t="s">
-        <v>39</v>
+        <v>170</v>
       </c>
       <c r="G264" s="3">
         <v>2</v>
@@ -16436,7 +16460,7 @@
         <v>98</v>
       </c>
       <c r="D265" s="2" t="s">
-        <v>39</v>
+        <v>170</v>
       </c>
       <c r="G265" s="3">
         <v>2</v>
@@ -16600,7 +16624,7 @@
         <v>100</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>39</v>
+        <v>167</v>
       </c>
       <c r="G269" s="3">
         <v>1</v>
@@ -16641,7 +16665,7 @@
         <v>100</v>
       </c>
       <c r="D270" s="2" t="s">
-        <v>39</v>
+        <v>167</v>
       </c>
       <c r="G270" s="3">
         <v>1</v>
@@ -16682,7 +16706,7 @@
         <v>100</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>39</v>
+        <v>167</v>
       </c>
       <c r="G271" s="3">
         <v>1</v>
@@ -16723,7 +16747,7 @@
         <v>101</v>
       </c>
       <c r="D272" s="2" t="s">
-        <v>39</v>
+        <v>171</v>
       </c>
       <c r="G272" s="3">
         <v>1</v>
@@ -16764,7 +16788,7 @@
         <v>101</v>
       </c>
       <c r="D273" s="2" t="s">
-        <v>39</v>
+        <v>171</v>
       </c>
       <c r="G273" s="3">
         <v>1</v>
@@ -16805,7 +16829,7 @@
         <v>101</v>
       </c>
       <c r="D274" s="2" t="s">
-        <v>39</v>
+        <v>171</v>
       </c>
       <c r="G274" s="3">
         <v>1</v>

--- a/ExcelConfig/怪物表.xlsx
+++ b/ExcelConfig/怪物表.xlsx
@@ -1,16 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="26101"/>
+  <workbookPr filterPrivacy="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiexiongping/Documents/github/workdir/ExcelConfig/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="75" yWindow="-90" windowWidth="6300" windowHeight="8895" activeTab="1"/>
+    <workbookView xWindow="3860" yWindow="460" windowWidth="19920" windowHeight="12900" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="__Base" sheetId="2" r:id="rId1"/>
     <sheet name="MonsterConfig" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -20,7 +30,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="N3" authorId="0" shapeId="0">
+    <comment ref="N3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -51,30 +61,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="907" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="907" uniqueCount="179">
   <si>
     <t>ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>编号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>类型</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>备注</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>名称</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Int</t>
@@ -84,137 +94,137 @@
   </si>
   <si>
     <t>MonsterConfig</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>MonsterConfig</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>MonsterConfig.json</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>怪物表</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Float</t>
   </si>
   <si>
     <t>资源名称</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>NPC描述</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>兵种类型</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>生命</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>攻击</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>命中率</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>闪避率</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>速度</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>克制关系暴击</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>暴击倍率</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>技能ID</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>掉落方案ID</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>ResName</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Description</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Type</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Hp</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Damage</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Hit</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Dodge</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Speed</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>CrtPro</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Mult</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>SkillID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>DropID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Star</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>兵星</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>js_jiuweihu</t>
   </si>
   <si>
     <t>Level</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>等级</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -236,7 +246,7 @@
       </rPr>
       <t>1</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -264,7 +274,6 @@
         <color theme="1"/>
         <rFont val="宋体"/>
         <family val="2"/>
-        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t/>
@@ -296,7 +305,6 @@
         <color theme="1"/>
         <rFont val="宋体"/>
         <family val="2"/>
-        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t/>
@@ -328,7 +336,6 @@
         <color theme="1"/>
         <rFont val="宋体"/>
         <family val="2"/>
-        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t/>
@@ -354,7 +361,7 @@
       </rPr>
       <t>1</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -382,7 +389,6 @@
         <color theme="1"/>
         <rFont val="宋体"/>
         <family val="2"/>
-        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t/>
@@ -414,7 +420,6 @@
         <color theme="1"/>
         <rFont val="宋体"/>
         <family val="2"/>
-        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t/>
@@ -446,7 +451,6 @@
         <color theme="1"/>
         <rFont val="宋体"/>
         <family val="2"/>
-        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t/>
@@ -472,7 +476,7 @@
       </rPr>
       <t>1</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -500,7 +504,6 @@
         <color theme="1"/>
         <rFont val="宋体"/>
         <family val="2"/>
-        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t/>
@@ -532,7 +535,6 @@
         <color theme="1"/>
         <rFont val="宋体"/>
         <family val="2"/>
-        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t/>
@@ -564,7 +566,6 @@
         <color theme="1"/>
         <rFont val="宋体"/>
         <family val="2"/>
-        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t/>
@@ -596,7 +597,6 @@
         <color theme="1"/>
         <rFont val="宋体"/>
         <family val="2"/>
-        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t/>
@@ -622,7 +622,7 @@
       </rPr>
       <t>1</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -650,7 +650,6 @@
         <color theme="1"/>
         <rFont val="宋体"/>
         <family val="2"/>
-        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t/>
@@ -682,7 +681,6 @@
         <color theme="1"/>
         <rFont val="宋体"/>
         <family val="2"/>
-        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t/>
@@ -714,7 +712,6 @@
         <color theme="1"/>
         <rFont val="宋体"/>
         <family val="2"/>
-        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t/>
@@ -746,7 +743,6 @@
         <color theme="1"/>
         <rFont val="宋体"/>
         <family val="2"/>
-        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t/>
@@ -778,7 +774,6 @@
         <color theme="1"/>
         <rFont val="宋体"/>
         <family val="2"/>
-        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t/>
@@ -810,7 +805,6 @@
         <color theme="1"/>
         <rFont val="宋体"/>
         <family val="2"/>
-        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t/>
@@ -842,7 +836,6 @@
         <color theme="1"/>
         <rFont val="宋体"/>
         <family val="2"/>
-        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t/>
@@ -868,7 +861,7 @@
       </rPr>
       <t>1</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -896,7 +889,6 @@
         <color theme="1"/>
         <rFont val="宋体"/>
         <family val="2"/>
-        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t/>
@@ -928,7 +920,6 @@
         <color theme="1"/>
         <rFont val="宋体"/>
         <family val="2"/>
-        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t/>
@@ -960,7 +951,6 @@
         <color theme="1"/>
         <rFont val="宋体"/>
         <family val="2"/>
-        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t/>
@@ -992,7 +982,6 @@
         <color theme="1"/>
         <rFont val="宋体"/>
         <family val="2"/>
-        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t/>
@@ -1024,7 +1013,6 @@
         <color theme="1"/>
         <rFont val="宋体"/>
         <family val="2"/>
-        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t/>
@@ -1056,7 +1044,6 @@
         <color theme="1"/>
         <rFont val="宋体"/>
         <family val="2"/>
-        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t/>
@@ -1082,7 +1069,7 @@
       </rPr>
       <t>1</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1110,7 +1097,6 @@
         <color theme="1"/>
         <rFont val="宋体"/>
         <family val="2"/>
-        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t/>
@@ -1142,7 +1128,6 @@
         <color theme="1"/>
         <rFont val="宋体"/>
         <family val="2"/>
-        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t/>
@@ -1174,7 +1159,6 @@
         <color theme="1"/>
         <rFont val="宋体"/>
         <family val="2"/>
-        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t/>
@@ -1206,7 +1190,6 @@
         <color theme="1"/>
         <rFont val="宋体"/>
         <family val="2"/>
-        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t/>
@@ -1238,7 +1221,6 @@
         <color theme="1"/>
         <rFont val="宋体"/>
         <family val="2"/>
-        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t/>
@@ -1270,7 +1252,6 @@
         <color theme="1"/>
         <rFont val="宋体"/>
         <family val="2"/>
-        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t/>
@@ -1302,7 +1283,6 @@
         <color theme="1"/>
         <rFont val="宋体"/>
         <family val="2"/>
-        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t/>
@@ -1334,7 +1314,6 @@
         <color theme="1"/>
         <rFont val="宋体"/>
         <family val="2"/>
-        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t/>
@@ -1366,7 +1345,6 @@
         <color theme="1"/>
         <rFont val="宋体"/>
         <family val="2"/>
-        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t/>
@@ -1374,31 +1352,31 @@
   </si>
   <si>
     <t>红孩儿</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>黄袍怪</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>白骨精</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>黄风怪</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>金角</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>银角</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>莲花洞9</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1430,7 +1408,7 @@
       </rPr>
       <t>随机</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1462,7 +1440,7 @@
       </rPr>
       <t>随机</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1494,7 +1472,7 @@
       </rPr>
       <t>随机</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1526,7 +1504,7 @@
       </rPr>
       <t>随机</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1558,7 +1536,7 @@
       </rPr>
       <t>随机</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1590,50 +1568,50 @@
       </rPr>
       <t>随机</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>混世小妖</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>白骨精</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>黄袍怪</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>黄风怪</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>金角</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>银角</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>九尾狐</t>
   </si>
   <si>
     <t>红孩儿</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>八戒元神</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>八戒残魂</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>云栈洞jjc1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>云栈洞jjc2</t>
@@ -1649,7 +1627,7 @@
   </si>
   <si>
     <t>黄风岭jjc1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>黄风岭jjc2</t>
@@ -1665,7 +1643,7 @@
   </si>
   <si>
     <t>白骨洞jjc1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>白骨洞jjc2</t>
@@ -1681,7 +1659,7 @@
   </si>
   <si>
     <t>波月洞jjc1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>波月洞jjc2</t>
@@ -1697,7 +1675,7 @@
   </si>
   <si>
     <t>莲花洞jjc1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>莲花洞jjc2</t>
@@ -1716,7 +1694,7 @@
   </si>
   <si>
     <t>火云洞jjc1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>火云洞jjc2</t>
@@ -1738,123 +1716,123 @@
   </si>
   <si>
     <t>洞口小妖</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>花痴</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>杂役</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>守备猪妖</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>尖耳鼠</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>饕餮鼠</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>鼠妖军备</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>拓耳鼠</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>魅惑女子</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>奸佞老者</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>蒙眼老妪</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>复生亡女</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>诈死老翁</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>狼牙</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>持械狼妖</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>洞穴守备</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>护宝狼妖</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>械斗狼妖</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>黄袍精英</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>独角小妖</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>赤角小妖</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>洞穴卫兵</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>独角蛮兵</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>亲卫</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>赤脚幼童</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>肚兜娃</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>乳牙卫兵</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>小角童儿</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>哭闹小童</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>嬉闹亲卫</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>js_baigujing</t>
@@ -1880,25 +1858,33 @@
   <si>
     <t>js_xiaohou</t>
   </si>
+  <si>
+    <t>js_xiaozhu</t>
+  </si>
+  <si>
+    <t>js_shuyao</t>
+  </si>
+  <si>
+    <t>js_langyao</t>
+  </si>
+  <si>
+    <t>js_huangfengguai</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>js_laozhu</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2031,28 +2017,28 @@
   </cellStyleXfs>
   <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2363,16 +2349,16 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16" style="1" customWidth="1"/>
     <col min="2" max="2" width="16.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="24.5" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -2387,7 +2373,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2396,31 +2382,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T307"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C232" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="V250" sqref="V250"/>
+      <selection pane="bottomRight" activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.83203125" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" style="2" customWidth="1"/>
-    <col min="4" max="4" width="15.375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="7.625" style="2" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="10.75" style="2" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="27.83203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="7.6640625" style="2" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" style="2" hidden="1" customWidth="1"/>
     <col min="7" max="10" width="9" style="2" customWidth="1"/>
     <col min="11" max="13" width="9" style="2" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="13.25" style="2" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="13.1640625" style="2" hidden="1" customWidth="1"/>
     <col min="15" max="15" width="9" style="2" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="10.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="18" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -2473,7 +2459,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -2526,7 +2512,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -2579,7 +2565,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>42</v>
       </c>
@@ -2590,7 +2576,7 @@
         <v>136</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>39</v>
+        <v>175</v>
       </c>
       <c r="G4" s="3">
         <v>2</v>
@@ -2633,7 +2619,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>42</v>
       </c>
@@ -2644,7 +2630,7 @@
         <v>136</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>39</v>
+        <v>175</v>
       </c>
       <c r="G5" s="3">
         <v>2</v>
@@ -2687,7 +2673,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>42</v>
       </c>
@@ -2698,7 +2684,7 @@
         <v>136</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>39</v>
+        <v>175</v>
       </c>
       <c r="G6" s="3">
         <v>2</v>
@@ -2741,7 +2727,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>42</v>
       </c>
@@ -2752,7 +2738,7 @@
         <v>136</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>39</v>
+        <v>175</v>
       </c>
       <c r="G7" s="3">
         <v>2</v>
@@ -2795,7 +2781,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
         <v>42</v>
       </c>
@@ -2806,7 +2792,7 @@
         <v>136</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>39</v>
+        <v>175</v>
       </c>
       <c r="G8" s="3">
         <v>2</v>
@@ -2849,7 +2835,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>43</v>
       </c>
@@ -2860,7 +2846,7 @@
         <v>137</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>39</v>
+        <v>178</v>
       </c>
       <c r="G9" s="3">
         <v>2</v>
@@ -2903,7 +2889,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>43</v>
       </c>
@@ -2914,7 +2900,7 @@
         <v>137</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>39</v>
+        <v>178</v>
       </c>
       <c r="G10" s="3">
         <v>2</v>
@@ -2957,7 +2943,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>43</v>
       </c>
@@ -2968,7 +2954,7 @@
         <v>137</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>39</v>
+        <v>178</v>
       </c>
       <c r="G11" s="3">
         <v>2</v>
@@ -3011,7 +2997,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>43</v>
       </c>
@@ -3022,7 +3008,7 @@
         <v>137</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>39</v>
+        <v>178</v>
       </c>
       <c r="G12" s="3">
         <v>2</v>
@@ -3065,7 +3051,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>43</v>
       </c>
@@ -3076,7 +3062,7 @@
         <v>137</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>39</v>
+        <v>178</v>
       </c>
       <c r="G13" s="3">
         <v>2</v>
@@ -3119,7 +3105,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>43</v>
       </c>
@@ -3130,7 +3116,7 @@
         <v>137</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>39</v>
+        <v>178</v>
       </c>
       <c r="G14" s="3">
         <v>2</v>
@@ -3173,7 +3159,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
         <v>43</v>
       </c>
@@ -3184,7 +3170,7 @@
         <v>137</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>39</v>
+        <v>178</v>
       </c>
       <c r="G15" s="3">
         <v>2</v>
@@ -3227,7 +3213,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>44</v>
       </c>
@@ -3238,7 +3224,7 @@
         <v>138</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>39</v>
+        <v>176</v>
       </c>
       <c r="G16" s="3">
         <v>2</v>
@@ -3281,7 +3267,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>44</v>
       </c>
@@ -3292,7 +3278,7 @@
         <v>138</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>39</v>
+        <v>176</v>
       </c>
       <c r="G17" s="3">
         <v>2</v>
@@ -3335,7 +3321,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>44</v>
       </c>
@@ -3346,7 +3332,7 @@
         <v>138</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>39</v>
+        <v>176</v>
       </c>
       <c r="G18" s="3">
         <v>2</v>
@@ -3389,7 +3375,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>44</v>
       </c>
@@ -3400,7 +3386,7 @@
         <v>138</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>39</v>
+        <v>176</v>
       </c>
       <c r="G19" s="3">
         <v>2</v>
@@ -3443,7 +3429,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>44</v>
       </c>
@@ -3454,7 +3440,7 @@
         <v>138</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>39</v>
+        <v>176</v>
       </c>
       <c r="G20" s="3">
         <v>2</v>
@@ -3497,7 +3483,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>44</v>
       </c>
@@ -3508,7 +3494,7 @@
         <v>138</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>39</v>
+        <v>176</v>
       </c>
       <c r="G21" s="3">
         <v>2</v>
@@ -3551,7 +3537,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>44</v>
       </c>
@@ -3562,7 +3548,7 @@
         <v>138</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>39</v>
+        <v>176</v>
       </c>
       <c r="G22" s="3">
         <v>2</v>
@@ -3605,7 +3591,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>44</v>
       </c>
@@ -3616,7 +3602,7 @@
         <v>138</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>39</v>
+        <v>176</v>
       </c>
       <c r="G23" s="3">
         <v>2</v>
@@ -3659,7 +3645,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>44</v>
       </c>
@@ -3670,7 +3656,7 @@
         <v>138</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>39</v>
+        <v>176</v>
       </c>
       <c r="G24" s="3">
         <v>2</v>
@@ -3713,7 +3699,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>44</v>
       </c>
@@ -3724,7 +3710,7 @@
         <v>138</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>39</v>
+        <v>176</v>
       </c>
       <c r="G25" s="3">
         <v>2</v>
@@ -3767,7 +3753,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>44</v>
       </c>
@@ -3778,7 +3764,7 @@
         <v>138</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>39</v>
+        <v>176</v>
       </c>
       <c r="G26" s="3">
         <v>2</v>
@@ -3821,7 +3807,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="11" t="s">
         <v>44</v>
       </c>
@@ -3832,7 +3818,7 @@
         <v>138</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>39</v>
+        <v>176</v>
       </c>
       <c r="G27" s="3">
         <v>2</v>
@@ -3875,7 +3861,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>87</v>
       </c>
@@ -3886,7 +3872,7 @@
         <v>139</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>39</v>
+        <v>174</v>
       </c>
       <c r="G28" s="3">
         <v>2</v>
@@ -3929,7 +3915,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>87</v>
       </c>
@@ -3940,7 +3926,7 @@
         <v>139</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>39</v>
+        <v>174</v>
       </c>
       <c r="G29" s="3">
         <v>2</v>
@@ -3983,7 +3969,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>87</v>
       </c>
@@ -3994,7 +3980,7 @@
         <v>139</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>39</v>
+        <v>174</v>
       </c>
       <c r="G30" s="3">
         <v>2</v>
@@ -4037,7 +4023,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>87</v>
       </c>
@@ -4048,7 +4034,7 @@
         <v>139</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>39</v>
+        <v>174</v>
       </c>
       <c r="G31" s="3">
         <v>2</v>
@@ -4091,7 +4077,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="11" t="s">
         <v>87</v>
       </c>
@@ -4102,7 +4088,7 @@
         <v>139</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>39</v>
+        <v>174</v>
       </c>
       <c r="G32" s="3">
         <v>2</v>
@@ -4145,7 +4131,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="11" t="s">
         <v>45</v>
       </c>
@@ -4156,7 +4142,7 @@
         <v>102</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>39</v>
+        <v>171</v>
       </c>
       <c r="G33" s="3">
         <v>1</v>
@@ -4199,7 +4185,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>46</v>
       </c>
@@ -4210,7 +4196,7 @@
         <v>140</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>39</v>
+        <v>177</v>
       </c>
       <c r="G34" s="3">
         <v>2</v>
@@ -4253,7 +4239,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="35" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>46</v>
       </c>
@@ -4264,7 +4250,7 @@
         <v>140</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>39</v>
+        <v>177</v>
       </c>
       <c r="G35" s="3">
         <v>2</v>
@@ -4307,7 +4293,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="36" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>46</v>
       </c>
@@ -4318,7 +4304,7 @@
         <v>140</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>39</v>
+        <v>177</v>
       </c>
       <c r="G36" s="3">
         <v>2</v>
@@ -4361,7 +4347,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="37" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>46</v>
       </c>
@@ -4372,7 +4358,7 @@
         <v>140</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>39</v>
+        <v>177</v>
       </c>
       <c r="G37" s="3">
         <v>2</v>
@@ -4415,7 +4401,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="38" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>46</v>
       </c>
@@ -4426,7 +4412,7 @@
         <v>140</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>39</v>
+        <v>177</v>
       </c>
       <c r="G38" s="3">
         <v>2</v>
@@ -4469,7 +4455,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="39" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>46</v>
       </c>
@@ -4480,7 +4466,7 @@
         <v>140</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>39</v>
+        <v>177</v>
       </c>
       <c r="G39" s="3">
         <v>2</v>
@@ -4523,7 +4509,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="40" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>46</v>
       </c>
@@ -4534,7 +4520,7 @@
         <v>140</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>39</v>
+        <v>177</v>
       </c>
       <c r="G40" s="3">
         <v>2</v>
@@ -4577,7 +4563,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="41" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>46</v>
       </c>
@@ -4588,7 +4574,7 @@
         <v>140</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>39</v>
+        <v>177</v>
       </c>
       <c r="G41" s="3">
         <v>2</v>
@@ -4631,7 +4617,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="42" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>46</v>
       </c>
@@ -4642,7 +4628,7 @@
         <v>140</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>39</v>
+        <v>177</v>
       </c>
       <c r="G42" s="3">
         <v>2</v>
@@ -4685,7 +4671,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="43" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="11" t="s">
         <v>46</v>
       </c>
@@ -4696,7 +4682,7 @@
         <v>140</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>39</v>
+        <v>177</v>
       </c>
       <c r="G43" s="3">
         <v>2</v>
@@ -4739,7 +4725,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="44" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>47</v>
       </c>
@@ -4793,7 +4779,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="45" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>47</v>
       </c>
@@ -4847,7 +4833,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="46" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>47</v>
       </c>
@@ -4901,7 +4887,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="47" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>47</v>
       </c>
@@ -4955,7 +4941,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="48" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>47</v>
       </c>
@@ -5009,7 +4995,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="49" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>47</v>
       </c>
@@ -5063,7 +5049,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="50" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>47</v>
       </c>
@@ -5117,7 +5103,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="51" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>47</v>
       </c>
@@ -5171,7 +5157,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="52" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>47</v>
       </c>
@@ -5225,7 +5211,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="53" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A53" s="11" t="s">
         <v>47</v>
       </c>
@@ -5279,7 +5265,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>48</v>
       </c>
@@ -5333,7 +5319,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="55" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>48</v>
       </c>
@@ -5387,7 +5373,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="56" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>48</v>
       </c>
@@ -5441,7 +5427,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="57" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>48</v>
       </c>
@@ -5495,7 +5481,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="58" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>48</v>
       </c>
@@ -5549,7 +5535,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="59" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>48</v>
       </c>
@@ -5603,7 +5589,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="60" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="11" t="s">
         <v>48</v>
       </c>
@@ -5657,7 +5643,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="61" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>88</v>
       </c>
@@ -5711,7 +5697,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="62" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>88</v>
       </c>
@@ -5765,7 +5751,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="63" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>88</v>
       </c>
@@ -5819,7 +5805,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="64" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>88</v>
       </c>
@@ -5873,7 +5859,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="65" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="11" t="s">
         <v>88</v>
       </c>
@@ -5927,7 +5913,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="66" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="11" t="s">
         <v>49</v>
       </c>
@@ -5981,7 +5967,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="67" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>50</v>
       </c>
@@ -6035,7 +6021,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="68" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>50</v>
       </c>
@@ -6089,7 +6075,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="69" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>50</v>
       </c>
@@ -6143,7 +6129,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="70" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>50</v>
       </c>
@@ -6197,7 +6183,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="71" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>50</v>
       </c>
@@ -6251,7 +6237,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="72" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>50</v>
       </c>
@@ -6305,7 +6291,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="73" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>50</v>
       </c>
@@ -6359,7 +6345,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="74" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="11" t="s">
         <v>50</v>
       </c>
@@ -6413,7 +6399,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="75" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>51</v>
       </c>
@@ -6467,7 +6453,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="76" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>51</v>
       </c>
@@ -6521,7 +6507,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="77" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>51</v>
       </c>
@@ -6575,7 +6561,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="78" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>51</v>
       </c>
@@ -6629,7 +6615,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="79" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>51</v>
       </c>
@@ -6683,7 +6669,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="80" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>51</v>
       </c>
@@ -6737,7 +6723,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="81" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
         <v>51</v>
       </c>
@@ -6791,7 +6777,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="82" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A82" s="11" t="s">
         <v>51</v>
       </c>
@@ -6845,7 +6831,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="83" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
         <v>52</v>
       </c>
@@ -6899,7 +6885,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="84" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
         <v>52</v>
       </c>
@@ -6953,7 +6939,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="85" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
         <v>52</v>
       </c>
@@ -7007,7 +6993,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="86" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
         <v>52</v>
       </c>
@@ -7061,7 +7047,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="87" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
         <v>52</v>
       </c>
@@ -7115,7 +7101,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="88" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A88" s="11" t="s">
         <v>52</v>
       </c>
@@ -7169,7 +7155,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="89" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
         <v>53</v>
       </c>
@@ -7223,7 +7209,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="90" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
         <v>53</v>
       </c>
@@ -7277,7 +7263,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="91" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
         <v>53</v>
       </c>
@@ -7331,7 +7317,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="92" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
         <v>53</v>
       </c>
@@ -7385,7 +7371,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="93" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
         <v>53</v>
       </c>
@@ -7439,7 +7425,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="94" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
         <v>53</v>
       </c>
@@ -7493,7 +7479,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="95" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
         <v>53</v>
       </c>
@@ -7547,7 +7533,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="96" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" s="11" t="s">
         <v>53</v>
       </c>
@@ -7601,7 +7587,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="97" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
         <v>89</v>
       </c>
@@ -7655,7 +7641,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="98" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
         <v>89</v>
       </c>
@@ -7709,7 +7695,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="99" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
         <v>89</v>
       </c>
@@ -7763,7 +7749,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="100" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
         <v>89</v>
       </c>
@@ -7817,7 +7803,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="101" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
         <v>89</v>
       </c>
@@ -7871,7 +7857,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="102" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A102" s="11" t="s">
         <v>89</v>
       </c>
@@ -7925,7 +7911,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="103" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A103" s="11" t="s">
         <v>54</v>
       </c>
@@ -7979,7 +7965,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="104" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
         <v>55</v>
       </c>
@@ -8033,7 +8019,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="105" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
         <v>55</v>
       </c>
@@ -8087,7 +8073,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="106" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
         <v>55</v>
       </c>
@@ -8141,7 +8127,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="107" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
         <v>55</v>
       </c>
@@ -8195,7 +8181,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="108" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A108" s="11" t="s">
         <v>55</v>
       </c>
@@ -8249,7 +8235,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="109" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
         <v>56</v>
       </c>
@@ -8303,7 +8289,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="110" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
         <v>56</v>
       </c>
@@ -8357,7 +8343,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="111" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
         <v>56</v>
       </c>
@@ -8411,7 +8397,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="112" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
         <v>56</v>
       </c>
@@ -8465,7 +8451,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="113" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A113" s="11" t="s">
         <v>56</v>
       </c>
@@ -8519,7 +8505,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="114" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
         <v>57</v>
       </c>
@@ -8573,7 +8559,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="115" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
         <v>57</v>
       </c>
@@ -8627,7 +8613,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="116" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
         <v>57</v>
       </c>
@@ -8681,7 +8667,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="117" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
         <v>57</v>
       </c>
@@ -8735,7 +8721,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="118" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A118" s="11" t="s">
         <v>57</v>
       </c>
@@ -8789,7 +8775,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="119" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
         <v>58</v>
       </c>
@@ -8843,7 +8829,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="120" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
         <v>58</v>
       </c>
@@ -8897,7 +8883,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="121" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
         <v>58</v>
       </c>
@@ -8951,7 +8937,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="122" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
         <v>58</v>
       </c>
@@ -9005,7 +8991,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="123" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A123" s="11" t="s">
         <v>58</v>
       </c>
@@ -9059,7 +9045,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="124" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
         <v>59</v>
       </c>
@@ -9113,7 +9099,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="125" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
         <v>59</v>
       </c>
@@ -9167,7 +9153,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="126" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
         <v>59</v>
       </c>
@@ -9221,7 +9207,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="127" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
         <v>59</v>
       </c>
@@ -9275,7 +9261,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="128" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" s="11" t="s">
         <v>59</v>
       </c>
@@ -9329,7 +9315,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="129" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
         <v>60</v>
       </c>
@@ -9383,7 +9369,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="130" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
         <v>60</v>
       </c>
@@ -9437,7 +9423,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="131" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
         <v>60</v>
       </c>
@@ -9491,7 +9477,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="132" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
         <v>60</v>
       </c>
@@ -9545,7 +9531,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="133" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A133" s="11" t="s">
         <v>60</v>
       </c>
@@ -9599,7 +9585,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="134" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
         <v>61</v>
       </c>
@@ -9653,7 +9639,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="135" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
         <v>61</v>
       </c>
@@ -9707,7 +9693,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="136" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
         <v>61</v>
       </c>
@@ -9761,7 +9747,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="137" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
         <v>61</v>
       </c>
@@ -9815,7 +9801,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="138" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A138" s="11" t="s">
         <v>61</v>
       </c>
@@ -9869,7 +9855,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="139" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
         <v>90</v>
       </c>
@@ -9923,7 +9909,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="140" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
         <v>90</v>
       </c>
@@ -9977,7 +9963,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="141" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
         <v>90</v>
       </c>
@@ -10031,7 +10017,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="142" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
         <v>90</v>
       </c>
@@ -10085,7 +10071,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="143" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
         <v>90</v>
       </c>
@@ -10139,7 +10125,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="144" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A144" s="11" t="s">
         <v>90</v>
       </c>
@@ -10193,7 +10179,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="145" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A145" s="11" t="s">
         <v>62</v>
       </c>
@@ -10247,7 +10233,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="146" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
         <v>63</v>
       </c>
@@ -10301,7 +10287,7 @@
         <v>1344</v>
       </c>
     </row>
-    <row r="147" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
         <v>63</v>
       </c>
@@ -10355,7 +10341,7 @@
         <v>1344</v>
       </c>
     </row>
-    <row r="148" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
         <v>63</v>
       </c>
@@ -10409,7 +10395,7 @@
         <v>1344</v>
       </c>
     </row>
-    <row r="149" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A149" s="11" t="s">
         <v>63</v>
       </c>
@@ -10463,7 +10449,7 @@
         <v>1344</v>
       </c>
     </row>
-    <row r="150" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
         <v>64</v>
       </c>
@@ -10517,7 +10503,7 @@
         <v>1472</v>
       </c>
     </row>
-    <row r="151" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
         <v>64</v>
       </c>
@@ -10571,7 +10557,7 @@
         <v>1472</v>
       </c>
     </row>
-    <row r="152" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
         <v>64</v>
       </c>
@@ -10625,7 +10611,7 @@
         <v>1472</v>
       </c>
     </row>
-    <row r="153" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A153" s="11" t="s">
         <v>64</v>
       </c>
@@ -10679,7 +10665,7 @@
         <v>1472</v>
       </c>
     </row>
-    <row r="154" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
         <v>65</v>
       </c>
@@ -10733,7 +10719,7 @@
         <v>1664</v>
       </c>
     </row>
-    <row r="155" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
         <v>65</v>
       </c>
@@ -10787,7 +10773,7 @@
         <v>1664</v>
       </c>
     </row>
-    <row r="156" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="s">
         <v>65</v>
       </c>
@@ -10841,7 +10827,7 @@
         <v>1664</v>
       </c>
     </row>
-    <row r="157" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="s">
         <v>65</v>
       </c>
@@ -10895,7 +10881,7 @@
         <v>1664</v>
       </c>
     </row>
-    <row r="158" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A158" s="11" t="s">
         <v>65</v>
       </c>
@@ -10949,7 +10935,7 @@
         <v>1664</v>
       </c>
     </row>
-    <row r="159" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="s">
         <v>66</v>
       </c>
@@ -11003,7 +10989,7 @@
         <v>1951</v>
       </c>
     </row>
-    <row r="160" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A160" s="2" t="s">
         <v>66</v>
       </c>
@@ -11057,7 +11043,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="161" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="s">
         <v>66</v>
       </c>
@@ -11111,7 +11097,7 @@
         <v>2061</v>
       </c>
     </row>
-    <row r="162" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="2" t="s">
         <v>66</v>
       </c>
@@ -11165,7 +11151,7 @@
         <v>2095</v>
       </c>
     </row>
-    <row r="163" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="2" t="s">
         <v>66</v>
       </c>
@@ -11219,7 +11205,7 @@
         <v>2151</v>
       </c>
     </row>
-    <row r="164" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="2" t="s">
         <v>66</v>
       </c>
@@ -11273,7 +11259,7 @@
         <v>2151</v>
       </c>
     </row>
-    <row r="165" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A165" s="2" t="s">
         <v>66</v>
       </c>
@@ -11327,7 +11313,7 @@
         <v>2151</v>
       </c>
     </row>
-    <row r="166" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A166" s="2" t="s">
         <v>66</v>
       </c>
@@ -11381,7 +11367,7 @@
         <v>2151</v>
       </c>
     </row>
-    <row r="167" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A167" s="2" t="s">
         <v>66</v>
       </c>
@@ -11435,7 +11421,7 @@
         <v>2151</v>
       </c>
     </row>
-    <row r="168" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A168" s="2" t="s">
         <v>66</v>
       </c>
@@ -11489,7 +11475,7 @@
         <v>2151</v>
       </c>
     </row>
-    <row r="169" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A169" s="2" t="s">
         <v>66</v>
       </c>
@@ -11543,7 +11529,7 @@
         <v>2151</v>
       </c>
     </row>
-    <row r="170" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A170" s="11" t="s">
         <v>66</v>
       </c>
@@ -11597,7 +11583,7 @@
         <v>2151</v>
       </c>
     </row>
-    <row r="171" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A171" s="2" t="s">
         <v>67</v>
       </c>
@@ -11651,7 +11637,7 @@
         <v>2384</v>
       </c>
     </row>
-    <row r="172" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A172" s="2" t="s">
         <v>67</v>
       </c>
@@ -11705,7 +11691,7 @@
         <v>2384</v>
       </c>
     </row>
-    <row r="173" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A173" s="2" t="s">
         <v>67</v>
       </c>
@@ -11759,7 +11745,7 @@
         <v>2384</v>
       </c>
     </row>
-    <row r="174" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A174" s="2" t="s">
         <v>67</v>
       </c>
@@ -11813,7 +11799,7 @@
         <v>2384</v>
       </c>
     </row>
-    <row r="175" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A175" s="11" t="s">
         <v>67</v>
       </c>
@@ -11867,7 +11853,7 @@
         <v>2384</v>
       </c>
     </row>
-    <row r="176" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A176" s="2" t="s">
         <v>68</v>
       </c>
@@ -11921,7 +11907,7 @@
         <v>2546</v>
       </c>
     </row>
-    <row r="177" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A177" s="2" t="s">
         <v>68</v>
       </c>
@@ -11975,7 +11961,7 @@
         <v>2546</v>
       </c>
     </row>
-    <row r="178" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A178" s="2" t="s">
         <v>68</v>
       </c>
@@ -12029,7 +12015,7 @@
         <v>2546</v>
       </c>
     </row>
-    <row r="179" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A179" s="2" t="s">
         <v>68</v>
       </c>
@@ -12083,7 +12069,7 @@
         <v>2546</v>
       </c>
     </row>
-    <row r="180" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A180" s="2" t="s">
         <v>68</v>
       </c>
@@ -12137,7 +12123,7 @@
         <v>2546</v>
       </c>
     </row>
-    <row r="181" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A181" s="2" t="s">
         <v>68</v>
       </c>
@@ -12191,7 +12177,7 @@
         <v>2546</v>
       </c>
     </row>
-    <row r="182" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A182" s="2" t="s">
         <v>68</v>
       </c>
@@ -12245,7 +12231,7 @@
         <v>2546</v>
       </c>
     </row>
-    <row r="183" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A183" s="11" t="s">
         <v>68</v>
       </c>
@@ -12299,7 +12285,7 @@
         <v>2546</v>
       </c>
     </row>
-    <row r="184" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A184" s="11" t="s">
         <v>68</v>
       </c>
@@ -12353,7 +12339,7 @@
         <v>2546</v>
       </c>
     </row>
-    <row r="185" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A185" s="2" t="s">
         <v>92</v>
       </c>
@@ -12407,7 +12393,7 @@
         <v>3035</v>
       </c>
     </row>
-    <row r="186" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A186" s="2" t="s">
         <v>92</v>
       </c>
@@ -12461,7 +12447,7 @@
         <v>3035</v>
       </c>
     </row>
-    <row r="187" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A187" s="2" t="s">
         <v>92</v>
       </c>
@@ -12515,7 +12501,7 @@
         <v>3035</v>
       </c>
     </row>
-    <row r="188" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A188" s="2" t="s">
         <v>92</v>
       </c>
@@ -12569,7 +12555,7 @@
         <v>3035</v>
       </c>
     </row>
-    <row r="189" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A189" s="2" t="s">
         <v>92</v>
       </c>
@@ -12623,7 +12609,7 @@
         <v>3035</v>
       </c>
     </row>
-    <row r="190" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A190" s="2" t="s">
         <v>92</v>
       </c>
@@ -12677,7 +12663,7 @@
         <v>3035</v>
       </c>
     </row>
-    <row r="191" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A191" s="2" t="s">
         <v>92</v>
       </c>
@@ -12731,7 +12717,7 @@
         <v>3035</v>
       </c>
     </row>
-    <row r="192" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A192" s="11" t="s">
         <v>92</v>
       </c>
@@ -12785,7 +12771,7 @@
         <v>3035</v>
       </c>
     </row>
-    <row r="193" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A193" s="11" t="s">
         <v>69</v>
       </c>
@@ -12839,7 +12825,7 @@
         <v>3475</v>
       </c>
     </row>
-    <row r="194" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A194" s="12" t="s">
         <v>86</v>
       </c>
@@ -12893,7 +12879,7 @@
         <v>3525</v>
       </c>
     </row>
-    <row r="195" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A195" s="2" t="s">
         <v>70</v>
       </c>
@@ -12947,7 +12933,7 @@
         <v>6925</v>
       </c>
     </row>
-    <row r="196" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A196" s="2" t="s">
         <v>70</v>
       </c>
@@ -13001,7 +12987,7 @@
         <v>6925</v>
       </c>
     </row>
-    <row r="197" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A197" s="2" t="s">
         <v>70</v>
       </c>
@@ -13055,7 +13041,7 @@
         <v>6925</v>
       </c>
     </row>
-    <row r="198" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A198" s="2" t="s">
         <v>70</v>
       </c>
@@ -13109,7 +13095,7 @@
         <v>6925</v>
       </c>
     </row>
-    <row r="199" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A199" s="11" t="s">
         <v>70</v>
       </c>
@@ -13163,7 +13149,7 @@
         <v>6925</v>
       </c>
     </row>
-    <row r="200" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A200" s="2" t="s">
         <v>71</v>
       </c>
@@ -13217,7 +13203,7 @@
         <v>7500</v>
       </c>
     </row>
-    <row r="201" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A201" s="2" t="s">
         <v>71</v>
       </c>
@@ -13271,7 +13257,7 @@
         <v>7500</v>
       </c>
     </row>
-    <row r="202" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A202" s="2" t="s">
         <v>71</v>
       </c>
@@ -13325,7 +13311,7 @@
         <v>7500</v>
       </c>
     </row>
-    <row r="203" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A203" s="2" t="s">
         <v>71</v>
       </c>
@@ -13379,7 +13365,7 @@
         <v>7500</v>
       </c>
     </row>
-    <row r="204" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A204" s="11" t="s">
         <v>71</v>
       </c>
@@ -13433,7 +13419,7 @@
         <v>7500</v>
       </c>
     </row>
-    <row r="205" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A205" s="2" t="s">
         <v>72</v>
       </c>
@@ -13487,7 +13473,7 @@
         <v>7800</v>
       </c>
     </row>
-    <row r="206" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A206" s="2" t="s">
         <v>72</v>
       </c>
@@ -13541,7 +13527,7 @@
         <v>7800</v>
       </c>
     </row>
-    <row r="207" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A207" s="2" t="s">
         <v>72</v>
       </c>
@@ -13595,7 +13581,7 @@
         <v>7800</v>
       </c>
     </row>
-    <row r="208" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A208" s="11" t="s">
         <v>72</v>
       </c>
@@ -13649,7 +13635,7 @@
         <v>7800</v>
       </c>
     </row>
-    <row r="209" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A209" s="2" t="s">
         <v>73</v>
       </c>
@@ -13703,7 +13689,7 @@
         <v>8350</v>
       </c>
     </row>
-    <row r="210" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A210" s="2" t="s">
         <v>73</v>
       </c>
@@ -13757,7 +13743,7 @@
         <v>8350</v>
       </c>
     </row>
-    <row r="211" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A211" s="2" t="s">
         <v>73</v>
       </c>
@@ -13811,7 +13797,7 @@
         <v>8350</v>
       </c>
     </row>
-    <row r="212" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A212" s="2" t="s">
         <v>73</v>
       </c>
@@ -13865,7 +13851,7 @@
         <v>8350</v>
       </c>
     </row>
-    <row r="213" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A213" s="11" t="s">
         <v>73</v>
       </c>
@@ -13919,7 +13905,7 @@
         <v>8350</v>
       </c>
     </row>
-    <row r="214" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A214" s="2" t="s">
         <v>74</v>
       </c>
@@ -13973,7 +13959,7 @@
         <v>8900</v>
       </c>
     </row>
-    <row r="215" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A215" s="2" t="s">
         <v>74</v>
       </c>
@@ -14027,7 +14013,7 @@
         <v>8900</v>
       </c>
     </row>
-    <row r="216" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A216" s="2" t="s">
         <v>74</v>
       </c>
@@ -14081,7 +14067,7 @@
         <v>8900</v>
       </c>
     </row>
-    <row r="217" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A217" s="2" t="s">
         <v>74</v>
       </c>
@@ -14135,7 +14121,7 @@
         <v>8900</v>
       </c>
     </row>
-    <row r="218" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A218" s="11" t="s">
         <v>74</v>
       </c>
@@ -14189,7 +14175,7 @@
         <v>8900</v>
       </c>
     </row>
-    <row r="219" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A219" s="2" t="s">
         <v>75</v>
       </c>
@@ -14243,7 +14229,7 @@
         <v>9450</v>
       </c>
     </row>
-    <row r="220" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A220" s="2" t="s">
         <v>75</v>
       </c>
@@ -14297,7 +14283,7 @@
         <v>9450</v>
       </c>
     </row>
-    <row r="221" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A221" s="2" t="s">
         <v>75</v>
       </c>
@@ -14351,7 +14337,7 @@
         <v>9450</v>
       </c>
     </row>
-    <row r="222" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A222" s="2" t="s">
         <v>75</v>
       </c>
@@ -14405,7 +14391,7 @@
         <v>9450</v>
       </c>
     </row>
-    <row r="223" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A223" s="11" t="s">
         <v>75</v>
       </c>
@@ -14459,7 +14445,7 @@
         <v>9450</v>
       </c>
     </row>
-    <row r="224" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A224" s="2" t="s">
         <v>76</v>
       </c>
@@ -14513,7 +14499,7 @@
         <v>9450</v>
       </c>
     </row>
-    <row r="225" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A225" s="2" t="s">
         <v>76</v>
       </c>
@@ -14567,7 +14553,7 @@
         <v>9450</v>
       </c>
     </row>
-    <row r="226" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A226" s="2" t="s">
         <v>76</v>
       </c>
@@ -14621,7 +14607,7 @@
         <v>9450</v>
       </c>
     </row>
-    <row r="227" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A227" s="2" t="s">
         <v>76</v>
       </c>
@@ -14675,7 +14661,7 @@
         <v>9450</v>
       </c>
     </row>
-    <row r="228" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A228" s="11" t="s">
         <v>76</v>
       </c>
@@ -14729,7 +14715,7 @@
         <v>9450</v>
       </c>
     </row>
-    <row r="229" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A229" s="2" t="s">
         <v>77</v>
       </c>
@@ -14783,7 +14769,7 @@
         <v>9450</v>
       </c>
     </row>
-    <row r="230" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A230" s="2" t="s">
         <v>77</v>
       </c>
@@ -14837,7 +14823,7 @@
         <v>9450</v>
       </c>
     </row>
-    <row r="231" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A231" s="2" t="s">
         <v>77</v>
       </c>
@@ -14891,7 +14877,7 @@
         <v>9450</v>
       </c>
     </row>
-    <row r="232" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A232" s="2" t="s">
         <v>77</v>
       </c>
@@ -14945,7 +14931,7 @@
         <v>9450</v>
       </c>
     </row>
-    <row r="233" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A233" s="11" t="s">
         <v>77</v>
       </c>
@@ -14999,7 +14985,7 @@
         <v>9450</v>
       </c>
     </row>
-    <row r="234" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A234" s="2" t="s">
         <v>78</v>
       </c>
@@ -15053,7 +15039,7 @@
         <v>8500</v>
       </c>
     </row>
-    <row r="235" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A235" s="2" t="s">
         <v>78</v>
       </c>
@@ -15107,7 +15093,7 @@
         <v>8500</v>
       </c>
     </row>
-    <row r="236" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A236" s="2" t="s">
         <v>78</v>
       </c>
@@ -15161,7 +15147,7 @@
         <v>8500</v>
       </c>
     </row>
-    <row r="237" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A237" s="2" t="s">
         <v>78</v>
       </c>
@@ -15215,7 +15201,7 @@
         <v>8500</v>
       </c>
     </row>
-    <row r="238" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A238" s="11" t="s">
         <v>78</v>
       </c>
@@ -15269,7 +15255,7 @@
         <v>8500</v>
       </c>
     </row>
-    <row r="239" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A239" s="2" t="s">
         <v>91</v>
       </c>
@@ -15323,7 +15309,7 @@
         <v>7050</v>
       </c>
     </row>
-    <row r="240" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A240" s="2" t="s">
         <v>91</v>
       </c>
@@ -15377,7 +15363,7 @@
         <v>7050</v>
       </c>
     </row>
-    <row r="241" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A241" s="2" t="s">
         <v>91</v>
       </c>
@@ -15431,7 +15417,7 @@
         <v>7050</v>
       </c>
     </row>
-    <row r="242" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A242" s="2" t="s">
         <v>91</v>
       </c>
@@ -15485,7 +15471,7 @@
         <v>7050</v>
       </c>
     </row>
-    <row r="243" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A243" s="2" t="s">
         <v>91</v>
       </c>
@@ -15539,7 +15525,7 @@
         <v>7050</v>
       </c>
     </row>
-    <row r="244" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A244" s="2" t="s">
         <v>91</v>
       </c>
@@ -15593,7 +15579,7 @@
         <v>7050</v>
       </c>
     </row>
-    <row r="245" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A245" s="2" t="s">
         <v>91</v>
       </c>
@@ -15647,7 +15633,7 @@
         <v>7050</v>
       </c>
     </row>
-    <row r="246" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A246" s="11" t="s">
         <v>91</v>
       </c>
@@ -15701,7 +15687,7 @@
         <v>7050</v>
       </c>
     </row>
-    <row r="247" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A247" s="11" t="s">
         <v>79</v>
       </c>
@@ -15755,7 +15741,7 @@
         <v>10164</v>
       </c>
     </row>
-    <row r="248" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:20" ht="17" x14ac:dyDescent="0.25">
       <c r="B248" s="2">
         <v>245</v>
       </c>
@@ -15796,7 +15782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:20" ht="17" x14ac:dyDescent="0.25">
       <c r="B249" s="2">
         <v>246</v>
       </c>
@@ -15837,7 +15823,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="250" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:20" ht="17" x14ac:dyDescent="0.25">
       <c r="B250" s="2">
         <v>247</v>
       </c>
@@ -15878,7 +15864,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="251" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="B251" s="2">
         <v>248</v>
       </c>
@@ -15919,7 +15905,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="252" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="B252" s="2">
         <v>249</v>
       </c>
@@ -15960,7 +15946,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="253" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="B253" s="2">
         <v>250</v>
       </c>
@@ -16001,7 +15987,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="254" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="B254" s="2">
         <v>251</v>
       </c>
@@ -16042,7 +16028,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="255" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="B255" s="2">
         <v>252</v>
       </c>
@@ -16083,7 +16069,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="256" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="B256" s="2">
         <v>253</v>
       </c>
@@ -16124,7 +16110,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="257" spans="2:16" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="257" spans="2:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B257" s="2">
         <v>254</v>
       </c>
@@ -16165,7 +16151,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="258" spans="2:16" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="258" spans="2:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B258" s="2">
         <v>255</v>
       </c>
@@ -16206,7 +16192,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="259" spans="2:16" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="259" spans="2:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B259" s="2">
         <v>256</v>
       </c>
@@ -16247,7 +16233,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="260" spans="2:16" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="260" spans="2:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B260" s="2">
         <v>257</v>
       </c>
@@ -16288,7 +16274,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="261" spans="2:16" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="261" spans="2:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B261" s="2">
         <v>258</v>
       </c>
@@ -16329,7 +16315,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="262" spans="2:16" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="262" spans="2:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B262" s="2">
         <v>259</v>
       </c>
@@ -16370,7 +16356,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="263" spans="2:16" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="263" spans="2:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B263" s="2">
         <v>260</v>
       </c>
@@ -16411,7 +16397,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="264" spans="2:16" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="264" spans="2:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B264" s="2">
         <v>261</v>
       </c>
@@ -16452,7 +16438,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="265" spans="2:16" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="265" spans="2:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B265" s="2">
         <v>262</v>
       </c>
@@ -16493,7 +16479,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="266" spans="2:16" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="266" spans="2:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B266" s="2">
         <v>263</v>
       </c>
@@ -16534,7 +16520,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="267" spans="2:16" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="267" spans="2:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B267" s="2">
         <v>264</v>
       </c>
@@ -16575,7 +16561,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="268" spans="2:16" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="268" spans="2:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B268" s="2">
         <v>265</v>
       </c>
@@ -16616,7 +16602,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="269" spans="2:16" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="269" spans="2:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B269" s="2">
         <v>266</v>
       </c>
@@ -16657,7 +16643,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="270" spans="2:16" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="270" spans="2:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B270" s="2">
         <v>267</v>
       </c>
@@ -16698,7 +16684,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="271" spans="2:16" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="271" spans="2:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B271" s="2">
         <v>268</v>
       </c>
@@ -16739,7 +16725,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="272" spans="2:16" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="272" spans="2:16" ht="17" x14ac:dyDescent="0.25">
       <c r="B272" s="2">
         <v>269</v>
       </c>
@@ -16780,7 +16766,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="273" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="273" spans="2:20" ht="17" x14ac:dyDescent="0.25">
       <c r="B273" s="2">
         <v>270</v>
       </c>
@@ -16821,7 +16807,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="274" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="274" spans="2:20" ht="17" x14ac:dyDescent="0.25">
       <c r="B274" s="2">
         <v>271</v>
       </c>
@@ -16862,7 +16848,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="275" spans="2:20" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="275" spans="2:20" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="B275" s="14">
         <v>272</v>
       </c>
@@ -16914,7 +16900,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="276" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="276" spans="2:20" ht="17" x14ac:dyDescent="0.25">
       <c r="B276" s="2">
         <v>273</v>
       </c>
@@ -16965,7 +16951,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="277" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="277" spans="2:20" ht="17" x14ac:dyDescent="0.25">
       <c r="B277" s="2">
         <v>274</v>
       </c>
@@ -17016,7 +17002,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="278" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="278" spans="2:20" ht="17" x14ac:dyDescent="0.25">
       <c r="B278" s="2">
         <v>275</v>
       </c>
@@ -17067,7 +17053,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="279" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="279" spans="2:20" ht="17" x14ac:dyDescent="0.25">
       <c r="B279" s="2">
         <v>276</v>
       </c>
@@ -17118,7 +17104,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="280" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="280" spans="2:20" ht="17" x14ac:dyDescent="0.25">
       <c r="B280" s="2">
         <v>277</v>
       </c>
@@ -17169,7 +17155,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="281" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="281" spans="2:20" ht="17" x14ac:dyDescent="0.25">
       <c r="B281" s="2">
         <v>278</v>
       </c>
@@ -17220,7 +17206,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="282" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="282" spans="2:20" ht="17" x14ac:dyDescent="0.25">
       <c r="B282" s="2">
         <v>279</v>
       </c>
@@ -17271,7 +17257,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="283" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="283" spans="2:20" ht="17" x14ac:dyDescent="0.25">
       <c r="B283" s="2">
         <v>280</v>
       </c>
@@ -17322,7 +17308,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="284" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="284" spans="2:20" ht="17" x14ac:dyDescent="0.25">
       <c r="B284" s="2">
         <v>281</v>
       </c>
@@ -17373,7 +17359,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="285" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="285" spans="2:20" ht="17" x14ac:dyDescent="0.25">
       <c r="B285" s="2">
         <v>282</v>
       </c>
@@ -17424,7 +17410,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="286" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="286" spans="2:20" ht="17" x14ac:dyDescent="0.25">
       <c r="B286" s="2">
         <v>283</v>
       </c>
@@ -17475,7 +17461,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="287" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="287" spans="2:20" ht="17" x14ac:dyDescent="0.25">
       <c r="B287" s="2">
         <v>284</v>
       </c>
@@ -17526,7 +17512,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="288" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="288" spans="2:20" ht="17" x14ac:dyDescent="0.25">
       <c r="B288" s="2">
         <v>285</v>
       </c>
@@ -17577,7 +17563,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="289" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="289" spans="2:20" ht="17" x14ac:dyDescent="0.25">
       <c r="B289" s="2">
         <v>286</v>
       </c>
@@ -17628,7 +17614,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="290" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="290" spans="2:20" ht="17" x14ac:dyDescent="0.25">
       <c r="B290" s="2">
         <v>287</v>
       </c>
@@ -17679,7 +17665,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="291" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="291" spans="2:20" ht="17" x14ac:dyDescent="0.25">
       <c r="B291" s="2">
         <v>288</v>
       </c>
@@ -17730,7 +17716,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="292" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="292" spans="2:20" ht="17" x14ac:dyDescent="0.25">
       <c r="B292" s="2">
         <v>289</v>
       </c>
@@ -17781,7 +17767,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="293" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="293" spans="2:20" ht="17" x14ac:dyDescent="0.25">
       <c r="B293" s="2">
         <v>290</v>
       </c>
@@ -17832,7 +17818,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="294" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="294" spans="2:20" ht="17" x14ac:dyDescent="0.25">
       <c r="B294" s="2">
         <v>291</v>
       </c>
@@ -17883,7 +17869,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="295" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="295" spans="2:20" ht="17" x14ac:dyDescent="0.25">
       <c r="B295" s="2">
         <v>292</v>
       </c>
@@ -17934,7 +17920,7 @@
         <v>4625</v>
       </c>
     </row>
-    <row r="296" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="296" spans="2:20" ht="17" x14ac:dyDescent="0.25">
       <c r="B296" s="2">
         <v>293</v>
       </c>
@@ -17985,7 +17971,7 @@
         <v>4625</v>
       </c>
     </row>
-    <row r="297" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="297" spans="2:20" ht="17" x14ac:dyDescent="0.25">
       <c r="B297" s="2">
         <v>294</v>
       </c>
@@ -18036,7 +18022,7 @@
         <v>5775</v>
       </c>
     </row>
-    <row r="298" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="298" spans="2:20" ht="17" x14ac:dyDescent="0.25">
       <c r="B298" s="2">
         <v>295</v>
       </c>
@@ -18087,7 +18073,7 @@
         <v>5775</v>
       </c>
     </row>
-    <row r="299" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="299" spans="2:20" ht="17" x14ac:dyDescent="0.25">
       <c r="B299" s="2">
         <v>296</v>
       </c>
@@ -18138,7 +18124,7 @@
         <v>7225</v>
       </c>
     </row>
-    <row r="300" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="300" spans="2:20" ht="17" x14ac:dyDescent="0.25">
       <c r="B300" s="2">
         <v>297</v>
       </c>
@@ -18189,7 +18175,7 @@
         <v>8675</v>
       </c>
     </row>
-    <row r="301" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="301" spans="2:20" ht="17" x14ac:dyDescent="0.25">
       <c r="B301" s="2">
         <v>298</v>
       </c>
@@ -18240,7 +18226,7 @@
         <v>16632</v>
       </c>
     </row>
-    <row r="302" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="302" spans="2:20" ht="17" x14ac:dyDescent="0.25">
       <c r="B302" s="2">
         <v>299</v>
       </c>
@@ -18291,7 +18277,7 @@
         <v>18720</v>
       </c>
     </row>
-    <row r="303" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="303" spans="2:20" ht="17" x14ac:dyDescent="0.25">
       <c r="B303" s="2">
         <v>300</v>
       </c>
@@ -18342,7 +18328,7 @@
         <v>20808</v>
       </c>
     </row>
-    <row r="304" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="304" spans="2:20" ht="17" x14ac:dyDescent="0.25">
       <c r="B304" s="2">
         <v>301</v>
       </c>
@@ -18393,7 +18379,7 @@
         <v>24948</v>
       </c>
     </row>
-    <row r="305" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="305" spans="2:20" ht="17" x14ac:dyDescent="0.25">
       <c r="B305" s="2">
         <v>302</v>
       </c>
@@ -18444,7 +18430,7 @@
         <v>27036</v>
       </c>
     </row>
-    <row r="306" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="306" spans="2:20" ht="17" x14ac:dyDescent="0.25">
       <c r="B306" s="2">
         <v>303</v>
       </c>
@@ -18495,7 +18481,7 @@
         <v>29124</v>
       </c>
     </row>
-    <row r="307" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="307" spans="2:20" ht="17" x14ac:dyDescent="0.25">
       <c r="B307" s="2">
         <v>304</v>
       </c>
@@ -18547,7 +18533,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:S2">
       <formula1>"String,Int,DateTime,Float"</formula1>

--- a/ExcelConfig/怪物表.xlsx
+++ b/ExcelConfig/怪物表.xlsx
@@ -1,21 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="26101"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiexiongping/Documents/github/workdir/ExcelConfig/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3860" yWindow="460" windowWidth="19920" windowHeight="12900" activeTab="1"/>
+    <workbookView xWindow="3855" yWindow="495" windowWidth="19920" windowHeight="11730" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="__Base" sheetId="2" r:id="rId1"/>
     <sheet name="MonsterConfig" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -61,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="907" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="907" uniqueCount="186">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1727,10 +1722,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>守备猪妖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>尖耳鼠</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1752,10 +1743,6 @@
   </si>
   <si>
     <t>奸佞老者</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蒙眼老妪</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1823,10 +1810,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>小角童儿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>哭闹小童</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1868,11 +1851,46 @@
     <t>js_langyao</t>
   </si>
   <si>
+    <t>js_laozhu</t>
+  </si>
+  <si>
     <t>js_huangfengguai</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>js_laozhu</t>
+    <t>js_cungu</t>
+  </si>
+  <si>
+    <t>js_laotou</t>
+  </si>
+  <si>
+    <t>js_laotaipo</t>
+  </si>
+  <si>
+    <t>js_jinyinxiaoyaoguai</t>
+  </si>
+  <si>
+    <t>js_honghaierxy</t>
+  </si>
+  <si>
+    <t>花猪妖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>js_shuyao</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>驼背老妪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嬉闹小猴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>青眼小猪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2015,7 +2033,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2039,6 +2057,7 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2349,16 +2368,16 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" style="1" customWidth="1"/>
     <col min="2" max="2" width="16.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.625" style="1" customWidth="1"/>
     <col min="4" max="4" width="24.5" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -2383,30 +2402,30 @@
   <dimension ref="A1:T307"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="D28" sqref="D28"/>
+      <selection pane="bottomRight" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" style="2" customWidth="1"/>
-    <col min="4" max="4" width="27.83203125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="7.6640625" style="2" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" style="2" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="27.875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="7.625" style="2" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="10.625" style="2" hidden="1" customWidth="1"/>
     <col min="7" max="10" width="9" style="2" customWidth="1"/>
     <col min="11" max="13" width="9" style="2" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="13.1640625" style="2" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="13.125" style="2" hidden="1" customWidth="1"/>
     <col min="15" max="15" width="9" style="2" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="10.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.125" style="2" bestFit="1" customWidth="1"/>
     <col min="18" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -2459,7 +2478,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -2512,7 +2531,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -2565,7 +2584,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>42</v>
       </c>
@@ -2576,7 +2595,7 @@
         <v>136</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="G4" s="3">
         <v>2</v>
@@ -2619,7 +2638,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>42</v>
       </c>
@@ -2630,7 +2649,7 @@
         <v>136</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="G5" s="3">
         <v>2</v>
@@ -2673,7 +2692,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>42</v>
       </c>
@@ -2684,7 +2703,7 @@
         <v>136</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="G6" s="3">
         <v>2</v>
@@ -2727,7 +2746,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>42</v>
       </c>
@@ -2738,7 +2757,7 @@
         <v>136</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="G7" s="3">
         <v>2</v>
@@ -2781,7 +2800,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>42</v>
       </c>
@@ -2792,7 +2811,7 @@
         <v>136</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="G8" s="3">
         <v>2</v>
@@ -2835,7 +2854,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>43</v>
       </c>
@@ -2846,7 +2865,7 @@
         <v>137</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G9" s="3">
         <v>2</v>
@@ -2889,7 +2908,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>43</v>
       </c>
@@ -2900,7 +2919,7 @@
         <v>137</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G10" s="3">
         <v>2</v>
@@ -2943,7 +2962,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>43</v>
       </c>
@@ -2954,7 +2973,7 @@
         <v>137</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G11" s="3">
         <v>2</v>
@@ -2997,7 +3016,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>43</v>
       </c>
@@ -3008,7 +3027,7 @@
         <v>137</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G12" s="3">
         <v>2</v>
@@ -3051,7 +3070,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>43</v>
       </c>
@@ -3062,7 +3081,7 @@
         <v>137</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G13" s="3">
         <v>2</v>
@@ -3105,7 +3124,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>43</v>
       </c>
@@ -3116,7 +3135,7 @@
         <v>137</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G14" s="3">
         <v>2</v>
@@ -3159,7 +3178,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>43</v>
       </c>
@@ -3170,7 +3189,7 @@
         <v>137</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G15" s="3">
         <v>2</v>
@@ -3213,7 +3232,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>44</v>
       </c>
@@ -3224,7 +3243,7 @@
         <v>138</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="G16" s="3">
         <v>2</v>
@@ -3267,7 +3286,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>44</v>
       </c>
@@ -3278,7 +3297,7 @@
         <v>138</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="G17" s="3">
         <v>2</v>
@@ -3321,7 +3340,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>44</v>
       </c>
@@ -3332,7 +3351,7 @@
         <v>138</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="G18" s="3">
         <v>2</v>
@@ -3375,7 +3394,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>44</v>
       </c>
@@ -3386,7 +3405,7 @@
         <v>138</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="G19" s="3">
         <v>2</v>
@@ -3429,7 +3448,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>44</v>
       </c>
@@ -3440,7 +3459,7 @@
         <v>138</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="G20" s="3">
         <v>2</v>
@@ -3483,7 +3502,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>44</v>
       </c>
@@ -3494,7 +3513,7 @@
         <v>138</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="G21" s="3">
         <v>2</v>
@@ -3537,7 +3556,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>44</v>
       </c>
@@ -3548,7 +3567,7 @@
         <v>138</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="G22" s="3">
         <v>2</v>
@@ -3591,7 +3610,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>44</v>
       </c>
@@ -3602,7 +3621,7 @@
         <v>138</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="G23" s="3">
         <v>2</v>
@@ -3645,7 +3664,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>44</v>
       </c>
@@ -3656,7 +3675,7 @@
         <v>138</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="G24" s="3">
         <v>2</v>
@@ -3699,7 +3718,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>44</v>
       </c>
@@ -3710,7 +3729,7 @@
         <v>138</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="G25" s="3">
         <v>2</v>
@@ -3753,7 +3772,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>44</v>
       </c>
@@ -3764,7 +3783,7 @@
         <v>138</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="G26" s="3">
         <v>2</v>
@@ -3807,7 +3826,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
         <v>44</v>
       </c>
@@ -3818,7 +3837,7 @@
         <v>138</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="G27" s="3">
         <v>2</v>
@@ -3861,7 +3880,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>87</v>
       </c>
@@ -3869,7 +3888,7 @@
         <v>25</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>139</v>
+        <v>181</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>174</v>
@@ -3915,7 +3934,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>87</v>
       </c>
@@ -3923,7 +3942,7 @@
         <v>26</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>139</v>
+        <v>181</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>174</v>
@@ -3969,7 +3988,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>87</v>
       </c>
@@ -3977,7 +3996,7 @@
         <v>27</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>139</v>
+        <v>181</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>174</v>
@@ -4023,7 +4042,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>87</v>
       </c>
@@ -4031,7 +4050,7 @@
         <v>28</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>139</v>
+        <v>181</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>174</v>
@@ -4077,7 +4096,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
         <v>87</v>
       </c>
@@ -4085,7 +4104,7 @@
         <v>29</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>139</v>
+        <v>181</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>174</v>
@@ -4131,7 +4150,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
         <v>45</v>
       </c>
@@ -4142,7 +4161,7 @@
         <v>102</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G33" s="3">
         <v>1</v>
@@ -4185,7 +4204,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>46</v>
       </c>
@@ -4193,10 +4212,10 @@
         <v>31</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="G34" s="3">
         <v>2</v>
@@ -4239,7 +4258,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="35" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>46</v>
       </c>
@@ -4247,10 +4266,10 @@
         <v>32</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="G35" s="3">
         <v>2</v>
@@ -4293,7 +4312,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="36" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>46</v>
       </c>
@@ -4301,10 +4320,10 @@
         <v>33</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="G36" s="3">
         <v>2</v>
@@ -4347,7 +4366,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="37" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>46</v>
       </c>
@@ -4355,10 +4374,10 @@
         <v>34</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="G37" s="3">
         <v>2</v>
@@ -4401,7 +4420,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="38" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>46</v>
       </c>
@@ -4409,10 +4428,10 @@
         <v>35</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="G38" s="3">
         <v>2</v>
@@ -4455,7 +4474,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="39" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>46</v>
       </c>
@@ -4463,10 +4482,10 @@
         <v>36</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="G39" s="3">
         <v>2</v>
@@ -4509,7 +4528,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="40" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>46</v>
       </c>
@@ -4517,10 +4536,10 @@
         <v>37</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="G40" s="3">
         <v>2</v>
@@ -4563,7 +4582,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="41" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>46</v>
       </c>
@@ -4571,10 +4590,10 @@
         <v>38</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="G41" s="3">
         <v>2</v>
@@ -4617,7 +4636,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="42" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>46</v>
       </c>
@@ -4625,10 +4644,10 @@
         <v>39</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="G42" s="3">
         <v>2</v>
@@ -4671,7 +4690,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="43" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
         <v>46</v>
       </c>
@@ -4679,10 +4698,10 @@
         <v>40</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="G43" s="3">
         <v>2</v>
@@ -4725,7 +4744,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="44" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>47</v>
       </c>
@@ -4733,10 +4752,10 @@
         <v>41</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>39</v>
+        <v>166</v>
       </c>
       <c r="G44" s="3">
         <v>2</v>
@@ -4779,7 +4798,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="45" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>47</v>
       </c>
@@ -4787,10 +4806,10 @@
         <v>42</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>39</v>
+        <v>166</v>
       </c>
       <c r="G45" s="3">
         <v>2</v>
@@ -4833,7 +4852,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="46" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>47</v>
       </c>
@@ -4841,10 +4860,10 @@
         <v>43</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>39</v>
+        <v>166</v>
       </c>
       <c r="G46" s="3">
         <v>2</v>
@@ -4887,7 +4906,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="47" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>47</v>
       </c>
@@ -4895,10 +4914,10 @@
         <v>44</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>39</v>
+        <v>166</v>
       </c>
       <c r="G47" s="3">
         <v>2</v>
@@ -4941,7 +4960,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="48" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>47</v>
       </c>
@@ -4949,10 +4968,10 @@
         <v>45</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>39</v>
+        <v>166</v>
       </c>
       <c r="G48" s="3">
         <v>2</v>
@@ -4995,7 +5014,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="49" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>47</v>
       </c>
@@ -5003,10 +5022,10 @@
         <v>46</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>39</v>
+        <v>166</v>
       </c>
       <c r="G49" s="3">
         <v>2</v>
@@ -5049,7 +5068,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="50" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>47</v>
       </c>
@@ -5057,10 +5076,10 @@
         <v>47</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>39</v>
+        <v>166</v>
       </c>
       <c r="G50" s="3">
         <v>2</v>
@@ -5103,7 +5122,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="51" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>47</v>
       </c>
@@ -5111,10 +5130,10 @@
         <v>48</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>39</v>
+        <v>166</v>
       </c>
       <c r="G51" s="3">
         <v>2</v>
@@ -5157,7 +5176,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="52" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>47</v>
       </c>
@@ -5165,10 +5184,10 @@
         <v>49</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>39</v>
+        <v>166</v>
       </c>
       <c r="G52" s="3">
         <v>2</v>
@@ -5211,7 +5230,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="53" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A53" s="11" t="s">
         <v>47</v>
       </c>
@@ -5219,10 +5238,10 @@
         <v>50</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>39</v>
+        <v>166</v>
       </c>
       <c r="G53" s="3">
         <v>2</v>
@@ -5265,7 +5284,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>48</v>
       </c>
@@ -5273,10 +5292,10 @@
         <v>51</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>39</v>
+        <v>182</v>
       </c>
       <c r="G54" s="3">
         <v>2</v>
@@ -5319,7 +5338,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="55" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>48</v>
       </c>
@@ -5327,10 +5346,10 @@
         <v>52</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>39</v>
+        <v>172</v>
       </c>
       <c r="G55" s="3">
         <v>2</v>
@@ -5373,7 +5392,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="56" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>48</v>
       </c>
@@ -5381,10 +5400,10 @@
         <v>53</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>39</v>
+        <v>172</v>
       </c>
       <c r="G56" s="3">
         <v>2</v>
@@ -5427,7 +5446,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="57" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>48</v>
       </c>
@@ -5435,10 +5454,10 @@
         <v>54</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>39</v>
+        <v>172</v>
       </c>
       <c r="G57" s="3">
         <v>2</v>
@@ -5481,7 +5500,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="58" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>48</v>
       </c>
@@ -5489,10 +5508,10 @@
         <v>55</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>39</v>
+        <v>172</v>
       </c>
       <c r="G58" s="3">
         <v>2</v>
@@ -5535,7 +5554,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="59" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>48</v>
       </c>
@@ -5543,10 +5562,10 @@
         <v>56</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>39</v>
+        <v>172</v>
       </c>
       <c r="G59" s="3">
         <v>2</v>
@@ -5589,7 +5608,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="60" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A60" s="11" t="s">
         <v>48</v>
       </c>
@@ -5597,10 +5616,10 @@
         <v>57</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>39</v>
+        <v>172</v>
       </c>
       <c r="G60" s="3">
         <v>2</v>
@@ -5643,7 +5662,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="61" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>88</v>
       </c>
@@ -5651,10 +5670,10 @@
         <v>58</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>39</v>
+        <v>172</v>
       </c>
       <c r="G61" s="3">
         <v>2</v>
@@ -5697,7 +5716,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="62" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>88</v>
       </c>
@@ -5705,10 +5724,10 @@
         <v>59</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>39</v>
+        <v>172</v>
       </c>
       <c r="G62" s="3">
         <v>2</v>
@@ -5751,7 +5770,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="63" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>88</v>
       </c>
@@ -5759,10 +5778,10 @@
         <v>60</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>39</v>
+        <v>172</v>
       </c>
       <c r="G63" s="3">
         <v>2</v>
@@ -5805,7 +5824,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="64" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>88</v>
       </c>
@@ -5813,10 +5832,10 @@
         <v>61</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>39</v>
+        <v>172</v>
       </c>
       <c r="G64" s="3">
         <v>2</v>
@@ -5859,7 +5878,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="65" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A65" s="11" t="s">
         <v>88</v>
       </c>
@@ -5867,10 +5886,10 @@
         <v>62</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>39</v>
+        <v>172</v>
       </c>
       <c r="G65" s="3">
         <v>2</v>
@@ -5913,7 +5932,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="66" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A66" s="11" t="s">
         <v>49</v>
       </c>
@@ -5924,7 +5943,7 @@
         <v>83</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>39</v>
+        <v>166</v>
       </c>
       <c r="G66" s="3">
         <v>2</v>
@@ -5967,7 +5986,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="67" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>50</v>
       </c>
@@ -5975,10 +5994,10 @@
         <v>64</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>39</v>
+        <v>176</v>
       </c>
       <c r="G67" s="3">
         <v>2</v>
@@ -6021,7 +6040,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="68" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>50</v>
       </c>
@@ -6029,10 +6048,10 @@
         <v>65</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>39</v>
+        <v>176</v>
       </c>
       <c r="G68" s="3">
         <v>2</v>
@@ -6075,7 +6094,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="69" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>50</v>
       </c>
@@ -6083,10 +6102,10 @@
         <v>66</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>39</v>
+        <v>176</v>
       </c>
       <c r="G69" s="3">
         <v>2</v>
@@ -6129,7 +6148,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="70" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>50</v>
       </c>
@@ -6137,10 +6156,10 @@
         <v>67</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>39</v>
+        <v>176</v>
       </c>
       <c r="G70" s="3">
         <v>2</v>
@@ -6183,7 +6202,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="71" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>50</v>
       </c>
@@ -6191,10 +6210,10 @@
         <v>68</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>39</v>
+        <v>176</v>
       </c>
       <c r="G71" s="3">
         <v>2</v>
@@ -6237,7 +6256,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="72" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>50</v>
       </c>
@@ -6245,10 +6264,10 @@
         <v>69</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>39</v>
+        <v>176</v>
       </c>
       <c r="G72" s="3">
         <v>2</v>
@@ -6291,7 +6310,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="73" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>50</v>
       </c>
@@ -6299,10 +6318,10 @@
         <v>70</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>39</v>
+        <v>176</v>
       </c>
       <c r="G73" s="3">
         <v>2</v>
@@ -6345,7 +6364,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="74" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A74" s="11" t="s">
         <v>50</v>
       </c>
@@ -6353,10 +6372,10 @@
         <v>71</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>39</v>
+        <v>176</v>
       </c>
       <c r="G74" s="3">
         <v>2</v>
@@ -6399,7 +6418,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="75" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>51</v>
       </c>
@@ -6407,10 +6426,10 @@
         <v>72</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>39</v>
+        <v>177</v>
       </c>
       <c r="G75" s="3">
         <v>2</v>
@@ -6453,7 +6472,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="76" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>51</v>
       </c>
@@ -6461,10 +6480,10 @@
         <v>73</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>39</v>
+        <v>177</v>
       </c>
       <c r="G76" s="3">
         <v>2</v>
@@ -6507,7 +6526,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="77" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>51</v>
       </c>
@@ -6515,10 +6534,10 @@
         <v>74</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>39</v>
+        <v>177</v>
       </c>
       <c r="G77" s="3">
         <v>2</v>
@@ -6561,7 +6580,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="78" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>51</v>
       </c>
@@ -6569,10 +6588,10 @@
         <v>75</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>39</v>
+        <v>177</v>
       </c>
       <c r="G78" s="3">
         <v>2</v>
@@ -6615,7 +6634,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="79" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>51</v>
       </c>
@@ -6623,10 +6642,10 @@
         <v>76</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>39</v>
+        <v>177</v>
       </c>
       <c r="G79" s="3">
         <v>2</v>
@@ -6669,7 +6688,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="80" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>51</v>
       </c>
@@ -6677,10 +6696,10 @@
         <v>77</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>39</v>
+        <v>177</v>
       </c>
       <c r="G80" s="3">
         <v>2</v>
@@ -6723,7 +6742,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="81" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>51</v>
       </c>
@@ -6731,10 +6750,10 @@
         <v>78</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>39</v>
+        <v>177</v>
       </c>
       <c r="G81" s="3">
         <v>2</v>
@@ -6777,7 +6796,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="82" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A82" s="11" t="s">
         <v>51</v>
       </c>
@@ -6785,10 +6804,10 @@
         <v>79</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>39</v>
+        <v>177</v>
       </c>
       <c r="G82" s="3">
         <v>2</v>
@@ -6831,7 +6850,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="83" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>52</v>
       </c>
@@ -6839,10 +6858,10 @@
         <v>80</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>146</v>
+        <v>183</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>39</v>
+        <v>178</v>
       </c>
       <c r="G83" s="3">
         <v>2</v>
@@ -6885,7 +6904,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="84" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>52</v>
       </c>
@@ -6893,10 +6912,10 @@
         <v>81</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>146</v>
+        <v>183</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>39</v>
+        <v>178</v>
       </c>
       <c r="G84" s="3">
         <v>2</v>
@@ -6939,7 +6958,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="85" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>52</v>
       </c>
@@ -6947,10 +6966,10 @@
         <v>82</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>146</v>
+        <v>183</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>39</v>
+        <v>178</v>
       </c>
       <c r="G85" s="3">
         <v>2</v>
@@ -6993,7 +7012,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="86" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>52</v>
       </c>
@@ -7001,10 +7020,10 @@
         <v>83</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>146</v>
+        <v>183</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>39</v>
+        <v>178</v>
       </c>
       <c r="G86" s="3">
         <v>2</v>
@@ -7047,7 +7066,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="87" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>52</v>
       </c>
@@ -7055,10 +7074,10 @@
         <v>84</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>146</v>
+        <v>183</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>39</v>
+        <v>178</v>
       </c>
       <c r="G87" s="3">
         <v>2</v>
@@ -7101,7 +7120,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="88" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A88" s="11" t="s">
         <v>52</v>
       </c>
@@ -7109,10 +7128,10 @@
         <v>85</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>146</v>
+        <v>183</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>39</v>
+        <v>178</v>
       </c>
       <c r="G88" s="3">
         <v>2</v>
@@ -7155,7 +7174,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="89" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>53</v>
       </c>
@@ -7163,10 +7182,10 @@
         <v>86</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>39</v>
+        <v>176</v>
       </c>
       <c r="G89" s="3">
         <v>2</v>
@@ -7209,7 +7228,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="90" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>53</v>
       </c>
@@ -7217,10 +7236,10 @@
         <v>87</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>39</v>
+        <v>176</v>
       </c>
       <c r="G90" s="3">
         <v>2</v>
@@ -7263,7 +7282,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="91" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>53</v>
       </c>
@@ -7271,10 +7290,10 @@
         <v>88</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>39</v>
+        <v>176</v>
       </c>
       <c r="G91" s="3">
         <v>2</v>
@@ -7317,7 +7336,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="92" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>53</v>
       </c>
@@ -7325,10 +7344,10 @@
         <v>89</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>39</v>
+        <v>176</v>
       </c>
       <c r="G92" s="3">
         <v>2</v>
@@ -7371,7 +7390,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="93" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>53</v>
       </c>
@@ -7379,10 +7398,10 @@
         <v>90</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>39</v>
+        <v>176</v>
       </c>
       <c r="G93" s="3">
         <v>2</v>
@@ -7425,7 +7444,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="94" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>53</v>
       </c>
@@ -7433,10 +7452,10 @@
         <v>91</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>39</v>
+        <v>176</v>
       </c>
       <c r="G94" s="3">
         <v>2</v>
@@ -7479,7 +7498,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="95" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>53</v>
       </c>
@@ -7487,10 +7506,10 @@
         <v>92</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>39</v>
+        <v>176</v>
       </c>
       <c r="G95" s="3">
         <v>2</v>
@@ -7533,7 +7552,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="96" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A96" s="11" t="s">
         <v>53</v>
       </c>
@@ -7541,10 +7560,10 @@
         <v>93</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>39</v>
+        <v>176</v>
       </c>
       <c r="G96" s="3">
         <v>2</v>
@@ -7587,7 +7606,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="97" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>89</v>
       </c>
@@ -7595,10 +7614,10 @@
         <v>94</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>39</v>
+        <v>177</v>
       </c>
       <c r="G97" s="3">
         <v>2</v>
@@ -7641,7 +7660,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="98" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>89</v>
       </c>
@@ -7649,10 +7668,10 @@
         <v>95</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>39</v>
+        <v>177</v>
       </c>
       <c r="G98" s="3">
         <v>2</v>
@@ -7695,7 +7714,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="99" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>89</v>
       </c>
@@ -7703,10 +7722,10 @@
         <v>96</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>39</v>
+        <v>177</v>
       </c>
       <c r="G99" s="3">
         <v>2</v>
@@ -7749,7 +7768,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="100" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>89</v>
       </c>
@@ -7757,10 +7776,10 @@
         <v>97</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>39</v>
+        <v>177</v>
       </c>
       <c r="G100" s="3">
         <v>2</v>
@@ -7803,7 +7822,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="101" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>89</v>
       </c>
@@ -7811,10 +7830,10 @@
         <v>98</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>39</v>
+        <v>177</v>
       </c>
       <c r="G101" s="3">
         <v>2</v>
@@ -7857,7 +7876,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="102" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A102" s="11" t="s">
         <v>89</v>
       </c>
@@ -7865,10 +7884,10 @@
         <v>99</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>39</v>
+        <v>177</v>
       </c>
       <c r="G102" s="3">
         <v>2</v>
@@ -7911,7 +7930,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="103" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A103" s="11" t="s">
         <v>54</v>
       </c>
@@ -7922,7 +7941,7 @@
         <v>82</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G103" s="3">
         <v>3</v>
@@ -7965,7 +7984,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="104" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>55</v>
       </c>
@@ -7973,10 +7992,10 @@
         <v>101</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>39</v>
+        <v>173</v>
       </c>
       <c r="G104" s="3">
         <v>2</v>
@@ -8019,7 +8038,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="105" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>55</v>
       </c>
@@ -8027,10 +8046,10 @@
         <v>102</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>39</v>
+        <v>173</v>
       </c>
       <c r="G105" s="3">
         <v>2</v>
@@ -8073,7 +8092,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="106" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>55</v>
       </c>
@@ -8081,10 +8100,10 @@
         <v>103</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>39</v>
+        <v>173</v>
       </c>
       <c r="G106" s="3">
         <v>2</v>
@@ -8127,7 +8146,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="107" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>55</v>
       </c>
@@ -8135,10 +8154,10 @@
         <v>104</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>39</v>
+        <v>173</v>
       </c>
       <c r="G107" s="3">
         <v>2</v>
@@ -8181,7 +8200,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="108" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A108" s="11" t="s">
         <v>55</v>
       </c>
@@ -8189,10 +8208,10 @@
         <v>105</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>39</v>
+        <v>173</v>
       </c>
       <c r="G108" s="3">
         <v>2</v>
@@ -8235,7 +8254,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="109" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>56</v>
       </c>
@@ -8243,10 +8262,10 @@
         <v>106</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>39</v>
+        <v>173</v>
       </c>
       <c r="G109" s="3">
         <v>2</v>
@@ -8289,7 +8308,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="110" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>56</v>
       </c>
@@ -8297,10 +8316,10 @@
         <v>107</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>39</v>
+        <v>173</v>
       </c>
       <c r="G110" s="3">
         <v>2</v>
@@ -8343,7 +8362,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="111" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>56</v>
       </c>
@@ -8351,10 +8370,10 @@
         <v>108</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>39</v>
+        <v>173</v>
       </c>
       <c r="G111" s="3">
         <v>2</v>
@@ -8397,7 +8416,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="112" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>56</v>
       </c>
@@ -8405,10 +8424,10 @@
         <v>109</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>39</v>
+        <v>173</v>
       </c>
       <c r="G112" s="3">
         <v>2</v>
@@ -8451,7 +8470,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="113" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A113" s="11" t="s">
         <v>56</v>
       </c>
@@ -8459,10 +8478,10 @@
         <v>110</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>39</v>
+        <v>173</v>
       </c>
       <c r="G113" s="3">
         <v>2</v>
@@ -8505,7 +8524,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="114" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>57</v>
       </c>
@@ -8513,10 +8532,10 @@
         <v>111</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>39</v>
+        <v>173</v>
       </c>
       <c r="G114" s="3">
         <v>2</v>
@@ -8559,7 +8578,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="115" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>57</v>
       </c>
@@ -8567,10 +8586,10 @@
         <v>112</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>39</v>
+        <v>173</v>
       </c>
       <c r="G115" s="3">
         <v>2</v>
@@ -8613,7 +8632,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="116" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>57</v>
       </c>
@@ -8621,10 +8640,10 @@
         <v>113</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>39</v>
+        <v>173</v>
       </c>
       <c r="G116" s="3">
         <v>2</v>
@@ -8667,7 +8686,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="117" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>57</v>
       </c>
@@ -8675,10 +8694,10 @@
         <v>114</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>39</v>
+        <v>173</v>
       </c>
       <c r="G117" s="3">
         <v>2</v>
@@ -8721,7 +8740,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="118" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A118" s="11" t="s">
         <v>57</v>
       </c>
@@ -8729,10 +8748,10 @@
         <v>115</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>39</v>
+        <v>173</v>
       </c>
       <c r="G118" s="3">
         <v>2</v>
@@ -8775,7 +8794,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="119" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>58</v>
       </c>
@@ -8783,10 +8802,10 @@
         <v>116</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>39</v>
+        <v>173</v>
       </c>
       <c r="G119" s="3">
         <v>2</v>
@@ -8829,7 +8848,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="120" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>58</v>
       </c>
@@ -8837,10 +8856,10 @@
         <v>117</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>39</v>
+        <v>173</v>
       </c>
       <c r="G120" s="3">
         <v>2</v>
@@ -8883,7 +8902,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="121" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>58</v>
       </c>
@@ -8891,10 +8910,10 @@
         <v>118</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>39</v>
+        <v>173</v>
       </c>
       <c r="G121" s="3">
         <v>2</v>
@@ -8937,7 +8956,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="122" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>58</v>
       </c>
@@ -8945,10 +8964,10 @@
         <v>119</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>39</v>
+        <v>173</v>
       </c>
       <c r="G122" s="3">
         <v>2</v>
@@ -8991,7 +9010,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="123" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A123" s="11" t="s">
         <v>58</v>
       </c>
@@ -8999,10 +9018,10 @@
         <v>120</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>39</v>
+        <v>173</v>
       </c>
       <c r="G123" s="3">
         <v>2</v>
@@ -9045,7 +9064,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="124" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>59</v>
       </c>
@@ -9053,10 +9072,10 @@
         <v>121</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>39</v>
+        <v>173</v>
       </c>
       <c r="G124" s="3">
         <v>2</v>
@@ -9099,7 +9118,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="125" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>59</v>
       </c>
@@ -9107,10 +9126,10 @@
         <v>122</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>39</v>
+        <v>173</v>
       </c>
       <c r="G125" s="3">
         <v>2</v>
@@ -9153,7 +9172,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="126" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>59</v>
       </c>
@@ -9161,10 +9180,10 @@
         <v>123</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>39</v>
+        <v>173</v>
       </c>
       <c r="G126" s="3">
         <v>2</v>
@@ -9207,7 +9226,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="127" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>59</v>
       </c>
@@ -9215,10 +9234,10 @@
         <v>124</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>39</v>
+        <v>173</v>
       </c>
       <c r="G127" s="3">
         <v>2</v>
@@ -9261,7 +9280,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="128" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A128" s="11" t="s">
         <v>59</v>
       </c>
@@ -9269,10 +9288,10 @@
         <v>125</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>39</v>
+        <v>173</v>
       </c>
       <c r="G128" s="3">
         <v>2</v>
@@ -9315,7 +9334,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="129" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>60</v>
       </c>
@@ -9323,10 +9342,10 @@
         <v>126</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>39</v>
+        <v>173</v>
       </c>
       <c r="G129" s="3">
         <v>2</v>
@@ -9369,7 +9388,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="130" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>60</v>
       </c>
@@ -9377,10 +9396,10 @@
         <v>127</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>39</v>
+        <v>173</v>
       </c>
       <c r="G130" s="3">
         <v>2</v>
@@ -9423,7 +9442,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="131" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>60</v>
       </c>
@@ -9431,10 +9450,10 @@
         <v>128</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>39</v>
+        <v>173</v>
       </c>
       <c r="G131" s="3">
         <v>2</v>
@@ -9477,7 +9496,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="132" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>60</v>
       </c>
@@ -9485,10 +9504,10 @@
         <v>129</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>39</v>
+        <v>173</v>
       </c>
       <c r="G132" s="3">
         <v>2</v>
@@ -9531,7 +9550,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="133" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A133" s="11" t="s">
         <v>60</v>
       </c>
@@ -9539,10 +9558,10 @@
         <v>130</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>39</v>
+        <v>173</v>
       </c>
       <c r="G133" s="3">
         <v>2</v>
@@ -9585,7 +9604,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="134" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
         <v>61</v>
       </c>
@@ -9593,10 +9612,10 @@
         <v>131</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>39</v>
+        <v>173</v>
       </c>
       <c r="G134" s="3">
         <v>2</v>
@@ -9639,7 +9658,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="135" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
         <v>61</v>
       </c>
@@ -9647,10 +9666,10 @@
         <v>132</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>39</v>
+        <v>173</v>
       </c>
       <c r="G135" s="3">
         <v>2</v>
@@ -9693,7 +9712,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="136" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
         <v>61</v>
       </c>
@@ -9701,10 +9720,10 @@
         <v>133</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>39</v>
+        <v>173</v>
       </c>
       <c r="G136" s="3">
         <v>2</v>
@@ -9747,7 +9766,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="137" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
         <v>61</v>
       </c>
@@ -9755,10 +9774,10 @@
         <v>134</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>39</v>
+        <v>173</v>
       </c>
       <c r="G137" s="3">
         <v>2</v>
@@ -9801,7 +9820,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="138" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A138" s="11" t="s">
         <v>61</v>
       </c>
@@ -9809,10 +9828,10 @@
         <v>135</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>39</v>
+        <v>173</v>
       </c>
       <c r="G138" s="3">
         <v>2</v>
@@ -9855,7 +9874,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="139" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
         <v>90</v>
       </c>
@@ -9866,7 +9885,7 @@
         <v>138</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>39</v>
+        <v>173</v>
       </c>
       <c r="G139" s="3">
         <v>2</v>
@@ -9909,7 +9928,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="140" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>90</v>
       </c>
@@ -9920,7 +9939,7 @@
         <v>138</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>39</v>
+        <v>173</v>
       </c>
       <c r="G140" s="3">
         <v>2</v>
@@ -9963,7 +9982,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="141" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
         <v>90</v>
       </c>
@@ -9974,7 +9993,7 @@
         <v>138</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>39</v>
+        <v>173</v>
       </c>
       <c r="G141" s="3">
         <v>2</v>
@@ -10017,7 +10036,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="142" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
         <v>90</v>
       </c>
@@ -10028,7 +10047,7 @@
         <v>138</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>39</v>
+        <v>173</v>
       </c>
       <c r="G142" s="3">
         <v>2</v>
@@ -10071,7 +10090,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="143" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
         <v>90</v>
       </c>
@@ -10082,7 +10101,7 @@
         <v>138</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>39</v>
+        <v>173</v>
       </c>
       <c r="G143" s="3">
         <v>2</v>
@@ -10125,7 +10144,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="144" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A144" s="11" t="s">
         <v>90</v>
       </c>
@@ -10136,7 +10155,7 @@
         <v>138</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>39</v>
+        <v>173</v>
       </c>
       <c r="G144" s="3">
         <v>2</v>
@@ -10179,7 +10198,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="145" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A145" s="11" t="s">
         <v>62</v>
       </c>
@@ -10190,7 +10209,7 @@
         <v>81</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>39</v>
+        <v>169</v>
       </c>
       <c r="G145" s="3">
         <v>2</v>
@@ -10233,7 +10252,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="146" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
         <v>63</v>
       </c>
@@ -10241,10 +10260,10 @@
         <v>143</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>39</v>
+        <v>179</v>
       </c>
       <c r="G146" s="3">
         <v>2</v>
@@ -10287,7 +10306,7 @@
         <v>1344</v>
       </c>
     </row>
-    <row r="147" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
         <v>63</v>
       </c>
@@ -10295,10 +10314,10 @@
         <v>144</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>39</v>
+        <v>179</v>
       </c>
       <c r="G147" s="3">
         <v>2</v>
@@ -10341,7 +10360,7 @@
         <v>1344</v>
       </c>
     </row>
-    <row r="148" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
         <v>63</v>
       </c>
@@ -10349,10 +10368,10 @@
         <v>145</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>39</v>
+        <v>179</v>
       </c>
       <c r="G148" s="3">
         <v>2</v>
@@ -10395,7 +10414,7 @@
         <v>1344</v>
       </c>
     </row>
-    <row r="149" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A149" s="11" t="s">
         <v>63</v>
       </c>
@@ -10403,10 +10422,10 @@
         <v>146</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>39</v>
+        <v>179</v>
       </c>
       <c r="G149" s="3">
         <v>2</v>
@@ -10449,7 +10468,7 @@
         <v>1344</v>
       </c>
     </row>
-    <row r="150" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
         <v>64</v>
       </c>
@@ -10457,10 +10476,10 @@
         <v>147</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>39</v>
+        <v>179</v>
       </c>
       <c r="G150" s="3">
         <v>2</v>
@@ -10503,7 +10522,7 @@
         <v>1472</v>
       </c>
     </row>
-    <row r="151" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
         <v>64</v>
       </c>
@@ -10511,10 +10530,10 @@
         <v>148</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>39</v>
+        <v>179</v>
       </c>
       <c r="G151" s="3">
         <v>2</v>
@@ -10557,7 +10576,7 @@
         <v>1472</v>
       </c>
     </row>
-    <row r="152" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
         <v>64</v>
       </c>
@@ -10565,10 +10584,10 @@
         <v>149</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>39</v>
+        <v>179</v>
       </c>
       <c r="G152" s="3">
         <v>2</v>
@@ -10611,7 +10630,7 @@
         <v>1472</v>
       </c>
     </row>
-    <row r="153" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A153" s="11" t="s">
         <v>64</v>
       </c>
@@ -10619,10 +10638,10 @@
         <v>150</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>39</v>
+        <v>179</v>
       </c>
       <c r="G153" s="3">
         <v>2</v>
@@ -10665,7 +10684,7 @@
         <v>1472</v>
       </c>
     </row>
-    <row r="154" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
         <v>65</v>
       </c>
@@ -10673,10 +10692,10 @@
         <v>151</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>39</v>
+        <v>179</v>
       </c>
       <c r="G154" s="3">
         <v>2</v>
@@ -10719,7 +10738,7 @@
         <v>1664</v>
       </c>
     </row>
-    <row r="155" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
         <v>65</v>
       </c>
@@ -10727,10 +10746,10 @@
         <v>152</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>39</v>
+        <v>179</v>
       </c>
       <c r="G155" s="3">
         <v>2</v>
@@ -10773,7 +10792,7 @@
         <v>1664</v>
       </c>
     </row>
-    <row r="156" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
         <v>65</v>
       </c>
@@ -10781,10 +10800,10 @@
         <v>153</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>39</v>
+        <v>179</v>
       </c>
       <c r="G156" s="3">
         <v>2</v>
@@ -10827,7 +10846,7 @@
         <v>1664</v>
       </c>
     </row>
-    <row r="157" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
         <v>65</v>
       </c>
@@ -10835,10 +10854,10 @@
         <v>154</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>39</v>
+        <v>179</v>
       </c>
       <c r="G157" s="3">
         <v>2</v>
@@ -10881,7 +10900,7 @@
         <v>1664</v>
       </c>
     </row>
-    <row r="158" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A158" s="11" t="s">
         <v>65</v>
       </c>
@@ -10889,10 +10908,10 @@
         <v>155</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>39</v>
+        <v>179</v>
       </c>
       <c r="G158" s="3">
         <v>2</v>
@@ -10935,7 +10954,7 @@
         <v>1664</v>
       </c>
     </row>
-    <row r="159" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
         <v>66</v>
       </c>
@@ -10943,10 +10962,10 @@
         <v>156</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>39</v>
+        <v>179</v>
       </c>
       <c r="G159" s="3">
         <v>2</v>
@@ -10989,7 +11008,7 @@
         <v>1951</v>
       </c>
     </row>
-    <row r="160" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
         <v>66</v>
       </c>
@@ -10997,10 +11016,10 @@
         <v>157</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>39</v>
+        <v>179</v>
       </c>
       <c r="G160" s="3">
         <v>2</v>
@@ -11043,7 +11062,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="161" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
         <v>66</v>
       </c>
@@ -11051,10 +11070,10 @@
         <v>158</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>39</v>
+        <v>179</v>
       </c>
       <c r="G161" s="3">
         <v>2</v>
@@ -11097,7 +11116,7 @@
         <v>2061</v>
       </c>
     </row>
-    <row r="162" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
         <v>66</v>
       </c>
@@ -11105,10 +11124,10 @@
         <v>159</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>39</v>
+        <v>179</v>
       </c>
       <c r="G162" s="3">
         <v>2</v>
@@ -11151,7 +11170,7 @@
         <v>2095</v>
       </c>
     </row>
-    <row r="163" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
         <v>66</v>
       </c>
@@ -11159,10 +11178,10 @@
         <v>160</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>39</v>
+        <v>179</v>
       </c>
       <c r="G163" s="3">
         <v>2</v>
@@ -11205,7 +11224,7 @@
         <v>2151</v>
       </c>
     </row>
-    <row r="164" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
         <v>66</v>
       </c>
@@ -11213,10 +11232,10 @@
         <v>161</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>39</v>
+        <v>179</v>
       </c>
       <c r="G164" s="3">
         <v>2</v>
@@ -11259,7 +11278,7 @@
         <v>2151</v>
       </c>
     </row>
-    <row r="165" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
         <v>66</v>
       </c>
@@ -11267,10 +11286,10 @@
         <v>162</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>39</v>
+        <v>179</v>
       </c>
       <c r="G165" s="3">
         <v>2</v>
@@ -11313,7 +11332,7 @@
         <v>2151</v>
       </c>
     </row>
-    <row r="166" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
         <v>66</v>
       </c>
@@ -11321,10 +11340,10 @@
         <v>163</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>39</v>
+        <v>179</v>
       </c>
       <c r="G166" s="3">
         <v>2</v>
@@ -11367,7 +11386,7 @@
         <v>2151</v>
       </c>
     </row>
-    <row r="167" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
         <v>66</v>
       </c>
@@ -11375,10 +11394,10 @@
         <v>164</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>39</v>
+        <v>179</v>
       </c>
       <c r="G167" s="3">
         <v>2</v>
@@ -11421,7 +11440,7 @@
         <v>2151</v>
       </c>
     </row>
-    <row r="168" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
         <v>66</v>
       </c>
@@ -11429,10 +11448,10 @@
         <v>165</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>39</v>
+        <v>179</v>
       </c>
       <c r="G168" s="3">
         <v>2</v>
@@ -11475,7 +11494,7 @@
         <v>2151</v>
       </c>
     </row>
-    <row r="169" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
         <v>66</v>
       </c>
@@ -11483,10 +11502,10 @@
         <v>166</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>39</v>
+        <v>179</v>
       </c>
       <c r="G169" s="3">
         <v>2</v>
@@ -11529,7 +11548,7 @@
         <v>2151</v>
       </c>
     </row>
-    <row r="170" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A170" s="11" t="s">
         <v>66</v>
       </c>
@@ -11537,10 +11556,10 @@
         <v>167</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>39</v>
+        <v>179</v>
       </c>
       <c r="G170" s="3">
         <v>2</v>
@@ -11583,7 +11602,7 @@
         <v>2151</v>
       </c>
     </row>
-    <row r="171" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
         <v>67</v>
       </c>
@@ -11591,10 +11610,10 @@
         <v>168</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>39</v>
+        <v>179</v>
       </c>
       <c r="G171" s="3">
         <v>2</v>
@@ -11637,7 +11656,7 @@
         <v>2384</v>
       </c>
     </row>
-    <row r="172" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
         <v>67</v>
       </c>
@@ -11645,10 +11664,10 @@
         <v>169</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>39</v>
+        <v>179</v>
       </c>
       <c r="G172" s="3">
         <v>2</v>
@@ -11691,7 +11710,7 @@
         <v>2384</v>
       </c>
     </row>
-    <row r="173" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
         <v>67</v>
       </c>
@@ -11699,10 +11718,10 @@
         <v>170</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>39</v>
+        <v>179</v>
       </c>
       <c r="G173" s="3">
         <v>2</v>
@@ -11745,7 +11764,7 @@
         <v>2384</v>
       </c>
     </row>
-    <row r="174" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
         <v>67</v>
       </c>
@@ -11753,10 +11772,10 @@
         <v>171</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>39</v>
+        <v>179</v>
       </c>
       <c r="G174" s="3">
         <v>2</v>
@@ -11799,7 +11818,7 @@
         <v>2384</v>
       </c>
     </row>
-    <row r="175" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A175" s="11" t="s">
         <v>67</v>
       </c>
@@ -11807,10 +11826,10 @@
         <v>172</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>39</v>
+        <v>179</v>
       </c>
       <c r="G175" s="3">
         <v>2</v>
@@ -11853,7 +11872,7 @@
         <v>2384</v>
       </c>
     </row>
-    <row r="176" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
         <v>68</v>
       </c>
@@ -11861,10 +11880,10 @@
         <v>173</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>39</v>
+        <v>179</v>
       </c>
       <c r="G176" s="3">
         <v>2</v>
@@ -11907,7 +11926,7 @@
         <v>2546</v>
       </c>
     </row>
-    <row r="177" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
         <v>68</v>
       </c>
@@ -11915,10 +11934,10 @@
         <v>174</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>39</v>
+        <v>179</v>
       </c>
       <c r="G177" s="3">
         <v>2</v>
@@ -11961,7 +11980,7 @@
         <v>2546</v>
       </c>
     </row>
-    <row r="178" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
         <v>68</v>
       </c>
@@ -11969,10 +11988,10 @@
         <v>175</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>39</v>
+        <v>179</v>
       </c>
       <c r="G178" s="3">
         <v>2</v>
@@ -12015,7 +12034,7 @@
         <v>2546</v>
       </c>
     </row>
-    <row r="179" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
         <v>68</v>
       </c>
@@ -12023,10 +12042,10 @@
         <v>176</v>
       </c>
       <c r="C179" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>39</v>
+        <v>179</v>
       </c>
       <c r="G179" s="3">
         <v>2</v>
@@ -12069,7 +12088,7 @@
         <v>2546</v>
       </c>
     </row>
-    <row r="180" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
         <v>68</v>
       </c>
@@ -12077,10 +12096,10 @@
         <v>177</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>39</v>
+        <v>179</v>
       </c>
       <c r="G180" s="3">
         <v>2</v>
@@ -12123,7 +12142,7 @@
         <v>2546</v>
       </c>
     </row>
-    <row r="181" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
         <v>68</v>
       </c>
@@ -12131,10 +12150,10 @@
         <v>178</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>39</v>
+        <v>179</v>
       </c>
       <c r="G181" s="3">
         <v>2</v>
@@ -12177,7 +12196,7 @@
         <v>2546</v>
       </c>
     </row>
-    <row r="182" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
         <v>68</v>
       </c>
@@ -12185,10 +12204,10 @@
         <v>179</v>
       </c>
       <c r="C182" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>39</v>
+        <v>179</v>
       </c>
       <c r="G182" s="3">
         <v>2</v>
@@ -12231,7 +12250,7 @@
         <v>2546</v>
       </c>
     </row>
-    <row r="183" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A183" s="11" t="s">
         <v>68</v>
       </c>
@@ -12239,10 +12258,10 @@
         <v>180</v>
       </c>
       <c r="C183" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>39</v>
+        <v>179</v>
       </c>
       <c r="G183" s="3">
         <v>2</v>
@@ -12285,7 +12304,7 @@
         <v>2546</v>
       </c>
     </row>
-    <row r="184" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A184" s="11" t="s">
         <v>68</v>
       </c>
@@ -12293,10 +12312,10 @@
         <v>181</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>39</v>
+        <v>179</v>
       </c>
       <c r="G184" s="3">
         <v>2</v>
@@ -12339,7 +12358,7 @@
         <v>2546</v>
       </c>
     </row>
-    <row r="185" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
         <v>92</v>
       </c>
@@ -12347,10 +12366,10 @@
         <v>182</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>39</v>
+        <v>179</v>
       </c>
       <c r="G185" s="3">
         <v>2</v>
@@ -12393,7 +12412,7 @@
         <v>3035</v>
       </c>
     </row>
-    <row r="186" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
         <v>92</v>
       </c>
@@ -12401,10 +12420,10 @@
         <v>183</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>39</v>
+        <v>179</v>
       </c>
       <c r="G186" s="3">
         <v>2</v>
@@ -12447,7 +12466,7 @@
         <v>3035</v>
       </c>
     </row>
-    <row r="187" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
         <v>92</v>
       </c>
@@ -12455,10 +12474,10 @@
         <v>184</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>39</v>
+        <v>179</v>
       </c>
       <c r="G187" s="3">
         <v>2</v>
@@ -12501,7 +12520,7 @@
         <v>3035</v>
       </c>
     </row>
-    <row r="188" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
         <v>92</v>
       </c>
@@ -12509,10 +12528,10 @@
         <v>185</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>39</v>
+        <v>179</v>
       </c>
       <c r="G188" s="3">
         <v>2</v>
@@ -12555,7 +12574,7 @@
         <v>3035</v>
       </c>
     </row>
-    <row r="189" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
         <v>92</v>
       </c>
@@ -12563,10 +12582,10 @@
         <v>186</v>
       </c>
       <c r="C189" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>39</v>
+        <v>179</v>
       </c>
       <c r="G189" s="3">
         <v>2</v>
@@ -12609,7 +12628,7 @@
         <v>3035</v>
       </c>
     </row>
-    <row r="190" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
         <v>92</v>
       </c>
@@ -12617,10 +12636,10 @@
         <v>187</v>
       </c>
       <c r="C190" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>39</v>
+        <v>179</v>
       </c>
       <c r="G190" s="3">
         <v>2</v>
@@ -12663,7 +12682,7 @@
         <v>3035</v>
       </c>
     </row>
-    <row r="191" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
         <v>92</v>
       </c>
@@ -12671,10 +12690,10 @@
         <v>188</v>
       </c>
       <c r="C191" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>39</v>
+        <v>179</v>
       </c>
       <c r="G191" s="3">
         <v>2</v>
@@ -12717,7 +12736,7 @@
         <v>3035</v>
       </c>
     </row>
-    <row r="192" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A192" s="11" t="s">
         <v>92</v>
       </c>
@@ -12725,10 +12744,10 @@
         <v>189</v>
       </c>
       <c r="C192" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>39</v>
+        <v>179</v>
       </c>
       <c r="G192" s="3">
         <v>2</v>
@@ -12771,7 +12790,7 @@
         <v>3035</v>
       </c>
     </row>
-    <row r="193" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A193" s="11" t="s">
         <v>69</v>
       </c>
@@ -12782,7 +12801,7 @@
         <v>85</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>39</v>
+        <v>167</v>
       </c>
       <c r="G193" s="3">
         <v>2</v>
@@ -12825,7 +12844,7 @@
         <v>3475</v>
       </c>
     </row>
-    <row r="194" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A194" s="12" t="s">
         <v>86</v>
       </c>
@@ -12836,7 +12855,7 @@
         <v>84</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>39</v>
+        <v>165</v>
       </c>
       <c r="G194" s="3">
         <v>2</v>
@@ -12879,7 +12898,7 @@
         <v>3525</v>
       </c>
     </row>
-    <row r="195" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
         <v>70</v>
       </c>
@@ -12887,10 +12906,10 @@
         <v>192</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>39</v>
+        <v>180</v>
       </c>
       <c r="G195" s="3">
         <v>2</v>
@@ -12933,7 +12952,7 @@
         <v>6925</v>
       </c>
     </row>
-    <row r="196" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
         <v>70</v>
       </c>
@@ -12941,10 +12960,10 @@
         <v>193</v>
       </c>
       <c r="C196" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>39</v>
+        <v>180</v>
       </c>
       <c r="G196" s="3">
         <v>2</v>
@@ -12987,7 +13006,7 @@
         <v>6925</v>
       </c>
     </row>
-    <row r="197" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
         <v>70</v>
       </c>
@@ -12995,10 +13014,10 @@
         <v>194</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>39</v>
+        <v>180</v>
       </c>
       <c r="G197" s="3">
         <v>2</v>
@@ -13041,7 +13060,7 @@
         <v>6925</v>
       </c>
     </row>
-    <row r="198" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
         <v>70</v>
       </c>
@@ -13049,10 +13068,10 @@
         <v>195</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>39</v>
+        <v>180</v>
       </c>
       <c r="G198" s="3">
         <v>2</v>
@@ -13095,7 +13114,7 @@
         <v>6925</v>
       </c>
     </row>
-    <row r="199" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A199" s="11" t="s">
         <v>70</v>
       </c>
@@ -13103,10 +13122,10 @@
         <v>196</v>
       </c>
       <c r="C199" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>39</v>
+        <v>180</v>
       </c>
       <c r="G199" s="3">
         <v>2</v>
@@ -13149,7 +13168,7 @@
         <v>6925</v>
       </c>
     </row>
-    <row r="200" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
         <v>71</v>
       </c>
@@ -13157,10 +13176,10 @@
         <v>197</v>
       </c>
       <c r="C200" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>39</v>
+        <v>180</v>
       </c>
       <c r="G200" s="3">
         <v>2</v>
@@ -13203,7 +13222,7 @@
         <v>7500</v>
       </c>
     </row>
-    <row r="201" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
         <v>71</v>
       </c>
@@ -13211,10 +13230,10 @@
         <v>198</v>
       </c>
       <c r="C201" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>39</v>
+        <v>180</v>
       </c>
       <c r="G201" s="3">
         <v>2</v>
@@ -13257,7 +13276,7 @@
         <v>7500</v>
       </c>
     </row>
-    <row r="202" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
         <v>71</v>
       </c>
@@ -13265,10 +13284,10 @@
         <v>199</v>
       </c>
       <c r="C202" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>39</v>
+        <v>180</v>
       </c>
       <c r="G202" s="3">
         <v>2</v>
@@ -13311,7 +13330,7 @@
         <v>7500</v>
       </c>
     </row>
-    <row r="203" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
         <v>71</v>
       </c>
@@ -13319,10 +13338,10 @@
         <v>200</v>
       </c>
       <c r="C203" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>39</v>
+        <v>180</v>
       </c>
       <c r="G203" s="3">
         <v>2</v>
@@ -13365,7 +13384,7 @@
         <v>7500</v>
       </c>
     </row>
-    <row r="204" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A204" s="11" t="s">
         <v>71</v>
       </c>
@@ -13373,10 +13392,10 @@
         <v>201</v>
       </c>
       <c r="C204" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>39</v>
+        <v>180</v>
       </c>
       <c r="G204" s="3">
         <v>2</v>
@@ -13419,7 +13438,7 @@
         <v>7500</v>
       </c>
     </row>
-    <row r="205" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
         <v>72</v>
       </c>
@@ -13427,10 +13446,10 @@
         <v>202</v>
       </c>
       <c r="C205" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>39</v>
+        <v>180</v>
       </c>
       <c r="G205" s="3">
         <v>2</v>
@@ -13473,7 +13492,7 @@
         <v>7800</v>
       </c>
     </row>
-    <row r="206" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
         <v>72</v>
       </c>
@@ -13481,10 +13500,10 @@
         <v>203</v>
       </c>
       <c r="C206" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>39</v>
+        <v>180</v>
       </c>
       <c r="G206" s="3">
         <v>2</v>
@@ -13527,7 +13546,7 @@
         <v>7800</v>
       </c>
     </row>
-    <row r="207" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
         <v>72</v>
       </c>
@@ -13535,10 +13554,10 @@
         <v>204</v>
       </c>
       <c r="C207" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>39</v>
+        <v>180</v>
       </c>
       <c r="G207" s="3">
         <v>2</v>
@@ -13581,7 +13600,7 @@
         <v>7800</v>
       </c>
     </row>
-    <row r="208" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A208" s="11" t="s">
         <v>72</v>
       </c>
@@ -13589,10 +13608,10 @@
         <v>205</v>
       </c>
       <c r="C208" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>39</v>
+        <v>180</v>
       </c>
       <c r="G208" s="3">
         <v>2</v>
@@ -13635,7 +13654,7 @@
         <v>7800</v>
       </c>
     </row>
-    <row r="209" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
         <v>73</v>
       </c>
@@ -13643,10 +13662,10 @@
         <v>206</v>
       </c>
       <c r="C209" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>39</v>
+        <v>180</v>
       </c>
       <c r="G209" s="3">
         <v>2</v>
@@ -13689,7 +13708,7 @@
         <v>8350</v>
       </c>
     </row>
-    <row r="210" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
         <v>73</v>
       </c>
@@ -13697,10 +13716,10 @@
         <v>207</v>
       </c>
       <c r="C210" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>39</v>
+        <v>180</v>
       </c>
       <c r="G210" s="3">
         <v>2</v>
@@ -13743,7 +13762,7 @@
         <v>8350</v>
       </c>
     </row>
-    <row r="211" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
         <v>73</v>
       </c>
@@ -13751,10 +13770,10 @@
         <v>208</v>
       </c>
       <c r="C211" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>39</v>
+        <v>180</v>
       </c>
       <c r="G211" s="3">
         <v>2</v>
@@ -13797,7 +13816,7 @@
         <v>8350</v>
       </c>
     </row>
-    <row r="212" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
         <v>73</v>
       </c>
@@ -13805,10 +13824,10 @@
         <v>209</v>
       </c>
       <c r="C212" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>39</v>
+        <v>180</v>
       </c>
       <c r="G212" s="3">
         <v>2</v>
@@ -13851,7 +13870,7 @@
         <v>8350</v>
       </c>
     </row>
-    <row r="213" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A213" s="11" t="s">
         <v>73</v>
       </c>
@@ -13859,10 +13878,10 @@
         <v>210</v>
       </c>
       <c r="C213" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>39</v>
+        <v>180</v>
       </c>
       <c r="G213" s="3">
         <v>2</v>
@@ -13905,7 +13924,7 @@
         <v>8350</v>
       </c>
     </row>
-    <row r="214" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
         <v>74</v>
       </c>
@@ -13913,10 +13932,10 @@
         <v>211</v>
       </c>
       <c r="C214" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>39</v>
+        <v>180</v>
       </c>
       <c r="G214" s="3">
         <v>2</v>
@@ -13959,7 +13978,7 @@
         <v>8900</v>
       </c>
     </row>
-    <row r="215" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
         <v>74</v>
       </c>
@@ -13967,10 +13986,10 @@
         <v>212</v>
       </c>
       <c r="C215" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>39</v>
+        <v>180</v>
       </c>
       <c r="G215" s="3">
         <v>2</v>
@@ -14013,7 +14032,7 @@
         <v>8900</v>
       </c>
     </row>
-    <row r="216" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
         <v>74</v>
       </c>
@@ -14021,10 +14040,10 @@
         <v>213</v>
       </c>
       <c r="C216" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>39</v>
+        <v>180</v>
       </c>
       <c r="G216" s="3">
         <v>2</v>
@@ -14067,7 +14086,7 @@
         <v>8900</v>
       </c>
     </row>
-    <row r="217" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
         <v>74</v>
       </c>
@@ -14075,10 +14094,10 @@
         <v>214</v>
       </c>
       <c r="C217" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>39</v>
+        <v>180</v>
       </c>
       <c r="G217" s="3">
         <v>2</v>
@@ -14121,7 +14140,7 @@
         <v>8900</v>
       </c>
     </row>
-    <row r="218" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A218" s="11" t="s">
         <v>74</v>
       </c>
@@ -14129,10 +14148,10 @@
         <v>215</v>
       </c>
       <c r="C218" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>39</v>
+        <v>180</v>
       </c>
       <c r="G218" s="3">
         <v>2</v>
@@ -14175,7 +14194,7 @@
         <v>8900</v>
       </c>
     </row>
-    <row r="219" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
         <v>75</v>
       </c>
@@ -14183,10 +14202,10 @@
         <v>216</v>
       </c>
       <c r="C219" s="3" t="s">
-        <v>163</v>
+        <v>185</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>39</v>
+        <v>171</v>
       </c>
       <c r="G219" s="3">
         <v>2</v>
@@ -14229,7 +14248,7 @@
         <v>9450</v>
       </c>
     </row>
-    <row r="220" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
         <v>75</v>
       </c>
@@ -14237,10 +14256,10 @@
         <v>217</v>
       </c>
       <c r="C220" s="3" t="s">
-        <v>163</v>
+        <v>185</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>39</v>
+        <v>171</v>
       </c>
       <c r="G220" s="3">
         <v>2</v>
@@ -14283,7 +14302,7 @@
         <v>9450</v>
       </c>
     </row>
-    <row r="221" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
         <v>75</v>
       </c>
@@ -14291,10 +14310,10 @@
         <v>218</v>
       </c>
       <c r="C221" s="3" t="s">
-        <v>163</v>
+        <v>185</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>39</v>
+        <v>171</v>
       </c>
       <c r="G221" s="3">
         <v>2</v>
@@ -14337,7 +14356,7 @@
         <v>9450</v>
       </c>
     </row>
-    <row r="222" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
         <v>75</v>
       </c>
@@ -14345,10 +14364,10 @@
         <v>219</v>
       </c>
       <c r="C222" s="3" t="s">
-        <v>163</v>
+        <v>185</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>39</v>
+        <v>171</v>
       </c>
       <c r="G222" s="3">
         <v>2</v>
@@ -14391,7 +14410,7 @@
         <v>9450</v>
       </c>
     </row>
-    <row r="223" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A223" s="11" t="s">
         <v>75</v>
       </c>
@@ -14399,10 +14418,10 @@
         <v>220</v>
       </c>
       <c r="C223" s="3" t="s">
-        <v>163</v>
+        <v>185</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>39</v>
+        <v>171</v>
       </c>
       <c r="G223" s="3">
         <v>2</v>
@@ -14445,7 +14464,7 @@
         <v>9450</v>
       </c>
     </row>
-    <row r="224" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
         <v>76</v>
       </c>
@@ -14453,10 +14472,10 @@
         <v>221</v>
       </c>
       <c r="C224" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>39</v>
+        <v>180</v>
       </c>
       <c r="G224" s="3">
         <v>2</v>
@@ -14499,7 +14518,7 @@
         <v>9450</v>
       </c>
     </row>
-    <row r="225" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
         <v>76</v>
       </c>
@@ -14507,10 +14526,10 @@
         <v>222</v>
       </c>
       <c r="C225" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>39</v>
+        <v>180</v>
       </c>
       <c r="G225" s="3">
         <v>2</v>
@@ -14553,7 +14572,7 @@
         <v>9450</v>
       </c>
     </row>
-    <row r="226" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
         <v>76</v>
       </c>
@@ -14561,10 +14580,10 @@
         <v>223</v>
       </c>
       <c r="C226" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>39</v>
+        <v>180</v>
       </c>
       <c r="G226" s="3">
         <v>2</v>
@@ -14607,7 +14626,7 @@
         <v>9450</v>
       </c>
     </row>
-    <row r="227" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
         <v>76</v>
       </c>
@@ -14615,10 +14634,10 @@
         <v>224</v>
       </c>
       <c r="C227" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>39</v>
+        <v>180</v>
       </c>
       <c r="G227" s="3">
         <v>2</v>
@@ -14661,7 +14680,7 @@
         <v>9450</v>
       </c>
     </row>
-    <row r="228" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A228" s="11" t="s">
         <v>76</v>
       </c>
@@ -14669,10 +14688,10 @@
         <v>225</v>
       </c>
       <c r="C228" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>39</v>
+        <v>180</v>
       </c>
       <c r="G228" s="3">
         <v>2</v>
@@ -14715,7 +14734,7 @@
         <v>9450</v>
       </c>
     </row>
-    <row r="229" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="s">
         <v>77</v>
       </c>
@@ -14723,10 +14742,10 @@
         <v>226</v>
       </c>
       <c r="C229" s="3" t="s">
-        <v>163</v>
+        <v>184</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>39</v>
+        <v>170</v>
       </c>
       <c r="G229" s="3">
         <v>2</v>
@@ -14769,7 +14788,7 @@
         <v>9450</v>
       </c>
     </row>
-    <row r="230" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
         <v>77</v>
       </c>
@@ -14777,10 +14796,10 @@
         <v>227</v>
       </c>
       <c r="C230" s="3" t="s">
-        <v>163</v>
+        <v>184</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>39</v>
+        <v>170</v>
       </c>
       <c r="G230" s="3">
         <v>2</v>
@@ -14823,7 +14842,7 @@
         <v>9450</v>
       </c>
     </row>
-    <row r="231" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
         <v>77</v>
       </c>
@@ -14831,10 +14850,10 @@
         <v>228</v>
       </c>
       <c r="C231" s="3" t="s">
-        <v>163</v>
+        <v>184</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>39</v>
+        <v>170</v>
       </c>
       <c r="G231" s="3">
         <v>2</v>
@@ -14877,7 +14896,7 @@
         <v>9450</v>
       </c>
     </row>
-    <row r="232" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="s">
         <v>77</v>
       </c>
@@ -14885,10 +14904,10 @@
         <v>229</v>
       </c>
       <c r="C232" s="3" t="s">
-        <v>163</v>
+        <v>184</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>39</v>
+        <v>170</v>
       </c>
       <c r="G232" s="3">
         <v>2</v>
@@ -14931,7 +14950,7 @@
         <v>9450</v>
       </c>
     </row>
-    <row r="233" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A233" s="11" t="s">
         <v>77</v>
       </c>
@@ -14939,10 +14958,10 @@
         <v>230</v>
       </c>
       <c r="C233" s="3" t="s">
-        <v>163</v>
+        <v>184</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>39</v>
+        <v>170</v>
       </c>
       <c r="G233" s="3">
         <v>2</v>
@@ -14985,7 +15004,7 @@
         <v>9450</v>
       </c>
     </row>
-    <row r="234" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="s">
         <v>78</v>
       </c>
@@ -14993,10 +15012,10 @@
         <v>231</v>
       </c>
       <c r="C234" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>39</v>
+        <v>180</v>
       </c>
       <c r="G234" s="3">
         <v>2</v>
@@ -15039,7 +15058,7 @@
         <v>8500</v>
       </c>
     </row>
-    <row r="235" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A235" s="2" t="s">
         <v>78</v>
       </c>
@@ -15047,10 +15066,10 @@
         <v>232</v>
       </c>
       <c r="C235" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>39</v>
+        <v>180</v>
       </c>
       <c r="G235" s="3">
         <v>2</v>
@@ -15093,7 +15112,7 @@
         <v>8500</v>
       </c>
     </row>
-    <row r="236" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A236" s="2" t="s">
         <v>78</v>
       </c>
@@ -15101,10 +15120,10 @@
         <v>233</v>
       </c>
       <c r="C236" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>39</v>
+        <v>180</v>
       </c>
       <c r="G236" s="3">
         <v>2</v>
@@ -15147,7 +15166,7 @@
         <v>8500</v>
       </c>
     </row>
-    <row r="237" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A237" s="2" t="s">
         <v>78</v>
       </c>
@@ -15155,10 +15174,10 @@
         <v>234</v>
       </c>
       <c r="C237" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>39</v>
+        <v>180</v>
       </c>
       <c r="G237" s="3">
         <v>2</v>
@@ -15201,7 +15220,7 @@
         <v>8500</v>
       </c>
     </row>
-    <row r="238" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A238" s="11" t="s">
         <v>78</v>
       </c>
@@ -15209,10 +15228,10 @@
         <v>235</v>
       </c>
       <c r="C238" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>39</v>
+        <v>180</v>
       </c>
       <c r="G238" s="3">
         <v>2</v>
@@ -15255,7 +15274,7 @@
         <v>8500</v>
       </c>
     </row>
-    <row r="239" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A239" s="2" t="s">
         <v>91</v>
       </c>
@@ -15263,10 +15282,10 @@
         <v>236</v>
       </c>
       <c r="C239" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>39</v>
+        <v>180</v>
       </c>
       <c r="G239" s="3">
         <v>2</v>
@@ -15309,7 +15328,7 @@
         <v>7050</v>
       </c>
     </row>
-    <row r="240" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
         <v>91</v>
       </c>
@@ -15317,10 +15336,10 @@
         <v>237</v>
       </c>
       <c r="C240" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>39</v>
+        <v>180</v>
       </c>
       <c r="G240" s="3">
         <v>2</v>
@@ -15363,7 +15382,7 @@
         <v>7050</v>
       </c>
     </row>
-    <row r="241" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
         <v>91</v>
       </c>
@@ -15371,10 +15390,10 @@
         <v>238</v>
       </c>
       <c r="C241" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>39</v>
+        <v>180</v>
       </c>
       <c r="G241" s="3">
         <v>2</v>
@@ -15417,7 +15436,7 @@
         <v>7050</v>
       </c>
     </row>
-    <row r="242" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A242" s="2" t="s">
         <v>91</v>
       </c>
@@ -15425,10 +15444,10 @@
         <v>239</v>
       </c>
       <c r="C242" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>39</v>
+        <v>180</v>
       </c>
       <c r="G242" s="3">
         <v>2</v>
@@ -15471,7 +15490,7 @@
         <v>7050</v>
       </c>
     </row>
-    <row r="243" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
         <v>91</v>
       </c>
@@ -15479,10 +15498,10 @@
         <v>240</v>
       </c>
       <c r="C243" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>39</v>
+        <v>180</v>
       </c>
       <c r="G243" s="3">
         <v>2</v>
@@ -15525,7 +15544,7 @@
         <v>7050</v>
       </c>
     </row>
-    <row r="244" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
         <v>91</v>
       </c>
@@ -15533,10 +15552,10 @@
         <v>241</v>
       </c>
       <c r="C244" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>39</v>
+        <v>180</v>
       </c>
       <c r="G244" s="3">
         <v>2</v>
@@ -15579,7 +15598,7 @@
         <v>7050</v>
       </c>
     </row>
-    <row r="245" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A245" s="2" t="s">
         <v>91</v>
       </c>
@@ -15587,10 +15606,10 @@
         <v>242</v>
       </c>
       <c r="C245" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>39</v>
+        <v>180</v>
       </c>
       <c r="G245" s="3">
         <v>2</v>
@@ -15633,7 +15652,7 @@
         <v>7050</v>
       </c>
     </row>
-    <row r="246" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A246" s="11" t="s">
         <v>91</v>
       </c>
@@ -15641,10 +15660,10 @@
         <v>243</v>
       </c>
       <c r="C246" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>39</v>
+        <v>180</v>
       </c>
       <c r="G246" s="3">
         <v>2</v>
@@ -15687,7 +15706,7 @@
         <v>7050</v>
       </c>
     </row>
-    <row r="247" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A247" s="11" t="s">
         <v>79</v>
       </c>
@@ -15698,7 +15717,7 @@
         <v>80</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G247" s="3">
         <v>1</v>
@@ -15741,15 +15760,15 @@
         <v>10164</v>
       </c>
     </row>
-    <row r="248" spans="1:20" ht="17" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B248" s="2">
         <v>245</v>
       </c>
       <c r="C248" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="D248" s="2" t="s">
-        <v>173</v>
+      <c r="D248" s="19" t="s">
+        <v>170</v>
       </c>
       <c r="G248" s="3">
         <v>2</v>
@@ -15782,15 +15801,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:20" ht="17" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B249" s="2">
         <v>246</v>
       </c>
       <c r="C249" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="D249" s="2" t="s">
-        <v>173</v>
+      <c r="D249" s="19" t="s">
+        <v>170</v>
       </c>
       <c r="G249" s="3">
         <v>2</v>
@@ -15823,15 +15842,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="250" spans="1:20" ht="17" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B250" s="2">
         <v>247</v>
       </c>
       <c r="C250" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="D250" s="2" t="s">
-        <v>173</v>
+      <c r="D250" s="19" t="s">
+        <v>170</v>
       </c>
       <c r="G250" s="3">
         <v>2</v>
@@ -15864,15 +15883,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="251" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B251" s="2">
         <v>248</v>
       </c>
       <c r="C251" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="D251" s="2" t="s">
-        <v>166</v>
+      <c r="D251" s="19" t="s">
+        <v>163</v>
       </c>
       <c r="G251" s="3">
         <v>3</v>
@@ -15905,15 +15924,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="252" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B252" s="2">
         <v>249</v>
       </c>
       <c r="C252" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="D252" s="2" t="s">
-        <v>166</v>
+      <c r="D252" s="19" t="s">
+        <v>163</v>
       </c>
       <c r="G252" s="3">
         <v>3</v>
@@ -15946,15 +15965,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="253" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B253" s="2">
         <v>250</v>
       </c>
       <c r="C253" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="D253" s="2" t="s">
-        <v>166</v>
+      <c r="D253" s="19" t="s">
+        <v>163</v>
       </c>
       <c r="G253" s="3">
         <v>3</v>
@@ -15987,15 +16006,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="254" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B254" s="2">
         <v>251</v>
       </c>
       <c r="C254" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="D254" s="2" t="s">
-        <v>172</v>
+      <c r="D254" s="19" t="s">
+        <v>169</v>
       </c>
       <c r="G254" s="3">
         <v>2</v>
@@ -16028,15 +16047,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="255" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B255" s="2">
         <v>252</v>
       </c>
       <c r="C255" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="D255" s="2" t="s">
-        <v>172</v>
+      <c r="D255" s="19" t="s">
+        <v>169</v>
       </c>
       <c r="G255" s="3">
         <v>2</v>
@@ -16069,15 +16088,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="256" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B256" s="2">
         <v>253</v>
       </c>
       <c r="C256" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="D256" s="2" t="s">
-        <v>172</v>
+      <c r="D256" s="19" t="s">
+        <v>169</v>
       </c>
       <c r="G256" s="3">
         <v>2</v>
@@ -16110,15 +16129,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="257" spans="2:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="257" spans="2:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B257" s="2">
         <v>254</v>
       </c>
       <c r="C257" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="D257" s="2" t="s">
-        <v>169</v>
+      <c r="D257" s="19" t="s">
+        <v>166</v>
       </c>
       <c r="G257" s="3">
         <v>2</v>
@@ -16151,15 +16170,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="258" spans="2:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="258" spans="2:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B258" s="2">
         <v>255</v>
       </c>
       <c r="C258" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="D258" s="2" t="s">
-        <v>169</v>
+      <c r="D258" s="19" t="s">
+        <v>166</v>
       </c>
       <c r="G258" s="3">
         <v>2</v>
@@ -16192,15 +16211,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="259" spans="2:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="259" spans="2:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B259" s="2">
         <v>256</v>
       </c>
       <c r="C259" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="D259" s="2" t="s">
-        <v>169</v>
+      <c r="D259" s="19" t="s">
+        <v>166</v>
       </c>
       <c r="G259" s="3">
         <v>2</v>
@@ -16233,15 +16252,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="260" spans="2:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="260" spans="2:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B260" s="2">
         <v>257</v>
       </c>
       <c r="C260" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="D260" s="2" t="s">
-        <v>168</v>
+      <c r="D260" s="19" t="s">
+        <v>165</v>
       </c>
       <c r="G260" s="3">
         <v>2</v>
@@ -16274,15 +16293,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="261" spans="2:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="261" spans="2:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B261" s="2">
         <v>258</v>
       </c>
       <c r="C261" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="D261" s="2" t="s">
-        <v>168</v>
+      <c r="D261" s="19" t="s">
+        <v>165</v>
       </c>
       <c r="G261" s="3">
         <v>2</v>
@@ -16315,15 +16334,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="262" spans="2:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="262" spans="2:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B262" s="2">
         <v>259</v>
       </c>
       <c r="C262" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="D262" s="2" t="s">
-        <v>168</v>
+      <c r="D262" s="19" t="s">
+        <v>165</v>
       </c>
       <c r="G262" s="3">
         <v>2</v>
@@ -16356,15 +16375,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="263" spans="2:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="263" spans="2:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B263" s="2">
         <v>260</v>
       </c>
       <c r="C263" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="D263" s="2" t="s">
-        <v>170</v>
+      <c r="D263" s="19" t="s">
+        <v>167</v>
       </c>
       <c r="G263" s="3">
         <v>2</v>
@@ -16397,15 +16416,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="264" spans="2:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="264" spans="2:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B264" s="2">
         <v>261</v>
       </c>
       <c r="C264" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="D264" s="2" t="s">
-        <v>170</v>
+      <c r="D264" s="19" t="s">
+        <v>167</v>
       </c>
       <c r="G264" s="3">
         <v>2</v>
@@ -16438,15 +16457,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="265" spans="2:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="265" spans="2:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B265" s="2">
         <v>262</v>
       </c>
       <c r="C265" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="D265" s="2" t="s">
-        <v>170</v>
+      <c r="D265" s="19" t="s">
+        <v>167</v>
       </c>
       <c r="G265" s="3">
         <v>2</v>
@@ -16479,14 +16498,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="266" spans="2:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="266" spans="2:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B266" s="2">
         <v>263</v>
       </c>
       <c r="C266" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="D266" s="2" t="s">
+      <c r="D266" s="19" t="s">
         <v>39</v>
       </c>
       <c r="G266" s="3">
@@ -16520,14 +16539,14 @@
         <v>19</v>
       </c>
     </row>
-    <row r="267" spans="2:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="267" spans="2:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B267" s="2">
         <v>264</v>
       </c>
       <c r="C267" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="D267" s="2" t="s">
+      <c r="D267" s="19" t="s">
         <v>39</v>
       </c>
       <c r="G267" s="3">
@@ -16561,14 +16580,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="268" spans="2:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="268" spans="2:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B268" s="2">
         <v>265</v>
       </c>
       <c r="C268" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="D268" s="2" t="s">
+      <c r="D268" s="19" t="s">
         <v>39</v>
       </c>
       <c r="G268" s="3">
@@ -16602,15 +16621,15 @@
         <v>21</v>
       </c>
     </row>
-    <row r="269" spans="2:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="269" spans="2:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B269" s="2">
         <v>266</v>
       </c>
       <c r="C269" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="D269" s="2" t="s">
-        <v>167</v>
+      <c r="D269" s="19" t="s">
+        <v>164</v>
       </c>
       <c r="G269" s="3">
         <v>1</v>
@@ -16643,15 +16662,15 @@
         <v>22</v>
       </c>
     </row>
-    <row r="270" spans="2:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="270" spans="2:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B270" s="2">
         <v>267</v>
       </c>
       <c r="C270" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="D270" s="2" t="s">
-        <v>167</v>
+      <c r="D270" s="19" t="s">
+        <v>164</v>
       </c>
       <c r="G270" s="3">
         <v>1</v>
@@ -16684,15 +16703,15 @@
         <v>23</v>
       </c>
     </row>
-    <row r="271" spans="2:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="271" spans="2:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B271" s="2">
         <v>268</v>
       </c>
       <c r="C271" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="D271" s="2" t="s">
-        <v>167</v>
+      <c r="D271" s="19" t="s">
+        <v>164</v>
       </c>
       <c r="G271" s="3">
         <v>1</v>
@@ -16725,15 +16744,15 @@
         <v>24</v>
       </c>
     </row>
-    <row r="272" spans="2:16" ht="17" x14ac:dyDescent="0.25">
+    <row r="272" spans="2:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B272" s="2">
         <v>269</v>
       </c>
       <c r="C272" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="D272" s="2" t="s">
-        <v>171</v>
+      <c r="D272" s="19" t="s">
+        <v>168</v>
       </c>
       <c r="G272" s="3">
         <v>1</v>
@@ -16766,15 +16785,15 @@
         <v>25</v>
       </c>
     </row>
-    <row r="273" spans="2:20" ht="17" x14ac:dyDescent="0.25">
+    <row r="273" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B273" s="2">
         <v>270</v>
       </c>
       <c r="C273" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="D273" s="2" t="s">
-        <v>171</v>
+      <c r="D273" s="19" t="s">
+        <v>168</v>
       </c>
       <c r="G273" s="3">
         <v>1</v>
@@ -16807,15 +16826,15 @@
         <v>26</v>
       </c>
     </row>
-    <row r="274" spans="2:20" ht="17" x14ac:dyDescent="0.25">
+    <row r="274" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B274" s="2">
         <v>271</v>
       </c>
       <c r="C274" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="D274" s="2" t="s">
-        <v>171</v>
+      <c r="D274" s="19" t="s">
+        <v>168</v>
       </c>
       <c r="G274" s="3">
         <v>1</v>
@@ -16848,7 +16867,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="275" spans="2:20" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="275" spans="2:20" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B275" s="14">
         <v>272</v>
       </c>
@@ -16856,7 +16875,7 @@
         <v>103</v>
       </c>
       <c r="D275" s="14" t="s">
-        <v>39</v>
+        <v>171</v>
       </c>
       <c r="G275" s="15">
         <v>1</v>
@@ -16900,15 +16919,15 @@
         <v>28</v>
       </c>
     </row>
-    <row r="276" spans="2:20" ht="17" x14ac:dyDescent="0.25">
+    <row r="276" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B276" s="2">
         <v>273</v>
       </c>
       <c r="C276" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="D276" s="2" t="s">
-        <v>39</v>
+      <c r="D276" s="14" t="s">
+        <v>171</v>
       </c>
       <c r="G276" s="3">
         <v>1</v>
@@ -16951,7 +16970,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="277" spans="2:20" ht="17" x14ac:dyDescent="0.25">
+    <row r="277" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B277" s="2">
         <v>274</v>
       </c>
@@ -16959,7 +16978,7 @@
         <v>105</v>
       </c>
       <c r="D277" s="2" t="s">
-        <v>39</v>
+        <v>174</v>
       </c>
       <c r="G277" s="3">
         <v>1</v>
@@ -17002,7 +17021,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="278" spans="2:20" ht="17" x14ac:dyDescent="0.25">
+    <row r="278" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B278" s="2">
         <v>275</v>
       </c>
@@ -17010,7 +17029,7 @@
         <v>106</v>
       </c>
       <c r="D278" s="2" t="s">
-        <v>39</v>
+        <v>174</v>
       </c>
       <c r="G278" s="3">
         <v>1</v>
@@ -17053,7 +17072,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="279" spans="2:20" ht="17" x14ac:dyDescent="0.25">
+    <row r="279" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B279" s="2">
         <v>276</v>
       </c>
@@ -17061,7 +17080,7 @@
         <v>107</v>
       </c>
       <c r="D279" s="2" t="s">
-        <v>39</v>
+        <v>168</v>
       </c>
       <c r="G279" s="3">
         <v>1</v>
@@ -17104,7 +17123,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="280" spans="2:20" ht="17" x14ac:dyDescent="0.25">
+    <row r="280" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B280" s="2">
         <v>277</v>
       </c>
@@ -17112,7 +17131,7 @@
         <v>108</v>
       </c>
       <c r="D280" s="2" t="s">
-        <v>39</v>
+        <v>172</v>
       </c>
       <c r="G280" s="3">
         <v>1</v>
@@ -17155,7 +17174,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="281" spans="2:20" ht="17" x14ac:dyDescent="0.25">
+    <row r="281" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B281" s="2">
         <v>278</v>
       </c>
@@ -17163,7 +17182,7 @@
         <v>109</v>
       </c>
       <c r="D281" s="2" t="s">
-        <v>39</v>
+        <v>172</v>
       </c>
       <c r="G281" s="3">
         <v>1</v>
@@ -17206,7 +17225,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="282" spans="2:20" ht="17" x14ac:dyDescent="0.25">
+    <row r="282" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B282" s="2">
         <v>279</v>
       </c>
@@ -17214,7 +17233,7 @@
         <v>110</v>
       </c>
       <c r="D282" s="2" t="s">
-        <v>39</v>
+        <v>173</v>
       </c>
       <c r="G282" s="3">
         <v>1</v>
@@ -17257,7 +17276,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="283" spans="2:20" ht="17" x14ac:dyDescent="0.25">
+    <row r="283" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B283" s="2">
         <v>280</v>
       </c>
@@ -17265,7 +17284,7 @@
         <v>111</v>
       </c>
       <c r="D283" s="2" t="s">
-        <v>39</v>
+        <v>173</v>
       </c>
       <c r="G283" s="3">
         <v>1</v>
@@ -17308,7 +17327,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="284" spans="2:20" ht="17" x14ac:dyDescent="0.25">
+    <row r="284" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B284" s="2">
         <v>281</v>
       </c>
@@ -17316,7 +17335,7 @@
         <v>112</v>
       </c>
       <c r="D284" s="2" t="s">
-        <v>39</v>
+        <v>175</v>
       </c>
       <c r="G284" s="3">
         <v>1</v>
@@ -17359,7 +17378,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="285" spans="2:20" ht="17" x14ac:dyDescent="0.25">
+    <row r="285" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B285" s="2">
         <v>282</v>
       </c>
@@ -17367,7 +17386,7 @@
         <v>113</v>
       </c>
       <c r="D285" s="2" t="s">
-        <v>39</v>
+        <v>176</v>
       </c>
       <c r="G285" s="3">
         <v>1</v>
@@ -17410,7 +17429,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="286" spans="2:20" ht="17" x14ac:dyDescent="0.25">
+    <row r="286" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B286" s="2">
         <v>283</v>
       </c>
@@ -17418,7 +17437,7 @@
         <v>114</v>
       </c>
       <c r="D286" s="2" t="s">
-        <v>39</v>
+        <v>177</v>
       </c>
       <c r="G286" s="3">
         <v>1</v>
@@ -17461,7 +17480,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="287" spans="2:20" ht="17" x14ac:dyDescent="0.25">
+    <row r="287" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B287" s="2">
         <v>284</v>
       </c>
@@ -17469,7 +17488,7 @@
         <v>115</v>
       </c>
       <c r="D287" s="2" t="s">
-        <v>39</v>
+        <v>178</v>
       </c>
       <c r="G287" s="3">
         <v>1</v>
@@ -17512,7 +17531,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="288" spans="2:20" ht="17" x14ac:dyDescent="0.25">
+    <row r="288" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B288" s="2">
         <v>285</v>
       </c>
@@ -17520,7 +17539,7 @@
         <v>116</v>
       </c>
       <c r="D288" s="2" t="s">
-        <v>39</v>
+        <v>177</v>
       </c>
       <c r="G288" s="3">
         <v>1</v>
@@ -17563,7 +17582,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="289" spans="2:20" ht="17" x14ac:dyDescent="0.25">
+    <row r="289" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B289" s="2">
         <v>286</v>
       </c>
@@ -17571,7 +17590,7 @@
         <v>117</v>
       </c>
       <c r="D289" s="2" t="s">
-        <v>39</v>
+        <v>163</v>
       </c>
       <c r="G289" s="3">
         <v>1</v>
@@ -17614,7 +17633,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="290" spans="2:20" ht="17" x14ac:dyDescent="0.25">
+    <row r="290" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B290" s="2">
         <v>287</v>
       </c>
@@ -17622,7 +17641,7 @@
         <v>118</v>
       </c>
       <c r="D290" s="2" t="s">
-        <v>39</v>
+        <v>173</v>
       </c>
       <c r="G290" s="3">
         <v>1</v>
@@ -17665,7 +17684,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="291" spans="2:20" ht="17" x14ac:dyDescent="0.25">
+    <row r="291" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B291" s="2">
         <v>288</v>
       </c>
@@ -17673,7 +17692,7 @@
         <v>119</v>
       </c>
       <c r="D291" s="2" t="s">
-        <v>39</v>
+        <v>172</v>
       </c>
       <c r="G291" s="3">
         <v>1</v>
@@ -17716,7 +17735,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="292" spans="2:20" ht="17" x14ac:dyDescent="0.25">
+    <row r="292" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B292" s="2">
         <v>289</v>
       </c>
@@ -17724,7 +17743,7 @@
         <v>120</v>
       </c>
       <c r="D292" s="2" t="s">
-        <v>39</v>
+        <v>166</v>
       </c>
       <c r="G292" s="3">
         <v>1</v>
@@ -17767,7 +17786,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="293" spans="2:20" ht="17" x14ac:dyDescent="0.25">
+    <row r="293" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B293" s="2">
         <v>290</v>
       </c>
@@ -17775,7 +17794,7 @@
         <v>121</v>
       </c>
       <c r="D293" s="2" t="s">
-        <v>39</v>
+        <v>173</v>
       </c>
       <c r="G293" s="3">
         <v>1</v>
@@ -17818,7 +17837,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="294" spans="2:20" ht="17" x14ac:dyDescent="0.25">
+    <row r="294" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B294" s="2">
         <v>291</v>
       </c>
@@ -17826,7 +17845,7 @@
         <v>122</v>
       </c>
       <c r="D294" s="2" t="s">
-        <v>39</v>
+        <v>169</v>
       </c>
       <c r="G294" s="3">
         <v>1</v>
@@ -17869,7 +17888,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="295" spans="2:20" ht="17" x14ac:dyDescent="0.25">
+    <row r="295" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B295" s="2">
         <v>292</v>
       </c>
@@ -17877,7 +17896,7 @@
         <v>123</v>
       </c>
       <c r="D295" s="2" t="s">
-        <v>39</v>
+        <v>179</v>
       </c>
       <c r="G295" s="3">
         <v>1</v>
@@ -17920,7 +17939,7 @@
         <v>4625</v>
       </c>
     </row>
-    <row r="296" spans="2:20" ht="17" x14ac:dyDescent="0.25">
+    <row r="296" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B296" s="2">
         <v>293</v>
       </c>
@@ -17928,7 +17947,7 @@
         <v>124</v>
       </c>
       <c r="D296" s="2" t="s">
-        <v>39</v>
+        <v>173</v>
       </c>
       <c r="G296" s="3">
         <v>1</v>
@@ -17971,7 +17990,7 @@
         <v>4625</v>
       </c>
     </row>
-    <row r="297" spans="2:20" ht="17" x14ac:dyDescent="0.25">
+    <row r="297" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B297" s="2">
         <v>294</v>
       </c>
@@ -17979,7 +17998,7 @@
         <v>125</v>
       </c>
       <c r="D297" s="2" t="s">
-        <v>39</v>
+        <v>179</v>
       </c>
       <c r="G297" s="3">
         <v>1</v>
@@ -18022,7 +18041,7 @@
         <v>5775</v>
       </c>
     </row>
-    <row r="298" spans="2:20" ht="17" x14ac:dyDescent="0.25">
+    <row r="298" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B298" s="2">
         <v>295</v>
       </c>
@@ -18030,7 +18049,7 @@
         <v>126</v>
       </c>
       <c r="D298" s="2" t="s">
-        <v>39</v>
+        <v>173</v>
       </c>
       <c r="G298" s="3">
         <v>1</v>
@@ -18073,7 +18092,7 @@
         <v>5775</v>
       </c>
     </row>
-    <row r="299" spans="2:20" ht="17" x14ac:dyDescent="0.25">
+    <row r="299" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B299" s="2">
         <v>296</v>
       </c>
@@ -18081,7 +18100,7 @@
         <v>127</v>
       </c>
       <c r="D299" s="2" t="s">
-        <v>39</v>
+        <v>167</v>
       </c>
       <c r="G299" s="3">
         <v>1</v>
@@ -18124,7 +18143,7 @@
         <v>7225</v>
       </c>
     </row>
-    <row r="300" spans="2:20" ht="17" x14ac:dyDescent="0.25">
+    <row r="300" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B300" s="2">
         <v>297</v>
       </c>
@@ -18132,7 +18151,7 @@
         <v>128</v>
       </c>
       <c r="D300" s="2" t="s">
-        <v>39</v>
+        <v>165</v>
       </c>
       <c r="G300" s="3">
         <v>1</v>
@@ -18175,7 +18194,7 @@
         <v>8675</v>
       </c>
     </row>
-    <row r="301" spans="2:20" ht="17" x14ac:dyDescent="0.25">
+    <row r="301" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B301" s="2">
         <v>298</v>
       </c>
@@ -18183,7 +18202,7 @@
         <v>129</v>
       </c>
       <c r="D301" s="2" t="s">
-        <v>39</v>
+        <v>180</v>
       </c>
       <c r="G301" s="3">
         <v>1</v>
@@ -18226,7 +18245,7 @@
         <v>16632</v>
       </c>
     </row>
-    <row r="302" spans="2:20" ht="17" x14ac:dyDescent="0.25">
+    <row r="302" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B302" s="2">
         <v>299</v>
       </c>
@@ -18234,7 +18253,7 @@
         <v>130</v>
       </c>
       <c r="D302" s="2" t="s">
-        <v>39</v>
+        <v>180</v>
       </c>
       <c r="G302" s="3">
         <v>1</v>
@@ -18277,7 +18296,7 @@
         <v>18720</v>
       </c>
     </row>
-    <row r="303" spans="2:20" ht="17" x14ac:dyDescent="0.25">
+    <row r="303" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B303" s="2">
         <v>300</v>
       </c>
@@ -18285,7 +18304,7 @@
         <v>131</v>
       </c>
       <c r="D303" s="2" t="s">
-        <v>39</v>
+        <v>176</v>
       </c>
       <c r="G303" s="3">
         <v>1</v>
@@ -18328,7 +18347,7 @@
         <v>20808</v>
       </c>
     </row>
-    <row r="304" spans="2:20" ht="17" x14ac:dyDescent="0.25">
+    <row r="304" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B304" s="2">
         <v>301</v>
       </c>
@@ -18336,7 +18355,7 @@
         <v>132</v>
       </c>
       <c r="D304" s="2" t="s">
-        <v>39</v>
+        <v>180</v>
       </c>
       <c r="G304" s="3">
         <v>1</v>
@@ -18379,7 +18398,7 @@
         <v>24948</v>
       </c>
     </row>
-    <row r="305" spans="2:20" ht="17" x14ac:dyDescent="0.25">
+    <row r="305" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B305" s="2">
         <v>302</v>
       </c>
@@ -18387,7 +18406,7 @@
         <v>133</v>
       </c>
       <c r="D305" s="2" t="s">
-        <v>39</v>
+        <v>179</v>
       </c>
       <c r="G305" s="3">
         <v>1</v>
@@ -18430,7 +18449,7 @@
         <v>27036</v>
       </c>
     </row>
-    <row r="306" spans="2:20" ht="17" x14ac:dyDescent="0.25">
+    <row r="306" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B306" s="2">
         <v>303</v>
       </c>
@@ -18438,7 +18457,7 @@
         <v>134</v>
       </c>
       <c r="D306" s="2" t="s">
-        <v>39</v>
+        <v>180</v>
       </c>
       <c r="G306" s="3">
         <v>1</v>
@@ -18481,7 +18500,7 @@
         <v>29124</v>
       </c>
     </row>
-    <row r="307" spans="2:20" ht="17" x14ac:dyDescent="0.25">
+    <row r="307" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B307" s="2">
         <v>304</v>
       </c>
@@ -18489,7 +18508,7 @@
         <v>135</v>
       </c>
       <c r="D307" s="2" t="s">
-        <v>39</v>
+        <v>164</v>
       </c>
       <c r="G307" s="3">
         <v>1</v>
